--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1784309.971371616</v>
+        <v>1776613.066475591</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11825843.02170116</v>
+        <v>11939416.82556715</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8564754.945454057</v>
+        <v>9321853.215664653</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6115592.387398297</v>
+        <v>5894020.372815426</v>
       </c>
     </row>
     <row r="11">
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>16.42772443342207</v>
+        <v>6.599426980659658</v>
       </c>
       <c r="K11" t="n">
-        <v>136.4919585171663</v>
+        <v>12.60467575130298</v>
       </c>
       <c r="L11" t="n">
-        <v>132.0558370579127</v>
+        <v>9.096355365712796</v>
       </c>
       <c r="M11" t="n">
-        <v>114.9482324110659</v>
+        <v>93.29671194491473</v>
       </c>
       <c r="N11" t="n">
-        <v>112.1478024822824</v>
+        <v>90.14593777902118</v>
       </c>
       <c r="O11" t="n">
-        <v>119.3679506027583</v>
+        <v>98.59221366289808</v>
       </c>
       <c r="P11" t="n">
-        <v>136.7272799814394</v>
+        <v>118.9956691669305</v>
       </c>
       <c r="Q11" t="n">
-        <v>42.49640664326343</v>
+        <v>29.81788233936187</v>
       </c>
       <c r="R11" t="n">
-        <v>65.46347528369341</v>
+        <v>58.35500819082722</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>81.06070054104111</v>
+        <v>70.40722897674431</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>47.88076253968853</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>36.32219940094926</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>22.72935315543171</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>43.23715517208103</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>86.67473527866139</v>
       </c>
       <c r="R12" t="n">
-        <v>15.00809408029685</v>
+        <v>11.54905072859506</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8848,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>94.76334121714694</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>84.04494584723527</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>74.10965003018561</v>
       </c>
       <c r="O13" t="n">
-        <v>75.21966667524197</v>
+        <v>88.97052843128083</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.98044330615472</v>
+        <v>13.98607870628091</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>114.8016764860605</v>
       </c>
       <c r="K14" t="n">
-        <v>136.4919585171663</v>
+        <v>12.60467575130298</v>
       </c>
       <c r="L14" t="n">
-        <v>34.84762286948109</v>
+        <v>112.5971663327931</v>
       </c>
       <c r="M14" t="n">
-        <v>114.9482324110659</v>
+        <v>93.29671194491473</v>
       </c>
       <c r="N14" t="n">
-        <v>112.1478024822824</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>119.3679506027583</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>118.9956691669305</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>29.81788233936187</v>
       </c>
       <c r="R14" t="n">
-        <v>16.6578213004364</v>
+        <v>58.35500819082722</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>70.40722897674431</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>47.88076253968853</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>36.32219940094926</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>10.57202126034824</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>54.22997862121434</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>86.67473527866139</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>11.54905072859506</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9091,19 +9093,19 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>84.04494584723527</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>88.97052843128083</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.98607870628091</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9167,25 +9169,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>132.0558370579127</v>
+        <v>112.5971663327931</v>
       </c>
       <c r="M17" t="n">
-        <v>114.9482324110659</v>
+        <v>93.29671194491473</v>
       </c>
       <c r="N17" t="n">
-        <v>112.1478024822824</v>
+        <v>80.98690058703249</v>
       </c>
       <c r="O17" t="n">
-        <v>119.3679506027583</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39.28374432873548</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>138.0201318447627</v>
       </c>
       <c r="R17" t="n">
-        <v>16.6578213004364</v>
+        <v>21.13620967329682</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,28 +9403,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>3.443596035716226</v>
       </c>
       <c r="L20" t="n">
-        <v>132.0558370579127</v>
+        <v>112.5971663327931</v>
       </c>
       <c r="M20" t="n">
-        <v>114.9482324110659</v>
+        <v>93.29671194491473</v>
       </c>
       <c r="N20" t="n">
-        <v>112.1478024822824</v>
+        <v>90.14593777902118</v>
       </c>
       <c r="O20" t="n">
-        <v>119.3679506027583</v>
+        <v>98.59221366289808</v>
       </c>
       <c r="P20" t="n">
-        <v>39.28374432873503</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>16.6578213004364</v>
+        <v>21.13620967329682</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9571,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>88.97052843128083</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9638,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>136.4919585171663</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>132.0558370579127</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>32.60254020316353</v>
       </c>
       <c r="N23" t="n">
-        <v>17.61475905642634</v>
+        <v>90.14593777902118</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>118.9956691669305</v>
       </c>
       <c r="Q23" t="n">
-        <v>151.3358331154074</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>16.6578213004364</v>
+        <v>21.13620967329682</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>70.40722897674431</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>86.67473527866139</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9799,16 +9801,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>91.05657441459394</v>
+        <v>82.83333798201843</v>
       </c>
       <c r="M25" t="n">
-        <v>92.71519568255991</v>
+        <v>84.04494584723527</v>
       </c>
       <c r="N25" t="n">
-        <v>82.57374070338749</v>
+        <v>74.10965003018561</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>88.97052843128083</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>16.6806690227111</v>
+        <v>13.96083866281488</v>
       </c>
       <c r="K26" t="n">
-        <v>136.4919585171663</v>
+        <v>120.8069252567038</v>
       </c>
       <c r="L26" t="n">
-        <v>89.46275779885218</v>
+        <v>112.5971663327931</v>
       </c>
       <c r="M26" t="n">
-        <v>114.9482324110659</v>
+        <v>93.29671194491473</v>
       </c>
       <c r="N26" t="n">
-        <v>112.1478024822824</v>
+        <v>90.14593777902118</v>
       </c>
       <c r="O26" t="n">
-        <v>10.78146871990339</v>
+        <v>98.59221366289808</v>
       </c>
       <c r="P26" t="n">
-        <v>136.7272799814394</v>
+        <v>18.15483134368489</v>
       </c>
       <c r="Q26" t="n">
-        <v>151.3358331154074</v>
+        <v>37.17929402151709</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>58.21736000477991</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>43.23715517208103</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>54.22997862121434</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>15.26103866958588</v>
+        <v>18.91046241075028</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.402030237586672</v>
       </c>
       <c r="K28" t="n">
-        <v>94.76334121714694</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>91.05657441459394</v>
+        <v>82.83333798201843</v>
       </c>
       <c r="M28" t="n">
-        <v>92.71519568255991</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>82.57374070338749</v>
+        <v>74.10965003018561</v>
       </c>
       <c r="O28" t="n">
-        <v>96.78848612075642</v>
+        <v>88.97052843128083</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.23338789544375</v>
+        <v>21.34749038843613</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>13.96083866281488</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>19.9660874334582</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>11.75632850954749</v>
       </c>
       <c r="M29" t="n">
-        <v>114.9482324110659</v>
+        <v>93.29671194491473</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>90.14593777902118</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>98.59221366289808</v>
       </c>
       <c r="P29" t="n">
-        <v>136.2644198346564</v>
+        <v>118.9956691669305</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>96.28233768998143</v>
       </c>
       <c r="R29" t="n">
-        <v>5.682647384095468</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>70.40722897674431</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>22.72935315543171</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>54.22997862121434</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>86.67473527866139</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>18.91046241075028</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.402030237586672</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>91.05657441459394</v>
+        <v>82.83333798201843</v>
       </c>
       <c r="M31" t="n">
-        <v>92.71519568255991</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>82.57374070338749</v>
+        <v>74.10965003018561</v>
       </c>
       <c r="O31" t="n">
-        <v>96.78848612075642</v>
+        <v>88.97052843128083</v>
       </c>
       <c r="P31" t="n">
-        <v>102.0737869014262</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>21.34749038843613</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,19 +10351,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>30.56488073623439</v>
+        <v>120.8069252567038</v>
       </c>
       <c r="L32" t="n">
-        <v>132.0558370579127</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>56.96235770909195</v>
       </c>
       <c r="O32" t="n">
-        <v>119.3679506027583</v>
+        <v>98.59221366289808</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>5.682647384095468</v>
+        <v>20.12329504965889</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>36.32219940094926</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>43.23715517208103</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10510,16 +10512,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>91.05657441459394</v>
+        <v>82.83333798201843</v>
       </c>
       <c r="M34" t="n">
-        <v>92.71519568255991</v>
+        <v>84.04494584723527</v>
       </c>
       <c r="N34" t="n">
-        <v>82.57374070338749</v>
+        <v>74.10965003018561</v>
       </c>
       <c r="O34" t="n">
-        <v>96.78848612075642</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10589,25 +10591,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>132.0558370579127</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>112.1478024822824</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>37.78502885671068</v>
+        <v>98.59221366289808</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>118.9956691669305</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>5.682647384095468</v>
+        <v>20.12329504965889</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,16 +10664,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>87.38301826406413</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>61.35427313534939</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>36.32219940094926</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10747,16 +10749,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>91.05657441459394</v>
+        <v>82.83333798201843</v>
       </c>
       <c r="M37" t="n">
-        <v>92.71519568255991</v>
+        <v>84.04494584723527</v>
       </c>
       <c r="N37" t="n">
-        <v>82.57374070338749</v>
+        <v>74.10965003018561</v>
       </c>
       <c r="O37" t="n">
-        <v>96.78848612075642</v>
+        <v>88.97052843128083</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10823,28 +10825,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>120.8069252567038</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>55.59898119524907</v>
       </c>
       <c r="M38" t="n">
-        <v>114.9482324110659</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>112.1478024822824</v>
+        <v>90.14593777902118</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>54.89263350355813</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>5.682647384095468</v>
+        <v>20.12329504965889</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>70.40722897674431</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>22.72935315543171</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10984,16 +10986,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>91.05657441459394</v>
+        <v>82.83333798201843</v>
       </c>
       <c r="M40" t="n">
-        <v>92.71519568255991</v>
+        <v>84.04494584723527</v>
       </c>
       <c r="N40" t="n">
-        <v>82.57374070338749</v>
+        <v>74.10965003018561</v>
       </c>
       <c r="O40" t="n">
-        <v>96.78848612075642</v>
+        <v>88.97052843128083</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>16.42772443342204</v>
+        <v>31.98975314520655</v>
       </c>
       <c r="K41" t="n">
-        <v>136.4919585171663</v>
+        <v>37.99500191584987</v>
       </c>
       <c r="L41" t="n">
-        <v>132.0558370579127</v>
+        <v>29.78524299193917</v>
       </c>
       <c r="M41" t="n">
-        <v>68.86085416112935</v>
+        <v>93.29671194491473</v>
       </c>
       <c r="N41" t="n">
-        <v>112.1478024822824</v>
+        <v>90.14593777902118</v>
       </c>
       <c r="O41" t="n">
-        <v>119.3679506027583</v>
+        <v>15.78029032204412</v>
       </c>
       <c r="P41" t="n">
-        <v>136.7272799814394</v>
+        <v>118.9956691669305</v>
       </c>
       <c r="Q41" t="n">
-        <v>42.4964066432634</v>
+        <v>138.0201318447627</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.332355551470915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>4.57109492321019</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>70.40722897674431</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>47.88076253968853</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>36.32219940094926</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>22.72935315543171</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>43.23715517208103</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>54.22997862121434</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>4.789653979331604</v>
       </c>
       <c r="R42" t="n">
-        <v>15.00809408029682</v>
+        <v>36.93937689314195</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>19.43094471997834</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>5.525285944758515</v>
       </c>
       <c r="L43" t="n">
-        <v>91.05657441459394</v>
+        <v>82.83333798201843</v>
       </c>
       <c r="M43" t="n">
-        <v>92.71519568255991</v>
+        <v>84.04494584723527</v>
       </c>
       <c r="N43" t="n">
-        <v>82.57374070338749</v>
+        <v>74.10965003018561</v>
       </c>
       <c r="O43" t="n">
-        <v>96.78848612075642</v>
+        <v>88.97052843128083</v>
       </c>
       <c r="P43" t="n">
-        <v>102.0737869014262</v>
+        <v>95.38417350415432</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.98044330615469</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>125.267150905566</v>
+        <v>114.8016764860605</v>
       </c>
       <c r="K44" t="n">
-        <v>136.4919585171663</v>
+        <v>56.84959012819728</v>
       </c>
       <c r="L44" t="n">
-        <v>132.0558370579127</v>
+        <v>29.78524299193917</v>
       </c>
       <c r="M44" t="n">
-        <v>114.9482324110659</v>
+        <v>93.29671194491473</v>
       </c>
       <c r="N44" t="n">
-        <v>112.1478024822824</v>
+        <v>90.14593777902118</v>
       </c>
       <c r="O44" t="n">
-        <v>119.3679506027583</v>
+        <v>98.59221366289808</v>
       </c>
       <c r="P44" t="n">
-        <v>136.7272799814394</v>
+        <v>36.18374582607657</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.3358331154074</v>
+        <v>55.20820850390876</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858493</v>
+        <v>2.332355551470915</v>
       </c>
       <c r="J45" t="n">
-        <v>93.61618313264435</v>
+        <v>4.57109492321019</v>
       </c>
       <c r="K45" t="n">
-        <v>81.06070054104111</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>62.20566977793482</v>
+        <v>47.88076253968853</v>
       </c>
       <c r="M45" t="n">
-        <v>53.03869048575862</v>
+        <v>36.32219940094926</v>
       </c>
       <c r="N45" t="n">
-        <v>39.88828001778433</v>
+        <v>22.72935315543171</v>
       </c>
       <c r="O45" t="n">
-        <v>58.93422098266876</v>
+        <v>43.23715517208103</v>
       </c>
       <c r="P45" t="n">
-        <v>66.82825781197823</v>
+        <v>54.22997862121434</v>
       </c>
       <c r="Q45" t="n">
-        <v>95.09635128233617</v>
+        <v>86.67473527866139</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>36.93937689314195</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>19.43094471997834</v>
       </c>
       <c r="K46" t="n">
-        <v>94.76334121714694</v>
+        <v>88.33720928561246</v>
       </c>
       <c r="L46" t="n">
-        <v>91.05657441459394</v>
+        <v>0.02141464116449043</v>
       </c>
       <c r="M46" t="n">
-        <v>92.71519568255991</v>
+        <v>1.233022506381317</v>
       </c>
       <c r="N46" t="n">
-        <v>82.57374070338749</v>
+        <v>74.10965003018561</v>
       </c>
       <c r="O46" t="n">
-        <v>96.78848612075642</v>
+        <v>88.97052843128083</v>
       </c>
       <c r="P46" t="n">
-        <v>102.0737869014229</v>
+        <v>95.38417350415432</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>273.8944151913366</v>
+        <v>274.5315921580797</v>
       </c>
       <c r="C11" t="n">
-        <v>256.4334652988636</v>
+        <v>257.0706422656067</v>
       </c>
       <c r="D11" t="n">
-        <v>245.843615148539</v>
+        <v>246.4807921152821</v>
       </c>
       <c r="E11" t="n">
-        <v>273.0909436001178</v>
+        <v>273.7281205668609</v>
       </c>
       <c r="F11" t="n">
-        <v>298.0366192695675</v>
+        <v>298.6737962363106</v>
       </c>
       <c r="G11" t="n">
-        <v>305.8061142816707</v>
+        <v>306.319984873716</v>
       </c>
       <c r="H11" t="n">
-        <v>223.9048593117503</v>
+        <v>223.2792248686198</v>
       </c>
       <c r="I11" t="n">
-        <v>76.2998849574559</v>
+        <v>72.18329291366292</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.204771915512</v>
+        <v>83.03210486882948</v>
       </c>
       <c r="T11" t="n">
-        <v>111.3795442693072</v>
+        <v>111.4769475808108</v>
       </c>
       <c r="U11" t="n">
-        <v>142.4536506947869</v>
+        <v>143.0809631515542</v>
       </c>
       <c r="V11" t="n">
-        <v>218.912831997991</v>
+        <v>219.550008964734</v>
       </c>
       <c r="W11" t="n">
-        <v>240.4015422452691</v>
+        <v>241.0387192120122</v>
       </c>
       <c r="X11" t="n">
-        <v>260.8916742063251</v>
+        <v>261.5288511730682</v>
       </c>
       <c r="Y11" t="n">
-        <v>277.3985121839096</v>
+        <v>278.0356891506527</v>
       </c>
     </row>
     <row r="12">
@@ -23334,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>57.6937571777234</v>
+        <v>58.3309341444665</v>
       </c>
       <c r="C12" t="n">
-        <v>63.8690725161718</v>
+        <v>64.5062494829149</v>
       </c>
       <c r="D12" t="n">
-        <v>38.60563909249481</v>
+        <v>39.24281605923791</v>
       </c>
       <c r="E12" t="n">
-        <v>48.805653983257</v>
+        <v>49.4428309500001</v>
       </c>
       <c r="F12" t="n">
-        <v>36.22978592123994</v>
+        <v>36.86696288798304</v>
       </c>
       <c r="G12" t="n">
-        <v>28.15245942391303</v>
+        <v>28.7236616638544</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23385,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>56.31234806855454</v>
+        <v>55.724073421239</v>
       </c>
       <c r="T12" t="n">
-        <v>89.90798145726444</v>
+        <v>90.27923397694262</v>
       </c>
       <c r="U12" t="n">
-        <v>117.0788219728339</v>
+        <v>117.7116584970243</v>
       </c>
       <c r="V12" t="n">
-        <v>123.9611606772813</v>
+        <v>124.5983376440244</v>
       </c>
       <c r="W12" t="n">
-        <v>142.8555566887757</v>
+        <v>143.4927336555187</v>
       </c>
       <c r="X12" t="n">
-        <v>96.93355873133353</v>
+        <v>97.57073569807663</v>
       </c>
       <c r="Y12" t="n">
-        <v>96.84326930516042</v>
+        <v>97.48044627190352</v>
       </c>
     </row>
     <row r="13">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.99255370979336</v>
+        <v>71.62973067653645</v>
       </c>
       <c r="C13" t="n">
-        <v>58.40739462648389</v>
+        <v>59.04457159322699</v>
       </c>
       <c r="D13" t="n">
-        <v>39.77604654606841</v>
+        <v>40.41322351281151</v>
       </c>
       <c r="E13" t="n">
-        <v>37.59453617442523</v>
+        <v>38.23171314116833</v>
       </c>
       <c r="F13" t="n">
-        <v>36.5816215507873</v>
+        <v>37.2187985175304</v>
       </c>
       <c r="G13" t="n">
-        <v>58.85675704399301</v>
+        <v>59.43862301602023</v>
       </c>
       <c r="H13" t="n">
-        <v>50.76674300083445</v>
+        <v>50.91215494183102</v>
       </c>
       <c r="I13" t="n">
-        <v>37.74573348783665</v>
+        <v>36.71955799530618</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.19887184935581</v>
+        <v>53.34906536278361</v>
       </c>
       <c r="S13" t="n">
-        <v>110.0396840218201</v>
+        <v>109.712941198833</v>
       </c>
       <c r="T13" t="n">
-        <v>117.8465807207625</v>
+        <v>118.2474288919015</v>
       </c>
       <c r="U13" t="n">
-        <v>177.4635231111294</v>
+        <v>178.0976831145243</v>
       </c>
       <c r="V13" t="n">
-        <v>143.2982168516841</v>
+        <v>143.9353938184271</v>
       </c>
       <c r="W13" t="n">
-        <v>177.6835718644471</v>
+        <v>178.3207488311901</v>
       </c>
       <c r="X13" t="n">
-        <v>116.8702289168932</v>
+        <v>117.5074058836363</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.7452268799508</v>
+        <v>110.3824038466939</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>225.0887612080796</v>
+        <v>274.5315921580797</v>
       </c>
       <c r="C14" t="n">
-        <v>207.6278113156066</v>
+        <v>257.0706422656067</v>
       </c>
       <c r="D14" t="n">
-        <v>197.037961165282</v>
+        <v>246.4807921152821</v>
       </c>
       <c r="E14" t="n">
-        <v>224.2852896168608</v>
+        <v>273.7281205668609</v>
       </c>
       <c r="F14" t="n">
-        <v>249.2309652863105</v>
+        <v>298.6737962363106</v>
       </c>
       <c r="G14" t="n">
-        <v>257.0004602984137</v>
+        <v>306.319984873716</v>
       </c>
       <c r="H14" t="n">
-        <v>175.0992053284933</v>
+        <v>223.2792248686198</v>
       </c>
       <c r="I14" t="n">
-        <v>27.4942309741989</v>
+        <v>72.18329291366292</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>36.399117932255</v>
+        <v>83.03210486882948</v>
       </c>
       <c r="T14" t="n">
-        <v>62.57389028605022</v>
+        <v>111.4769475808108</v>
       </c>
       <c r="U14" t="n">
-        <v>93.64799671152991</v>
+        <v>143.0809631515542</v>
       </c>
       <c r="V14" t="n">
-        <v>170.107178014734</v>
+        <v>219.550008964734</v>
       </c>
       <c r="W14" t="n">
-        <v>191.5958882620121</v>
+        <v>241.0387192120122</v>
       </c>
       <c r="X14" t="n">
-        <v>212.0860202230681</v>
+        <v>261.5288511730682</v>
       </c>
       <c r="Y14" t="n">
-        <v>228.5928582006526</v>
+        <v>278.0356891506527</v>
       </c>
     </row>
     <row r="15">
@@ -23571,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.888103194466396</v>
+        <v>58.3309341444665</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0634185329148</v>
+        <v>64.5062494829149</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>39.24281605923791</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>49.4428309500001</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>36.86696288798304</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>28.7236616638544</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23622,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>7.506694085297539</v>
+        <v>55.724073421239</v>
       </c>
       <c r="T15" t="n">
-        <v>41.10232747400744</v>
+        <v>90.27923397694262</v>
       </c>
       <c r="U15" t="n">
-        <v>68.27316798957693</v>
+        <v>117.7116584970243</v>
       </c>
       <c r="V15" t="n">
-        <v>75.15550669402433</v>
+        <v>124.5983376440244</v>
       </c>
       <c r="W15" t="n">
-        <v>94.04990270551866</v>
+        <v>143.4927336555187</v>
       </c>
       <c r="X15" t="n">
-        <v>48.12790474807653</v>
+        <v>97.57073569807663</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.03761532190342</v>
+        <v>97.48044627190352</v>
       </c>
     </row>
     <row r="16">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.18689972653635</v>
+        <v>71.62973067653645</v>
       </c>
       <c r="C16" t="n">
-        <v>9.60174064322689</v>
+        <v>59.04457159322699</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>40.41322351281151</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>38.23171314116833</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>37.2187985175304</v>
       </c>
       <c r="G16" t="n">
-        <v>10.05110306073601</v>
+        <v>59.43862301602023</v>
       </c>
       <c r="H16" t="n">
-        <v>1.96108901757745</v>
+        <v>50.91215494183102</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>36.71955799530618</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.393217866098809</v>
+        <v>53.34906536278361</v>
       </c>
       <c r="S16" t="n">
-        <v>61.23403003856305</v>
+        <v>109.712941198833</v>
       </c>
       <c r="T16" t="n">
-        <v>69.04092673750554</v>
+        <v>118.2474288919015</v>
       </c>
       <c r="U16" t="n">
-        <v>128.6578691278724</v>
+        <v>178.0976831145243</v>
       </c>
       <c r="V16" t="n">
-        <v>94.49256286842706</v>
+        <v>143.9353938184271</v>
       </c>
       <c r="W16" t="n">
-        <v>128.8779178811901</v>
+        <v>178.3207488311901</v>
       </c>
       <c r="X16" t="n">
-        <v>68.06457493363621</v>
+        <v>117.5074058836363</v>
       </c>
       <c r="Y16" t="n">
-        <v>60.93957289669385</v>
+        <v>110.3824038466939</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>225.0887612080796</v>
+        <v>237.3127936405493</v>
       </c>
       <c r="C17" t="n">
-        <v>207.6278113156066</v>
+        <v>219.8518437480763</v>
       </c>
       <c r="D17" t="n">
-        <v>197.037961165282</v>
+        <v>209.2619935977517</v>
       </c>
       <c r="E17" t="n">
-        <v>224.2852896168608</v>
+        <v>236.5093220493305</v>
       </c>
       <c r="F17" t="n">
-        <v>249.2309652863105</v>
+        <v>261.4549977187802</v>
       </c>
       <c r="G17" t="n">
-        <v>257.0004602984137</v>
+        <v>269.1011863561856</v>
       </c>
       <c r="H17" t="n">
-        <v>175.0992053284933</v>
+        <v>186.0604263510894</v>
       </c>
       <c r="I17" t="n">
-        <v>27.4942309741989</v>
+        <v>34.96449439613252</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>36.399117932255</v>
+        <v>45.81330635129908</v>
       </c>
       <c r="T17" t="n">
-        <v>62.57389028605022</v>
+        <v>74.2581490632804</v>
       </c>
       <c r="U17" t="n">
-        <v>93.64799671152991</v>
+        <v>105.8621646340238</v>
       </c>
       <c r="V17" t="n">
-        <v>170.107178014734</v>
+        <v>182.3312104472037</v>
       </c>
       <c r="W17" t="n">
-        <v>191.5958882620121</v>
+        <v>203.8199206944818</v>
       </c>
       <c r="X17" t="n">
-        <v>212.0860202230681</v>
+        <v>224.3100526555378</v>
       </c>
       <c r="Y17" t="n">
-        <v>228.5928582006526</v>
+        <v>240.8168906331223</v>
       </c>
     </row>
     <row r="18">
@@ -23808,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.888103194466396</v>
+        <v>21.11213562693609</v>
       </c>
       <c r="C18" t="n">
-        <v>15.0634185329148</v>
+        <v>27.28745096538449</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.024017541707508</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>12.2240324324697</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23859,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>7.506694085297539</v>
+        <v>18.5052749037086</v>
       </c>
       <c r="T18" t="n">
-        <v>41.10232747400744</v>
+        <v>53.06043545941222</v>
       </c>
       <c r="U18" t="n">
-        <v>68.27316798957693</v>
+        <v>80.49285997949389</v>
       </c>
       <c r="V18" t="n">
-        <v>75.15550669402433</v>
+        <v>87.37953912649402</v>
       </c>
       <c r="W18" t="n">
-        <v>94.04990270551866</v>
+        <v>106.2739351379884</v>
       </c>
       <c r="X18" t="n">
-        <v>48.12790474807653</v>
+        <v>60.35193718054623</v>
       </c>
       <c r="Y18" t="n">
-        <v>48.03761532190342</v>
+        <v>60.26164775437312</v>
       </c>
     </row>
     <row r="19">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.18689972653635</v>
+        <v>34.41093215900605</v>
       </c>
       <c r="C19" t="n">
-        <v>9.60174064322689</v>
+        <v>21.82577307569659</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3.194424995281111</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.012914623637926</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>10.05110306073601</v>
+        <v>22.21982449848983</v>
       </c>
       <c r="H19" t="n">
-        <v>1.96108901757745</v>
+        <v>13.69335642430062</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.393217866098809</v>
+        <v>16.1302668452532</v>
       </c>
       <c r="S19" t="n">
-        <v>61.23403003856305</v>
+        <v>72.49414268130258</v>
       </c>
       <c r="T19" t="n">
-        <v>69.04092673750554</v>
+        <v>81.02863037437109</v>
       </c>
       <c r="U19" t="n">
-        <v>128.6578691278724</v>
+        <v>140.8788845969939</v>
       </c>
       <c r="V19" t="n">
-        <v>94.49256286842706</v>
+        <v>106.7165953008968</v>
       </c>
       <c r="W19" t="n">
-        <v>128.8779178811901</v>
+        <v>141.1019503136598</v>
       </c>
       <c r="X19" t="n">
-        <v>68.06457493363621</v>
+        <v>80.28860736610591</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.93957289669385</v>
+        <v>73.16360532916354</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>225.0887612080796</v>
+        <v>237.3127936405493</v>
       </c>
       <c r="C20" t="n">
-        <v>207.6278113156066</v>
+        <v>219.8518437480763</v>
       </c>
       <c r="D20" t="n">
-        <v>197.037961165282</v>
+        <v>209.2619935977517</v>
       </c>
       <c r="E20" t="n">
-        <v>224.2852896168608</v>
+        <v>236.5093220493305</v>
       </c>
       <c r="F20" t="n">
-        <v>249.2309652863105</v>
+        <v>261.4549977187802</v>
       </c>
       <c r="G20" t="n">
-        <v>257.0004602984137</v>
+        <v>269.1011863561856</v>
       </c>
       <c r="H20" t="n">
-        <v>175.0992053284933</v>
+        <v>186.0604263510894</v>
       </c>
       <c r="I20" t="n">
-        <v>27.4942309741989</v>
+        <v>34.96449439613252</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>36.399117932255</v>
+        <v>45.81330635129907</v>
       </c>
       <c r="T20" t="n">
-        <v>62.57389028605022</v>
+        <v>74.25814906328038</v>
       </c>
       <c r="U20" t="n">
-        <v>93.64799671152991</v>
+        <v>105.8621646340238</v>
       </c>
       <c r="V20" t="n">
-        <v>170.107178014734</v>
+        <v>182.3312104472037</v>
       </c>
       <c r="W20" t="n">
-        <v>191.5958882620121</v>
+        <v>203.8199206944818</v>
       </c>
       <c r="X20" t="n">
-        <v>212.0860202230681</v>
+        <v>224.3100526555378</v>
       </c>
       <c r="Y20" t="n">
-        <v>228.5928582006526</v>
+        <v>240.8168906331223</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.888103194466396</v>
+        <v>21.11213562693609</v>
       </c>
       <c r="C21" t="n">
-        <v>15.0634185329148</v>
+        <v>27.28745096538449</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2.024017541707508</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>12.2240324324697</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>7.506694085297539</v>
+        <v>18.5052749037086</v>
       </c>
       <c r="T21" t="n">
-        <v>41.10232747400744</v>
+        <v>53.06043545941221</v>
       </c>
       <c r="U21" t="n">
-        <v>68.27316798957693</v>
+        <v>80.49285997949387</v>
       </c>
       <c r="V21" t="n">
-        <v>75.15550669402433</v>
+        <v>87.37953912649402</v>
       </c>
       <c r="W21" t="n">
-        <v>94.04990270551866</v>
+        <v>106.2739351379884</v>
       </c>
       <c r="X21" t="n">
-        <v>48.12790474807653</v>
+        <v>60.35193718054623</v>
       </c>
       <c r="Y21" t="n">
-        <v>48.03761532190342</v>
+        <v>60.26164775437312</v>
       </c>
     </row>
     <row r="22">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.18689972653635</v>
+        <v>34.41093215900605</v>
       </c>
       <c r="C22" t="n">
-        <v>9.60174064322689</v>
+        <v>21.82577307569659</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3.194424995281111</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.012914623637926</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10.05110306073601</v>
+        <v>22.21982449848984</v>
       </c>
       <c r="H22" t="n">
-        <v>1.96108901757745</v>
+        <v>13.69335642430061</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.393217866098809</v>
+        <v>16.1302668452532</v>
       </c>
       <c r="S22" t="n">
-        <v>61.23403003856305</v>
+        <v>72.49414268130258</v>
       </c>
       <c r="T22" t="n">
-        <v>69.04092673750554</v>
+        <v>81.02863037437108</v>
       </c>
       <c r="U22" t="n">
-        <v>128.6578691278724</v>
+        <v>140.8788845969939</v>
       </c>
       <c r="V22" t="n">
-        <v>94.49256286842706</v>
+        <v>106.7165953008968</v>
       </c>
       <c r="W22" t="n">
-        <v>128.8779178811901</v>
+        <v>141.1019503136598</v>
       </c>
       <c r="X22" t="n">
-        <v>68.06457493363621</v>
+        <v>80.28860736610591</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.93957289669385</v>
+        <v>73.16360532916354</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>225.0887612080796</v>
+        <v>237.3127936405493</v>
       </c>
       <c r="C23" t="n">
-        <v>207.6278113156066</v>
+        <v>219.8518437480763</v>
       </c>
       <c r="D23" t="n">
-        <v>197.037961165282</v>
+        <v>209.2619935977517</v>
       </c>
       <c r="E23" t="n">
-        <v>224.2852896168608</v>
+        <v>236.5093220493305</v>
       </c>
       <c r="F23" t="n">
-        <v>249.2309652863105</v>
+        <v>261.4549977187802</v>
       </c>
       <c r="G23" t="n">
-        <v>257.0004602984137</v>
+        <v>269.1011863561856</v>
       </c>
       <c r="H23" t="n">
-        <v>175.0992053284933</v>
+        <v>186.0604263510894</v>
       </c>
       <c r="I23" t="n">
-        <v>27.4942309741989</v>
+        <v>34.96449439613252</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>36.399117932255</v>
+        <v>45.81330635129907</v>
       </c>
       <c r="T23" t="n">
-        <v>62.57389028605022</v>
+        <v>74.25814906328038</v>
       </c>
       <c r="U23" t="n">
-        <v>93.64799671152991</v>
+        <v>105.8621646340238</v>
       </c>
       <c r="V23" t="n">
-        <v>170.107178014734</v>
+        <v>182.3312104472037</v>
       </c>
       <c r="W23" t="n">
-        <v>191.5958882620121</v>
+        <v>203.8199206944818</v>
       </c>
       <c r="X23" t="n">
-        <v>212.0860202230681</v>
+        <v>224.3100526555378</v>
       </c>
       <c r="Y23" t="n">
-        <v>228.5928582006526</v>
+        <v>240.8168906331223</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.888103194466396</v>
+        <v>21.11213562693609</v>
       </c>
       <c r="C24" t="n">
-        <v>15.0634185329148</v>
+        <v>27.28745096538449</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2.024017541707508</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>12.2240324324697</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>7.506694085297539</v>
+        <v>18.5052749037086</v>
       </c>
       <c r="T24" t="n">
-        <v>41.10232747400744</v>
+        <v>53.06043545941221</v>
       </c>
       <c r="U24" t="n">
-        <v>68.27316798957693</v>
+        <v>80.49285997949387</v>
       </c>
       <c r="V24" t="n">
-        <v>75.15550669402433</v>
+        <v>87.37953912649402</v>
       </c>
       <c r="W24" t="n">
-        <v>94.04990270551866</v>
+        <v>106.2739351379884</v>
       </c>
       <c r="X24" t="n">
-        <v>48.12790474807653</v>
+        <v>60.35193718054623</v>
       </c>
       <c r="Y24" t="n">
-        <v>48.03761532190342</v>
+        <v>60.26164775437312</v>
       </c>
     </row>
     <row r="25">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>22.18689972653635</v>
+        <v>34.41093215900605</v>
       </c>
       <c r="C25" t="n">
-        <v>9.60174064322689</v>
+        <v>21.82577307569659</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3.194424995281111</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.012914623637926</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>10.05110306073601</v>
+        <v>22.21982449848984</v>
       </c>
       <c r="H25" t="n">
-        <v>1.96108901757745</v>
+        <v>13.69335642430061</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.393217866098809</v>
+        <v>16.1302668452532</v>
       </c>
       <c r="S25" t="n">
-        <v>61.23403003856305</v>
+        <v>72.49414268130258</v>
       </c>
       <c r="T25" t="n">
-        <v>69.04092673750554</v>
+        <v>81.02863037437108</v>
       </c>
       <c r="U25" t="n">
-        <v>128.6578691278724</v>
+        <v>140.8788845969939</v>
       </c>
       <c r="V25" t="n">
-        <v>94.49256286842706</v>
+        <v>106.7165953008968</v>
       </c>
       <c r="W25" t="n">
-        <v>128.8779178811901</v>
+        <v>141.1019503136598</v>
       </c>
       <c r="X25" t="n">
-        <v>68.06457493363621</v>
+        <v>80.28860736610591</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.93957289669385</v>
+        <v>73.16360532916354</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.1473597806257</v>
+        <v>281.8930038402349</v>
       </c>
       <c r="C26" t="n">
-        <v>256.6864098881526</v>
+        <v>264.4320539477619</v>
       </c>
       <c r="D26" t="n">
-        <v>246.096559737828</v>
+        <v>253.8422037974373</v>
       </c>
       <c r="E26" t="n">
-        <v>273.3438881894069</v>
+        <v>281.0895322490161</v>
       </c>
       <c r="F26" t="n">
-        <v>298.2895638588565</v>
+        <v>306.0352079184658</v>
       </c>
       <c r="G26" t="n">
-        <v>306.0590588709597</v>
+        <v>313.6813965558712</v>
       </c>
       <c r="H26" t="n">
-        <v>224.1578039010394</v>
+        <v>230.640636550775</v>
       </c>
       <c r="I26" t="n">
-        <v>76.55282954674493</v>
+        <v>79.54470459581815</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>85.45771650480103</v>
+        <v>90.3935165509847</v>
       </c>
       <c r="T26" t="n">
-        <v>111.6324888585962</v>
+        <v>118.838359262966</v>
       </c>
       <c r="U26" t="n">
-        <v>142.7065952840759</v>
+        <v>150.4423748337094</v>
       </c>
       <c r="V26" t="n">
-        <v>219.16577658728</v>
+        <v>226.9114206468893</v>
       </c>
       <c r="W26" t="n">
-        <v>240.6544868345581</v>
+        <v>248.4001308941674</v>
       </c>
       <c r="X26" t="n">
-        <v>261.1446187956141</v>
+        <v>268.8902628552234</v>
       </c>
       <c r="Y26" t="n">
-        <v>277.6514567731987</v>
+        <v>285.397100832808</v>
       </c>
     </row>
     <row r="27">
@@ -24519,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>57.94670176701243</v>
+        <v>65.69234582662172</v>
       </c>
       <c r="C27" t="n">
-        <v>64.12201710546083</v>
+        <v>71.86766116507012</v>
       </c>
       <c r="D27" t="n">
-        <v>38.85858368178384</v>
+        <v>46.60422774139313</v>
       </c>
       <c r="E27" t="n">
-        <v>49.05859857254603</v>
+        <v>56.80424263215532</v>
       </c>
       <c r="F27" t="n">
-        <v>36.48273051052897</v>
+        <v>44.22837457013826</v>
       </c>
       <c r="G27" t="n">
-        <v>28.40540401320206</v>
+        <v>36.08507334600962</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2529445892890578</v>
+        <v>7.361411682155222</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24570,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>56.56529265784357</v>
+        <v>63.08548510339422</v>
       </c>
       <c r="T27" t="n">
-        <v>90.16092604655347</v>
+        <v>97.64064565909784</v>
       </c>
       <c r="U27" t="n">
-        <v>117.331766562123</v>
+        <v>125.0730701791795</v>
       </c>
       <c r="V27" t="n">
-        <v>124.2141052665704</v>
+        <v>131.9597493261796</v>
       </c>
       <c r="W27" t="n">
-        <v>143.1085012780647</v>
+        <v>150.854145337674</v>
       </c>
       <c r="X27" t="n">
-        <v>97.18650332062256</v>
+        <v>104.9321473802319</v>
       </c>
       <c r="Y27" t="n">
-        <v>97.09621389444945</v>
+        <v>104.8418579540587</v>
       </c>
     </row>
     <row r="28">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.24549829908239</v>
+        <v>78.99114235869168</v>
       </c>
       <c r="C28" t="n">
-        <v>58.66033921577292</v>
+        <v>66.40598327538221</v>
       </c>
       <c r="D28" t="n">
-        <v>40.02899113535744</v>
+        <v>47.77463519496673</v>
       </c>
       <c r="E28" t="n">
-        <v>37.84748076371426</v>
+        <v>45.59312482332355</v>
       </c>
       <c r="F28" t="n">
-        <v>36.83456614007633</v>
+        <v>44.58021019968562</v>
       </c>
       <c r="G28" t="n">
-        <v>59.10970163328204</v>
+        <v>66.80003469817545</v>
       </c>
       <c r="H28" t="n">
-        <v>51.01968759012348</v>
+        <v>58.27356662398624</v>
       </c>
       <c r="I28" t="n">
-        <v>37.99867807712567</v>
+        <v>44.0809696774614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.45181643864484</v>
+        <v>60.71047704493883</v>
       </c>
       <c r="S28" t="n">
-        <v>110.2926286111091</v>
+        <v>117.0743528809882</v>
       </c>
       <c r="T28" t="n">
-        <v>118.0995253100516</v>
+        <v>125.6088405740567</v>
       </c>
       <c r="U28" t="n">
-        <v>177.7164677004184</v>
+        <v>185.4590947966796</v>
       </c>
       <c r="V28" t="n">
-        <v>143.5511614409731</v>
+        <v>151.2968055005824</v>
       </c>
       <c r="W28" t="n">
-        <v>177.9365164537361</v>
+        <v>185.6821605133454</v>
       </c>
       <c r="X28" t="n">
-        <v>117.1231735061822</v>
+        <v>124.8688175657915</v>
       </c>
       <c r="Y28" t="n">
-        <v>109.9981714692399</v>
+        <v>117.7438155288492</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>214.1135872917387</v>
+        <v>281.8930038402349</v>
       </c>
       <c r="C29" t="n">
-        <v>196.6526373992657</v>
+        <v>264.4320539477619</v>
       </c>
       <c r="D29" t="n">
-        <v>186.0627872489411</v>
+        <v>253.8422037974373</v>
       </c>
       <c r="E29" t="n">
-        <v>213.3101157005199</v>
+        <v>281.0895322490161</v>
       </c>
       <c r="F29" t="n">
-        <v>238.2557913699696</v>
+        <v>306.0352079184658</v>
       </c>
       <c r="G29" t="n">
-        <v>246.0252863820727</v>
+        <v>313.6813965558712</v>
       </c>
       <c r="H29" t="n">
-        <v>164.1240314121524</v>
+        <v>230.640636550775</v>
       </c>
       <c r="I29" t="n">
-        <v>16.51905705785796</v>
+        <v>79.54470459581815</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>25.42394401591406</v>
+        <v>90.3935165509847</v>
       </c>
       <c r="T29" t="n">
-        <v>51.59871636970928</v>
+        <v>118.838359262966</v>
       </c>
       <c r="U29" t="n">
-        <v>82.67282279518898</v>
+        <v>150.4423748337094</v>
       </c>
       <c r="V29" t="n">
-        <v>159.132004098393</v>
+        <v>226.9114206468893</v>
       </c>
       <c r="W29" t="n">
-        <v>180.6207143456711</v>
+        <v>248.4001308941674</v>
       </c>
       <c r="X29" t="n">
-        <v>201.1108463067272</v>
+        <v>268.8902628552234</v>
       </c>
       <c r="Y29" t="n">
-        <v>217.6176842843117</v>
+        <v>285.397100832808</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>65.69234582662172</v>
       </c>
       <c r="C30" t="n">
-        <v>4.08824461657386</v>
+        <v>71.86766116507012</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>46.60422774139313</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>56.80424263215532</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>44.22837457013826</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>36.08507334600962</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>7.361411682155222</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>63.08548510339422</v>
       </c>
       <c r="T30" t="n">
-        <v>30.1271535576665</v>
+        <v>97.64064565909784</v>
       </c>
       <c r="U30" t="n">
-        <v>57.297994073236</v>
+        <v>125.0730701791795</v>
       </c>
       <c r="V30" t="n">
-        <v>64.18033277768339</v>
+        <v>131.9597493261796</v>
       </c>
       <c r="W30" t="n">
-        <v>83.07472878917773</v>
+        <v>150.854145337674</v>
       </c>
       <c r="X30" t="n">
-        <v>37.1527308317356</v>
+        <v>104.9321473802319</v>
       </c>
       <c r="Y30" t="n">
-        <v>37.06244140556248</v>
+        <v>104.8418579540587</v>
       </c>
     </row>
     <row r="31">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.21172581019542</v>
+        <v>78.99114235869168</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>66.40598327538221</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>47.77463519496673</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.59312482332355</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>44.58021019968562</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>66.80003469817545</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>58.27356662398624</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>44.0809696774614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>60.71047704493883</v>
       </c>
       <c r="S31" t="n">
-        <v>50.25885612222211</v>
+        <v>117.0743528809882</v>
       </c>
       <c r="T31" t="n">
-        <v>58.06575282116461</v>
+        <v>125.6088405740567</v>
       </c>
       <c r="U31" t="n">
-        <v>117.6826952115315</v>
+        <v>185.4590947966796</v>
       </c>
       <c r="V31" t="n">
-        <v>83.51738895208612</v>
+        <v>151.2968055005824</v>
       </c>
       <c r="W31" t="n">
-        <v>117.9027439648491</v>
+        <v>185.6821605133454</v>
       </c>
       <c r="X31" t="n">
-        <v>57.08940101729527</v>
+        <v>124.8688175657915</v>
       </c>
       <c r="Y31" t="n">
-        <v>49.96439898035291</v>
+        <v>117.7438155288492</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.1135872917387</v>
+        <v>236.2998790169114</v>
       </c>
       <c r="C32" t="n">
-        <v>196.6526373992657</v>
+        <v>218.8389291244384</v>
       </c>
       <c r="D32" t="n">
-        <v>186.0627872489411</v>
+        <v>208.2490789741138</v>
       </c>
       <c r="E32" t="n">
-        <v>213.3101157005199</v>
+        <v>235.4964074256926</v>
       </c>
       <c r="F32" t="n">
-        <v>238.2557913699696</v>
+        <v>260.4420830951423</v>
       </c>
       <c r="G32" t="n">
-        <v>246.0252863820727</v>
+        <v>268.0882717325476</v>
       </c>
       <c r="H32" t="n">
-        <v>164.1240314121524</v>
+        <v>185.0475117274515</v>
       </c>
       <c r="I32" t="n">
-        <v>16.51905705785796</v>
+        <v>33.9515797724946</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>25.42394401591406</v>
+        <v>44.80039172766115</v>
       </c>
       <c r="T32" t="n">
-        <v>51.59871636970928</v>
+        <v>73.24523443964247</v>
       </c>
       <c r="U32" t="n">
-        <v>82.67282279518898</v>
+        <v>104.8492500103859</v>
       </c>
       <c r="V32" t="n">
-        <v>159.132004098393</v>
+        <v>181.3182958235657</v>
       </c>
       <c r="W32" t="n">
-        <v>180.6207143456711</v>
+        <v>202.8070060708438</v>
       </c>
       <c r="X32" t="n">
-        <v>201.1108463067272</v>
+        <v>223.2971380318999</v>
       </c>
       <c r="Y32" t="n">
-        <v>217.6176842843117</v>
+        <v>239.8039760094844</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>20.09922100329817</v>
       </c>
       <c r="C33" t="n">
-        <v>4.08824461657386</v>
+        <v>26.27453634174657</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1.011102918069582</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>11.21111780883177</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>17.49236028007067</v>
       </c>
       <c r="T33" t="n">
-        <v>30.1271535576665</v>
+        <v>52.04752083577429</v>
       </c>
       <c r="U33" t="n">
-        <v>57.297994073236</v>
+        <v>79.47994535585596</v>
       </c>
       <c r="V33" t="n">
-        <v>64.18033277768339</v>
+        <v>86.3666245028561</v>
       </c>
       <c r="W33" t="n">
-        <v>83.07472878917773</v>
+        <v>105.2610205143504</v>
       </c>
       <c r="X33" t="n">
-        <v>37.1527308317356</v>
+        <v>59.3390225569083</v>
       </c>
       <c r="Y33" t="n">
-        <v>37.06244140556248</v>
+        <v>59.24873313073519</v>
       </c>
     </row>
     <row r="34">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11.21172581019542</v>
+        <v>33.39801753536813</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>20.81285845205866</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2.181510371643185</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>21.2069098748519</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>12.68044180066269</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>15.11735222161528</v>
       </c>
       <c r="S34" t="n">
-        <v>50.25885612222211</v>
+        <v>71.48122805766465</v>
       </c>
       <c r="T34" t="n">
-        <v>58.06575282116461</v>
+        <v>80.01571575073316</v>
       </c>
       <c r="U34" t="n">
-        <v>117.6826952115315</v>
+        <v>139.865969973356</v>
       </c>
       <c r="V34" t="n">
-        <v>83.51738895208612</v>
+        <v>105.7036806772588</v>
       </c>
       <c r="W34" t="n">
-        <v>117.9027439648491</v>
+        <v>140.0890356900218</v>
       </c>
       <c r="X34" t="n">
-        <v>57.08940101729527</v>
+        <v>79.27569274246798</v>
       </c>
       <c r="Y34" t="n">
-        <v>49.96439898035291</v>
+        <v>72.15069070552562</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>214.1135872917387</v>
+        <v>236.2998790169114</v>
       </c>
       <c r="C35" t="n">
-        <v>196.6526373992657</v>
+        <v>218.8389291244384</v>
       </c>
       <c r="D35" t="n">
-        <v>186.0627872489411</v>
+        <v>208.2490789741138</v>
       </c>
       <c r="E35" t="n">
-        <v>213.3101157005199</v>
+        <v>235.4964074256926</v>
       </c>
       <c r="F35" t="n">
-        <v>238.2557913699696</v>
+        <v>260.4420830951423</v>
       </c>
       <c r="G35" t="n">
-        <v>246.0252863820727</v>
+        <v>268.0882717325476</v>
       </c>
       <c r="H35" t="n">
-        <v>164.1240314121524</v>
+        <v>185.0475117274515</v>
       </c>
       <c r="I35" t="n">
-        <v>16.51905705785796</v>
+        <v>33.9515797724946</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>25.42394401591406</v>
+        <v>44.80039172766115</v>
       </c>
       <c r="T35" t="n">
-        <v>51.59871636970928</v>
+        <v>73.24523443964247</v>
       </c>
       <c r="U35" t="n">
-        <v>82.67282279518898</v>
+        <v>104.8492500103859</v>
       </c>
       <c r="V35" t="n">
-        <v>159.132004098393</v>
+        <v>181.3182958235657</v>
       </c>
       <c r="W35" t="n">
-        <v>180.6207143456711</v>
+        <v>202.8070060708438</v>
       </c>
       <c r="X35" t="n">
-        <v>201.1108463067272</v>
+        <v>223.2971380318999</v>
       </c>
       <c r="Y35" t="n">
-        <v>217.6176842843117</v>
+        <v>239.8039760094844</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>20.09922100329817</v>
       </c>
       <c r="C36" t="n">
-        <v>4.08824461657386</v>
+        <v>26.27453634174657</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1.011102918069582</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>11.21111780883177</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>17.49236028007067</v>
       </c>
       <c r="T36" t="n">
-        <v>30.1271535576665</v>
+        <v>52.04752083577429</v>
       </c>
       <c r="U36" t="n">
-        <v>57.297994073236</v>
+        <v>79.47994535585596</v>
       </c>
       <c r="V36" t="n">
-        <v>64.18033277768339</v>
+        <v>86.3666245028561</v>
       </c>
       <c r="W36" t="n">
-        <v>83.07472878917773</v>
+        <v>105.2610205143504</v>
       </c>
       <c r="X36" t="n">
-        <v>37.1527308317356</v>
+        <v>59.3390225569083</v>
       </c>
       <c r="Y36" t="n">
-        <v>37.06244140556248</v>
+        <v>59.24873313073519</v>
       </c>
     </row>
     <row r="37">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11.21172581019542</v>
+        <v>33.39801753536813</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>20.81285845205866</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.181510371643185</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>21.2069098748519</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>12.68044180066269</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>15.11735222161528</v>
       </c>
       <c r="S37" t="n">
-        <v>50.25885612222211</v>
+        <v>71.48122805766465</v>
       </c>
       <c r="T37" t="n">
-        <v>58.06575282116461</v>
+        <v>80.01571575073316</v>
       </c>
       <c r="U37" t="n">
-        <v>117.6826952115315</v>
+        <v>139.865969973356</v>
       </c>
       <c r="V37" t="n">
-        <v>83.51738895208612</v>
+        <v>105.7036806772588</v>
       </c>
       <c r="W37" t="n">
-        <v>117.9027439648491</v>
+        <v>140.0890356900218</v>
       </c>
       <c r="X37" t="n">
-        <v>57.08940101729527</v>
+        <v>79.27569274246798</v>
       </c>
       <c r="Y37" t="n">
-        <v>49.96439898035291</v>
+        <v>72.15069070552562</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>214.1135872917387</v>
+        <v>236.2998790169114</v>
       </c>
       <c r="C38" t="n">
-        <v>196.6526373992657</v>
+        <v>218.8389291244384</v>
       </c>
       <c r="D38" t="n">
-        <v>186.0627872489411</v>
+        <v>208.2490789741138</v>
       </c>
       <c r="E38" t="n">
-        <v>213.3101157005199</v>
+        <v>235.4964074256926</v>
       </c>
       <c r="F38" t="n">
-        <v>238.2557913699696</v>
+        <v>260.4420830951423</v>
       </c>
       <c r="G38" t="n">
-        <v>246.0252863820727</v>
+        <v>268.0882717325476</v>
       </c>
       <c r="H38" t="n">
-        <v>164.1240314121524</v>
+        <v>185.0475117274515</v>
       </c>
       <c r="I38" t="n">
-        <v>16.51905705785796</v>
+        <v>33.9515797724946</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>25.42394401591406</v>
+        <v>44.80039172766115</v>
       </c>
       <c r="T38" t="n">
-        <v>51.59871636970928</v>
+        <v>73.24523443964247</v>
       </c>
       <c r="U38" t="n">
-        <v>82.67282279518898</v>
+        <v>104.8492500103859</v>
       </c>
       <c r="V38" t="n">
-        <v>159.132004098393</v>
+        <v>181.3182958235657</v>
       </c>
       <c r="W38" t="n">
-        <v>180.6207143456711</v>
+        <v>202.8070060708438</v>
       </c>
       <c r="X38" t="n">
-        <v>201.1108463067272</v>
+        <v>223.2971380318999</v>
       </c>
       <c r="Y38" t="n">
-        <v>217.6176842843117</v>
+        <v>239.8039760094844</v>
       </c>
     </row>
     <row r="39">
@@ -25467,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>20.09922100329817</v>
       </c>
       <c r="C39" t="n">
-        <v>4.08824461657386</v>
+        <v>26.27453634174657</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1.011102918069582</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>11.21111780883177</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>17.49236028007067</v>
       </c>
       <c r="T39" t="n">
-        <v>30.1271535576665</v>
+        <v>52.04752083577429</v>
       </c>
       <c r="U39" t="n">
-        <v>57.297994073236</v>
+        <v>79.47994535585596</v>
       </c>
       <c r="V39" t="n">
-        <v>64.18033277768339</v>
+        <v>86.3666245028561</v>
       </c>
       <c r="W39" t="n">
-        <v>83.07472878917773</v>
+        <v>105.2610205143504</v>
       </c>
       <c r="X39" t="n">
-        <v>37.1527308317356</v>
+        <v>59.3390225569083</v>
       </c>
       <c r="Y39" t="n">
-        <v>37.06244140556248</v>
+        <v>59.24873313073519</v>
       </c>
     </row>
     <row r="40">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11.21172581019542</v>
+        <v>33.39801753536813</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>20.81285845205866</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2.181510371643185</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>21.2069098748519</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>12.68044180066269</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>15.11735222161528</v>
       </c>
       <c r="S40" t="n">
-        <v>50.25885612222211</v>
+        <v>71.48122805766465</v>
       </c>
       <c r="T40" t="n">
-        <v>58.06575282116461</v>
+        <v>80.01571575073316</v>
       </c>
       <c r="U40" t="n">
-        <v>117.6826952115315</v>
+        <v>139.865969973356</v>
       </c>
       <c r="V40" t="n">
-        <v>83.51738895208612</v>
+        <v>105.7036806772588</v>
       </c>
       <c r="W40" t="n">
-        <v>117.9027439648491</v>
+        <v>140.0890356900218</v>
       </c>
       <c r="X40" t="n">
-        <v>57.08940101729527</v>
+        <v>79.27569274246798</v>
       </c>
       <c r="Y40" t="n">
-        <v>49.96439898035291</v>
+        <v>72.15069070552562</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>273.8944151913366</v>
+        <v>299.9219183226267</v>
       </c>
       <c r="C41" t="n">
-        <v>256.4334652988636</v>
+        <v>282.4609684301536</v>
       </c>
       <c r="D41" t="n">
-        <v>245.843615148539</v>
+        <v>271.871118279829</v>
       </c>
       <c r="E41" t="n">
-        <v>273.0909436001178</v>
+        <v>299.1184467314079</v>
       </c>
       <c r="F41" t="n">
-        <v>298.0366192695675</v>
+        <v>324.0641224008575</v>
       </c>
       <c r="G41" t="n">
-        <v>305.8061142816706</v>
+        <v>331.7103110382628</v>
       </c>
       <c r="H41" t="n">
-        <v>223.9048593117503</v>
+        <v>248.6695510331667</v>
       </c>
       <c r="I41" t="n">
-        <v>76.29988495745587</v>
+        <v>97.57361907820982</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.02891448239167</v>
       </c>
       <c r="S41" t="n">
-        <v>85.20477191551197</v>
+        <v>108.4224310333764</v>
       </c>
       <c r="T41" t="n">
-        <v>111.3795442693072</v>
+        <v>136.8672737453577</v>
       </c>
       <c r="U41" t="n">
-        <v>142.4536506947869</v>
+        <v>168.4712893161011</v>
       </c>
       <c r="V41" t="n">
-        <v>218.9128319979909</v>
+        <v>244.940335129281</v>
       </c>
       <c r="W41" t="n">
-        <v>240.401542245269</v>
+        <v>266.4290453765591</v>
       </c>
       <c r="X41" t="n">
-        <v>260.8916742063251</v>
+        <v>286.9191773376151</v>
       </c>
       <c r="Y41" t="n">
-        <v>277.3985121839096</v>
+        <v>303.4260153151996</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>57.69375717772337</v>
+        <v>83.72126030901339</v>
       </c>
       <c r="C42" t="n">
-        <v>63.86907251617177</v>
+        <v>89.89657564746179</v>
       </c>
       <c r="D42" t="n">
-        <v>38.60563909249478</v>
+        <v>64.6331422237848</v>
       </c>
       <c r="E42" t="n">
-        <v>48.80565398325697</v>
+        <v>74.83315711454699</v>
       </c>
       <c r="F42" t="n">
-        <v>36.22978592123991</v>
+        <v>62.25728905252993</v>
       </c>
       <c r="G42" t="n">
-        <v>28.152459423913</v>
+        <v>54.11398782840129</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>25.39032616454689</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>56.31234806855451</v>
+        <v>81.11439958578589</v>
       </c>
       <c r="T42" t="n">
-        <v>89.90798145726441</v>
+        <v>115.6695601414895</v>
       </c>
       <c r="U42" t="n">
-        <v>117.0788219728339</v>
+        <v>143.1019846615712</v>
       </c>
       <c r="V42" t="n">
-        <v>123.9611606772813</v>
+        <v>149.9886638085713</v>
       </c>
       <c r="W42" t="n">
-        <v>142.8555566887756</v>
+        <v>168.8830598200657</v>
       </c>
       <c r="X42" t="n">
-        <v>96.93355873133351</v>
+        <v>122.9610618626235</v>
       </c>
       <c r="Y42" t="n">
-        <v>96.84326930516039</v>
+        <v>122.8707724364504</v>
       </c>
     </row>
     <row r="43">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.99255370979333</v>
+        <v>97.02005684108335</v>
       </c>
       <c r="C43" t="n">
-        <v>58.40739462648386</v>
+        <v>84.43489775777388</v>
       </c>
       <c r="D43" t="n">
-        <v>39.77604654606839</v>
+        <v>65.8035496773584</v>
       </c>
       <c r="E43" t="n">
-        <v>37.5945361744252</v>
+        <v>63.62203930571522</v>
       </c>
       <c r="F43" t="n">
-        <v>36.58162155078728</v>
+        <v>62.60912468207729</v>
       </c>
       <c r="G43" t="n">
-        <v>58.85675704399299</v>
+        <v>84.82894918056712</v>
       </c>
       <c r="H43" t="n">
-        <v>50.76674300083442</v>
+        <v>76.30248110637791</v>
       </c>
       <c r="I43" t="n">
-        <v>37.74573348783662</v>
+        <v>62.10988415985307</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>55.19887184935578</v>
+        <v>78.7393915273305</v>
       </c>
       <c r="S43" t="n">
-        <v>110.03968402182</v>
+        <v>135.1032673633799</v>
       </c>
       <c r="T43" t="n">
-        <v>117.8465807207625</v>
+        <v>143.6377550564484</v>
       </c>
       <c r="U43" t="n">
-        <v>177.4635231111294</v>
+        <v>203.4880092790712</v>
       </c>
       <c r="V43" t="n">
-        <v>143.298216851684</v>
+        <v>169.3257199829741</v>
       </c>
       <c r="W43" t="n">
-        <v>177.683571864447</v>
+        <v>203.7110749957371</v>
       </c>
       <c r="X43" t="n">
-        <v>116.8702289168932</v>
+        <v>142.8977320481832</v>
       </c>
       <c r="Y43" t="n">
-        <v>109.7452268799508</v>
+        <v>135.7727300112408</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>299.9219183226267</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>282.4609684301536</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>271.871118279829</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>299.1184467314079</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>324.0641224008575</v>
       </c>
       <c r="G44" t="n">
-        <v>414.6455407538146</v>
+        <v>331.7103110382628</v>
       </c>
       <c r="H44" t="n">
-        <v>332.7442857838943</v>
+        <v>248.6695510331667</v>
       </c>
       <c r="I44" t="n">
-        <v>185.1393114295998</v>
+        <v>97.57361907820982</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.5864818828549</v>
+        <v>18.02891448239167</v>
       </c>
       <c r="S44" t="n">
-        <v>194.0441983876559</v>
+        <v>108.4224310333764</v>
       </c>
       <c r="T44" t="n">
-        <v>220.2189707414512</v>
+        <v>136.8672737453577</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2930771669309</v>
+        <v>168.4712893161011</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>244.940335129281</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>266.4290453765591</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>286.9191773376151</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>303.4260153151996</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>83.72126030901339</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>89.89657564746179</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>64.6331422237848</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>74.83315711454699</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>62.25728905252993</v>
       </c>
       <c r="G45" t="n">
-        <v>136.991885896057</v>
+        <v>54.11398782840129</v>
       </c>
       <c r="H45" t="n">
-        <v>108.839426472144</v>
+        <v>25.39032616454689</v>
       </c>
       <c r="I45" t="n">
-        <v>77.29003001301039</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>78.32585074111998</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.1517745406985</v>
+        <v>81.11439958578589</v>
       </c>
       <c r="T45" t="n">
-        <v>198.7474079294084</v>
+        <v>115.6695601414895</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9182484449779</v>
+        <v>143.1019846615712</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>149.9886638085713</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>168.8830598200657</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>122.9610618626235</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>122.8707724364504</v>
       </c>
     </row>
     <row r="46">
@@ -26020,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>97.02005684108335</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>84.43489775777388</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>65.8035496773584</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.62203930571522</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>62.60912468207729</v>
       </c>
       <c r="G46" t="n">
-        <v>167.696183516137</v>
+        <v>84.82894918056712</v>
       </c>
       <c r="H46" t="n">
-        <v>159.6061694729784</v>
+        <v>76.30248110637791</v>
       </c>
       <c r="I46" t="n">
-        <v>146.5851599599806</v>
+        <v>62.10988415985307</v>
       </c>
       <c r="J46" t="n">
-        <v>72.51711406452083</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.4769114005472</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>164.0382983214998</v>
+        <v>78.7393915273305</v>
       </c>
       <c r="S46" t="n">
-        <v>218.879110493964</v>
+        <v>135.1032673633799</v>
       </c>
       <c r="T46" t="n">
-        <v>226.6860071929065</v>
+        <v>143.6377550564484</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3029495832733</v>
+        <v>203.4880092790712</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.3257199829741</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>203.7110749957371</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>142.8977320481832</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>135.7727300112408</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>447679.5149888911</v>
+        <v>436513.6636987184</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>508666.9784929961</v>
+        <v>436513.6636987184</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>508666.9784929961</v>
+        <v>485652.1286726755</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>508666.9784929961</v>
+        <v>485652.1286726753</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>508666.9784929961</v>
+        <v>485652.1286726753</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>447326.1969276803</v>
+        <v>426231.0966328507</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>518201.1576350832</v>
+        <v>426231.0966328507</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>518201.1576350832</v>
+        <v>486809.6672462764</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>518201.1576350832</v>
+        <v>486809.6672462764</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>518201.1576350832</v>
+        <v>486809.6672462765</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>447679.5149888913</v>
+        <v>398967.0509959981</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>268887.1191302034</v>
+        <v>398967.0509959981</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>757830.6133132604</v>
       </c>
       <c r="E2" t="n">
-        <v>447057.4764547591</v>
+        <v>446694.2331546799</v>
       </c>
       <c r="F2" t="n">
-        <v>540511.1637558376</v>
+        <v>446694.2331546797</v>
       </c>
       <c r="G2" t="n">
-        <v>540511.1637558377</v>
+        <v>519638.9676225561</v>
       </c>
       <c r="H2" t="n">
-        <v>540511.1637558377</v>
+        <v>519638.9676225561</v>
       </c>
       <c r="I2" t="n">
-        <v>540511.1637558375</v>
+        <v>519638.9676225561</v>
       </c>
       <c r="J2" t="n">
-        <v>446549.3790699172</v>
+        <v>431907.1446663846</v>
       </c>
       <c r="K2" t="n">
-        <v>558859.7724146323</v>
+        <v>431907.1446663847</v>
       </c>
       <c r="L2" t="n">
-        <v>558859.7724146323</v>
+        <v>521509.4866705892</v>
       </c>
       <c r="M2" t="n">
-        <v>558859.7724146323</v>
+        <v>521509.4866705892</v>
       </c>
       <c r="N2" t="n">
-        <v>558859.7724146323</v>
+        <v>521509.4866705894</v>
       </c>
       <c r="O2" t="n">
-        <v>447057.4764547592</v>
+        <v>394364.4543048316</v>
       </c>
       <c r="P2" t="n">
-        <v>211355.3104478335</v>
+        <v>394364.454304831</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>218410.0112744516</v>
+        <v>242542.6166496977</v>
       </c>
       <c r="F3" t="n">
-        <v>39044.5231866056</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>29775.03881402432</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47824.66231967832</v>
+        <v>50897.63144457217</v>
       </c>
       <c r="K3" t="n">
-        <v>87071.54117771515</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>66249.53867268315</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>223092.8580362001</v>
+        <v>211231.5137503269</v>
       </c>
       <c r="F4" t="n">
-        <v>278817.5259889432</v>
+        <v>211231.5137503269</v>
       </c>
       <c r="G4" t="n">
-        <v>278817.5259889431</v>
+        <v>254860.2813443279</v>
       </c>
       <c r="H4" t="n">
-        <v>278817.5259889431</v>
+        <v>254860.2813443279</v>
       </c>
       <c r="I4" t="n">
-        <v>278817.5259889432</v>
+        <v>254860.2813443279</v>
       </c>
       <c r="J4" t="n">
-        <v>222788.0030791766</v>
+        <v>202359.3617572644</v>
       </c>
       <c r="K4" t="n">
-        <v>289546.7256743279</v>
+        <v>202359.3617572644</v>
       </c>
       <c r="L4" t="n">
-        <v>289546.7256743279</v>
+        <v>255970.15647707</v>
       </c>
       <c r="M4" t="n">
-        <v>289546.7256743279</v>
+        <v>255970.1564770699</v>
       </c>
       <c r="N4" t="n">
-        <v>289546.7256743279</v>
+        <v>255970.1564770699</v>
       </c>
       <c r="O4" t="n">
-        <v>223092.8580362001</v>
+        <v>179733.5380337523</v>
       </c>
       <c r="P4" t="n">
-        <v>80381.03143348695</v>
+        <v>179733.5380337523</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>12713.83548153706</v>
+        <v>13328.92829451231</v>
       </c>
       <c r="F5" t="n">
-        <v>16816.87800625549</v>
+        <v>13328.92829451231</v>
       </c>
       <c r="G5" t="n">
-        <v>16816.87800625549</v>
+        <v>16457.87546708257</v>
       </c>
       <c r="H5" t="n">
-        <v>16816.87800625549</v>
+        <v>16457.87546708257</v>
       </c>
       <c r="I5" t="n">
-        <v>16816.87800625549</v>
+        <v>16457.87546708257</v>
       </c>
       <c r="J5" t="n">
-        <v>12692.57068286012</v>
+        <v>12710.0617758052</v>
       </c>
       <c r="K5" t="n">
-        <v>17739.54990222836</v>
+        <v>12710.0617758052</v>
       </c>
       <c r="L5" t="n">
-        <v>17739.54990222836</v>
+        <v>16543.03018657719</v>
       </c>
       <c r="M5" t="n">
-        <v>17739.54990222836</v>
+        <v>16543.03018657719</v>
       </c>
       <c r="N5" t="n">
-        <v>17739.54990222836</v>
+        <v>16543.03018657719</v>
       </c>
       <c r="O5" t="n">
-        <v>12713.83548153706</v>
+        <v>11194.38896418501</v>
       </c>
       <c r="P5" t="n">
-        <v>3563.813737450391</v>
+        <v>11194.38896418501</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>256587.0533815291</v>
       </c>
       <c r="E6" t="n">
-        <v>-7159.228337429569</v>
+        <v>-20408.82553985701</v>
       </c>
       <c r="F6" t="n">
-        <v>205832.2365740333</v>
+        <v>222133.7911098405</v>
       </c>
       <c r="G6" t="n">
-        <v>244876.7597606391</v>
+        <v>218545.7719971214</v>
       </c>
       <c r="H6" t="n">
-        <v>244876.7597606391</v>
+        <v>248320.8108111457</v>
       </c>
       <c r="I6" t="n">
-        <v>244876.7597606388</v>
+        <v>248320.8108111457</v>
       </c>
       <c r="J6" t="n">
-        <v>163244.1429882022</v>
+        <v>165940.0896887428</v>
       </c>
       <c r="K6" t="n">
-        <v>164501.9556603609</v>
+        <v>216837.7211333151</v>
       </c>
       <c r="L6" t="n">
-        <v>251573.496838076</v>
+        <v>182746.761334259</v>
       </c>
       <c r="M6" t="n">
-        <v>251573.496838076</v>
+        <v>248996.3000069421</v>
       </c>
       <c r="N6" t="n">
-        <v>251573.496838076</v>
+        <v>248996.3000069422</v>
       </c>
       <c r="O6" t="n">
-        <v>211250.782937022</v>
+        <v>203436.5273068943</v>
       </c>
       <c r="P6" t="n">
-        <v>127410.4652768962</v>
+        <v>203436.5273068937</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="F2" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="G2" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="H2" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="I2" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="J2" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="K2" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="L2" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="M2" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="N2" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="O2" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>163.4776943784582</v>
+        <v>194.1501550845304</v>
       </c>
       <c r="F3" t="n">
-        <v>163.4776943784582</v>
+        <v>194.1501550845304</v>
       </c>
       <c r="G3" t="n">
-        <v>163.4776943784582</v>
+        <v>194.1501550845304</v>
       </c>
       <c r="H3" t="n">
-        <v>163.4776943784582</v>
+        <v>194.1501550845304</v>
       </c>
       <c r="I3" t="n">
-        <v>163.4776943784582</v>
+        <v>194.1501550845304</v>
       </c>
       <c r="J3" t="n">
-        <v>163.4776943784582</v>
+        <v>194.1501550845304</v>
       </c>
       <c r="K3" t="n">
-        <v>163.4776943784582</v>
+        <v>194.1501550845304</v>
       </c>
       <c r="L3" t="n">
-        <v>163.4776943784582</v>
+        <v>194.1501550845304</v>
       </c>
       <c r="M3" t="n">
-        <v>163.4776943784582</v>
+        <v>194.1501550845304</v>
       </c>
       <c r="N3" t="n">
-        <v>163.4776943784582</v>
+        <v>194.1501550845304</v>
       </c>
       <c r="O3" t="n">
-        <v>163.4776943784582</v>
+        <v>194.1501550845304</v>
       </c>
       <c r="P3" t="n">
-        <v>163.4776943784582</v>
+        <v>194.1501550845304</v>
       </c>
     </row>
     <row r="4">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="F2" t="n">
-        <v>48.805653983257</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>37.2187985175304</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>59.7808278995979</v>
+        <v>63.62203930571522</v>
       </c>
       <c r="K2" t="n">
-        <v>108.8394264721439</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>82.81192334085394</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>163.4776943784582</v>
+        <v>194.1501550845304</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="K2" t="n">
-        <v>48.805653983257</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>37.2187985175304</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>59.7808278995979</v>
+        <v>63.62203930571522</v>
       </c>
       <c r="P2" t="n">
-        <v>108.8394264721439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,37 +28089,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="C11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="D11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="E11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="F11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="G11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="H11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="I11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="J11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>103.5008109670803</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28132,31 +28134,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="R11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="S11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="T11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="U11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="V11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="W11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="X11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="Y11" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28168,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="C12" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="D12" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="E12" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="F12" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="G12" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="H12" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="I12" t="n">
-        <v>87.41577716159532</v>
+        <v>85.14427889232486</v>
       </c>
       <c r="J12" t="n">
-        <v>93.61618313264435</v>
+        <v>87.38301826406413</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>62.20566977793482</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>53.03869048575862</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>39.88828001778433</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>58.93422098266876</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>66.82825781197823</v>
+        <v>54.22997862121434</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.09635128233617</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="S12" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="T12" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="U12" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="V12" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="W12" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="X12" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="Y12" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="C13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="D13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="E13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="F13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="G13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="H13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="I13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1533553872442</v>
+        <v>102.2428680608323</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>88.33720928561246</v>
       </c>
       <c r="L13" t="n">
-        <v>91.05657441459394</v>
+        <v>82.83333798201843</v>
       </c>
       <c r="M13" t="n">
-        <v>92.71519568255991</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>82.57374070338749</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>21.56881944551445</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>102.0737869014262</v>
+        <v>95.38417350415432</v>
       </c>
       <c r="Q13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="R13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="S13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="T13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="U13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="V13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="W13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="X13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.8394264721439</v>
+        <v>108.2022495054008</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="C14" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="D14" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="E14" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="F14" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="G14" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="H14" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="I14" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="J14" t="n">
-        <v>125.267150905566</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="L14" t="n">
-        <v>97.20821418843163</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>90.14593777902118</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>98.59221366289808</v>
       </c>
       <c r="P14" t="n">
-        <v>136.7272799814394</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.3358331154074</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="R14" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="S14" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="T14" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="U14" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="V14" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="W14" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="X14" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="Y14" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
     </row>
     <row r="15">
@@ -28403,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="C15" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="G15" t="n">
-        <v>136.991885896057</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="H15" t="n">
-        <v>108.839426472144</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="I15" t="n">
-        <v>87.41577716159532</v>
+        <v>85.14427889232486</v>
       </c>
       <c r="J15" t="n">
-        <v>93.61618313264435</v>
+        <v>87.38301826406413</v>
       </c>
       <c r="K15" t="n">
-        <v>81.06070054104111</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>62.20566977793482</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>53.03869048575862</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>39.88828001778433</v>
+        <v>12.15733189508348</v>
       </c>
       <c r="O15" t="n">
-        <v>58.93422098266876</v>
+        <v>43.23715517208103</v>
       </c>
       <c r="P15" t="n">
-        <v>66.82825781197823</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.09635128233617</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>123.8475205524408</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="S15" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="T15" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="U15" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="V15" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="W15" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="X15" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="C16" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="G16" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="H16" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="I16" t="n">
-        <v>146.5851599599806</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1533553872442</v>
+        <v>102.2428680608323</v>
       </c>
       <c r="K16" t="n">
-        <v>94.76334121714694</v>
+        <v>88.33720928561246</v>
       </c>
       <c r="L16" t="n">
-        <v>91.05657441459394</v>
+        <v>82.83333798201843</v>
       </c>
       <c r="M16" t="n">
-        <v>92.71519568255991</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>82.57374070338749</v>
+        <v>74.10965003018561</v>
       </c>
       <c r="O16" t="n">
-        <v>96.78848612075642</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>102.0737869014262</v>
+        <v>95.38417350415432</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.8198697782987</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="R16" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="T16" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="U16" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="V16" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="W16" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="X16" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="Y16" t="n">
-        <v>157.6450804554009</v>
+        <v>108.2022495054008</v>
       </c>
     </row>
     <row r="17">
@@ -28561,34 +28563,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C17" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D17" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E17" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F17" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G17" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="H17" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="I17" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="J17" t="n">
-        <v>125.267150905566</v>
+        <v>114.8016764860605</v>
       </c>
       <c r="K17" t="n">
-        <v>136.4919585171663</v>
+        <v>120.8069252567038</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28597,40 +28599,40 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>9.159037191988684</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>98.59221366289808</v>
       </c>
       <c r="P17" t="n">
-        <v>97.44353565270387</v>
+        <v>118.9956691669305</v>
       </c>
       <c r="Q17" t="n">
-        <v>151.3358331154074</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="S17" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T17" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U17" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V17" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W17" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X17" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y17" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="18">
@@ -28640,76 +28642,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C18" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.991885896057</v>
+        <v>136.9259111692552</v>
       </c>
       <c r="H18" t="n">
-        <v>108.839426472144</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="I18" t="n">
-        <v>87.41577716159532</v>
+        <v>85.14427889232486</v>
       </c>
       <c r="J18" t="n">
-        <v>93.61618313264435</v>
+        <v>87.38301826406413</v>
       </c>
       <c r="K18" t="n">
-        <v>81.06070054104111</v>
+        <v>70.40722897674431</v>
       </c>
       <c r="L18" t="n">
-        <v>62.20566977793482</v>
+        <v>47.88076253968853</v>
       </c>
       <c r="M18" t="n">
-        <v>53.03869048575862</v>
+        <v>36.32219940094926</v>
       </c>
       <c r="N18" t="n">
-        <v>39.88828001778433</v>
+        <v>22.72935315543171</v>
       </c>
       <c r="O18" t="n">
-        <v>58.93422098266876</v>
+        <v>43.23715517208103</v>
       </c>
       <c r="P18" t="n">
-        <v>66.82825781197823</v>
+        <v>54.22997862121434</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.09635128233617</v>
+        <v>86.67473527866139</v>
       </c>
       <c r="R18" t="n">
-        <v>123.8475205524408</v>
+        <v>119.7513002339959</v>
       </c>
       <c r="S18" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T18" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U18" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V18" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W18" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X18" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C19" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="H19" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="I19" t="n">
-        <v>146.5851599599806</v>
+        <v>144.921807500707</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1533553872442</v>
+        <v>102.2428680608323</v>
       </c>
       <c r="K19" t="n">
-        <v>94.76334121714694</v>
+        <v>88.33720928561246</v>
       </c>
       <c r="L19" t="n">
-        <v>91.05657441459394</v>
+        <v>82.83333798201843</v>
       </c>
       <c r="M19" t="n">
-        <v>92.71519568255991</v>
+        <v>84.04494584723527</v>
       </c>
       <c r="N19" t="n">
-        <v>82.57374070338749</v>
+        <v>74.10965003018561</v>
       </c>
       <c r="O19" t="n">
-        <v>96.78848612075642</v>
+        <v>88.97052843128083</v>
       </c>
       <c r="P19" t="n">
-        <v>102.0737869014262</v>
+        <v>95.38417350415432</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.8198697782987</v>
+        <v>122.1883282116817</v>
       </c>
       <c r="R19" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T19" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U19" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V19" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W19" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X19" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="20">
@@ -28798,34 +28800,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C20" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D20" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E20" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F20" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G20" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="H20" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="I20" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="J20" t="n">
-        <v>125.267150905566</v>
+        <v>114.8016764860605</v>
       </c>
       <c r="K20" t="n">
-        <v>136.4919585171663</v>
+        <v>117.3633292209876</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,34 +28842,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>97.44353565270431</v>
+        <v>118.9956691669305</v>
       </c>
       <c r="Q20" t="n">
-        <v>151.3358331154074</v>
+        <v>138.0201318447627</v>
       </c>
       <c r="R20" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="S20" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T20" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U20" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V20" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W20" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X20" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y20" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="21">
@@ -28877,76 +28879,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C21" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.991885896057</v>
+        <v>136.9259111692552</v>
       </c>
       <c r="H21" t="n">
-        <v>108.839426472144</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="I21" t="n">
-        <v>87.41577716159532</v>
+        <v>85.14427889232486</v>
       </c>
       <c r="J21" t="n">
-        <v>93.61618313264435</v>
+        <v>87.38301826406413</v>
       </c>
       <c r="K21" t="n">
-        <v>81.06070054104111</v>
+        <v>70.40722897674431</v>
       </c>
       <c r="L21" t="n">
-        <v>62.20566977793482</v>
+        <v>47.88076253968853</v>
       </c>
       <c r="M21" t="n">
-        <v>53.03869048575862</v>
+        <v>36.32219940094926</v>
       </c>
       <c r="N21" t="n">
-        <v>39.88828001778433</v>
+        <v>22.72935315543171</v>
       </c>
       <c r="O21" t="n">
-        <v>58.93422098266876</v>
+        <v>43.23715517208103</v>
       </c>
       <c r="P21" t="n">
-        <v>66.82825781197823</v>
+        <v>54.22997862121434</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.09635128233617</v>
+        <v>86.67473527866139</v>
       </c>
       <c r="R21" t="n">
-        <v>123.8475205524408</v>
+        <v>119.7513002339959</v>
       </c>
       <c r="S21" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T21" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U21" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V21" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W21" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X21" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C22" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="H22" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="I22" t="n">
-        <v>146.5851599599806</v>
+        <v>144.921807500707</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1533553872442</v>
+        <v>102.2428680608323</v>
       </c>
       <c r="K22" t="n">
-        <v>94.76334121714694</v>
+        <v>88.33720928561246</v>
       </c>
       <c r="L22" t="n">
-        <v>91.05657441459394</v>
+        <v>82.83333798201843</v>
       </c>
       <c r="M22" t="n">
-        <v>92.71519568255991</v>
+        <v>84.04494584723527</v>
       </c>
       <c r="N22" t="n">
-        <v>82.57374070338749</v>
+        <v>74.10965003018561</v>
       </c>
       <c r="O22" t="n">
-        <v>96.78848612075642</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>102.0737869014262</v>
+        <v>95.38417350415432</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.8198697782987</v>
+        <v>122.1883282116817</v>
       </c>
       <c r="R22" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T22" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U22" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V22" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W22" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X22" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="23">
@@ -29035,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C23" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D23" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E23" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F23" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G23" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="H23" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="I23" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="J23" t="n">
-        <v>125.267150905566</v>
+        <v>114.8016764860605</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>120.8069252567038</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>112.5971663327931</v>
       </c>
       <c r="M23" t="n">
-        <v>114.9482324110659</v>
+        <v>60.6941717417512</v>
       </c>
       <c r="N23" t="n">
-        <v>94.53304342585608</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>119.3679506027583</v>
+        <v>98.59221366289808</v>
       </c>
       <c r="P23" t="n">
-        <v>136.7272799814394</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>138.0201318447627</v>
       </c>
       <c r="R23" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="S23" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T23" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U23" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V23" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W23" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X23" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y23" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="24">
@@ -29114,76 +29116,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C24" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.991885896057</v>
+        <v>136.9259111692552</v>
       </c>
       <c r="H24" t="n">
-        <v>108.839426472144</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="I24" t="n">
-        <v>87.41577716159532</v>
+        <v>85.14427889232486</v>
       </c>
       <c r="J24" t="n">
-        <v>93.61618313264435</v>
+        <v>87.38301826406413</v>
       </c>
       <c r="K24" t="n">
-        <v>81.06070054104111</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>62.20566977793482</v>
+        <v>47.88076253968853</v>
       </c>
       <c r="M24" t="n">
-        <v>53.03869048575862</v>
+        <v>36.32219940094926</v>
       </c>
       <c r="N24" t="n">
-        <v>39.88828001778433</v>
+        <v>22.72935315543171</v>
       </c>
       <c r="O24" t="n">
-        <v>58.93422098266876</v>
+        <v>43.23715517208103</v>
       </c>
       <c r="P24" t="n">
-        <v>66.82825781197823</v>
+        <v>54.22997862121434</v>
       </c>
       <c r="Q24" t="n">
-        <v>95.09635128233617</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>123.8475205524408</v>
+        <v>119.7513002339959</v>
       </c>
       <c r="S24" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T24" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U24" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V24" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W24" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X24" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y24" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="25">
@@ -29193,34 +29195,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="C25" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="H25" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="I25" t="n">
-        <v>146.5851599599806</v>
+        <v>144.921807500707</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1533553872442</v>
+        <v>102.2428680608323</v>
       </c>
       <c r="K25" t="n">
-        <v>94.76334121714694</v>
+        <v>88.33720928561246</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29232,37 +29234,37 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.78848612075642</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>102.0737869014262</v>
+        <v>95.38417350415432</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.8198697782987</v>
+        <v>122.1883282116817</v>
       </c>
       <c r="R25" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="T25" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="U25" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="V25" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="W25" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="X25" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.6450804554009</v>
+        <v>145.4210480229312</v>
       </c>
     </row>
     <row r="26">
@@ -29272,37 +29274,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="C26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="D26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="E26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="F26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="I26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="J26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>42.59307925906052</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -29311,37 +29313,37 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>108.5864818828549</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="R26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="S26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="T26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="U26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="V26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="W26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="X26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="Y26" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
     </row>
     <row r="27">
@@ -29351,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="C27" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="D27" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="E27" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="F27" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="G27" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="H27" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="I27" t="n">
-        <v>87.41577716159532</v>
+        <v>85.14427889232486</v>
       </c>
       <c r="J27" t="n">
-        <v>93.61618313264435</v>
+        <v>87.38301826406413</v>
       </c>
       <c r="K27" t="n">
-        <v>81.06070054104111</v>
+        <v>12.1898689719644</v>
       </c>
       <c r="L27" t="n">
-        <v>62.20566977793482</v>
+        <v>47.88076253968853</v>
       </c>
       <c r="M27" t="n">
-        <v>53.03869048575862</v>
+        <v>36.32219940094926</v>
       </c>
       <c r="N27" t="n">
-        <v>39.88828001778433</v>
+        <v>22.72935315543171</v>
       </c>
       <c r="O27" t="n">
-        <v>58.93422098266876</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>66.82825781197823</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>95.09635128233617</v>
+        <v>86.67473527866139</v>
       </c>
       <c r="R27" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="S27" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="T27" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="U27" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="V27" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="W27" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="X27" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="Y27" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
     </row>
     <row r="28">
@@ -29430,40 +29432,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="C28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="D28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="E28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="F28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="G28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="H28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="I28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1533553872442</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>88.33720928561246</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>84.04494584723527</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29472,34 +29474,34 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>102.0737869014262</v>
+        <v>95.38417350415432</v>
       </c>
       <c r="Q28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="R28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="S28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="T28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="U28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="V28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="W28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="X28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.5864818828549</v>
+        <v>100.8408378232456</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="C29" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="D29" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="E29" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="F29" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="G29" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="H29" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="I29" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="J29" t="n">
-        <v>125.267150905566</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="K29" t="n">
-        <v>136.4919585171663</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="L29" t="n">
-        <v>132.0558370579127</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>112.1478024822824</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>119.3679506027583</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.4628601467829593</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>151.3358331154074</v>
+        <v>41.73779415478129</v>
       </c>
       <c r="R29" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="S29" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="T29" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="U29" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="V29" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="W29" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="X29" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="C30" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="G30" t="n">
-        <v>136.991885896057</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="H30" t="n">
-        <v>108.839426472144</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="I30" t="n">
-        <v>87.41577716159532</v>
+        <v>85.14427889232486</v>
       </c>
       <c r="J30" t="n">
-        <v>93.61618313264435</v>
+        <v>87.38301826406413</v>
       </c>
       <c r="K30" t="n">
-        <v>81.06070054104111</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>62.20566977793482</v>
+        <v>47.88076253968853</v>
       </c>
       <c r="M30" t="n">
-        <v>53.03869048575862</v>
+        <v>36.32219940094926</v>
       </c>
       <c r="N30" t="n">
-        <v>39.88828001778433</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>58.93422098266876</v>
+        <v>43.23715517208103</v>
       </c>
       <c r="P30" t="n">
-        <v>66.82825781197823</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>95.09635128233617</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>123.8475205524408</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="S30" t="n">
-        <v>165.1517745406985</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="T30" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="U30" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="V30" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="W30" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="X30" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="Y30" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
     </row>
     <row r="31">
@@ -29667,40 +29669,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="G31" t="n">
-        <v>167.696183516137</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="H31" t="n">
-        <v>159.6061694729784</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="I31" t="n">
-        <v>146.5851599599806</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1533553872442</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="K31" t="n">
-        <v>94.76334121714694</v>
+        <v>88.33720928561246</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>84.04494584723527</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29709,34 +29711,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>95.38417350415432</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.8198697782987</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="R31" t="n">
-        <v>164.0382983214998</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="S31" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="T31" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="U31" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="V31" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="W31" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="X31" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.6202543717419</v>
+        <v>100.8408378232456</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C32" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D32" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E32" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F32" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="G32" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H32" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I32" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="J32" t="n">
-        <v>125.267150905566</v>
+        <v>114.8016764860605</v>
       </c>
       <c r="K32" t="n">
-        <v>105.9270777809319</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.5971663327931</v>
       </c>
       <c r="M32" t="n">
-        <v>114.9482324110659</v>
+        <v>93.29671194491473</v>
       </c>
       <c r="N32" t="n">
-        <v>112.1478024822824</v>
+        <v>33.18358006992923</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>136.7272799814394</v>
+        <v>118.9956691669305</v>
       </c>
       <c r="Q32" t="n">
-        <v>151.3358331154074</v>
+        <v>138.0201318447627</v>
       </c>
       <c r="R32" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="S32" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T32" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U32" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V32" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W32" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X32" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y32" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="33">
@@ -29825,76 +29827,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C33" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.991885896057</v>
+        <v>136.9259111692552</v>
       </c>
       <c r="H33" t="n">
-        <v>108.839426472144</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="I33" t="n">
-        <v>87.41577716159532</v>
+        <v>85.14427889232486</v>
       </c>
       <c r="J33" t="n">
-        <v>93.61618313264435</v>
+        <v>87.38301826406413</v>
       </c>
       <c r="K33" t="n">
-        <v>81.06070054104111</v>
+        <v>70.40722897674431</v>
       </c>
       <c r="L33" t="n">
-        <v>62.20566977793482</v>
+        <v>47.88076253968853</v>
       </c>
       <c r="M33" t="n">
-        <v>53.03869048575862</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>39.88828001778433</v>
+        <v>22.72935315543171</v>
       </c>
       <c r="O33" t="n">
-        <v>58.93422098266876</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>66.82825781197823</v>
+        <v>54.22997862121434</v>
       </c>
       <c r="Q33" t="n">
-        <v>95.09635128233617</v>
+        <v>86.67473527866139</v>
       </c>
       <c r="R33" t="n">
-        <v>123.8475205524408</v>
+        <v>74.22963042267509</v>
       </c>
       <c r="S33" t="n">
-        <v>165.1517745406985</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T33" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U33" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V33" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W33" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X33" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y33" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="34">
@@ -29904,13 +29906,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -29919,19 +29921,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.696183516137</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H34" t="n">
-        <v>159.6061694729784</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I34" t="n">
-        <v>146.5851599599806</v>
+        <v>144.921807500707</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1533553872442</v>
+        <v>102.2428680608323</v>
       </c>
       <c r="K34" t="n">
-        <v>94.76334121714694</v>
+        <v>88.33720928561246</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29943,37 +29945,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>88.97052843128083</v>
       </c>
       <c r="P34" t="n">
-        <v>102.0737869014262</v>
+        <v>95.38417350415432</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.8198697782987</v>
+        <v>122.1883282116817</v>
       </c>
       <c r="R34" t="n">
-        <v>164.0382983214998</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="S34" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T34" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U34" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V34" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W34" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X34" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y34" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C35" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D35" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E35" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F35" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="G35" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H35" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I35" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="J35" t="n">
-        <v>125.267150905566</v>
+        <v>114.8016764860605</v>
       </c>
       <c r="K35" t="n">
-        <v>136.4919585171663</v>
+        <v>120.8069252567038</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>112.5971663327931</v>
       </c>
       <c r="M35" t="n">
-        <v>114.9482324110659</v>
+        <v>93.29671194491473</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>90.14593777902118</v>
       </c>
       <c r="O35" t="n">
-        <v>81.5829217460476</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>136.7272799814394</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>151.3358331154074</v>
+        <v>138.0201318447627</v>
       </c>
       <c r="R35" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="S35" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T35" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U35" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V35" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W35" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X35" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y35" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="36">
@@ -30062,76 +30064,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C36" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.991885896057</v>
+        <v>136.9259111692552</v>
       </c>
       <c r="H36" t="n">
-        <v>108.839426472144</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="I36" t="n">
-        <v>87.41577716159532</v>
+        <v>85.14427889232486</v>
       </c>
       <c r="J36" t="n">
-        <v>93.61618313264435</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>81.06070054104111</v>
+        <v>9.052955841394921</v>
       </c>
       <c r="L36" t="n">
-        <v>62.20566977793482</v>
+        <v>47.88076253968853</v>
       </c>
       <c r="M36" t="n">
-        <v>53.03869048575862</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>39.88828001778433</v>
+        <v>22.72935315543171</v>
       </c>
       <c r="O36" t="n">
-        <v>58.93422098266876</v>
+        <v>43.23715517208103</v>
       </c>
       <c r="P36" t="n">
-        <v>66.82825781197823</v>
+        <v>54.22997862121434</v>
       </c>
       <c r="Q36" t="n">
-        <v>95.09635128233617</v>
+        <v>86.67473527866139</v>
       </c>
       <c r="R36" t="n">
-        <v>123.8475205524408</v>
+        <v>119.7513002339959</v>
       </c>
       <c r="S36" t="n">
-        <v>165.1517745406985</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T36" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U36" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V36" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W36" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X36" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y36" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="37">
@@ -30141,13 +30143,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30156,19 +30158,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.696183516137</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H37" t="n">
-        <v>159.6061694729784</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I37" t="n">
-        <v>146.5851599599806</v>
+        <v>144.921807500707</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1533553872442</v>
+        <v>102.2428680608323</v>
       </c>
       <c r="K37" t="n">
-        <v>94.76334121714694</v>
+        <v>88.33720928561246</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30183,34 +30185,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>102.0737869014262</v>
+        <v>95.38417350415432</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.8198697782987</v>
+        <v>122.1883282116817</v>
       </c>
       <c r="R37" t="n">
-        <v>164.0382983214998</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="S37" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T37" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U37" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V37" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W37" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X37" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y37" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C38" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D38" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E38" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F38" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="G38" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H38" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I38" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="J38" t="n">
-        <v>125.267150905566</v>
+        <v>114.8016764860605</v>
       </c>
       <c r="K38" t="n">
-        <v>136.4919585171663</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>132.0558370579127</v>
+        <v>56.99818513754406</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>93.29671194491473</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>119.3679506027583</v>
+        <v>98.59221366289808</v>
       </c>
       <c r="P38" t="n">
-        <v>81.83464647788121</v>
+        <v>118.9956691669305</v>
       </c>
       <c r="Q38" t="n">
-        <v>151.3358331154074</v>
+        <v>138.0201318447627</v>
       </c>
       <c r="R38" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="S38" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T38" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U38" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V38" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W38" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X38" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y38" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="39">
@@ -30299,76 +30301,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C39" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.991885896057</v>
+        <v>136.9259111692552</v>
       </c>
       <c r="H39" t="n">
-        <v>108.839426472144</v>
+        <v>108.2022495054008</v>
       </c>
       <c r="I39" t="n">
-        <v>87.41577716159532</v>
+        <v>85.14427889232486</v>
       </c>
       <c r="J39" t="n">
-        <v>93.61618313264435</v>
+        <v>87.38301826406413</v>
       </c>
       <c r="K39" t="n">
-        <v>81.06070054104111</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>62.20566977793482</v>
+        <v>47.88076253968853</v>
       </c>
       <c r="M39" t="n">
-        <v>53.03869048575862</v>
+        <v>36.32219940094926</v>
       </c>
       <c r="N39" t="n">
-        <v>39.88828001778433</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>58.93422098266876</v>
+        <v>43.23715517208103</v>
       </c>
       <c r="P39" t="n">
-        <v>66.82825781197823</v>
+        <v>54.22997862121434</v>
       </c>
       <c r="Q39" t="n">
-        <v>95.09635128233617</v>
+        <v>86.67473527866139</v>
       </c>
       <c r="R39" t="n">
-        <v>123.8475205524408</v>
+        <v>119.7513002339959</v>
       </c>
       <c r="S39" t="n">
-        <v>165.1517745406985</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T39" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U39" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V39" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W39" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X39" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y39" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="40">
@@ -30378,13 +30380,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -30393,19 +30395,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.696183516137</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H40" t="n">
-        <v>159.6061694729784</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I40" t="n">
-        <v>146.5851599599806</v>
+        <v>144.921807500707</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1533553872442</v>
+        <v>102.2428680608323</v>
       </c>
       <c r="K40" t="n">
-        <v>94.76334121714694</v>
+        <v>88.33720928561246</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,34 +30422,34 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>102.0737869014262</v>
+        <v>95.38417350415432</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.8198697782987</v>
+        <v>122.1883282116817</v>
       </c>
       <c r="R40" t="n">
-        <v>164.0382983214998</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="S40" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T40" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U40" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V40" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W40" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X40" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y40" t="n">
-        <v>168.6202543717419</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30459,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="C41" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="D41" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="E41" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="F41" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="G41" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="H41" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="I41" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="J41" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="M41" t="n">
-        <v>46.08737824993657</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>108.839426472144</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.5864818828549</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="S41" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="T41" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="U41" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="V41" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="W41" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="X41" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="Y41" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
     </row>
     <row r="42">
@@ -30536,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="C42" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="D42" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="E42" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="F42" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="G42" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="H42" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="I42" t="n">
-        <v>87.41577716159532</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="J42" t="n">
-        <v>93.61618313264435</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="K42" t="n">
-        <v>81.06070054104111</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>62.20566977793482</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>53.03869048575862</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>39.88828001778433</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>58.93422098266876</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>66.82825781197823</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>95.09635128233617</v>
+        <v>81.88508129932978</v>
       </c>
       <c r="R42" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="S42" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="T42" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="U42" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="V42" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="W42" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="X42" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="Y42" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="C43" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="D43" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="E43" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="F43" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="G43" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="H43" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="I43" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1533553872442</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="K43" t="n">
-        <v>94.76334121714694</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30660,31 +30662,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>108.839426472144</v>
+        <v>56.84536983393029</v>
       </c>
       <c r="R43" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="S43" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="T43" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="U43" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="V43" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="W43" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="X43" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.839426472144</v>
+        <v>82.81192334085395</v>
       </c>
     </row>
     <row r="44">
@@ -30694,37 +30696,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>63.95733512850654</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30736,34 +30738,34 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
     </row>
     <row r="45">
@@ -30773,34 +30775,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>70.40722897674431</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -30821,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
     </row>
     <row r="46">
@@ -30852,40 +30854,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30897,31 +30899,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>56.84536983393029</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>82.81192334085395</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6571967613204344</v>
+        <v>0.7805031360182121</v>
       </c>
       <c r="H11" t="n">
-        <v>6.7305163318729</v>
+        <v>7.993327741746517</v>
       </c>
       <c r="I11" t="n">
-        <v>25.33657814080607</v>
+        <v>30.09034715134215</v>
       </c>
       <c r="J11" t="n">
-        <v>55.77875362112027</v>
+        <v>66.24422804062579</v>
       </c>
       <c r="K11" t="n">
-        <v>83.59789252781428</v>
+        <v>99.28292578827673</v>
       </c>
       <c r="L11" t="n">
-        <v>103.7105779120745</v>
+        <v>123.1692486371941</v>
       </c>
       <c r="M11" t="n">
-        <v>115.3980008162068</v>
+        <v>137.049521282358</v>
       </c>
       <c r="N11" t="n">
-        <v>117.2652611143085</v>
+        <v>139.2671258175697</v>
       </c>
       <c r="O11" t="n">
-        <v>110.7302608189284</v>
+        <v>131.5059977587887</v>
       </c>
       <c r="P11" t="n">
-        <v>94.50571577383019</v>
+        <v>112.237326588339</v>
       </c>
       <c r="Q11" t="n">
-        <v>70.96985675904212</v>
+        <v>84.28555802968677</v>
       </c>
       <c r="R11" t="n">
-        <v>41.28263605829478</v>
+        <v>49.02828011790406</v>
       </c>
       <c r="S11" t="n">
-        <v>14.97587119858941</v>
+        <v>17.78571521201503</v>
       </c>
       <c r="T11" t="n">
-        <v>2.876878822680203</v>
+        <v>3.416652477919725</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05257574090563474</v>
+        <v>0.06244025088145696</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3516312671536648</v>
+        <v>0.417605993955405</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3960177643525</v>
+        <v>4.033194731095623</v>
       </c>
       <c r="I12" t="n">
-        <v>12.10660283840469</v>
+        <v>14.37810110767513</v>
       </c>
       <c r="J12" t="n">
-        <v>33.22144353402234</v>
+        <v>39.45460840260255</v>
       </c>
       <c r="K12" t="n">
-        <v>56.78073843331788</v>
+        <v>67.43420999761469</v>
       </c>
       <c r="L12" t="n">
-        <v>76.34871000193937</v>
+        <v>90.67361724018565</v>
       </c>
       <c r="M12" t="n">
-        <v>89.0953434362597</v>
+        <v>105.8118345210691</v>
       </c>
       <c r="N12" t="n">
-        <v>91.45343206554898</v>
+        <v>108.6123589279016</v>
       </c>
       <c r="O12" t="n">
-        <v>83.66202346177568</v>
+        <v>99.35908927236341</v>
       </c>
       <c r="P12" t="n">
-        <v>67.14614960235201</v>
+        <v>79.7444287931159</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.88542280368535</v>
+        <v>53.30703880736013</v>
       </c>
       <c r="R12" t="n">
-        <v>21.83198341152316</v>
+        <v>25.92820372996805</v>
       </c>
       <c r="S12" t="n">
-        <v>6.53139656313934</v>
+        <v>7.756848177197979</v>
       </c>
       <c r="T12" t="n">
-        <v>1.417320765413236</v>
+        <v>1.683245212478145</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02313363599695164</v>
+        <v>0.02747407854969771</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2947958423218098</v>
+        <v>0.3501068370376778</v>
       </c>
       <c r="H13" t="n">
-        <v>2.621003034461184</v>
+        <v>3.112768060207719</v>
       </c>
       <c r="I13" t="n">
-        <v>8.865314967277701</v>
+        <v>10.52866742655126</v>
       </c>
       <c r="J13" t="n">
-        <v>20.84206605215195</v>
+        <v>24.75255337856382</v>
       </c>
       <c r="K13" t="n">
-        <v>34.24991695338844</v>
+        <v>40.67604888492291</v>
       </c>
       <c r="L13" t="n">
-        <v>43.82810186664435</v>
+        <v>52.05133829921984</v>
       </c>
       <c r="M13" t="n">
-        <v>46.21058826504515</v>
+        <v>54.88083810036979</v>
       </c>
       <c r="N13" t="n">
-        <v>45.11180376184571</v>
+        <v>53.57589443504758</v>
       </c>
       <c r="O13" t="n">
-        <v>41.66805233108637</v>
+        <v>49.48601002056196</v>
       </c>
       <c r="P13" t="n">
-        <v>35.65421714772142</v>
+        <v>42.3438305449933</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.68513185114718</v>
+        <v>29.31667341776409</v>
       </c>
       <c r="R13" t="n">
-        <v>13.25509305566974</v>
+        <v>15.74207650898503</v>
       </c>
       <c r="S13" t="n">
-        <v>5.137487543008265</v>
+        <v>6.101407332738437</v>
       </c>
       <c r="T13" t="n">
-        <v>1.259582235375005</v>
+        <v>1.495911030979168</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01607977321755328</v>
+        <v>0.01909673656569153</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6571967613204344</v>
+        <v>0.7805031360182121</v>
       </c>
       <c r="H14" t="n">
-        <v>6.7305163318729</v>
+        <v>7.993327741746517</v>
       </c>
       <c r="I14" t="n">
-        <v>25.33657814080607</v>
+        <v>30.09034715134215</v>
       </c>
       <c r="J14" t="n">
-        <v>55.77875362112027</v>
+        <v>66.24422804062579</v>
       </c>
       <c r="K14" t="n">
-        <v>83.59789252781428</v>
+        <v>99.28292578827673</v>
       </c>
       <c r="L14" t="n">
-        <v>103.7105779120745</v>
+        <v>123.1692486371941</v>
       </c>
       <c r="M14" t="n">
-        <v>115.3980008162068</v>
+        <v>137.049521282358</v>
       </c>
       <c r="N14" t="n">
-        <v>117.2652611143085</v>
+        <v>139.2671258175697</v>
       </c>
       <c r="O14" t="n">
-        <v>110.7302608189284</v>
+        <v>131.5059977587887</v>
       </c>
       <c r="P14" t="n">
-        <v>94.50571577383019</v>
+        <v>112.237326588339</v>
       </c>
       <c r="Q14" t="n">
-        <v>70.96985675904212</v>
+        <v>84.28555802968677</v>
       </c>
       <c r="R14" t="n">
-        <v>41.28263605829478</v>
+        <v>49.02828011790406</v>
       </c>
       <c r="S14" t="n">
-        <v>14.97587119858941</v>
+        <v>17.78571521201503</v>
       </c>
       <c r="T14" t="n">
-        <v>2.876878822680203</v>
+        <v>3.416652477919725</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05257574090563474</v>
+        <v>0.06244025088145696</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3516312671536648</v>
+        <v>0.417605993955405</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3960177643525</v>
+        <v>4.033194731095623</v>
       </c>
       <c r="I15" t="n">
-        <v>12.10660283840469</v>
+        <v>14.37810110767513</v>
       </c>
       <c r="J15" t="n">
-        <v>33.22144353402234</v>
+        <v>39.45460840260255</v>
       </c>
       <c r="K15" t="n">
-        <v>56.78073843331788</v>
+        <v>67.43420999761469</v>
       </c>
       <c r="L15" t="n">
-        <v>76.34871000193937</v>
+        <v>90.67361724018565</v>
       </c>
       <c r="M15" t="n">
-        <v>89.0953434362597</v>
+        <v>105.8118345210691</v>
       </c>
       <c r="N15" t="n">
-        <v>91.45343206554898</v>
+        <v>108.6123589279016</v>
       </c>
       <c r="O15" t="n">
-        <v>83.66202346177568</v>
+        <v>99.35908927236341</v>
       </c>
       <c r="P15" t="n">
-        <v>67.14614960235201</v>
+        <v>79.7444287931159</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.88542280368535</v>
+        <v>53.30703880736013</v>
       </c>
       <c r="R15" t="n">
-        <v>21.83198341152316</v>
+        <v>25.92820372996805</v>
       </c>
       <c r="S15" t="n">
-        <v>6.53139656313934</v>
+        <v>7.756848177197979</v>
       </c>
       <c r="T15" t="n">
-        <v>1.417320765413236</v>
+        <v>1.683245212478145</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02313363599695164</v>
+        <v>0.02747407854969771</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2947958423218098</v>
+        <v>0.3501068370376778</v>
       </c>
       <c r="H16" t="n">
-        <v>2.621003034461184</v>
+        <v>3.112768060207719</v>
       </c>
       <c r="I16" t="n">
-        <v>8.865314967277701</v>
+        <v>10.52866742655126</v>
       </c>
       <c r="J16" t="n">
-        <v>20.84206605215195</v>
+        <v>24.75255337856382</v>
       </c>
       <c r="K16" t="n">
-        <v>34.24991695338844</v>
+        <v>40.67604888492291</v>
       </c>
       <c r="L16" t="n">
-        <v>43.82810186664435</v>
+        <v>52.05133829921984</v>
       </c>
       <c r="M16" t="n">
-        <v>46.21058826504515</v>
+        <v>54.88083810036979</v>
       </c>
       <c r="N16" t="n">
-        <v>45.11180376184571</v>
+        <v>53.57589443504758</v>
       </c>
       <c r="O16" t="n">
-        <v>41.66805233108637</v>
+        <v>49.48601002056196</v>
       </c>
       <c r="P16" t="n">
-        <v>35.65421714772142</v>
+        <v>42.3438305449933</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.68513185114718</v>
+        <v>29.31667341776409</v>
       </c>
       <c r="R16" t="n">
-        <v>13.25509305566974</v>
+        <v>15.74207650898503</v>
       </c>
       <c r="S16" t="n">
-        <v>5.137487543008265</v>
+        <v>6.101407332738437</v>
       </c>
       <c r="T16" t="n">
-        <v>1.259582235375005</v>
+        <v>1.495911030979168</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01607977321755328</v>
+        <v>0.01909673656569153</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6571967613204344</v>
+        <v>0.7805031360182121</v>
       </c>
       <c r="H17" t="n">
-        <v>6.7305163318729</v>
+        <v>7.993327741746517</v>
       </c>
       <c r="I17" t="n">
-        <v>25.33657814080607</v>
+        <v>30.09034715134215</v>
       </c>
       <c r="J17" t="n">
-        <v>55.77875362112027</v>
+        <v>66.24422804062579</v>
       </c>
       <c r="K17" t="n">
-        <v>83.59789252781428</v>
+        <v>99.28292578827673</v>
       </c>
       <c r="L17" t="n">
-        <v>103.7105779120745</v>
+        <v>123.1692486371941</v>
       </c>
       <c r="M17" t="n">
-        <v>115.3980008162068</v>
+        <v>137.049521282358</v>
       </c>
       <c r="N17" t="n">
-        <v>117.2652611143085</v>
+        <v>139.2671258175697</v>
       </c>
       <c r="O17" t="n">
-        <v>110.7302608189284</v>
+        <v>131.5059977587887</v>
       </c>
       <c r="P17" t="n">
-        <v>94.50571577383019</v>
+        <v>112.237326588339</v>
       </c>
       <c r="Q17" t="n">
-        <v>70.96985675904212</v>
+        <v>84.28555802968677</v>
       </c>
       <c r="R17" t="n">
-        <v>41.28263605829478</v>
+        <v>49.02828011790406</v>
       </c>
       <c r="S17" t="n">
-        <v>14.97587119858941</v>
+        <v>17.78571521201503</v>
       </c>
       <c r="T17" t="n">
-        <v>2.876878822680203</v>
+        <v>3.416652477919725</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05257574090563474</v>
+        <v>0.06244025088145696</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3516312671536648</v>
+        <v>0.417605993955405</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3960177643525</v>
+        <v>4.033194731095623</v>
       </c>
       <c r="I18" t="n">
-        <v>12.10660283840469</v>
+        <v>14.37810110767513</v>
       </c>
       <c r="J18" t="n">
-        <v>33.22144353402234</v>
+        <v>39.45460840260255</v>
       </c>
       <c r="K18" t="n">
-        <v>56.78073843331788</v>
+        <v>67.43420999761469</v>
       </c>
       <c r="L18" t="n">
-        <v>76.34871000193937</v>
+        <v>90.67361724018565</v>
       </c>
       <c r="M18" t="n">
-        <v>89.0953434362597</v>
+        <v>105.8118345210691</v>
       </c>
       <c r="N18" t="n">
-        <v>91.45343206554898</v>
+        <v>108.6123589279016</v>
       </c>
       <c r="O18" t="n">
-        <v>83.66202346177568</v>
+        <v>99.35908927236341</v>
       </c>
       <c r="P18" t="n">
-        <v>67.14614960235201</v>
+        <v>79.7444287931159</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.88542280368535</v>
+        <v>53.30703880736013</v>
       </c>
       <c r="R18" t="n">
-        <v>21.83198341152316</v>
+        <v>25.92820372996805</v>
       </c>
       <c r="S18" t="n">
-        <v>6.53139656313934</v>
+        <v>7.756848177197979</v>
       </c>
       <c r="T18" t="n">
-        <v>1.417320765413236</v>
+        <v>1.683245212478145</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02313363599695164</v>
+        <v>0.02747407854969771</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2947958423218098</v>
+        <v>0.3501068370376778</v>
       </c>
       <c r="H19" t="n">
-        <v>2.621003034461184</v>
+        <v>3.112768060207719</v>
       </c>
       <c r="I19" t="n">
-        <v>8.865314967277701</v>
+        <v>10.52866742655126</v>
       </c>
       <c r="J19" t="n">
-        <v>20.84206605215195</v>
+        <v>24.75255337856382</v>
       </c>
       <c r="K19" t="n">
-        <v>34.24991695338844</v>
+        <v>40.67604888492291</v>
       </c>
       <c r="L19" t="n">
-        <v>43.82810186664435</v>
+        <v>52.05133829921984</v>
       </c>
       <c r="M19" t="n">
-        <v>46.21058826504515</v>
+        <v>54.88083810036979</v>
       </c>
       <c r="N19" t="n">
-        <v>45.11180376184571</v>
+        <v>53.57589443504758</v>
       </c>
       <c r="O19" t="n">
-        <v>41.66805233108637</v>
+        <v>49.48601002056196</v>
       </c>
       <c r="P19" t="n">
-        <v>35.65421714772142</v>
+        <v>42.3438305449933</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.68513185114718</v>
+        <v>29.31667341776409</v>
       </c>
       <c r="R19" t="n">
-        <v>13.25509305566974</v>
+        <v>15.74207650898503</v>
       </c>
       <c r="S19" t="n">
-        <v>5.137487543008265</v>
+        <v>6.101407332738437</v>
       </c>
       <c r="T19" t="n">
-        <v>1.259582235375005</v>
+        <v>1.495911030979168</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01607977321755328</v>
+        <v>0.01909673656569153</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6571967613204344</v>
+        <v>0.7805031360182121</v>
       </c>
       <c r="H20" t="n">
-        <v>6.7305163318729</v>
+        <v>7.993327741746517</v>
       </c>
       <c r="I20" t="n">
-        <v>25.33657814080607</v>
+        <v>30.09034715134215</v>
       </c>
       <c r="J20" t="n">
-        <v>55.77875362112027</v>
+        <v>66.24422804062579</v>
       </c>
       <c r="K20" t="n">
-        <v>83.59789252781428</v>
+        <v>99.28292578827673</v>
       </c>
       <c r="L20" t="n">
-        <v>103.7105779120745</v>
+        <v>123.1692486371941</v>
       </c>
       <c r="M20" t="n">
-        <v>115.3980008162068</v>
+        <v>137.049521282358</v>
       </c>
       <c r="N20" t="n">
-        <v>117.2652611143085</v>
+        <v>139.2671258175697</v>
       </c>
       <c r="O20" t="n">
-        <v>110.7302608189284</v>
+        <v>131.5059977587887</v>
       </c>
       <c r="P20" t="n">
-        <v>94.50571577383019</v>
+        <v>112.237326588339</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.96985675904212</v>
+        <v>84.28555802968677</v>
       </c>
       <c r="R20" t="n">
-        <v>41.28263605829478</v>
+        <v>49.02828011790406</v>
       </c>
       <c r="S20" t="n">
-        <v>14.97587119858941</v>
+        <v>17.78571521201503</v>
       </c>
       <c r="T20" t="n">
-        <v>2.876878822680203</v>
+        <v>3.416652477919725</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05257574090563474</v>
+        <v>0.06244025088145696</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3516312671536648</v>
+        <v>0.417605993955405</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3960177643525</v>
+        <v>4.033194731095623</v>
       </c>
       <c r="I21" t="n">
-        <v>12.10660283840469</v>
+        <v>14.37810110767513</v>
       </c>
       <c r="J21" t="n">
-        <v>33.22144353402234</v>
+        <v>39.45460840260255</v>
       </c>
       <c r="K21" t="n">
-        <v>56.78073843331788</v>
+        <v>67.43420999761469</v>
       </c>
       <c r="L21" t="n">
-        <v>76.34871000193937</v>
+        <v>90.67361724018565</v>
       </c>
       <c r="M21" t="n">
-        <v>89.0953434362597</v>
+        <v>105.8118345210691</v>
       </c>
       <c r="N21" t="n">
-        <v>91.45343206554898</v>
+        <v>108.6123589279016</v>
       </c>
       <c r="O21" t="n">
-        <v>83.66202346177568</v>
+        <v>99.35908927236341</v>
       </c>
       <c r="P21" t="n">
-        <v>67.14614960235201</v>
+        <v>79.7444287931159</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.88542280368535</v>
+        <v>53.30703880736013</v>
       </c>
       <c r="R21" t="n">
-        <v>21.83198341152316</v>
+        <v>25.92820372996805</v>
       </c>
       <c r="S21" t="n">
-        <v>6.53139656313934</v>
+        <v>7.756848177197979</v>
       </c>
       <c r="T21" t="n">
-        <v>1.417320765413236</v>
+        <v>1.683245212478145</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02313363599695164</v>
+        <v>0.02747407854969771</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2947958423218098</v>
+        <v>0.3501068370376778</v>
       </c>
       <c r="H22" t="n">
-        <v>2.621003034461184</v>
+        <v>3.112768060207719</v>
       </c>
       <c r="I22" t="n">
-        <v>8.865314967277701</v>
+        <v>10.52866742655126</v>
       </c>
       <c r="J22" t="n">
-        <v>20.84206605215195</v>
+        <v>24.75255337856382</v>
       </c>
       <c r="K22" t="n">
-        <v>34.24991695338844</v>
+        <v>40.67604888492291</v>
       </c>
       <c r="L22" t="n">
-        <v>43.82810186664435</v>
+        <v>52.05133829921984</v>
       </c>
       <c r="M22" t="n">
-        <v>46.21058826504515</v>
+        <v>54.88083810036979</v>
       </c>
       <c r="N22" t="n">
-        <v>45.11180376184571</v>
+        <v>53.57589443504758</v>
       </c>
       <c r="O22" t="n">
-        <v>41.66805233108637</v>
+        <v>49.48601002056196</v>
       </c>
       <c r="P22" t="n">
-        <v>35.65421714772142</v>
+        <v>42.3438305449933</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.68513185114718</v>
+        <v>29.31667341776409</v>
       </c>
       <c r="R22" t="n">
-        <v>13.25509305566974</v>
+        <v>15.74207650898503</v>
       </c>
       <c r="S22" t="n">
-        <v>5.137487543008265</v>
+        <v>6.101407332738437</v>
       </c>
       <c r="T22" t="n">
-        <v>1.259582235375005</v>
+        <v>1.495911030979168</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01607977321755328</v>
+        <v>0.01909673656569153</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6571967613204344</v>
+        <v>0.7805031360182121</v>
       </c>
       <c r="H23" t="n">
-        <v>6.7305163318729</v>
+        <v>7.993327741746517</v>
       </c>
       <c r="I23" t="n">
-        <v>25.33657814080607</v>
+        <v>30.09034715134215</v>
       </c>
       <c r="J23" t="n">
-        <v>55.77875362112027</v>
+        <v>66.24422804062579</v>
       </c>
       <c r="K23" t="n">
-        <v>83.59789252781428</v>
+        <v>99.28292578827673</v>
       </c>
       <c r="L23" t="n">
-        <v>103.7105779120745</v>
+        <v>123.1692486371941</v>
       </c>
       <c r="M23" t="n">
-        <v>115.3980008162068</v>
+        <v>137.049521282358</v>
       </c>
       <c r="N23" t="n">
-        <v>117.2652611143085</v>
+        <v>139.2671258175697</v>
       </c>
       <c r="O23" t="n">
-        <v>110.7302608189284</v>
+        <v>131.5059977587887</v>
       </c>
       <c r="P23" t="n">
-        <v>94.50571577383019</v>
+        <v>112.237326588339</v>
       </c>
       <c r="Q23" t="n">
-        <v>70.96985675904212</v>
+        <v>84.28555802968677</v>
       </c>
       <c r="R23" t="n">
-        <v>41.28263605829478</v>
+        <v>49.02828011790406</v>
       </c>
       <c r="S23" t="n">
-        <v>14.97587119858941</v>
+        <v>17.78571521201503</v>
       </c>
       <c r="T23" t="n">
-        <v>2.876878822680203</v>
+        <v>3.416652477919725</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05257574090563474</v>
+        <v>0.06244025088145696</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3516312671536648</v>
+        <v>0.417605993955405</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3960177643525</v>
+        <v>4.033194731095623</v>
       </c>
       <c r="I24" t="n">
-        <v>12.10660283840469</v>
+        <v>14.37810110767513</v>
       </c>
       <c r="J24" t="n">
-        <v>33.22144353402234</v>
+        <v>39.45460840260255</v>
       </c>
       <c r="K24" t="n">
-        <v>56.78073843331788</v>
+        <v>67.43420999761469</v>
       </c>
       <c r="L24" t="n">
-        <v>76.34871000193937</v>
+        <v>90.67361724018565</v>
       </c>
       <c r="M24" t="n">
-        <v>89.0953434362597</v>
+        <v>105.8118345210691</v>
       </c>
       <c r="N24" t="n">
-        <v>91.45343206554898</v>
+        <v>108.6123589279016</v>
       </c>
       <c r="O24" t="n">
-        <v>83.66202346177568</v>
+        <v>99.35908927236341</v>
       </c>
       <c r="P24" t="n">
-        <v>67.14614960235201</v>
+        <v>79.7444287931159</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.88542280368535</v>
+        <v>53.30703880736013</v>
       </c>
       <c r="R24" t="n">
-        <v>21.83198341152316</v>
+        <v>25.92820372996805</v>
       </c>
       <c r="S24" t="n">
-        <v>6.53139656313934</v>
+        <v>7.756848177197979</v>
       </c>
       <c r="T24" t="n">
-        <v>1.417320765413236</v>
+        <v>1.683245212478145</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02313363599695164</v>
+        <v>0.02747407854969771</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2947958423218098</v>
+        <v>0.3501068370376778</v>
       </c>
       <c r="H25" t="n">
-        <v>2.621003034461184</v>
+        <v>3.112768060207719</v>
       </c>
       <c r="I25" t="n">
-        <v>8.865314967277701</v>
+        <v>10.52866742655126</v>
       </c>
       <c r="J25" t="n">
-        <v>20.84206605215195</v>
+        <v>24.75255337856382</v>
       </c>
       <c r="K25" t="n">
-        <v>34.24991695338844</v>
+        <v>40.67604888492291</v>
       </c>
       <c r="L25" t="n">
-        <v>43.82810186664435</v>
+        <v>52.05133829921984</v>
       </c>
       <c r="M25" t="n">
-        <v>46.21058826504515</v>
+        <v>54.88083810036979</v>
       </c>
       <c r="N25" t="n">
-        <v>45.11180376184571</v>
+        <v>53.57589443504758</v>
       </c>
       <c r="O25" t="n">
-        <v>41.66805233108637</v>
+        <v>49.48601002056196</v>
       </c>
       <c r="P25" t="n">
-        <v>35.65421714772142</v>
+        <v>42.3438305449933</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.68513185114718</v>
+        <v>29.31667341776409</v>
       </c>
       <c r="R25" t="n">
-        <v>13.25509305566974</v>
+        <v>15.74207650898503</v>
       </c>
       <c r="S25" t="n">
-        <v>5.137487543008265</v>
+        <v>6.101407332738437</v>
       </c>
       <c r="T25" t="n">
-        <v>1.259582235375005</v>
+        <v>1.495911030979168</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01607977321755328</v>
+        <v>0.01909673656569153</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6571967613204344</v>
+        <v>0.7805031360182121</v>
       </c>
       <c r="H26" t="n">
-        <v>6.7305163318729</v>
+        <v>7.993327741746517</v>
       </c>
       <c r="I26" t="n">
-        <v>25.33657814080607</v>
+        <v>30.09034715134215</v>
       </c>
       <c r="J26" t="n">
-        <v>55.77875362112027</v>
+        <v>66.24422804062579</v>
       </c>
       <c r="K26" t="n">
-        <v>83.59789252781428</v>
+        <v>99.28292578827673</v>
       </c>
       <c r="L26" t="n">
-        <v>103.7105779120745</v>
+        <v>123.1692486371941</v>
       </c>
       <c r="M26" t="n">
-        <v>115.3980008162068</v>
+        <v>137.049521282358</v>
       </c>
       <c r="N26" t="n">
-        <v>117.2652611143085</v>
+        <v>139.2671258175697</v>
       </c>
       <c r="O26" t="n">
-        <v>110.7302608189284</v>
+        <v>131.5059977587887</v>
       </c>
       <c r="P26" t="n">
-        <v>94.50571577383019</v>
+        <v>112.237326588339</v>
       </c>
       <c r="Q26" t="n">
-        <v>70.96985675904212</v>
+        <v>84.28555802968677</v>
       </c>
       <c r="R26" t="n">
-        <v>41.28263605829478</v>
+        <v>49.02828011790406</v>
       </c>
       <c r="S26" t="n">
-        <v>14.97587119858941</v>
+        <v>17.78571521201503</v>
       </c>
       <c r="T26" t="n">
-        <v>2.876878822680203</v>
+        <v>3.416652477919725</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05257574090563474</v>
+        <v>0.06244025088145696</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3516312671536648</v>
+        <v>0.417605993955405</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3960177643525</v>
+        <v>4.033194731095623</v>
       </c>
       <c r="I27" t="n">
-        <v>12.10660283840469</v>
+        <v>14.37810110767513</v>
       </c>
       <c r="J27" t="n">
-        <v>33.22144353402234</v>
+        <v>39.45460840260255</v>
       </c>
       <c r="K27" t="n">
-        <v>56.78073843331788</v>
+        <v>67.43420999761469</v>
       </c>
       <c r="L27" t="n">
-        <v>76.34871000193937</v>
+        <v>90.67361724018565</v>
       </c>
       <c r="M27" t="n">
-        <v>89.0953434362597</v>
+        <v>105.8118345210691</v>
       </c>
       <c r="N27" t="n">
-        <v>91.45343206554898</v>
+        <v>108.6123589279016</v>
       </c>
       <c r="O27" t="n">
-        <v>83.66202346177568</v>
+        <v>99.35908927236341</v>
       </c>
       <c r="P27" t="n">
-        <v>67.14614960235201</v>
+        <v>79.7444287931159</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.88542280368535</v>
+        <v>53.30703880736013</v>
       </c>
       <c r="R27" t="n">
-        <v>21.83198341152316</v>
+        <v>25.92820372996805</v>
       </c>
       <c r="S27" t="n">
-        <v>6.53139656313934</v>
+        <v>7.756848177197979</v>
       </c>
       <c r="T27" t="n">
-        <v>1.417320765413236</v>
+        <v>1.683245212478145</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02313363599695164</v>
+        <v>0.02747407854969771</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2947958423218098</v>
+        <v>0.3501068370376778</v>
       </c>
       <c r="H28" t="n">
-        <v>2.621003034461184</v>
+        <v>3.112768060207719</v>
       </c>
       <c r="I28" t="n">
-        <v>8.865314967277701</v>
+        <v>10.52866742655126</v>
       </c>
       <c r="J28" t="n">
-        <v>20.84206605215195</v>
+        <v>24.75255337856382</v>
       </c>
       <c r="K28" t="n">
-        <v>34.24991695338844</v>
+        <v>40.67604888492291</v>
       </c>
       <c r="L28" t="n">
-        <v>43.82810186664435</v>
+        <v>52.05133829921984</v>
       </c>
       <c r="M28" t="n">
-        <v>46.21058826504515</v>
+        <v>54.88083810036979</v>
       </c>
       <c r="N28" t="n">
-        <v>45.11180376184571</v>
+        <v>53.57589443504758</v>
       </c>
       <c r="O28" t="n">
-        <v>41.66805233108637</v>
+        <v>49.48601002056196</v>
       </c>
       <c r="P28" t="n">
-        <v>35.65421714772142</v>
+        <v>42.3438305449933</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.68513185114718</v>
+        <v>29.31667341776409</v>
       </c>
       <c r="R28" t="n">
-        <v>13.25509305566974</v>
+        <v>15.74207650898503</v>
       </c>
       <c r="S28" t="n">
-        <v>5.137487543008265</v>
+        <v>6.101407332738437</v>
       </c>
       <c r="T28" t="n">
-        <v>1.259582235375005</v>
+        <v>1.495911030979168</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01607977321755328</v>
+        <v>0.01909673656569153</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6571967613204344</v>
+        <v>0.7805031360182121</v>
       </c>
       <c r="H29" t="n">
-        <v>6.7305163318729</v>
+        <v>7.993327741746517</v>
       </c>
       <c r="I29" t="n">
-        <v>25.33657814080607</v>
+        <v>30.09034715134215</v>
       </c>
       <c r="J29" t="n">
-        <v>55.77875362112027</v>
+        <v>66.24422804062579</v>
       </c>
       <c r="K29" t="n">
-        <v>83.59789252781428</v>
+        <v>99.28292578827673</v>
       </c>
       <c r="L29" t="n">
-        <v>103.7105779120745</v>
+        <v>123.1692486371941</v>
       </c>
       <c r="M29" t="n">
-        <v>115.3980008162068</v>
+        <v>137.049521282358</v>
       </c>
       <c r="N29" t="n">
-        <v>117.2652611143085</v>
+        <v>139.2671258175697</v>
       </c>
       <c r="O29" t="n">
-        <v>110.7302608189284</v>
+        <v>131.5059977587887</v>
       </c>
       <c r="P29" t="n">
-        <v>94.50571577383019</v>
+        <v>112.237326588339</v>
       </c>
       <c r="Q29" t="n">
-        <v>70.96985675904212</v>
+        <v>84.28555802968677</v>
       </c>
       <c r="R29" t="n">
-        <v>41.28263605829478</v>
+        <v>49.02828011790406</v>
       </c>
       <c r="S29" t="n">
-        <v>14.97587119858941</v>
+        <v>17.78571521201503</v>
       </c>
       <c r="T29" t="n">
-        <v>2.876878822680203</v>
+        <v>3.416652477919725</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05257574090563474</v>
+        <v>0.06244025088145696</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3516312671536648</v>
+        <v>0.417605993955405</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3960177643525</v>
+        <v>4.033194731095623</v>
       </c>
       <c r="I30" t="n">
-        <v>12.10660283840469</v>
+        <v>14.37810110767513</v>
       </c>
       <c r="J30" t="n">
-        <v>33.22144353402234</v>
+        <v>39.45460840260255</v>
       </c>
       <c r="K30" t="n">
-        <v>56.78073843331788</v>
+        <v>67.43420999761469</v>
       </c>
       <c r="L30" t="n">
-        <v>76.34871000193937</v>
+        <v>90.67361724018565</v>
       </c>
       <c r="M30" t="n">
-        <v>89.0953434362597</v>
+        <v>105.8118345210691</v>
       </c>
       <c r="N30" t="n">
-        <v>91.45343206554898</v>
+        <v>108.6123589279016</v>
       </c>
       <c r="O30" t="n">
-        <v>83.66202346177568</v>
+        <v>99.35908927236341</v>
       </c>
       <c r="P30" t="n">
-        <v>67.14614960235201</v>
+        <v>79.7444287931159</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.88542280368535</v>
+        <v>53.30703880736013</v>
       </c>
       <c r="R30" t="n">
-        <v>21.83198341152316</v>
+        <v>25.92820372996805</v>
       </c>
       <c r="S30" t="n">
-        <v>6.53139656313934</v>
+        <v>7.756848177197979</v>
       </c>
       <c r="T30" t="n">
-        <v>1.417320765413236</v>
+        <v>1.683245212478145</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02313363599695164</v>
+        <v>0.02747407854969771</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2947958423218098</v>
+        <v>0.3501068370376778</v>
       </c>
       <c r="H31" t="n">
-        <v>2.621003034461184</v>
+        <v>3.112768060207719</v>
       </c>
       <c r="I31" t="n">
-        <v>8.865314967277701</v>
+        <v>10.52866742655126</v>
       </c>
       <c r="J31" t="n">
-        <v>20.84206605215195</v>
+        <v>24.75255337856382</v>
       </c>
       <c r="K31" t="n">
-        <v>34.24991695338844</v>
+        <v>40.67604888492291</v>
       </c>
       <c r="L31" t="n">
-        <v>43.82810186664435</v>
+        <v>52.05133829921984</v>
       </c>
       <c r="M31" t="n">
-        <v>46.21058826504515</v>
+        <v>54.88083810036979</v>
       </c>
       <c r="N31" t="n">
-        <v>45.11180376184571</v>
+        <v>53.57589443504758</v>
       </c>
       <c r="O31" t="n">
-        <v>41.66805233108637</v>
+        <v>49.48601002056196</v>
       </c>
       <c r="P31" t="n">
-        <v>35.65421714772142</v>
+        <v>42.3438305449933</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.68513185114718</v>
+        <v>29.31667341776409</v>
       </c>
       <c r="R31" t="n">
-        <v>13.25509305566974</v>
+        <v>15.74207650898503</v>
       </c>
       <c r="S31" t="n">
-        <v>5.137487543008265</v>
+        <v>6.101407332738437</v>
       </c>
       <c r="T31" t="n">
-        <v>1.259582235375005</v>
+        <v>1.495911030979168</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01607977321755328</v>
+        <v>0.01909673656569153</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6571967613204344</v>
+        <v>0.7805031360182121</v>
       </c>
       <c r="H32" t="n">
-        <v>6.7305163318729</v>
+        <v>7.993327741746517</v>
       </c>
       <c r="I32" t="n">
-        <v>25.33657814080607</v>
+        <v>30.09034715134215</v>
       </c>
       <c r="J32" t="n">
-        <v>55.77875362112027</v>
+        <v>66.24422804062579</v>
       </c>
       <c r="K32" t="n">
-        <v>83.59789252781428</v>
+        <v>99.28292578827673</v>
       </c>
       <c r="L32" t="n">
-        <v>103.7105779120745</v>
+        <v>123.1692486371941</v>
       </c>
       <c r="M32" t="n">
-        <v>115.3980008162068</v>
+        <v>137.049521282358</v>
       </c>
       <c r="N32" t="n">
-        <v>117.2652611143085</v>
+        <v>139.2671258175697</v>
       </c>
       <c r="O32" t="n">
-        <v>110.7302608189284</v>
+        <v>131.5059977587887</v>
       </c>
       <c r="P32" t="n">
-        <v>94.50571577383019</v>
+        <v>112.237326588339</v>
       </c>
       <c r="Q32" t="n">
-        <v>70.96985675904212</v>
+        <v>84.28555802968677</v>
       </c>
       <c r="R32" t="n">
-        <v>41.28263605829478</v>
+        <v>49.02828011790406</v>
       </c>
       <c r="S32" t="n">
-        <v>14.97587119858941</v>
+        <v>17.78571521201503</v>
       </c>
       <c r="T32" t="n">
-        <v>2.876878822680203</v>
+        <v>3.416652477919725</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05257574090563474</v>
+        <v>0.06244025088145696</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3516312671536648</v>
+        <v>0.417605993955405</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3960177643525</v>
+        <v>4.033194731095623</v>
       </c>
       <c r="I33" t="n">
-        <v>12.10660283840469</v>
+        <v>14.37810110767513</v>
       </c>
       <c r="J33" t="n">
-        <v>33.22144353402234</v>
+        <v>39.45460840260255</v>
       </c>
       <c r="K33" t="n">
-        <v>56.78073843331788</v>
+        <v>67.43420999761469</v>
       </c>
       <c r="L33" t="n">
-        <v>76.34871000193937</v>
+        <v>90.67361724018565</v>
       </c>
       <c r="M33" t="n">
-        <v>89.0953434362597</v>
+        <v>105.8118345210691</v>
       </c>
       <c r="N33" t="n">
-        <v>91.45343206554898</v>
+        <v>108.6123589279016</v>
       </c>
       <c r="O33" t="n">
-        <v>83.66202346177568</v>
+        <v>99.35908927236341</v>
       </c>
       <c r="P33" t="n">
-        <v>67.14614960235201</v>
+        <v>79.7444287931159</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.88542280368535</v>
+        <v>53.30703880736013</v>
       </c>
       <c r="R33" t="n">
-        <v>21.83198341152316</v>
+        <v>25.92820372996805</v>
       </c>
       <c r="S33" t="n">
-        <v>6.53139656313934</v>
+        <v>7.756848177197979</v>
       </c>
       <c r="T33" t="n">
-        <v>1.417320765413236</v>
+        <v>1.683245212478145</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02313363599695164</v>
+        <v>0.02747407854969771</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2947958423218098</v>
+        <v>0.3501068370376778</v>
       </c>
       <c r="H34" t="n">
-        <v>2.621003034461184</v>
+        <v>3.112768060207719</v>
       </c>
       <c r="I34" t="n">
-        <v>8.865314967277701</v>
+        <v>10.52866742655126</v>
       </c>
       <c r="J34" t="n">
-        <v>20.84206605215195</v>
+        <v>24.75255337856382</v>
       </c>
       <c r="K34" t="n">
-        <v>34.24991695338844</v>
+        <v>40.67604888492291</v>
       </c>
       <c r="L34" t="n">
-        <v>43.82810186664435</v>
+        <v>52.05133829921984</v>
       </c>
       <c r="M34" t="n">
-        <v>46.21058826504515</v>
+        <v>54.88083810036979</v>
       </c>
       <c r="N34" t="n">
-        <v>45.11180376184571</v>
+        <v>53.57589443504758</v>
       </c>
       <c r="O34" t="n">
-        <v>41.66805233108637</v>
+        <v>49.48601002056196</v>
       </c>
       <c r="P34" t="n">
-        <v>35.65421714772142</v>
+        <v>42.3438305449933</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.68513185114718</v>
+        <v>29.31667341776409</v>
       </c>
       <c r="R34" t="n">
-        <v>13.25509305566974</v>
+        <v>15.74207650898503</v>
       </c>
       <c r="S34" t="n">
-        <v>5.137487543008265</v>
+        <v>6.101407332738437</v>
       </c>
       <c r="T34" t="n">
-        <v>1.259582235375005</v>
+        <v>1.495911030979168</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01607977321755328</v>
+        <v>0.01909673656569153</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6571967613204344</v>
+        <v>0.7805031360182121</v>
       </c>
       <c r="H35" t="n">
-        <v>6.7305163318729</v>
+        <v>7.993327741746517</v>
       </c>
       <c r="I35" t="n">
-        <v>25.33657814080607</v>
+        <v>30.09034715134215</v>
       </c>
       <c r="J35" t="n">
-        <v>55.77875362112027</v>
+        <v>66.24422804062579</v>
       </c>
       <c r="K35" t="n">
-        <v>83.59789252781428</v>
+        <v>99.28292578827673</v>
       </c>
       <c r="L35" t="n">
-        <v>103.7105779120745</v>
+        <v>123.1692486371941</v>
       </c>
       <c r="M35" t="n">
-        <v>115.3980008162068</v>
+        <v>137.049521282358</v>
       </c>
       <c r="N35" t="n">
-        <v>117.2652611143085</v>
+        <v>139.2671258175697</v>
       </c>
       <c r="O35" t="n">
-        <v>110.7302608189284</v>
+        <v>131.5059977587887</v>
       </c>
       <c r="P35" t="n">
-        <v>94.50571577383019</v>
+        <v>112.237326588339</v>
       </c>
       <c r="Q35" t="n">
-        <v>70.96985675904212</v>
+        <v>84.28555802968677</v>
       </c>
       <c r="R35" t="n">
-        <v>41.28263605829478</v>
+        <v>49.02828011790406</v>
       </c>
       <c r="S35" t="n">
-        <v>14.97587119858941</v>
+        <v>17.78571521201503</v>
       </c>
       <c r="T35" t="n">
-        <v>2.876878822680203</v>
+        <v>3.416652477919725</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05257574090563474</v>
+        <v>0.06244025088145696</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3516312671536648</v>
+        <v>0.417605993955405</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3960177643525</v>
+        <v>4.033194731095623</v>
       </c>
       <c r="I36" t="n">
-        <v>12.10660283840469</v>
+        <v>14.37810110767513</v>
       </c>
       <c r="J36" t="n">
-        <v>33.22144353402234</v>
+        <v>39.45460840260255</v>
       </c>
       <c r="K36" t="n">
-        <v>56.78073843331788</v>
+        <v>67.43420999761469</v>
       </c>
       <c r="L36" t="n">
-        <v>76.34871000193937</v>
+        <v>90.67361724018565</v>
       </c>
       <c r="M36" t="n">
-        <v>89.0953434362597</v>
+        <v>105.8118345210691</v>
       </c>
       <c r="N36" t="n">
-        <v>91.45343206554898</v>
+        <v>108.6123589279016</v>
       </c>
       <c r="O36" t="n">
-        <v>83.66202346177568</v>
+        <v>99.35908927236341</v>
       </c>
       <c r="P36" t="n">
-        <v>67.14614960235201</v>
+        <v>79.7444287931159</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.88542280368535</v>
+        <v>53.30703880736013</v>
       </c>
       <c r="R36" t="n">
-        <v>21.83198341152316</v>
+        <v>25.92820372996805</v>
       </c>
       <c r="S36" t="n">
-        <v>6.53139656313934</v>
+        <v>7.756848177197979</v>
       </c>
       <c r="T36" t="n">
-        <v>1.417320765413236</v>
+        <v>1.683245212478145</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02313363599695164</v>
+        <v>0.02747407854969771</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2947958423218098</v>
+        <v>0.3501068370376778</v>
       </c>
       <c r="H37" t="n">
-        <v>2.621003034461184</v>
+        <v>3.112768060207719</v>
       </c>
       <c r="I37" t="n">
-        <v>8.865314967277701</v>
+        <v>10.52866742655126</v>
       </c>
       <c r="J37" t="n">
-        <v>20.84206605215195</v>
+        <v>24.75255337856382</v>
       </c>
       <c r="K37" t="n">
-        <v>34.24991695338844</v>
+        <v>40.67604888492291</v>
       </c>
       <c r="L37" t="n">
-        <v>43.82810186664435</v>
+        <v>52.05133829921984</v>
       </c>
       <c r="M37" t="n">
-        <v>46.21058826504515</v>
+        <v>54.88083810036979</v>
       </c>
       <c r="N37" t="n">
-        <v>45.11180376184571</v>
+        <v>53.57589443504758</v>
       </c>
       <c r="O37" t="n">
-        <v>41.66805233108637</v>
+        <v>49.48601002056196</v>
       </c>
       <c r="P37" t="n">
-        <v>35.65421714772142</v>
+        <v>42.3438305449933</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.68513185114718</v>
+        <v>29.31667341776409</v>
       </c>
       <c r="R37" t="n">
-        <v>13.25509305566974</v>
+        <v>15.74207650898503</v>
       </c>
       <c r="S37" t="n">
-        <v>5.137487543008265</v>
+        <v>6.101407332738437</v>
       </c>
       <c r="T37" t="n">
-        <v>1.259582235375005</v>
+        <v>1.495911030979168</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01607977321755328</v>
+        <v>0.01909673656569153</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6571967613204344</v>
+        <v>0.7805031360182121</v>
       </c>
       <c r="H38" t="n">
-        <v>6.7305163318729</v>
+        <v>7.993327741746517</v>
       </c>
       <c r="I38" t="n">
-        <v>25.33657814080607</v>
+        <v>30.09034715134215</v>
       </c>
       <c r="J38" t="n">
-        <v>55.77875362112027</v>
+        <v>66.24422804062579</v>
       </c>
       <c r="K38" t="n">
-        <v>83.59789252781428</v>
+        <v>99.28292578827673</v>
       </c>
       <c r="L38" t="n">
-        <v>103.7105779120745</v>
+        <v>123.1692486371941</v>
       </c>
       <c r="M38" t="n">
-        <v>115.3980008162068</v>
+        <v>137.049521282358</v>
       </c>
       <c r="N38" t="n">
-        <v>117.2652611143085</v>
+        <v>139.2671258175697</v>
       </c>
       <c r="O38" t="n">
-        <v>110.7302608189284</v>
+        <v>131.5059977587887</v>
       </c>
       <c r="P38" t="n">
-        <v>94.50571577383019</v>
+        <v>112.237326588339</v>
       </c>
       <c r="Q38" t="n">
-        <v>70.96985675904212</v>
+        <v>84.28555802968677</v>
       </c>
       <c r="R38" t="n">
-        <v>41.28263605829478</v>
+        <v>49.02828011790406</v>
       </c>
       <c r="S38" t="n">
-        <v>14.97587119858941</v>
+        <v>17.78571521201503</v>
       </c>
       <c r="T38" t="n">
-        <v>2.876878822680203</v>
+        <v>3.416652477919725</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05257574090563474</v>
+        <v>0.06244025088145696</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3516312671536648</v>
+        <v>0.417605993955405</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3960177643525</v>
+        <v>4.033194731095623</v>
       </c>
       <c r="I39" t="n">
-        <v>12.10660283840469</v>
+        <v>14.37810110767513</v>
       </c>
       <c r="J39" t="n">
-        <v>33.22144353402234</v>
+        <v>39.45460840260255</v>
       </c>
       <c r="K39" t="n">
-        <v>56.78073843331788</v>
+        <v>67.43420999761469</v>
       </c>
       <c r="L39" t="n">
-        <v>76.34871000193937</v>
+        <v>90.67361724018565</v>
       </c>
       <c r="M39" t="n">
-        <v>89.0953434362597</v>
+        <v>105.8118345210691</v>
       </c>
       <c r="N39" t="n">
-        <v>91.45343206554898</v>
+        <v>108.6123589279016</v>
       </c>
       <c r="O39" t="n">
-        <v>83.66202346177568</v>
+        <v>99.35908927236341</v>
       </c>
       <c r="P39" t="n">
-        <v>67.14614960235201</v>
+        <v>79.7444287931159</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.88542280368535</v>
+        <v>53.30703880736013</v>
       </c>
       <c r="R39" t="n">
-        <v>21.83198341152316</v>
+        <v>25.92820372996805</v>
       </c>
       <c r="S39" t="n">
-        <v>6.53139656313934</v>
+        <v>7.756848177197979</v>
       </c>
       <c r="T39" t="n">
-        <v>1.417320765413236</v>
+        <v>1.683245212478145</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02313363599695164</v>
+        <v>0.02747407854969771</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2947958423218098</v>
+        <v>0.3501068370376778</v>
       </c>
       <c r="H40" t="n">
-        <v>2.621003034461184</v>
+        <v>3.112768060207719</v>
       </c>
       <c r="I40" t="n">
-        <v>8.865314967277701</v>
+        <v>10.52866742655126</v>
       </c>
       <c r="J40" t="n">
-        <v>20.84206605215195</v>
+        <v>24.75255337856382</v>
       </c>
       <c r="K40" t="n">
-        <v>34.24991695338844</v>
+        <v>40.67604888492291</v>
       </c>
       <c r="L40" t="n">
-        <v>43.82810186664435</v>
+        <v>52.05133829921984</v>
       </c>
       <c r="M40" t="n">
-        <v>46.21058826504515</v>
+        <v>54.88083810036979</v>
       </c>
       <c r="N40" t="n">
-        <v>45.11180376184571</v>
+        <v>53.57589443504758</v>
       </c>
       <c r="O40" t="n">
-        <v>41.66805233108637</v>
+        <v>49.48601002056196</v>
       </c>
       <c r="P40" t="n">
-        <v>35.65421714772142</v>
+        <v>42.3438305449933</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.68513185114718</v>
+        <v>29.31667341776409</v>
       </c>
       <c r="R40" t="n">
-        <v>13.25509305566974</v>
+        <v>15.74207650898503</v>
       </c>
       <c r="S40" t="n">
-        <v>5.137487543008265</v>
+        <v>6.101407332738437</v>
       </c>
       <c r="T40" t="n">
-        <v>1.259582235375005</v>
+        <v>1.495911030979168</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01607977321755328</v>
+        <v>0.01909673656569153</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6571967613204344</v>
+        <v>0.7805031360182121</v>
       </c>
       <c r="H41" t="n">
-        <v>6.7305163318729</v>
+        <v>7.993327741746517</v>
       </c>
       <c r="I41" t="n">
-        <v>25.33657814080607</v>
+        <v>30.09034715134215</v>
       </c>
       <c r="J41" t="n">
-        <v>55.77875362112027</v>
+        <v>66.24422804062579</v>
       </c>
       <c r="K41" t="n">
-        <v>83.59789252781428</v>
+        <v>99.28292578827673</v>
       </c>
       <c r="L41" t="n">
-        <v>103.7105779120745</v>
+        <v>123.1692486371941</v>
       </c>
       <c r="M41" t="n">
-        <v>115.3980008162068</v>
+        <v>137.049521282358</v>
       </c>
       <c r="N41" t="n">
-        <v>117.2652611143085</v>
+        <v>139.2671258175697</v>
       </c>
       <c r="O41" t="n">
-        <v>110.7302608189284</v>
+        <v>131.5059977587887</v>
       </c>
       <c r="P41" t="n">
-        <v>94.50571577383019</v>
+        <v>112.237326588339</v>
       </c>
       <c r="Q41" t="n">
-        <v>70.96985675904212</v>
+        <v>84.28555802968677</v>
       </c>
       <c r="R41" t="n">
-        <v>41.28263605829478</v>
+        <v>49.02828011790406</v>
       </c>
       <c r="S41" t="n">
-        <v>14.97587119858941</v>
+        <v>17.78571521201503</v>
       </c>
       <c r="T41" t="n">
-        <v>2.876878822680203</v>
+        <v>3.416652477919725</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05257574090563474</v>
+        <v>0.06244025088145696</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3516312671536648</v>
+        <v>0.417605993955405</v>
       </c>
       <c r="H42" t="n">
-        <v>3.3960177643525</v>
+        <v>4.033194731095623</v>
       </c>
       <c r="I42" t="n">
-        <v>12.10660283840469</v>
+        <v>14.37810110767513</v>
       </c>
       <c r="J42" t="n">
-        <v>33.22144353402234</v>
+        <v>39.45460840260255</v>
       </c>
       <c r="K42" t="n">
-        <v>56.78073843331788</v>
+        <v>67.43420999761469</v>
       </c>
       <c r="L42" t="n">
-        <v>76.34871000193937</v>
+        <v>90.67361724018565</v>
       </c>
       <c r="M42" t="n">
-        <v>89.0953434362597</v>
+        <v>105.8118345210691</v>
       </c>
       <c r="N42" t="n">
-        <v>91.45343206554898</v>
+        <v>108.6123589279016</v>
       </c>
       <c r="O42" t="n">
-        <v>83.66202346177568</v>
+        <v>99.35908927236341</v>
       </c>
       <c r="P42" t="n">
-        <v>67.14614960235201</v>
+        <v>79.7444287931159</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.88542280368535</v>
+        <v>53.30703880736013</v>
       </c>
       <c r="R42" t="n">
-        <v>21.83198341152316</v>
+        <v>25.92820372996805</v>
       </c>
       <c r="S42" t="n">
-        <v>6.53139656313934</v>
+        <v>7.756848177197979</v>
       </c>
       <c r="T42" t="n">
-        <v>1.417320765413236</v>
+        <v>1.683245212478145</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02313363599695164</v>
+        <v>0.02747407854969771</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2947958423218098</v>
+        <v>0.3501068370376778</v>
       </c>
       <c r="H43" t="n">
-        <v>2.621003034461184</v>
+        <v>3.112768060207719</v>
       </c>
       <c r="I43" t="n">
-        <v>8.865314967277701</v>
+        <v>10.52866742655126</v>
       </c>
       <c r="J43" t="n">
-        <v>20.84206605215195</v>
+        <v>24.75255337856382</v>
       </c>
       <c r="K43" t="n">
-        <v>34.24991695338844</v>
+        <v>40.67604888492291</v>
       </c>
       <c r="L43" t="n">
-        <v>43.82810186664435</v>
+        <v>52.05133829921984</v>
       </c>
       <c r="M43" t="n">
-        <v>46.21058826504515</v>
+        <v>54.88083810036979</v>
       </c>
       <c r="N43" t="n">
-        <v>45.11180376184571</v>
+        <v>53.57589443504758</v>
       </c>
       <c r="O43" t="n">
-        <v>41.66805233108637</v>
+        <v>49.48601002056196</v>
       </c>
       <c r="P43" t="n">
-        <v>35.65421714772142</v>
+        <v>42.3438305449933</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.68513185114718</v>
+        <v>29.31667341776409</v>
       </c>
       <c r="R43" t="n">
-        <v>13.25509305566974</v>
+        <v>15.74207650898503</v>
       </c>
       <c r="S43" t="n">
-        <v>5.137487543008265</v>
+        <v>6.101407332738437</v>
       </c>
       <c r="T43" t="n">
-        <v>1.259582235375005</v>
+        <v>1.495911030979168</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01607977321755328</v>
+        <v>0.01909673656569153</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6571967613204344</v>
+        <v>0.7805031360182121</v>
       </c>
       <c r="H44" t="n">
-        <v>6.7305163318729</v>
+        <v>7.993327741746517</v>
       </c>
       <c r="I44" t="n">
-        <v>25.33657814080607</v>
+        <v>30.09034715134215</v>
       </c>
       <c r="J44" t="n">
-        <v>55.77875362112027</v>
+        <v>66.24422804062579</v>
       </c>
       <c r="K44" t="n">
-        <v>83.59789252781428</v>
+        <v>99.28292578827673</v>
       </c>
       <c r="L44" t="n">
-        <v>103.7105779120745</v>
+        <v>123.1692486371941</v>
       </c>
       <c r="M44" t="n">
-        <v>115.3980008162068</v>
+        <v>137.049521282358</v>
       </c>
       <c r="N44" t="n">
-        <v>117.2652611143085</v>
+        <v>139.2671258175697</v>
       </c>
       <c r="O44" t="n">
-        <v>110.7302608189284</v>
+        <v>131.5059977587887</v>
       </c>
       <c r="P44" t="n">
-        <v>94.50571577383019</v>
+        <v>112.237326588339</v>
       </c>
       <c r="Q44" t="n">
-        <v>70.96985675904212</v>
+        <v>84.28555802968677</v>
       </c>
       <c r="R44" t="n">
-        <v>41.28263605829478</v>
+        <v>49.02828011790406</v>
       </c>
       <c r="S44" t="n">
-        <v>14.97587119858941</v>
+        <v>17.78571521201503</v>
       </c>
       <c r="T44" t="n">
-        <v>2.876878822680203</v>
+        <v>3.416652477919725</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05257574090563474</v>
+        <v>0.06244025088145696</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3516312671536648</v>
+        <v>0.417605993955405</v>
       </c>
       <c r="H45" t="n">
-        <v>3.3960177643525</v>
+        <v>4.033194731095623</v>
       </c>
       <c r="I45" t="n">
-        <v>12.10660283840469</v>
+        <v>14.37810110767513</v>
       </c>
       <c r="J45" t="n">
-        <v>33.22144353402234</v>
+        <v>39.45460840260255</v>
       </c>
       <c r="K45" t="n">
-        <v>56.78073843331788</v>
+        <v>67.43420999761469</v>
       </c>
       <c r="L45" t="n">
-        <v>76.34871000193937</v>
+        <v>90.67361724018565</v>
       </c>
       <c r="M45" t="n">
-        <v>89.0953434362597</v>
+        <v>105.8118345210691</v>
       </c>
       <c r="N45" t="n">
-        <v>91.45343206554898</v>
+        <v>108.6123589279016</v>
       </c>
       <c r="O45" t="n">
-        <v>83.66202346177568</v>
+        <v>99.35908927236341</v>
       </c>
       <c r="P45" t="n">
-        <v>67.14614960235201</v>
+        <v>79.7444287931159</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.88542280368535</v>
+        <v>53.30703880736013</v>
       </c>
       <c r="R45" t="n">
-        <v>21.83198341152316</v>
+        <v>25.92820372996805</v>
       </c>
       <c r="S45" t="n">
-        <v>6.53139656313934</v>
+        <v>7.756848177197979</v>
       </c>
       <c r="T45" t="n">
-        <v>1.417320765413236</v>
+        <v>1.683245212478145</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02313363599695164</v>
+        <v>0.02747407854969771</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2947958423218098</v>
+        <v>0.3501068370376778</v>
       </c>
       <c r="H46" t="n">
-        <v>2.621003034461184</v>
+        <v>3.112768060207719</v>
       </c>
       <c r="I46" t="n">
-        <v>8.865314967277701</v>
+        <v>10.52866742655126</v>
       </c>
       <c r="J46" t="n">
-        <v>20.84206605215195</v>
+        <v>24.75255337856382</v>
       </c>
       <c r="K46" t="n">
-        <v>34.24991695338844</v>
+        <v>40.67604888492291</v>
       </c>
       <c r="L46" t="n">
-        <v>43.82810186664435</v>
+        <v>52.05133829921984</v>
       </c>
       <c r="M46" t="n">
-        <v>46.21058826504515</v>
+        <v>54.88083810036979</v>
       </c>
       <c r="N46" t="n">
-        <v>45.11180376184571</v>
+        <v>53.57589443504758</v>
       </c>
       <c r="O46" t="n">
-        <v>41.66805233108637</v>
+        <v>49.48601002056196</v>
       </c>
       <c r="P46" t="n">
-        <v>35.65421714772142</v>
+        <v>42.3438305449933</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.68513185114718</v>
+        <v>29.31667341776409</v>
       </c>
       <c r="R46" t="n">
-        <v>13.25509305566974</v>
+        <v>15.74207650898503</v>
       </c>
       <c r="S46" t="n">
-        <v>5.137487543008265</v>
+        <v>6.101407332738437</v>
       </c>
       <c r="T46" t="n">
-        <v>1.259582235375005</v>
+        <v>1.495911030979168</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01607977321755328</v>
+        <v>0.01909673656569153</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1776613.066475591</v>
+        <v>1736324.744906385</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11939416.82556715</v>
+        <v>11735561.5870001</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9321853.215664653</v>
+        <v>8349300.999220033</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5894020.372815426</v>
+        <v>6179241.870703136</v>
       </c>
     </row>
     <row r="11">
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.599426980659658</v>
+        <v>127.191074483116</v>
       </c>
       <c r="K11" t="n">
-        <v>12.60467575130298</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>9.096355365712796</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29671194491473</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>90.14593777902118</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>98.59221366289808</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>118.9956691669305</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>29.81788233936187</v>
+        <v>153.7837289870421</v>
       </c>
       <c r="R11" t="n">
-        <v>58.35500819082722</v>
+        <v>30.65761212335747</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>94.76205883523716</v>
       </c>
       <c r="K12" t="n">
-        <v>70.40722897674431</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>47.88076253968853</v>
+        <v>64.83909332637066</v>
       </c>
       <c r="M12" t="n">
-        <v>36.32219940094926</v>
+        <v>56.11177155621895</v>
       </c>
       <c r="N12" t="n">
-        <v>22.72935315543171</v>
+        <v>43.04269639994163</v>
       </c>
       <c r="O12" t="n">
-        <v>43.23715517208103</v>
+        <v>61.81989570708043</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>69.14426618389622</v>
       </c>
       <c r="Q12" t="n">
-        <v>86.67473527866139</v>
+        <v>96.64454154501018</v>
       </c>
       <c r="R12" t="n">
-        <v>11.54905072859506</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>95.94469107668922</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>92.56829551028677</v>
       </c>
       <c r="M13" t="n">
-        <v>84.04494584723527</v>
+        <v>94.30909361902999</v>
       </c>
       <c r="N13" t="n">
-        <v>74.10965003018561</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>88.97052843128083</v>
+        <v>98.22570267914166</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>94.09537352998879</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.98607870628091</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>114.8016764860605</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>12.60467575130298</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>112.5971663327931</v>
+        <v>135.6330275315777</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29671194491473</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>116.1925217712403</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>123.1872643325856</v>
       </c>
       <c r="P14" t="n">
-        <v>118.9956691669305</v>
+        <v>139.9869758869009</v>
       </c>
       <c r="Q14" t="n">
-        <v>29.81788233936187</v>
+        <v>8.714516593658175</v>
       </c>
       <c r="R14" t="n">
-        <v>58.35500819082722</v>
+        <v>30.65761212335747</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>70.40722897674431</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>47.88076253968853</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>36.32219940094926</v>
+        <v>56.11177155621895</v>
       </c>
       <c r="N15" t="n">
-        <v>10.57202126034824</v>
+        <v>43.04269639994163</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>54.22997862121434</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>86.67473527866139</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.54905072859506</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>95.94469107668922</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>79.74436019045068</v>
       </c>
       <c r="M16" t="n">
-        <v>84.04494584723527</v>
+        <v>94.30909361902999</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>84.12973930946535</v>
       </c>
       <c r="O16" t="n">
-        <v>88.97052843128083</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.98607870628091</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>112.5971663327931</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>93.29671194491473</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>80.98690058703249</v>
+        <v>116.1925217712403</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>123.1872643325856</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>78.8543976486695</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.0201318447627</v>
+        <v>153.7837289870421</v>
       </c>
       <c r="R17" t="n">
-        <v>21.13620967329682</v>
+        <v>10.34976871702609</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>3.443596035716226</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>112.5971663327931</v>
+        <v>92.65115074880974</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29671194491473</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>90.14593777902118</v>
+        <v>116.1925217712401</v>
       </c>
       <c r="O20" t="n">
-        <v>98.59221366289808</v>
+        <v>123.1872643325854</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>139.9869758869007</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>21.13620967329682</v>
+        <v>10.349768717026</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>88.97052843128083</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>32.60254020316353</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>90.14593777902118</v>
+        <v>116.1925217712401</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>123.1872643325854</v>
       </c>
       <c r="P23" t="n">
-        <v>118.9956691669305</v>
+        <v>139.9869758869007</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>21.13620967329682</v>
+        <v>22.27493286296926</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,16 +9719,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>70.40722897674431</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>56.11177155621877</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>43.04269639994143</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>86.67473527866139</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9801,16 +9801,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>82.83333798201843</v>
+        <v>92.56829551028667</v>
       </c>
       <c r="M25" t="n">
-        <v>84.04494584723527</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>74.10965003018561</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>88.97052843128083</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>13.96083866281488</v>
+        <v>127.1910744831159</v>
       </c>
       <c r="K26" t="n">
-        <v>120.8069252567038</v>
+        <v>139.3754212341755</v>
       </c>
       <c r="L26" t="n">
-        <v>112.5971663327931</v>
+        <v>75.54894985258933</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29671194491473</v>
+        <v>8.918141420072942</v>
       </c>
       <c r="N26" t="n">
-        <v>90.14593777902118</v>
+        <v>116.1925217712401</v>
       </c>
       <c r="O26" t="n">
-        <v>98.59221366289808</v>
+        <v>13.17685968882627</v>
       </c>
       <c r="P26" t="n">
-        <v>18.15483134368489</v>
+        <v>139.9869758869007</v>
       </c>
       <c r="Q26" t="n">
-        <v>37.17929402151709</v>
+        <v>153.7837289870419</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>58.21736000477991</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>43.23715517208103</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>54.22997862121434</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>18.91046241075028</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.402030237586672</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>95.94469107668914</v>
       </c>
       <c r="L28" t="n">
-        <v>82.83333798201843</v>
+        <v>92.56829551028667</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>94.30909361902988</v>
       </c>
       <c r="N28" t="n">
-        <v>74.10965003018561</v>
+        <v>84.12973930946526</v>
       </c>
       <c r="O28" t="n">
-        <v>88.97052843128083</v>
+        <v>98.22570267914158</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.34749038843613</v>
+        <v>17.66090594488723</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>13.96083866281488</v>
+        <v>127.1910744831159</v>
       </c>
       <c r="K29" t="n">
-        <v>19.9660874334582</v>
+        <v>139.3754212341755</v>
       </c>
       <c r="L29" t="n">
-        <v>11.75632850954749</v>
+        <v>135.6330275315775</v>
       </c>
       <c r="M29" t="n">
-        <v>93.29671194491473</v>
+        <v>118.928546063832</v>
       </c>
       <c r="N29" t="n">
-        <v>90.14593777902118</v>
+        <v>116.1925217712401</v>
       </c>
       <c r="O29" t="n">
-        <v>98.59221366289808</v>
+        <v>13.17685968882627</v>
       </c>
       <c r="P29" t="n">
-        <v>118.9956691669305</v>
+        <v>139.9869758869007</v>
       </c>
       <c r="Q29" t="n">
-        <v>96.28233768998143</v>
+        <v>43.77332434328281</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>70.40722897674431</v>
+        <v>80.69507972484271</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>22.72935315543171</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>54.22997862121434</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>86.67473527866139</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>18.91046241075028</v>
+        <v>14.59014577943526</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.402030237586672</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>82.83333798201843</v>
+        <v>92.56829551028667</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>74.10965003018561</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>88.97052843128083</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>103.3035739539575</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.34749038843613</v>
+        <v>17.66090594488723</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>120.8069252567038</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>12.65114123299307</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>56.96235770909195</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>98.59221366289808</v>
+        <v>123.1872643325854</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>139.9869758869007</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>20.12329504965889</v>
+        <v>8.316651711809364</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>36.32219940094926</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>43.23715517208103</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,22 +10509,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>95.94469107668914</v>
       </c>
       <c r="L34" t="n">
-        <v>82.83333798201843</v>
+        <v>92.56829551028667</v>
       </c>
       <c r="M34" t="n">
-        <v>84.04494584723527</v>
+        <v>94.30909361902988</v>
       </c>
       <c r="N34" t="n">
-        <v>74.10965003018561</v>
+        <v>84.12973930946526</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>98.22570267914158</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>103.3035739539575</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>18.8036594710931</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>135.6330275315775</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>98.59221366289808</v>
+        <v>123.1872643325854</v>
       </c>
       <c r="P35" t="n">
-        <v>118.9956691669305</v>
+        <v>139.9869758869007</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>20.12329504965889</v>
+        <v>8.316651711809364</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,16 +10664,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>87.38301826406413</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>61.35427313534939</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>36.32219940094926</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10749,16 +10749,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>82.83333798201843</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>84.04494584723527</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>74.10965003018561</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>88.97052843128083</v>
+        <v>98.22570267914158</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>120.8069252567038</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>55.59898119524907</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>90.14593777902118</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>20.12329504965889</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>70.40722897674431</v>
+        <v>83.01918462916871</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>64.8390933263705</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>56.11177155621877</v>
       </c>
       <c r="N39" t="n">
-        <v>22.72935315543171</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>61.81989570708026</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>69.14426618389608</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>96.64454154501009</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>95.94469107668914</v>
       </c>
       <c r="L40" t="n">
-        <v>82.83333798201843</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>84.04494584723527</v>
+        <v>94.30909361902988</v>
       </c>
       <c r="N40" t="n">
-        <v>74.10965003018561</v>
+        <v>84.12973930946526</v>
       </c>
       <c r="O40" t="n">
-        <v>88.97052843128083</v>
+        <v>38.72529407518471</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>103.3035739539575</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>31.98975314520655</v>
+        <v>123.8126337903905</v>
       </c>
       <c r="K41" t="n">
-        <v>37.99500191584987</v>
+        <v>139.3754212341755</v>
       </c>
       <c r="L41" t="n">
-        <v>29.78524299193917</v>
+        <v>135.6330275315775</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29671194491473</v>
+        <v>118.928546063832</v>
       </c>
       <c r="N41" t="n">
-        <v>90.14593777902118</v>
+        <v>116.1925217712401</v>
       </c>
       <c r="O41" t="n">
-        <v>15.78029032204412</v>
+        <v>123.1872643325854</v>
       </c>
       <c r="P41" t="n">
-        <v>118.9956691669305</v>
+        <v>62.27936431939639</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.0201318447627</v>
+        <v>153.7837289870419</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.332355551470915</v>
+        <v>10.12574714858492</v>
       </c>
       <c r="J42" t="n">
-        <v>4.57109492321019</v>
+        <v>17.0544472677328</v>
       </c>
       <c r="K42" t="n">
-        <v>70.40722897674431</v>
+        <v>5.311573061664426</v>
       </c>
       <c r="L42" t="n">
-        <v>47.88076253968853</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>36.32219940094926</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>22.72935315543171</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>43.23715517208103</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>54.22997862121434</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.789653979331604</v>
+        <v>18.9369299775058</v>
       </c>
       <c r="R42" t="n">
-        <v>36.93937689314195</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.43094471997834</v>
+        <v>29.16462941110605</v>
       </c>
       <c r="K43" t="n">
-        <v>5.525285944758515</v>
+        <v>18.23707950918486</v>
       </c>
       <c r="L43" t="n">
-        <v>82.83333798201843</v>
+        <v>92.56829551028667</v>
       </c>
       <c r="M43" t="n">
-        <v>84.04494584723527</v>
+        <v>94.30909361902988</v>
       </c>
       <c r="N43" t="n">
-        <v>74.10965003018561</v>
+        <v>84.12973930946526</v>
       </c>
       <c r="O43" t="n">
-        <v>88.97052843128083</v>
+        <v>98.22570267914158</v>
       </c>
       <c r="P43" t="n">
-        <v>95.38417350415432</v>
+        <v>25.59596238645317</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>49.96369902114205</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>114.8016764860605</v>
+        <v>49.48346291561163</v>
       </c>
       <c r="K44" t="n">
-        <v>56.84959012819728</v>
+        <v>61.66780966667123</v>
       </c>
       <c r="L44" t="n">
-        <v>29.78524299193917</v>
+        <v>135.6330275315775</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29671194491473</v>
+        <v>118.928546063832</v>
       </c>
       <c r="N44" t="n">
-        <v>90.14593777902118</v>
+        <v>116.1925217712401</v>
       </c>
       <c r="O44" t="n">
-        <v>98.59221366289808</v>
+        <v>45.47965276508107</v>
       </c>
       <c r="P44" t="n">
-        <v>36.18374582607657</v>
+        <v>62.27936431939639</v>
       </c>
       <c r="Q44" t="n">
-        <v>55.20820850390876</v>
+        <v>90.78692715312738</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.332355551470915</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>4.57109492321019</v>
+        <v>17.0544472677328</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>83.01918462916871</v>
       </c>
       <c r="L45" t="n">
-        <v>47.88076253968853</v>
+        <v>64.8390933263705</v>
       </c>
       <c r="M45" t="n">
-        <v>36.32219940094926</v>
+        <v>56.11177155621877</v>
       </c>
       <c r="N45" t="n">
-        <v>22.72935315543171</v>
+        <v>43.04269639994143</v>
       </c>
       <c r="O45" t="n">
-        <v>43.23715517208103</v>
+        <v>61.81989570708026</v>
       </c>
       <c r="P45" t="n">
-        <v>54.22997862121434</v>
+        <v>69.14426618389608</v>
       </c>
       <c r="Q45" t="n">
-        <v>86.67473527866139</v>
+        <v>96.64454154501009</v>
       </c>
       <c r="R45" t="n">
-        <v>36.93937689314195</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>19.43094471997834</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>88.33720928561246</v>
+        <v>95.94469107668914</v>
       </c>
       <c r="L46" t="n">
-        <v>0.02141464116449043</v>
+        <v>92.56829551028667</v>
       </c>
       <c r="M46" t="n">
-        <v>1.233022506381317</v>
+        <v>94.30909361902988</v>
       </c>
       <c r="N46" t="n">
-        <v>74.10965003018561</v>
+        <v>84.12973930946526</v>
       </c>
       <c r="O46" t="n">
-        <v>88.97052843128083</v>
+        <v>98.22570267914158</v>
       </c>
       <c r="P46" t="n">
-        <v>95.38417350415432</v>
+        <v>103.3035739539575</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>274.5315921580797</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C11" t="n">
-        <v>257.0706422656067</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D11" t="n">
-        <v>246.4807921152821</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E11" t="n">
-        <v>273.7281205668609</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F11" t="n">
-        <v>298.6737962363106</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G11" t="n">
-        <v>306.319984873716</v>
+        <v>269.5989964242025</v>
       </c>
       <c r="H11" t="n">
-        <v>223.2792248686198</v>
+        <v>187.9072226986131</v>
       </c>
       <c r="I11" t="n">
-        <v>72.18329291366292</v>
+        <v>40.94400956477747</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.03210486882948</v>
+        <v>49.49153449747146</v>
       </c>
       <c r="T11" t="n">
-        <v>111.4769475808108</v>
+        <v>75.24898779722824</v>
       </c>
       <c r="U11" t="n">
-        <v>143.0809631515542</v>
+        <v>106.2256782186487</v>
       </c>
       <c r="V11" t="n">
-        <v>219.550008964734</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0387192120122</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X11" t="n">
-        <v>261.5288511730682</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y11" t="n">
-        <v>278.0356891506527</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="12">
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58.3309341444665</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C12" t="n">
-        <v>64.5062494829149</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D12" t="n">
-        <v>39.24281605923791</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E12" t="n">
-        <v>49.4428309500001</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F12" t="n">
-        <v>36.86696288798304</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>28.7236616638544</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>55.724073421239</v>
+        <v>20.30784340633139</v>
       </c>
       <c r="T12" t="n">
-        <v>90.27923397694262</v>
+        <v>53.72708183520663</v>
       </c>
       <c r="U12" t="n">
-        <v>117.7116584970243</v>
+        <v>80.84983397813124</v>
       </c>
       <c r="V12" t="n">
-        <v>124.5983376440244</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W12" t="n">
-        <v>143.4927336555187</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X12" t="n">
-        <v>97.57073569807663</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y12" t="n">
-        <v>97.48044627190352</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="13">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.62973067653645</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C13" t="n">
-        <v>59.04457159322699</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D13" t="n">
-        <v>40.41322351281151</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E13" t="n">
-        <v>38.23171314116833</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F13" t="n">
-        <v>37.2187985175304</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G13" t="n">
-        <v>59.43862301602023</v>
+        <v>22.63713923578513</v>
       </c>
       <c r="H13" t="n">
-        <v>50.91215494183102</v>
+        <v>14.6273608481886</v>
       </c>
       <c r="I13" t="n">
-        <v>36.71955799530618</v>
+        <v>1.821730456687931</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>53.34906536278361</v>
+        <v>19.42628126499349</v>
       </c>
       <c r="S13" t="n">
-        <v>109.712941198833</v>
+        <v>73.98710057951146</v>
       </c>
       <c r="T13" t="n">
-        <v>118.2474288919015</v>
+        <v>81.66024037338684</v>
       </c>
       <c r="U13" t="n">
-        <v>178.0976831145243</v>
+        <v>141.2342918142367</v>
       </c>
       <c r="V13" t="n">
-        <v>143.9353938184271</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W13" t="n">
-        <v>178.3207488311901</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X13" t="n">
-        <v>117.5074058836363</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y13" t="n">
-        <v>110.3824038466939</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>274.5315921580797</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C14" t="n">
-        <v>257.0706422656067</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D14" t="n">
-        <v>246.4807921152821</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E14" t="n">
-        <v>273.7281205668609</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F14" t="n">
-        <v>298.6737962363106</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G14" t="n">
-        <v>306.319984873716</v>
+        <v>269.5989964242025</v>
       </c>
       <c r="H14" t="n">
-        <v>223.2792248686198</v>
+        <v>187.9072226986131</v>
       </c>
       <c r="I14" t="n">
-        <v>72.18329291366292</v>
+        <v>40.94400956477747</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.03210486882948</v>
+        <v>49.49153449747146</v>
       </c>
       <c r="T14" t="n">
-        <v>111.4769475808108</v>
+        <v>75.24898779722824</v>
       </c>
       <c r="U14" t="n">
-        <v>143.0809631515542</v>
+        <v>106.2256782186487</v>
       </c>
       <c r="V14" t="n">
-        <v>219.550008964734</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0387192120122</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X14" t="n">
-        <v>261.5288511730682</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y14" t="n">
-        <v>278.0356891506527</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="15">
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>58.3309341444665</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C15" t="n">
-        <v>64.5062494829149</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D15" t="n">
-        <v>39.24281605923791</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E15" t="n">
-        <v>49.4428309500001</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F15" t="n">
-        <v>36.86696288798304</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>28.7236616638544</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>55.724073421239</v>
+        <v>20.30784340633139</v>
       </c>
       <c r="T15" t="n">
-        <v>90.27923397694262</v>
+        <v>53.72708183520663</v>
       </c>
       <c r="U15" t="n">
-        <v>117.7116584970243</v>
+        <v>80.84983397813124</v>
       </c>
       <c r="V15" t="n">
-        <v>124.5983376440244</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W15" t="n">
-        <v>143.4927336555187</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X15" t="n">
-        <v>97.57073569807663</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y15" t="n">
-        <v>97.48044627190352</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="16">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.62973067653645</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C16" t="n">
-        <v>59.04457159322699</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D16" t="n">
-        <v>40.41322351281151</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E16" t="n">
-        <v>38.23171314116833</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F16" t="n">
-        <v>37.2187985175304</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G16" t="n">
-        <v>59.43862301602023</v>
+        <v>22.63713923578513</v>
       </c>
       <c r="H16" t="n">
-        <v>50.91215494183102</v>
+        <v>14.6273608481886</v>
       </c>
       <c r="I16" t="n">
-        <v>36.71955799530618</v>
+        <v>1.821730456687931</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>53.34906536278361</v>
+        <v>19.42628126499349</v>
       </c>
       <c r="S16" t="n">
-        <v>109.712941198833</v>
+        <v>73.98710057951146</v>
       </c>
       <c r="T16" t="n">
-        <v>118.2474288919015</v>
+        <v>81.66024037338684</v>
       </c>
       <c r="U16" t="n">
-        <v>178.0976831145243</v>
+        <v>141.2342918142367</v>
       </c>
       <c r="V16" t="n">
-        <v>143.9353938184271</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W16" t="n">
-        <v>178.3207488311901</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X16" t="n">
-        <v>117.5074058836363</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y16" t="n">
-        <v>110.3824038466939</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.3127936405493</v>
+        <v>217.3567858637653</v>
       </c>
       <c r="C17" t="n">
-        <v>219.8518437480763</v>
+        <v>199.8958359712923</v>
       </c>
       <c r="D17" t="n">
-        <v>209.2619935977517</v>
+        <v>189.3059858209677</v>
       </c>
       <c r="E17" t="n">
-        <v>236.5093220493305</v>
+        <v>216.5533142725465</v>
       </c>
       <c r="F17" t="n">
-        <v>261.4549977187802</v>
+        <v>241.4989899419962</v>
       </c>
       <c r="G17" t="n">
-        <v>269.1011863561856</v>
+        <v>249.2911530178711</v>
       </c>
       <c r="H17" t="n">
-        <v>186.0604263510894</v>
+        <v>167.5993792922817</v>
       </c>
       <c r="I17" t="n">
-        <v>34.96449439613252</v>
+        <v>20.63616615844609</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>45.81330635129908</v>
+        <v>29.18369109114008</v>
       </c>
       <c r="T17" t="n">
-        <v>74.2581490632804</v>
+        <v>54.94114439089685</v>
       </c>
       <c r="U17" t="n">
-        <v>105.8621646340238</v>
+        <v>85.91783481231732</v>
       </c>
       <c r="V17" t="n">
-        <v>182.3312104472037</v>
+        <v>162.3752026704196</v>
       </c>
       <c r="W17" t="n">
-        <v>203.8199206944818</v>
+        <v>183.8639129176977</v>
       </c>
       <c r="X17" t="n">
-        <v>224.3100526555378</v>
+        <v>204.3540448787538</v>
       </c>
       <c r="Y17" t="n">
-        <v>240.8168906331223</v>
+        <v>220.8608828563383</v>
       </c>
     </row>
     <row r="18">
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.11213562693609</v>
+        <v>1.156127850152075</v>
       </c>
       <c r="C18" t="n">
-        <v>27.28745096538449</v>
+        <v>7.331443188600474</v>
       </c>
       <c r="D18" t="n">
-        <v>2.024017541707508</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>12.2240324324697</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>18.5052749037086</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>53.06043545941222</v>
+        <v>33.41923842887525</v>
       </c>
       <c r="U18" t="n">
-        <v>80.49285997949389</v>
+        <v>60.54199057179986</v>
       </c>
       <c r="V18" t="n">
-        <v>87.37953912649402</v>
+        <v>67.42353134971</v>
       </c>
       <c r="W18" t="n">
-        <v>106.2739351379884</v>
+        <v>86.31792736120434</v>
       </c>
       <c r="X18" t="n">
-        <v>60.35193718054623</v>
+        <v>40.39592940376221</v>
       </c>
       <c r="Y18" t="n">
-        <v>60.26164775437312</v>
+        <v>40.3056399775891</v>
       </c>
     </row>
     <row r="19">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.41093215900605</v>
+        <v>14.45492438222203</v>
       </c>
       <c r="C19" t="n">
-        <v>21.82577307569659</v>
+        <v>1.869765298912569</v>
       </c>
       <c r="D19" t="n">
-        <v>3.194424995281111</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.012914623637926</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>22.21982449848983</v>
+        <v>2.329295829453741</v>
       </c>
       <c r="H19" t="n">
-        <v>13.69335642430062</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>16.1302668452532</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.49414268130258</v>
+        <v>53.67925717318008</v>
       </c>
       <c r="T19" t="n">
-        <v>81.02863037437109</v>
+        <v>61.35239696705545</v>
       </c>
       <c r="U19" t="n">
-        <v>140.8788845969939</v>
+        <v>120.9264484079053</v>
       </c>
       <c r="V19" t="n">
-        <v>106.7165953008968</v>
+        <v>86.76058752411274</v>
       </c>
       <c r="W19" t="n">
-        <v>141.1019503136598</v>
+        <v>121.1459425368757</v>
       </c>
       <c r="X19" t="n">
-        <v>80.28860736610591</v>
+        <v>60.33259958932189</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.16360532916354</v>
+        <v>53.20759755237953</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.3127936405493</v>
+        <v>217.3567858637653</v>
       </c>
       <c r="C20" t="n">
-        <v>219.8518437480763</v>
+        <v>199.8958359712923</v>
       </c>
       <c r="D20" t="n">
-        <v>209.2619935977517</v>
+        <v>189.3059858209677</v>
       </c>
       <c r="E20" t="n">
-        <v>236.5093220493305</v>
+        <v>216.5533142725465</v>
       </c>
       <c r="F20" t="n">
-        <v>261.4549977187802</v>
+        <v>241.4989899419962</v>
       </c>
       <c r="G20" t="n">
-        <v>269.1011863561856</v>
+        <v>249.2911530178711</v>
       </c>
       <c r="H20" t="n">
-        <v>186.0604263510894</v>
+        <v>167.5993792922817</v>
       </c>
       <c r="I20" t="n">
-        <v>34.96449439613252</v>
+        <v>20.63616615844603</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>45.81330635129907</v>
+        <v>29.18369109114005</v>
       </c>
       <c r="T20" t="n">
-        <v>74.25814906328038</v>
+        <v>54.94114439089685</v>
       </c>
       <c r="U20" t="n">
-        <v>105.8621646340238</v>
+        <v>85.91783481231732</v>
       </c>
       <c r="V20" t="n">
-        <v>182.3312104472037</v>
+        <v>162.3752026704196</v>
       </c>
       <c r="W20" t="n">
-        <v>203.8199206944818</v>
+        <v>183.8639129176977</v>
       </c>
       <c r="X20" t="n">
-        <v>224.3100526555378</v>
+        <v>204.3540448787538</v>
       </c>
       <c r="Y20" t="n">
-        <v>240.8168906331223</v>
+        <v>220.8608828563383</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21.11213562693609</v>
+        <v>1.156127850152075</v>
       </c>
       <c r="C21" t="n">
-        <v>27.28745096538449</v>
+        <v>7.331443188600474</v>
       </c>
       <c r="D21" t="n">
-        <v>2.024017541707508</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>12.2240324324697</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>18.5052749037086</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>53.06043545941221</v>
+        <v>33.41923842887525</v>
       </c>
       <c r="U21" t="n">
-        <v>80.49285997949387</v>
+        <v>60.54199057179986</v>
       </c>
       <c r="V21" t="n">
-        <v>87.37953912649402</v>
+        <v>67.42353134971</v>
       </c>
       <c r="W21" t="n">
-        <v>106.2739351379884</v>
+        <v>86.31792736120434</v>
       </c>
       <c r="X21" t="n">
-        <v>60.35193718054623</v>
+        <v>40.39592940376221</v>
       </c>
       <c r="Y21" t="n">
-        <v>60.26164775437312</v>
+        <v>40.3056399775891</v>
       </c>
     </row>
     <row r="22">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.41093215900605</v>
+        <v>14.45492438222203</v>
       </c>
       <c r="C22" t="n">
-        <v>21.82577307569659</v>
+        <v>1.869765298912569</v>
       </c>
       <c r="D22" t="n">
-        <v>3.194424995281111</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.012914623637926</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>22.21982449848984</v>
+        <v>2.329295829453741</v>
       </c>
       <c r="H22" t="n">
-        <v>13.69335642430061</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>16.1302668452532</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.49414268130258</v>
+        <v>53.67925717318005</v>
       </c>
       <c r="T22" t="n">
-        <v>81.02863037437108</v>
+        <v>61.35239696705545</v>
       </c>
       <c r="U22" t="n">
-        <v>140.8788845969939</v>
+        <v>120.9264484079053</v>
       </c>
       <c r="V22" t="n">
-        <v>106.7165953008968</v>
+        <v>86.76058752411274</v>
       </c>
       <c r="W22" t="n">
-        <v>141.1019503136598</v>
+        <v>121.1459425368757</v>
       </c>
       <c r="X22" t="n">
-        <v>80.28860736610591</v>
+        <v>60.33259958932189</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.16360532916354</v>
+        <v>53.20759755237953</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.3127936405493</v>
+        <v>217.3567858637653</v>
       </c>
       <c r="C23" t="n">
-        <v>219.8518437480763</v>
+        <v>199.8958359712923</v>
       </c>
       <c r="D23" t="n">
-        <v>209.2619935977517</v>
+        <v>189.3059858209677</v>
       </c>
       <c r="E23" t="n">
-        <v>236.5093220493305</v>
+        <v>216.5533142725465</v>
       </c>
       <c r="F23" t="n">
-        <v>261.4549977187802</v>
+        <v>241.4989899419962</v>
       </c>
       <c r="G23" t="n">
-        <v>269.1011863561856</v>
+        <v>249.2911530178711</v>
       </c>
       <c r="H23" t="n">
-        <v>186.0604263510894</v>
+        <v>167.5993792922817</v>
       </c>
       <c r="I23" t="n">
-        <v>34.96449439613252</v>
+        <v>20.63616615844603</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>45.81330635129907</v>
+        <v>29.18369109114005</v>
       </c>
       <c r="T23" t="n">
-        <v>74.25814906328038</v>
+        <v>54.94114439089685</v>
       </c>
       <c r="U23" t="n">
-        <v>105.8621646340238</v>
+        <v>85.91783481231732</v>
       </c>
       <c r="V23" t="n">
-        <v>182.3312104472037</v>
+        <v>162.3752026704196</v>
       </c>
       <c r="W23" t="n">
-        <v>203.8199206944818</v>
+        <v>183.8639129176977</v>
       </c>
       <c r="X23" t="n">
-        <v>224.3100526555378</v>
+        <v>204.3540448787538</v>
       </c>
       <c r="Y23" t="n">
-        <v>240.8168906331223</v>
+        <v>220.8608828563383</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.11213562693609</v>
+        <v>1.156127850152075</v>
       </c>
       <c r="C24" t="n">
-        <v>27.28745096538449</v>
+        <v>7.331443188600474</v>
       </c>
       <c r="D24" t="n">
-        <v>2.024017541707508</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>12.2240324324697</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>18.5052749037086</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>53.06043545941221</v>
+        <v>33.41923842887525</v>
       </c>
       <c r="U24" t="n">
-        <v>80.49285997949387</v>
+        <v>60.54199057179986</v>
       </c>
       <c r="V24" t="n">
-        <v>87.37953912649402</v>
+        <v>67.42353134971</v>
       </c>
       <c r="W24" t="n">
-        <v>106.2739351379884</v>
+        <v>86.31792736120434</v>
       </c>
       <c r="X24" t="n">
-        <v>60.35193718054623</v>
+        <v>40.39592940376221</v>
       </c>
       <c r="Y24" t="n">
-        <v>60.26164775437312</v>
+        <v>40.3056399775891</v>
       </c>
     </row>
     <row r="25">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.41093215900605</v>
+        <v>14.45492438222203</v>
       </c>
       <c r="C25" t="n">
-        <v>21.82577307569659</v>
+        <v>1.869765298912569</v>
       </c>
       <c r="D25" t="n">
-        <v>3.194424995281111</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.012914623637926</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>22.21982449848984</v>
+        <v>2.329295829453741</v>
       </c>
       <c r="H25" t="n">
-        <v>13.69335642430061</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>16.1302668452532</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.49414268130258</v>
+        <v>53.67925717318005</v>
       </c>
       <c r="T25" t="n">
-        <v>81.02863037437108</v>
+        <v>61.35239696705545</v>
       </c>
       <c r="U25" t="n">
-        <v>140.8788845969939</v>
+        <v>120.9264484079053</v>
       </c>
       <c r="V25" t="n">
-        <v>106.7165953008968</v>
+        <v>86.76058752411274</v>
       </c>
       <c r="W25" t="n">
-        <v>141.1019503136598</v>
+        <v>121.1459425368757</v>
       </c>
       <c r="X25" t="n">
-        <v>80.28860736610591</v>
+        <v>60.33259958932189</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.16360532916354</v>
+        <v>53.20759755237953</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>281.8930038402349</v>
+        <v>272.7234370197215</v>
       </c>
       <c r="C26" t="n">
-        <v>264.4320539477619</v>
+        <v>255.2624871272484</v>
       </c>
       <c r="D26" t="n">
-        <v>253.8422037974373</v>
+        <v>244.6726369769239</v>
       </c>
       <c r="E26" t="n">
-        <v>281.0895322490161</v>
+        <v>271.9199654285027</v>
       </c>
       <c r="F26" t="n">
-        <v>306.0352079184658</v>
+        <v>296.8656410979523</v>
       </c>
       <c r="G26" t="n">
-        <v>313.6813965558712</v>
+        <v>304.6578041738273</v>
       </c>
       <c r="H26" t="n">
-        <v>230.640636550775</v>
+        <v>222.9660304482379</v>
       </c>
       <c r="I26" t="n">
-        <v>79.54470459581815</v>
+        <v>76.00281731440219</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>90.3935165509847</v>
+        <v>84.55034224709621</v>
       </c>
       <c r="T26" t="n">
-        <v>118.838359262966</v>
+        <v>110.307795546853</v>
       </c>
       <c r="U26" t="n">
-        <v>150.4423748337094</v>
+        <v>141.2844859682735</v>
       </c>
       <c r="V26" t="n">
-        <v>226.9114206468893</v>
+        <v>217.7418538263758</v>
       </c>
       <c r="W26" t="n">
-        <v>248.4001308941674</v>
+        <v>239.2305640736539</v>
       </c>
       <c r="X26" t="n">
-        <v>268.8902628552234</v>
+        <v>259.7206960347099</v>
       </c>
       <c r="Y26" t="n">
-        <v>285.397100832808</v>
+        <v>276.2275340122945</v>
       </c>
     </row>
     <row r="27">
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>65.69234582662172</v>
+        <v>56.52277900610824</v>
       </c>
       <c r="C27" t="n">
-        <v>71.86766116507012</v>
+        <v>62.69809434455664</v>
       </c>
       <c r="D27" t="n">
-        <v>46.60422774139313</v>
+        <v>37.43466092087965</v>
       </c>
       <c r="E27" t="n">
-        <v>56.80424263215532</v>
+        <v>47.63467581164184</v>
       </c>
       <c r="F27" t="n">
-        <v>44.22837457013826</v>
+        <v>35.05880774962478</v>
       </c>
       <c r="G27" t="n">
-        <v>36.08507334600962</v>
+        <v>26.99360973566405</v>
       </c>
       <c r="H27" t="n">
-        <v>7.361411682155222</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>63.08548510339422</v>
+        <v>55.36665115595616</v>
       </c>
       <c r="T27" t="n">
-        <v>97.64064565909784</v>
+        <v>88.78588958483141</v>
       </c>
       <c r="U27" t="n">
-        <v>125.0730701791795</v>
+        <v>115.908641727756</v>
       </c>
       <c r="V27" t="n">
-        <v>131.9597493261796</v>
+        <v>122.7901825056662</v>
       </c>
       <c r="W27" t="n">
-        <v>150.854145337674</v>
+        <v>141.6845785171605</v>
       </c>
       <c r="X27" t="n">
-        <v>104.9321473802319</v>
+        <v>95.76258055971837</v>
       </c>
       <c r="Y27" t="n">
-        <v>104.8418579540587</v>
+        <v>95.67229113354526</v>
       </c>
     </row>
     <row r="28">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.99114235869168</v>
+        <v>69.82157553817819</v>
       </c>
       <c r="C28" t="n">
-        <v>66.40598327538221</v>
+        <v>57.23641645486873</v>
       </c>
       <c r="D28" t="n">
-        <v>47.77463519496673</v>
+        <v>38.60506837445325</v>
       </c>
       <c r="E28" t="n">
-        <v>45.59312482332355</v>
+        <v>36.42355800281007</v>
       </c>
       <c r="F28" t="n">
-        <v>44.58021019968562</v>
+        <v>35.41064337917214</v>
       </c>
       <c r="G28" t="n">
-        <v>66.80003469817545</v>
+        <v>57.6959469854099</v>
       </c>
       <c r="H28" t="n">
-        <v>58.27356662398624</v>
+        <v>49.68616859781338</v>
       </c>
       <c r="I28" t="n">
-        <v>44.0809696774614</v>
+        <v>36.88053820631268</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>60.71047704493883</v>
+        <v>54.48508901461824</v>
       </c>
       <c r="S28" t="n">
-        <v>117.0743528809882</v>
+        <v>109.0459083291362</v>
       </c>
       <c r="T28" t="n">
-        <v>125.6088405740567</v>
+        <v>116.7190481230116</v>
       </c>
       <c r="U28" t="n">
-        <v>185.4590947966796</v>
+        <v>176.2930995638615</v>
       </c>
       <c r="V28" t="n">
-        <v>151.2968055005824</v>
+        <v>142.1272386800689</v>
       </c>
       <c r="W28" t="n">
-        <v>185.6821605133454</v>
+        <v>176.5125936928319</v>
       </c>
       <c r="X28" t="n">
-        <v>124.8688175657915</v>
+        <v>115.6992507452781</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.7438155288492</v>
+        <v>108.5742487083357</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>281.8930038402349</v>
+        <v>272.7234370197215</v>
       </c>
       <c r="C29" t="n">
-        <v>264.4320539477619</v>
+        <v>255.2624871272484</v>
       </c>
       <c r="D29" t="n">
-        <v>253.8422037974373</v>
+        <v>244.6726369769239</v>
       </c>
       <c r="E29" t="n">
-        <v>281.0895322490161</v>
+        <v>271.9199654285027</v>
       </c>
       <c r="F29" t="n">
-        <v>306.0352079184658</v>
+        <v>296.8656410979523</v>
       </c>
       <c r="G29" t="n">
-        <v>313.6813965558712</v>
+        <v>304.6578041738273</v>
       </c>
       <c r="H29" t="n">
-        <v>230.640636550775</v>
+        <v>222.9660304482379</v>
       </c>
       <c r="I29" t="n">
-        <v>79.54470459581815</v>
+        <v>76.00281731440219</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>90.3935165509847</v>
+        <v>84.55034224709621</v>
       </c>
       <c r="T29" t="n">
-        <v>118.838359262966</v>
+        <v>110.307795546853</v>
       </c>
       <c r="U29" t="n">
-        <v>150.4423748337094</v>
+        <v>141.2844859682735</v>
       </c>
       <c r="V29" t="n">
-        <v>226.9114206468893</v>
+        <v>217.7418538263758</v>
       </c>
       <c r="W29" t="n">
-        <v>248.4001308941674</v>
+        <v>239.2305640736539</v>
       </c>
       <c r="X29" t="n">
-        <v>268.8902628552234</v>
+        <v>259.7206960347099</v>
       </c>
       <c r="Y29" t="n">
-        <v>285.397100832808</v>
+        <v>276.2275340122945</v>
       </c>
     </row>
     <row r="30">
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>65.69234582662172</v>
+        <v>56.52277900610824</v>
       </c>
       <c r="C30" t="n">
-        <v>71.86766116507012</v>
+        <v>62.69809434455664</v>
       </c>
       <c r="D30" t="n">
-        <v>46.60422774139313</v>
+        <v>37.43466092087965</v>
       </c>
       <c r="E30" t="n">
-        <v>56.80424263215532</v>
+        <v>47.63467581164184</v>
       </c>
       <c r="F30" t="n">
-        <v>44.22837457013826</v>
+        <v>35.05880774962478</v>
       </c>
       <c r="G30" t="n">
-        <v>36.08507334600962</v>
+        <v>26.99360973566405</v>
       </c>
       <c r="H30" t="n">
-        <v>7.361411682155222</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>63.08548510339422</v>
+        <v>55.36665115595616</v>
       </c>
       <c r="T30" t="n">
-        <v>97.64064565909784</v>
+        <v>88.78588958483141</v>
       </c>
       <c r="U30" t="n">
-        <v>125.0730701791795</v>
+        <v>115.908641727756</v>
       </c>
       <c r="V30" t="n">
-        <v>131.9597493261796</v>
+        <v>122.7901825056662</v>
       </c>
       <c r="W30" t="n">
-        <v>150.854145337674</v>
+        <v>141.6845785171605</v>
       </c>
       <c r="X30" t="n">
-        <v>104.9321473802319</v>
+        <v>95.76258055971837</v>
       </c>
       <c r="Y30" t="n">
-        <v>104.8418579540587</v>
+        <v>95.67229113354526</v>
       </c>
     </row>
     <row r="31">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.99114235869168</v>
+        <v>69.82157553817819</v>
       </c>
       <c r="C31" t="n">
-        <v>66.40598327538221</v>
+        <v>57.23641645486873</v>
       </c>
       <c r="D31" t="n">
-        <v>47.77463519496673</v>
+        <v>38.60506837445325</v>
       </c>
       <c r="E31" t="n">
-        <v>45.59312482332355</v>
+        <v>36.42355800281007</v>
       </c>
       <c r="F31" t="n">
-        <v>44.58021019968562</v>
+        <v>35.41064337917214</v>
       </c>
       <c r="G31" t="n">
-        <v>66.80003469817545</v>
+        <v>57.6959469854099</v>
       </c>
       <c r="H31" t="n">
-        <v>58.27356662398624</v>
+        <v>49.68616859781338</v>
       </c>
       <c r="I31" t="n">
-        <v>44.0809696774614</v>
+        <v>36.88053820631268</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>60.71047704493883</v>
+        <v>54.48508901461824</v>
       </c>
       <c r="S31" t="n">
-        <v>117.0743528809882</v>
+        <v>109.0459083291362</v>
       </c>
       <c r="T31" t="n">
-        <v>125.6088405740567</v>
+        <v>116.7190481230116</v>
       </c>
       <c r="U31" t="n">
-        <v>185.4590947966796</v>
+        <v>176.2930995638615</v>
       </c>
       <c r="V31" t="n">
-        <v>151.2968055005824</v>
+        <v>142.1272386800689</v>
       </c>
       <c r="W31" t="n">
-        <v>185.6821605133454</v>
+        <v>176.5125936928319</v>
       </c>
       <c r="X31" t="n">
-        <v>124.8688175657915</v>
+        <v>115.6992507452781</v>
       </c>
       <c r="Y31" t="n">
-        <v>117.7438155288492</v>
+        <v>108.5742487083357</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>236.2998790169114</v>
+        <v>215.3236688585487</v>
       </c>
       <c r="C32" t="n">
-        <v>218.8389291244384</v>
+        <v>197.8627189660756</v>
       </c>
       <c r="D32" t="n">
-        <v>208.2490789741138</v>
+        <v>187.2728688157511</v>
       </c>
       <c r="E32" t="n">
-        <v>235.4964074256926</v>
+        <v>214.5201972673299</v>
       </c>
       <c r="F32" t="n">
-        <v>260.4420830951423</v>
+        <v>239.4658729367795</v>
       </c>
       <c r="G32" t="n">
-        <v>268.0882717325476</v>
+        <v>247.2580360126545</v>
       </c>
       <c r="H32" t="n">
-        <v>185.0475117274515</v>
+        <v>165.5662622870651</v>
       </c>
       <c r="I32" t="n">
-        <v>33.9515797724946</v>
+        <v>18.60304915322939</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>44.80039172766115</v>
+        <v>27.15057408592341</v>
       </c>
       <c r="T32" t="n">
-        <v>73.24523443964247</v>
+        <v>52.90802738568021</v>
       </c>
       <c r="U32" t="n">
-        <v>104.8492500103859</v>
+        <v>83.88471780710069</v>
       </c>
       <c r="V32" t="n">
-        <v>181.3182958235657</v>
+        <v>160.342085665203</v>
       </c>
       <c r="W32" t="n">
-        <v>202.8070060708438</v>
+        <v>181.8307959124811</v>
       </c>
       <c r="X32" t="n">
-        <v>223.2971380318999</v>
+        <v>202.3209278735371</v>
       </c>
       <c r="Y32" t="n">
-        <v>239.8039760094844</v>
+        <v>218.8277658511217</v>
       </c>
     </row>
     <row r="33">
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.09922100329817</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>26.27453634174657</v>
+        <v>5.298326183383836</v>
       </c>
       <c r="D33" t="n">
-        <v>1.011102918069582</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>11.21111780883177</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>17.49236028007067</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>52.04752083577429</v>
+        <v>31.38612142365861</v>
       </c>
       <c r="U33" t="n">
-        <v>79.47994535585596</v>
+        <v>58.50887356658322</v>
       </c>
       <c r="V33" t="n">
-        <v>86.3666245028561</v>
+        <v>65.39041434449337</v>
       </c>
       <c r="W33" t="n">
-        <v>105.2610205143504</v>
+        <v>84.2848103559877</v>
       </c>
       <c r="X33" t="n">
-        <v>59.3390225569083</v>
+        <v>38.36281239854557</v>
       </c>
       <c r="Y33" t="n">
-        <v>59.24873313073519</v>
+        <v>38.27252297237246</v>
       </c>
     </row>
     <row r="34">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.39801753536813</v>
+        <v>12.42180737700539</v>
       </c>
       <c r="C34" t="n">
-        <v>20.81285845205866</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2.181510371643185</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>21.2069098748519</v>
+        <v>0.2961788242371028</v>
       </c>
       <c r="H34" t="n">
-        <v>12.68044180066269</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>15.11735222161528</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>71.48122805766465</v>
+        <v>51.64614016796341</v>
       </c>
       <c r="T34" t="n">
-        <v>80.01571575073316</v>
+        <v>59.31927996183882</v>
       </c>
       <c r="U34" t="n">
-        <v>139.865969973356</v>
+        <v>118.8933314026887</v>
       </c>
       <c r="V34" t="n">
-        <v>105.7036806772588</v>
+        <v>84.7274705188961</v>
       </c>
       <c r="W34" t="n">
-        <v>140.0890356900218</v>
+        <v>119.1128255316591</v>
       </c>
       <c r="X34" t="n">
-        <v>79.27569274246798</v>
+        <v>58.29948258410525</v>
       </c>
       <c r="Y34" t="n">
-        <v>72.15069070552562</v>
+        <v>51.17448054716289</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.2998790169114</v>
+        <v>215.3236688585487</v>
       </c>
       <c r="C35" t="n">
-        <v>218.8389291244384</v>
+        <v>197.8627189660756</v>
       </c>
       <c r="D35" t="n">
-        <v>208.2490789741138</v>
+        <v>187.2728688157511</v>
       </c>
       <c r="E35" t="n">
-        <v>235.4964074256926</v>
+        <v>214.5201972673299</v>
       </c>
       <c r="F35" t="n">
-        <v>260.4420830951423</v>
+        <v>239.4658729367795</v>
       </c>
       <c r="G35" t="n">
-        <v>268.0882717325476</v>
+        <v>247.2580360126545</v>
       </c>
       <c r="H35" t="n">
-        <v>185.0475117274515</v>
+        <v>165.5662622870651</v>
       </c>
       <c r="I35" t="n">
-        <v>33.9515797724946</v>
+        <v>18.60304915322939</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.80039172766115</v>
+        <v>27.15057408592341</v>
       </c>
       <c r="T35" t="n">
-        <v>73.24523443964247</v>
+        <v>52.90802738568021</v>
       </c>
       <c r="U35" t="n">
-        <v>104.8492500103859</v>
+        <v>83.88471780710069</v>
       </c>
       <c r="V35" t="n">
-        <v>181.3182958235657</v>
+        <v>160.342085665203</v>
       </c>
       <c r="W35" t="n">
-        <v>202.8070060708438</v>
+        <v>181.8307959124811</v>
       </c>
       <c r="X35" t="n">
-        <v>223.2971380318999</v>
+        <v>202.3209278735371</v>
       </c>
       <c r="Y35" t="n">
-        <v>239.8039760094844</v>
+        <v>218.8277658511217</v>
       </c>
     </row>
     <row r="36">
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.09922100329817</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>26.27453634174657</v>
+        <v>5.298326183383836</v>
       </c>
       <c r="D36" t="n">
-        <v>1.011102918069582</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>11.21111780883177</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>17.49236028007067</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>52.04752083577429</v>
+        <v>31.38612142365861</v>
       </c>
       <c r="U36" t="n">
-        <v>79.47994535585596</v>
+        <v>58.50887356658322</v>
       </c>
       <c r="V36" t="n">
-        <v>86.3666245028561</v>
+        <v>65.39041434449337</v>
       </c>
       <c r="W36" t="n">
-        <v>105.2610205143504</v>
+        <v>84.2848103559877</v>
       </c>
       <c r="X36" t="n">
-        <v>59.3390225569083</v>
+        <v>38.36281239854557</v>
       </c>
       <c r="Y36" t="n">
-        <v>59.24873313073519</v>
+        <v>38.27252297237246</v>
       </c>
     </row>
     <row r="37">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.39801753536813</v>
+        <v>12.42180737700539</v>
       </c>
       <c r="C37" t="n">
-        <v>20.81285845205866</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.181510371643185</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>21.2069098748519</v>
+        <v>0.2961788242371028</v>
       </c>
       <c r="H37" t="n">
-        <v>12.68044180066269</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>15.11735222161528</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>71.48122805766465</v>
+        <v>51.64614016796341</v>
       </c>
       <c r="T37" t="n">
-        <v>80.01571575073316</v>
+        <v>59.31927996183882</v>
       </c>
       <c r="U37" t="n">
-        <v>139.865969973356</v>
+        <v>118.8933314026887</v>
       </c>
       <c r="V37" t="n">
-        <v>105.7036806772588</v>
+        <v>84.7274705188961</v>
       </c>
       <c r="W37" t="n">
-        <v>140.0890356900218</v>
+        <v>119.1128255316591</v>
       </c>
       <c r="X37" t="n">
-        <v>79.27569274246798</v>
+        <v>58.29948258410525</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.15069070552562</v>
+        <v>51.17448054716289</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.2998790169114</v>
+        <v>215.3236688585487</v>
       </c>
       <c r="C38" t="n">
-        <v>218.8389291244384</v>
+        <v>197.8627189660756</v>
       </c>
       <c r="D38" t="n">
-        <v>208.2490789741138</v>
+        <v>187.2728688157511</v>
       </c>
       <c r="E38" t="n">
-        <v>235.4964074256926</v>
+        <v>214.5201972673299</v>
       </c>
       <c r="F38" t="n">
-        <v>260.4420830951423</v>
+        <v>239.4658729367795</v>
       </c>
       <c r="G38" t="n">
-        <v>268.0882717325476</v>
+        <v>247.2580360126545</v>
       </c>
       <c r="H38" t="n">
-        <v>185.0475117274515</v>
+        <v>165.5662622870651</v>
       </c>
       <c r="I38" t="n">
-        <v>33.9515797724946</v>
+        <v>18.60304915322939</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.80039172766115</v>
+        <v>27.15057408592341</v>
       </c>
       <c r="T38" t="n">
-        <v>73.24523443964247</v>
+        <v>52.90802738568021</v>
       </c>
       <c r="U38" t="n">
-        <v>104.8492500103859</v>
+        <v>83.88471780710069</v>
       </c>
       <c r="V38" t="n">
-        <v>181.3182958235657</v>
+        <v>160.342085665203</v>
       </c>
       <c r="W38" t="n">
-        <v>202.8070060708438</v>
+        <v>181.8307959124811</v>
       </c>
       <c r="X38" t="n">
-        <v>223.2971380318999</v>
+        <v>202.3209278735371</v>
       </c>
       <c r="Y38" t="n">
-        <v>239.8039760094844</v>
+        <v>218.8277658511217</v>
       </c>
     </row>
     <row r="39">
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.09922100329817</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>26.27453634174657</v>
+        <v>5.298326183383836</v>
       </c>
       <c r="D39" t="n">
-        <v>1.011102918069582</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>11.21111780883177</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>17.49236028007067</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>52.04752083577429</v>
+        <v>31.38612142365861</v>
       </c>
       <c r="U39" t="n">
-        <v>79.47994535585596</v>
+        <v>58.50887356658322</v>
       </c>
       <c r="V39" t="n">
-        <v>86.3666245028561</v>
+        <v>65.39041434449337</v>
       </c>
       <c r="W39" t="n">
-        <v>105.2610205143504</v>
+        <v>84.2848103559877</v>
       </c>
       <c r="X39" t="n">
-        <v>59.3390225569083</v>
+        <v>38.36281239854557</v>
       </c>
       <c r="Y39" t="n">
-        <v>59.24873313073519</v>
+        <v>38.27252297237246</v>
       </c>
     </row>
     <row r="40">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.39801753536813</v>
+        <v>12.42180737700539</v>
       </c>
       <c r="C40" t="n">
-        <v>20.81285845205866</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.181510371643185</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>21.2069098748519</v>
+        <v>0.2961788242371028</v>
       </c>
       <c r="H40" t="n">
-        <v>12.68044180066269</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>15.11735222161528</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>71.48122805766465</v>
+        <v>51.64614016796341</v>
       </c>
       <c r="T40" t="n">
-        <v>80.01571575073316</v>
+        <v>59.31927996183882</v>
       </c>
       <c r="U40" t="n">
-        <v>139.865969973356</v>
+        <v>118.8933314026887</v>
       </c>
       <c r="V40" t="n">
-        <v>105.7036806772588</v>
+        <v>84.7274705188961</v>
       </c>
       <c r="W40" t="n">
-        <v>140.0890356900218</v>
+        <v>119.1128255316591</v>
       </c>
       <c r="X40" t="n">
-        <v>79.27569274246798</v>
+        <v>58.29948258410525</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.15069070552562</v>
+        <v>51.17448054716289</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>299.9219183226267</v>
+        <v>305.0262300959763</v>
       </c>
       <c r="C41" t="n">
-        <v>282.4609684301536</v>
+        <v>287.5652802035033</v>
       </c>
       <c r="D41" t="n">
-        <v>271.871118279829</v>
+        <v>276.9754300531787</v>
       </c>
       <c r="E41" t="n">
-        <v>299.1184467314079</v>
+        <v>304.2227585047575</v>
       </c>
       <c r="F41" t="n">
-        <v>324.0641224008575</v>
+        <v>329.1684341742072</v>
       </c>
       <c r="G41" t="n">
-        <v>331.7103110382628</v>
+        <v>336.9605972500821</v>
       </c>
       <c r="H41" t="n">
-        <v>248.6695510331667</v>
+        <v>255.2688235244927</v>
       </c>
       <c r="I41" t="n">
-        <v>97.57361907820982</v>
+        <v>108.305610390657</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>18.02891448239167</v>
+        <v>32.30279307625453</v>
       </c>
       <c r="S41" t="n">
-        <v>108.4224310333764</v>
+        <v>116.853135323351</v>
       </c>
       <c r="T41" t="n">
-        <v>136.8672737453577</v>
+        <v>142.6105886231078</v>
       </c>
       <c r="U41" t="n">
-        <v>168.4712893161011</v>
+        <v>173.5872790445283</v>
       </c>
       <c r="V41" t="n">
-        <v>244.940335129281</v>
+        <v>250.0446469026306</v>
       </c>
       <c r="W41" t="n">
-        <v>266.4290453765591</v>
+        <v>271.5333571499087</v>
       </c>
       <c r="X41" t="n">
-        <v>286.9191773376151</v>
+        <v>292.0234891109648</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.4260153151996</v>
+        <v>308.5303270885493</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83.72126030901339</v>
+        <v>88.82557208236305</v>
       </c>
       <c r="C42" t="n">
-        <v>89.89657564746179</v>
+        <v>95.00088742081145</v>
       </c>
       <c r="D42" t="n">
-        <v>64.6331422237848</v>
+        <v>69.73745399713447</v>
       </c>
       <c r="E42" t="n">
-        <v>74.83315711454699</v>
+        <v>79.93746888789666</v>
       </c>
       <c r="F42" t="n">
-        <v>62.25728905252993</v>
+        <v>67.36160082587959</v>
       </c>
       <c r="G42" t="n">
-        <v>54.11398782840129</v>
+        <v>59.29640281191887</v>
       </c>
       <c r="H42" t="n">
-        <v>25.39032616454689</v>
+        <v>31.2489505203079</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.371269044369257</v>
       </c>
       <c r="S42" t="n">
-        <v>81.11439958578589</v>
+        <v>87.66944423221098</v>
       </c>
       <c r="T42" t="n">
-        <v>115.6695601414895</v>
+        <v>121.0886826610862</v>
       </c>
       <c r="U42" t="n">
-        <v>143.1019846615712</v>
+        <v>148.2114348040108</v>
       </c>
       <c r="V42" t="n">
-        <v>149.9886638085713</v>
+        <v>155.092975581921</v>
       </c>
       <c r="W42" t="n">
-        <v>168.8830598200657</v>
+        <v>173.9873715934153</v>
       </c>
       <c r="X42" t="n">
-        <v>122.9610618626235</v>
+        <v>128.0653736359732</v>
       </c>
       <c r="Y42" t="n">
-        <v>122.8707724364504</v>
+        <v>127.9750842098001</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.02005684108335</v>
+        <v>102.124368614433</v>
       </c>
       <c r="C43" t="n">
-        <v>84.43489775777388</v>
+        <v>89.53920953112355</v>
       </c>
       <c r="D43" t="n">
-        <v>65.8035496773584</v>
+        <v>70.90786145070807</v>
       </c>
       <c r="E43" t="n">
-        <v>63.62203930571522</v>
+        <v>68.72635107906488</v>
       </c>
       <c r="F43" t="n">
-        <v>62.60912468207729</v>
+        <v>67.71343645542696</v>
       </c>
       <c r="G43" t="n">
-        <v>84.82894918056712</v>
+        <v>89.99874006166472</v>
       </c>
       <c r="H43" t="n">
-        <v>76.30248110637791</v>
+        <v>81.98896167406819</v>
       </c>
       <c r="I43" t="n">
-        <v>62.10988415985307</v>
+        <v>69.18333128256749</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>78.7393915273305</v>
+        <v>86.78788209087305</v>
       </c>
       <c r="S43" t="n">
-        <v>135.1032673633799</v>
+        <v>141.348701405391</v>
       </c>
       <c r="T43" t="n">
-        <v>143.6377550564484</v>
+        <v>149.0218411992664</v>
       </c>
       <c r="U43" t="n">
-        <v>203.4880092790712</v>
+        <v>208.5958926401163</v>
       </c>
       <c r="V43" t="n">
-        <v>169.3257199829741</v>
+        <v>174.4300317563237</v>
       </c>
       <c r="W43" t="n">
-        <v>203.7110749957371</v>
+        <v>208.8153867690867</v>
       </c>
       <c r="X43" t="n">
-        <v>142.8977320481832</v>
+        <v>148.0020438215329</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.7727300112408</v>
+        <v>140.8770417845905</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>299.9219183226267</v>
+        <v>305.0262300959763</v>
       </c>
       <c r="C44" t="n">
-        <v>282.4609684301536</v>
+        <v>287.5652802035033</v>
       </c>
       <c r="D44" t="n">
-        <v>271.871118279829</v>
+        <v>276.9754300531787</v>
       </c>
       <c r="E44" t="n">
-        <v>299.1184467314079</v>
+        <v>304.2227585047575</v>
       </c>
       <c r="F44" t="n">
-        <v>324.0641224008575</v>
+        <v>329.1684341742072</v>
       </c>
       <c r="G44" t="n">
-        <v>331.7103110382628</v>
+        <v>336.9605972500821</v>
       </c>
       <c r="H44" t="n">
-        <v>248.6695510331667</v>
+        <v>255.2688235244927</v>
       </c>
       <c r="I44" t="n">
-        <v>97.57361907820982</v>
+        <v>108.305610390657</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>18.02891448239167</v>
+        <v>32.30279307625453</v>
       </c>
       <c r="S44" t="n">
-        <v>108.4224310333764</v>
+        <v>116.853135323351</v>
       </c>
       <c r="T44" t="n">
-        <v>136.8672737453577</v>
+        <v>142.6105886231078</v>
       </c>
       <c r="U44" t="n">
-        <v>168.4712893161011</v>
+        <v>173.5872790445283</v>
       </c>
       <c r="V44" t="n">
-        <v>244.940335129281</v>
+        <v>250.0446469026306</v>
       </c>
       <c r="W44" t="n">
-        <v>266.4290453765591</v>
+        <v>271.5333571499087</v>
       </c>
       <c r="X44" t="n">
-        <v>286.9191773376151</v>
+        <v>292.0234891109648</v>
       </c>
       <c r="Y44" t="n">
-        <v>303.4260153151996</v>
+        <v>308.5303270885493</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>83.72126030901339</v>
+        <v>88.82557208236305</v>
       </c>
       <c r="C45" t="n">
-        <v>89.89657564746179</v>
+        <v>95.00088742081145</v>
       </c>
       <c r="D45" t="n">
-        <v>64.6331422237848</v>
+        <v>69.73745399713447</v>
       </c>
       <c r="E45" t="n">
-        <v>74.83315711454699</v>
+        <v>79.93746888789666</v>
       </c>
       <c r="F45" t="n">
-        <v>62.25728905252993</v>
+        <v>67.36160082587959</v>
       </c>
       <c r="G45" t="n">
-        <v>54.11398782840129</v>
+        <v>59.29640281191887</v>
       </c>
       <c r="H45" t="n">
-        <v>25.39032616454689</v>
+        <v>31.2489505203079</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.371269044369257</v>
       </c>
       <c r="S45" t="n">
-        <v>81.11439958578589</v>
+        <v>87.66944423221098</v>
       </c>
       <c r="T45" t="n">
-        <v>115.6695601414895</v>
+        <v>121.0886826610862</v>
       </c>
       <c r="U45" t="n">
-        <v>143.1019846615712</v>
+        <v>148.2114348040108</v>
       </c>
       <c r="V45" t="n">
-        <v>149.9886638085713</v>
+        <v>155.092975581921</v>
       </c>
       <c r="W45" t="n">
-        <v>168.8830598200657</v>
+        <v>173.9873715934153</v>
       </c>
       <c r="X45" t="n">
-        <v>122.9610618626235</v>
+        <v>128.0653736359732</v>
       </c>
       <c r="Y45" t="n">
-        <v>122.8707724364504</v>
+        <v>127.9750842098001</v>
       </c>
     </row>
     <row r="46">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.02005684108335</v>
+        <v>102.124368614433</v>
       </c>
       <c r="C46" t="n">
-        <v>84.43489775777388</v>
+        <v>89.53920953112355</v>
       </c>
       <c r="D46" t="n">
-        <v>65.8035496773584</v>
+        <v>70.90786145070807</v>
       </c>
       <c r="E46" t="n">
-        <v>63.62203930571522</v>
+        <v>68.72635107906488</v>
       </c>
       <c r="F46" t="n">
-        <v>62.60912468207729</v>
+        <v>67.71343645542696</v>
       </c>
       <c r="G46" t="n">
-        <v>84.82894918056712</v>
+        <v>89.99874006166472</v>
       </c>
       <c r="H46" t="n">
-        <v>76.30248110637791</v>
+        <v>81.98896167406819</v>
       </c>
       <c r="I46" t="n">
-        <v>62.10988415985307</v>
+        <v>69.18333128256749</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>78.7393915273305</v>
+        <v>86.78788209087305</v>
       </c>
       <c r="S46" t="n">
-        <v>135.1032673633799</v>
+        <v>141.348701405391</v>
       </c>
       <c r="T46" t="n">
-        <v>143.6377550564484</v>
+        <v>149.0218411992664</v>
       </c>
       <c r="U46" t="n">
-        <v>203.4880092790712</v>
+        <v>208.5958926401163</v>
       </c>
       <c r="V46" t="n">
-        <v>169.3257199829741</v>
+        <v>174.4300317563237</v>
       </c>
       <c r="W46" t="n">
-        <v>203.7110749957371</v>
+        <v>208.8153867690867</v>
       </c>
       <c r="X46" t="n">
-        <v>142.8977320481832</v>
+        <v>148.0020438215329</v>
       </c>
       <c r="Y46" t="n">
-        <v>135.7727300112408</v>
+        <v>140.8770417845905</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436513.6636987184</v>
+        <v>497459.010640237</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436513.6636987184</v>
+        <v>497459.010640237</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>485652.1286726755</v>
+        <v>517693.3455460367</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>485652.1286726753</v>
+        <v>517693.3455460366</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>485652.1286726753</v>
+        <v>517693.3455460365</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>426231.0966328507</v>
+        <v>451139.4306737513</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>426231.0966328507</v>
+        <v>451139.4306737513</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>486809.6672462764</v>
+        <v>519299.151077057</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>486809.6672462764</v>
+        <v>519299.1510770571</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>486809.6672462765</v>
+        <v>519299.1510770569</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>398967.0509959981</v>
+        <v>402270.3394916073</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>398967.0509959981</v>
+        <v>402270.3394916073</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132601</v>
       </c>
       <c r="C2" t="n">
         <v>757830.6133132604</v>
       </c>
       <c r="D2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132603</v>
       </c>
       <c r="E2" t="n">
-        <v>446694.2331546799</v>
+        <v>517932.1622312161</v>
       </c>
       <c r="F2" t="n">
-        <v>446694.2331546797</v>
+        <v>517932.1622312161</v>
       </c>
       <c r="G2" t="n">
-        <v>519638.9676225561</v>
+        <v>553537.4386533994</v>
       </c>
       <c r="H2" t="n">
-        <v>519638.9676225561</v>
+        <v>553537.4386533992</v>
       </c>
       <c r="I2" t="n">
-        <v>519638.9676225561</v>
+        <v>553537.4386533995</v>
       </c>
       <c r="J2" t="n">
-        <v>431907.1446663846</v>
+        <v>449199.8068463606</v>
       </c>
       <c r="K2" t="n">
-        <v>431907.1446663847</v>
+        <v>449199.8068463606</v>
       </c>
       <c r="L2" t="n">
-        <v>521509.4866705892</v>
+        <v>556834.1555739841</v>
       </c>
       <c r="M2" t="n">
-        <v>521509.4866705892</v>
+        <v>556834.1555739839</v>
       </c>
       <c r="N2" t="n">
-        <v>521509.4866705894</v>
+        <v>556834.1555739841</v>
       </c>
       <c r="O2" t="n">
-        <v>394364.4543048316</v>
+        <v>381921.3131892147</v>
       </c>
       <c r="P2" t="n">
-        <v>394364.454304831</v>
+        <v>381921.3131892146</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>242542.6166496977</v>
+        <v>242863.706889882</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29775.03881402432</v>
+        <v>16246.27472506511</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>50897.63144457217</v>
+        <v>71762.04898994211</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66249.53867268315</v>
+        <v>62166.08925400342</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>211231.5137503269</v>
+        <v>267626.5212482429</v>
       </c>
       <c r="F4" t="n">
-        <v>211231.5137503269</v>
+        <v>267626.5212482429</v>
       </c>
       <c r="G4" t="n">
-        <v>254860.2813443279</v>
+        <v>288596.8256573422</v>
       </c>
       <c r="H4" t="n">
-        <v>254860.2813443279</v>
+        <v>288596.8256573421</v>
       </c>
       <c r="I4" t="n">
-        <v>254860.2813443279</v>
+        <v>288596.8256573421</v>
       </c>
       <c r="J4" t="n">
-        <v>202359.3617572644</v>
+        <v>226515.581555942</v>
       </c>
       <c r="K4" t="n">
-        <v>202359.3617572644</v>
+        <v>226515.581555942</v>
       </c>
       <c r="L4" t="n">
-        <v>255970.15647707</v>
+        <v>290515.2509856169</v>
       </c>
       <c r="M4" t="n">
-        <v>255970.1564770699</v>
+        <v>290515.2509856169</v>
       </c>
       <c r="N4" t="n">
-        <v>255970.1564770699</v>
+        <v>290515.2509856169</v>
       </c>
       <c r="O4" t="n">
-        <v>179733.5380337523</v>
+        <v>185967.9957158583</v>
       </c>
       <c r="P4" t="n">
-        <v>179733.5380337523</v>
+        <v>185967.9957158583</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>13328.92829451231</v>
+        <v>15636.71411133136</v>
       </c>
       <c r="F5" t="n">
-        <v>13328.92829451231</v>
+        <v>15636.71411133136</v>
       </c>
       <c r="G5" t="n">
-        <v>16457.87546708257</v>
+        <v>17343.97419865824</v>
       </c>
       <c r="H5" t="n">
-        <v>16457.87546708257</v>
+        <v>17343.97419865824</v>
       </c>
       <c r="I5" t="n">
-        <v>16457.87546708257</v>
+        <v>17343.97419865824</v>
       </c>
       <c r="J5" t="n">
-        <v>12710.0617758052</v>
+        <v>12689.35520262817</v>
       </c>
       <c r="K5" t="n">
-        <v>12710.0617758052</v>
+        <v>12689.35520262817</v>
       </c>
       <c r="L5" t="n">
-        <v>16543.03018657719</v>
+        <v>17514.8963121698</v>
       </c>
       <c r="M5" t="n">
-        <v>16543.03018657719</v>
+        <v>17514.8963121698</v>
       </c>
       <c r="N5" t="n">
-        <v>16543.03018657719</v>
+        <v>17514.8963121698</v>
       </c>
       <c r="O5" t="n">
-        <v>11194.38896418501</v>
+        <v>9973.6916915005</v>
       </c>
       <c r="P5" t="n">
-        <v>11194.38896418501</v>
+        <v>9973.6916915005</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256587.0533815291</v>
+        <v>256542.9176028478</v>
       </c>
       <c r="C6" t="n">
-        <v>256587.0533815291</v>
+        <v>256542.917602848</v>
       </c>
       <c r="D6" t="n">
-        <v>256587.0533815291</v>
+        <v>256542.9176028479</v>
       </c>
       <c r="E6" t="n">
-        <v>-20408.82553985701</v>
+        <v>-14722.65771805764</v>
       </c>
       <c r="F6" t="n">
-        <v>222133.7911098405</v>
+        <v>228141.0491718244</v>
       </c>
       <c r="G6" t="n">
-        <v>218545.7719971214</v>
+        <v>225784.7911406835</v>
       </c>
       <c r="H6" t="n">
-        <v>248320.8108111457</v>
+        <v>242031.0658657486</v>
       </c>
       <c r="I6" t="n">
-        <v>248320.8108111457</v>
+        <v>242031.0658657488</v>
       </c>
       <c r="J6" t="n">
-        <v>165940.0896887428</v>
+        <v>129847.3121714132</v>
       </c>
       <c r="K6" t="n">
-        <v>216837.7211333151</v>
+        <v>201609.3611613553</v>
       </c>
       <c r="L6" t="n">
-        <v>182746.761334259</v>
+        <v>181161.4465478568</v>
       </c>
       <c r="M6" t="n">
-        <v>248996.3000069421</v>
+        <v>243327.53580186</v>
       </c>
       <c r="N6" t="n">
-        <v>248996.3000069422</v>
+        <v>243327.5358018602</v>
       </c>
       <c r="O6" t="n">
-        <v>203436.5273068943</v>
+        <v>175775.7791890113</v>
       </c>
       <c r="P6" t="n">
-        <v>203436.5273068937</v>
+        <v>175775.7791890112</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F2" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G2" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="H2" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="I2" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="J2" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="K2" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="L2" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="M2" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="N2" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="O2" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="P2" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>194.1501550845304</v>
+        <v>157.8390135152282</v>
       </c>
       <c r="F3" t="n">
-        <v>194.1501550845304</v>
+        <v>157.8390135152282</v>
       </c>
       <c r="G3" t="n">
-        <v>194.1501550845304</v>
+        <v>157.8390135152282</v>
       </c>
       <c r="H3" t="n">
-        <v>194.1501550845304</v>
+        <v>157.8390135152285</v>
       </c>
       <c r="I3" t="n">
-        <v>194.1501550845304</v>
+        <v>157.8390135152285</v>
       </c>
       <c r="J3" t="n">
-        <v>194.1501550845304</v>
+        <v>157.8390135152285</v>
       </c>
       <c r="K3" t="n">
-        <v>194.1501550845304</v>
+        <v>157.8390135152285</v>
       </c>
       <c r="L3" t="n">
-        <v>194.1501550845304</v>
+        <v>157.8390135152285</v>
       </c>
       <c r="M3" t="n">
-        <v>194.1501550845304</v>
+        <v>157.8390135152285</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1501550845304</v>
+        <v>157.8390135152285</v>
       </c>
       <c r="O3" t="n">
-        <v>194.1501550845304</v>
+        <v>157.8390135152285</v>
       </c>
       <c r="P3" t="n">
-        <v>194.1501550845304</v>
+        <v>157.8390135152285</v>
       </c>
     </row>
     <row r="4">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>37.2187985175304</v>
+        <v>20.30784340633139</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>63.62203930571522</v>
+        <v>89.70256123742763</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.81192334085394</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>194.1501550845304</v>
+        <v>157.8390135152282</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>37.2187985175304</v>
+        <v>20.30784340633139</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.62203930571522</v>
+        <v>89.70256123742763</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C11" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D11" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E11" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F11" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G11" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H11" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I11" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J11" t="n">
-        <v>108.2022495054008</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>108.2022495054008</v>
+        <v>139.3754212341757</v>
       </c>
       <c r="L11" t="n">
-        <v>103.5008109670803</v>
+        <v>135.6330275315777</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>118.9285460638323</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>116.1925217712403</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>123.1872643325856</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>139.9869758869009</v>
       </c>
       <c r="Q11" t="n">
-        <v>108.2022495054008</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S11" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T11" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U11" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V11" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W11" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X11" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y11" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="12">
@@ -28168,34 +28168,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C12" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D12" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E12" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F12" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>108.2022495054008</v>
+        <v>137.0040143794232</v>
       </c>
       <c r="H12" t="n">
-        <v>108.2022495054008</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I12" t="n">
-        <v>85.14427889232486</v>
+        <v>87.83335871608924</v>
       </c>
       <c r="J12" t="n">
-        <v>87.38301826406413</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>83.01918462916883</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -28210,34 +28210,34 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>54.22997862121434</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>108.2022495054008</v>
+        <v>124.6005504231944</v>
       </c>
       <c r="S12" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T12" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U12" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V12" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W12" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X12" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y12" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="13">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C13" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D13" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E13" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F13" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H13" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I13" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J13" t="n">
-        <v>102.2428680608323</v>
+        <v>106.8722409786104</v>
       </c>
       <c r="K13" t="n">
-        <v>88.33720928561246</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>82.83333798201843</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>84.12973930946535</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>95.38417350415432</v>
+        <v>9.20820042396875</v>
       </c>
       <c r="Q13" t="n">
-        <v>108.2022495054008</v>
+        <v>127.6713105886464</v>
       </c>
       <c r="R13" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S13" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T13" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U13" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V13" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W13" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X13" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="14">
@@ -28326,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>127.191074483116</v>
       </c>
       <c r="K14" t="n">
-        <v>108.2022495054008</v>
+        <v>139.3754212341757</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>118.9285460638323</v>
       </c>
       <c r="N14" t="n">
-        <v>90.14593777902118</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>98.59221366289808</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="R14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y14" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="15">
@@ -28405,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C15" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D15" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E15" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F15" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>108.2022495054008</v>
+        <v>137.0040143794232</v>
       </c>
       <c r="H15" t="n">
-        <v>108.2022495054008</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I15" t="n">
-        <v>85.14427889232486</v>
+        <v>87.83335871608924</v>
       </c>
       <c r="J15" t="n">
-        <v>87.38301826406413</v>
+        <v>94.76205883523716</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>83.01918462916883</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>64.83909332637066</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>12.15733189508348</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>43.23715517208103</v>
+        <v>61.81989570708043</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>69.14426618389622</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>96.64454154501018</v>
       </c>
       <c r="R15" t="n">
-        <v>108.2022495054008</v>
+        <v>124.6005504231944</v>
       </c>
       <c r="S15" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T15" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U15" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V15" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W15" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X15" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y15" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="16">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C16" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E16" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F16" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H16" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I16" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J16" t="n">
-        <v>102.2428680608323</v>
+        <v>106.8722409786104</v>
       </c>
       <c r="K16" t="n">
-        <v>88.33720928561246</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>82.83333798201843</v>
+        <v>12.8239353198361</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>74.10965003018561</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>98.22570267914166</v>
       </c>
       <c r="P16" t="n">
-        <v>95.38417350415432</v>
+        <v>103.3035739539575</v>
       </c>
       <c r="Q16" t="n">
-        <v>108.2022495054008</v>
+        <v>127.6713105886464</v>
       </c>
       <c r="R16" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S16" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T16" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U16" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V16" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W16" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X16" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.2022495054008</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="17">
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="C17" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="D17" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="E17" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="F17" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="G17" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="H17" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="I17" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="J17" t="n">
-        <v>114.8016764860605</v>
+        <v>127.191074483116</v>
       </c>
       <c r="K17" t="n">
-        <v>120.8069252567038</v>
+        <v>139.3754212341757</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>135.6330275315777</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>118.9285460638323</v>
       </c>
       <c r="N17" t="n">
-        <v>9.159037191988684</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>98.59221366289808</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>118.9956691669305</v>
+        <v>61.13257823823136</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="S17" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="T17" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="U17" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="V17" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="W17" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="X17" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
     </row>
     <row r="18">
@@ -28642,76 +28642,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="D18" t="n">
-        <v>145.4210480229312</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>145.4210480229312</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.9259111692552</v>
+        <v>137.0040143794232</v>
       </c>
       <c r="H18" t="n">
-        <v>108.2022495054008</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I18" t="n">
-        <v>85.14427889232486</v>
+        <v>87.83335871608924</v>
       </c>
       <c r="J18" t="n">
-        <v>87.38301826406413</v>
+        <v>94.76205883523716</v>
       </c>
       <c r="K18" t="n">
-        <v>70.40722897674431</v>
+        <v>83.01918462916883</v>
       </c>
       <c r="L18" t="n">
-        <v>47.88076253968853</v>
+        <v>64.83909332637066</v>
       </c>
       <c r="M18" t="n">
-        <v>36.32219940094926</v>
+        <v>56.11177155621895</v>
       </c>
       <c r="N18" t="n">
-        <v>22.72935315543171</v>
+        <v>43.04269639994163</v>
       </c>
       <c r="O18" t="n">
-        <v>43.23715517208103</v>
+        <v>61.81989570708043</v>
       </c>
       <c r="P18" t="n">
-        <v>54.22997862121434</v>
+        <v>69.14426618389622</v>
       </c>
       <c r="Q18" t="n">
-        <v>86.67473527866139</v>
+        <v>96.64454154501018</v>
       </c>
       <c r="R18" t="n">
-        <v>119.7513002339959</v>
+        <v>124.6005504231944</v>
       </c>
       <c r="S18" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="T18" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="U18" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="V18" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="W18" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="X18" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="Y18" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="C19" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="D19" t="n">
-        <v>145.4210480229312</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>145.4210480229312</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="H19" t="n">
-        <v>145.4210480229312</v>
+        <v>159.6965732415725</v>
       </c>
       <c r="I19" t="n">
-        <v>144.921807500707</v>
+        <v>146.8909428500718</v>
       </c>
       <c r="J19" t="n">
-        <v>102.2428680608323</v>
+        <v>106.8722409786104</v>
       </c>
       <c r="K19" t="n">
-        <v>88.33720928561246</v>
+        <v>95.94469107668922</v>
       </c>
       <c r="L19" t="n">
-        <v>82.83333798201843</v>
+        <v>92.56829551028677</v>
       </c>
       <c r="M19" t="n">
-        <v>84.04494584723527</v>
+        <v>94.30909361902999</v>
       </c>
       <c r="N19" t="n">
-        <v>74.10965003018561</v>
+        <v>84.12973930946535</v>
       </c>
       <c r="O19" t="n">
-        <v>88.97052843128083</v>
+        <v>98.22570267914166</v>
       </c>
       <c r="P19" t="n">
-        <v>95.38417350415432</v>
+        <v>103.3035739539575</v>
       </c>
       <c r="Q19" t="n">
-        <v>122.1883282116817</v>
+        <v>127.6713105886464</v>
       </c>
       <c r="R19" t="n">
-        <v>145.4210480229312</v>
+        <v>164.4954936583774</v>
       </c>
       <c r="S19" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="T19" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="U19" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="V19" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="W19" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="X19" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="Y19" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
     </row>
     <row r="20">
@@ -28800,40 +28800,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="C20" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="D20" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="E20" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="F20" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="G20" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="H20" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="I20" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="J20" t="n">
-        <v>114.8016764860605</v>
+        <v>127.1910744831159</v>
       </c>
       <c r="K20" t="n">
-        <v>117.3633292209876</v>
+        <v>139.3754212341755</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>42.98187678276773</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>118.928546063832</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28842,34 +28842,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>118.9956691669305</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.0201318447627</v>
+        <v>153.7837289870419</v>
       </c>
       <c r="R20" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="S20" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="T20" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="U20" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="V20" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="W20" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="X20" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
     </row>
     <row r="21">
@@ -28879,76 +28879,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="C21" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="D21" t="n">
-        <v>145.4210480229312</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>145.4210480229312</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.9259111692552</v>
+        <v>137.0040143794232</v>
       </c>
       <c r="H21" t="n">
-        <v>108.2022495054008</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I21" t="n">
-        <v>85.14427889232486</v>
+        <v>87.83335871608921</v>
       </c>
       <c r="J21" t="n">
-        <v>87.38301826406413</v>
+        <v>94.76205883523708</v>
       </c>
       <c r="K21" t="n">
-        <v>70.40722897674431</v>
+        <v>83.01918462916871</v>
       </c>
       <c r="L21" t="n">
-        <v>47.88076253968853</v>
+        <v>64.8390933263705</v>
       </c>
       <c r="M21" t="n">
-        <v>36.32219940094926</v>
+        <v>56.11177155621877</v>
       </c>
       <c r="N21" t="n">
-        <v>22.72935315543171</v>
+        <v>43.04269639994143</v>
       </c>
       <c r="O21" t="n">
-        <v>43.23715517208103</v>
+        <v>61.81989570708026</v>
       </c>
       <c r="P21" t="n">
-        <v>54.22997862121434</v>
+        <v>69.14426618389608</v>
       </c>
       <c r="Q21" t="n">
-        <v>86.67473527866139</v>
+        <v>96.64454154501009</v>
       </c>
       <c r="R21" t="n">
-        <v>119.7513002339959</v>
+        <v>124.6005504231944</v>
       </c>
       <c r="S21" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="T21" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="U21" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="V21" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="W21" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="X21" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="Y21" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="C22" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="D22" t="n">
-        <v>145.4210480229312</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>145.4210480229312</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="H22" t="n">
-        <v>145.4210480229312</v>
+        <v>159.6965732415725</v>
       </c>
       <c r="I22" t="n">
-        <v>144.921807500707</v>
+        <v>146.8909428500718</v>
       </c>
       <c r="J22" t="n">
-        <v>102.2428680608323</v>
+        <v>106.8722409786103</v>
       </c>
       <c r="K22" t="n">
-        <v>88.33720928561246</v>
+        <v>95.94469107668914</v>
       </c>
       <c r="L22" t="n">
-        <v>82.83333798201843</v>
+        <v>92.56829551028667</v>
       </c>
       <c r="M22" t="n">
-        <v>84.04494584723527</v>
+        <v>94.30909361902988</v>
       </c>
       <c r="N22" t="n">
-        <v>74.10965003018561</v>
+        <v>84.12973930946526</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>98.22570267914158</v>
       </c>
       <c r="P22" t="n">
-        <v>95.38417350415432</v>
+        <v>103.3035739539575</v>
       </c>
       <c r="Q22" t="n">
-        <v>122.1883282116817</v>
+        <v>127.6713105886463</v>
       </c>
       <c r="R22" t="n">
-        <v>145.4210480229312</v>
+        <v>164.4954936583773</v>
       </c>
       <c r="S22" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="T22" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="U22" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="V22" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="W22" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="X22" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="Y22" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="C23" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="D23" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="E23" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="F23" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="G23" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="H23" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="I23" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="J23" t="n">
-        <v>114.8016764860605</v>
+        <v>127.1910744831159</v>
       </c>
       <c r="K23" t="n">
-        <v>120.8069252567038</v>
+        <v>139.3754212341755</v>
       </c>
       <c r="L23" t="n">
-        <v>112.5971663327931</v>
+        <v>135.6330275315775</v>
       </c>
       <c r="M23" t="n">
-        <v>60.6941717417512</v>
+        <v>118.928546063832</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>98.59221366289808</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.0201318447627</v>
+        <v>153.7837289870419</v>
       </c>
       <c r="R23" t="n">
-        <v>145.4210480229312</v>
+        <v>153.451891653772</v>
       </c>
       <c r="S23" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="T23" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="U23" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="V23" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="W23" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="X23" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
     </row>
     <row r="24">
@@ -29116,76 +29116,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="C24" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="D24" t="n">
-        <v>145.4210480229312</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>145.4210480229312</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.9259111692552</v>
+        <v>137.0040143794232</v>
       </c>
       <c r="H24" t="n">
-        <v>108.2022495054008</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I24" t="n">
-        <v>85.14427889232486</v>
+        <v>87.83335871608921</v>
       </c>
       <c r="J24" t="n">
-        <v>87.38301826406413</v>
+        <v>94.76205883523708</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>83.01918462916871</v>
       </c>
       <c r="L24" t="n">
-        <v>47.88076253968853</v>
+        <v>64.8390933263705</v>
       </c>
       <c r="M24" t="n">
-        <v>36.32219940094926</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>22.72935315543171</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>43.23715517208103</v>
+        <v>61.81989570708026</v>
       </c>
       <c r="P24" t="n">
-        <v>54.22997862121434</v>
+        <v>69.14426618389608</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>96.64454154501009</v>
       </c>
       <c r="R24" t="n">
-        <v>119.7513002339959</v>
+        <v>124.6005504231944</v>
       </c>
       <c r="S24" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="T24" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="U24" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="V24" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="W24" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="X24" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="Y24" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
     </row>
     <row r="25">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="C25" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="D25" t="n">
-        <v>145.4210480229312</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>145.4210480229312</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="H25" t="n">
-        <v>145.4210480229312</v>
+        <v>159.6965732415725</v>
       </c>
       <c r="I25" t="n">
-        <v>144.921807500707</v>
+        <v>146.8909428500718</v>
       </c>
       <c r="J25" t="n">
-        <v>102.2428680608323</v>
+        <v>106.8722409786103</v>
       </c>
       <c r="K25" t="n">
-        <v>88.33720928561246</v>
+        <v>95.94469107668914</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>94.30909361902988</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>84.12973930946526</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>98.22570267914158</v>
       </c>
       <c r="P25" t="n">
-        <v>95.38417350415432</v>
+        <v>103.3035739539575</v>
       </c>
       <c r="Q25" t="n">
-        <v>122.1883282116817</v>
+        <v>127.6713105886463</v>
       </c>
       <c r="R25" t="n">
-        <v>145.4210480229312</v>
+        <v>164.4954936583773</v>
       </c>
       <c r="S25" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="T25" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="U25" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="V25" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="W25" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="X25" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="Y25" t="n">
-        <v>145.4210480229312</v>
+        <v>165.3770557997153</v>
       </c>
     </row>
     <row r="26">
@@ -29274,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="C26" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="D26" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="E26" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="F26" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="G26" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="H26" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="I26" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="J26" t="n">
-        <v>100.8408378232456</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>60.08407767898812</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="P26" t="n">
-        <v>100.8408378232456</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>100.8408378232456</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="S26" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="T26" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="U26" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="V26" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="W26" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="X26" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="Y26" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
     </row>
     <row r="27">
@@ -29353,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="C27" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="D27" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="E27" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="F27" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="G27" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="H27" t="n">
-        <v>100.8408378232456</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I27" t="n">
-        <v>85.14427889232486</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="J27" t="n">
-        <v>87.38301826406413</v>
+        <v>94.76205883523708</v>
       </c>
       <c r="K27" t="n">
-        <v>12.1898689719644</v>
+        <v>83.01918462916871</v>
       </c>
       <c r="L27" t="n">
-        <v>47.88076253968853</v>
+        <v>64.8390933263705</v>
       </c>
       <c r="M27" t="n">
-        <v>36.32219940094926</v>
+        <v>56.11177155621877</v>
       </c>
       <c r="N27" t="n">
-        <v>22.72935315543171</v>
+        <v>43.04269639994143</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>61.81989570708026</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>69.14426618389608</v>
       </c>
       <c r="Q27" t="n">
-        <v>86.67473527866139</v>
+        <v>96.64454154501009</v>
       </c>
       <c r="R27" t="n">
-        <v>100.8408378232456</v>
+        <v>79.07888061187354</v>
       </c>
       <c r="S27" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="T27" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="U27" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="V27" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="W27" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="X27" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="Y27" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
     </row>
     <row r="28">
@@ -29432,40 +29432,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="C28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="D28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="E28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="F28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="G28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="H28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="I28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="J28" t="n">
-        <v>100.8408378232456</v>
+        <v>106.8722409786103</v>
       </c>
       <c r="K28" t="n">
-        <v>88.33720928561246</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>84.04494584723527</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29474,34 +29474,34 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>95.38417350415432</v>
+        <v>103.3035739539575</v>
       </c>
       <c r="Q28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="R28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="S28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="T28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="U28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="V28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="W28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="X28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="Y28" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
     </row>
     <row r="29">
@@ -29511,37 +29511,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="C29" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="D29" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="E29" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="F29" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="G29" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="H29" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="I29" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="J29" t="n">
-        <v>100.8408378232456</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>100.8408378232456</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>100.8408378232456</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -29550,37 +29550,37 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.73779415478129</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="R29" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="S29" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="T29" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="U29" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="V29" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="W29" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="X29" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="Y29" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
     </row>
     <row r="30">
@@ -29590,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="C30" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="D30" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="E30" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="F30" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="G30" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="H30" t="n">
-        <v>100.8408378232456</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I30" t="n">
-        <v>85.14427889232486</v>
+        <v>87.83335871608921</v>
       </c>
       <c r="J30" t="n">
-        <v>87.38301826406413</v>
+        <v>94.76205883523708</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2.324104904325996</v>
       </c>
       <c r="L30" t="n">
-        <v>47.88076253968853</v>
+        <v>64.8390933263705</v>
       </c>
       <c r="M30" t="n">
-        <v>36.32219940094926</v>
+        <v>56.11177155621877</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>43.04269639994143</v>
       </c>
       <c r="O30" t="n">
-        <v>43.23715517208103</v>
+        <v>61.81989570708026</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>69.14426618389608</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>96.64454154501009</v>
       </c>
       <c r="R30" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="S30" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="T30" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="U30" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="V30" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="W30" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="X30" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="Y30" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="C31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="D31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="E31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="F31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="G31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="H31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="I31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="J31" t="n">
-        <v>100.8408378232456</v>
+        <v>106.8722409786103</v>
       </c>
       <c r="K31" t="n">
-        <v>88.33720928561246</v>
+        <v>95.94469107668914</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>84.04494584723527</v>
+        <v>94.30909361902988</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>84.12973930946526</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>98.22570267914158</v>
       </c>
       <c r="P31" t="n">
-        <v>95.38417350415432</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="R31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="S31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="T31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="U31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="V31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="W31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="X31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
       <c r="Y31" t="n">
-        <v>100.8408378232456</v>
+        <v>110.0104046437591</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="C32" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="D32" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="E32" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="F32" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="G32" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="H32" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="I32" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="J32" t="n">
-        <v>114.8016764860605</v>
+        <v>127.1910744831159</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>139.3754212341755</v>
       </c>
       <c r="L32" t="n">
-        <v>112.5971663327931</v>
+        <v>122.9818862985844</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29671194491473</v>
+        <v>118.928546063832</v>
       </c>
       <c r="N32" t="n">
-        <v>33.18358006992923</v>
+        <v>116.1925217712401</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>118.9956691669305</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.0201318447627</v>
+        <v>153.7837289870419</v>
       </c>
       <c r="R32" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="S32" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="T32" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="U32" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="V32" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="W32" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="X32" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="Y32" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
     </row>
     <row r="33">
@@ -29827,76 +29827,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>146.4339626465692</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="D33" t="n">
-        <v>146.4339626465692</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>146.4339626465692</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.9259111692552</v>
+        <v>137.0040143794232</v>
       </c>
       <c r="H33" t="n">
-        <v>108.2022495054008</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I33" t="n">
-        <v>85.14427889232486</v>
+        <v>87.83335871608921</v>
       </c>
       <c r="J33" t="n">
-        <v>87.38301826406413</v>
+        <v>94.76205883523708</v>
       </c>
       <c r="K33" t="n">
-        <v>70.40722897674431</v>
+        <v>83.01918462916871</v>
       </c>
       <c r="L33" t="n">
-        <v>47.88076253968853</v>
+        <v>64.8390933263705</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>56.11177155621877</v>
       </c>
       <c r="N33" t="n">
-        <v>22.72935315543171</v>
+        <v>43.04269639994143</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>61.81989570708026</v>
       </c>
       <c r="P33" t="n">
-        <v>54.22997862121434</v>
+        <v>69.14426618389608</v>
       </c>
       <c r="Q33" t="n">
-        <v>86.67473527866139</v>
+        <v>96.64454154501009</v>
       </c>
       <c r="R33" t="n">
-        <v>74.22963042267509</v>
+        <v>124.6005504231944</v>
       </c>
       <c r="S33" t="n">
-        <v>146.4339626465692</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="T33" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="U33" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="V33" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="W33" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="X33" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="Y33" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
     </row>
     <row r="34">
@@ -29906,13 +29906,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="C34" t="n">
-        <v>146.4339626465692</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>146.4339626465692</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -29921,19 +29921,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="H34" t="n">
-        <v>146.4339626465692</v>
+        <v>159.6965732415725</v>
       </c>
       <c r="I34" t="n">
-        <v>144.921807500707</v>
+        <v>146.8909428500718</v>
       </c>
       <c r="J34" t="n">
-        <v>102.2428680608323</v>
+        <v>106.8722409786103</v>
       </c>
       <c r="K34" t="n">
-        <v>88.33720928561246</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29945,37 +29945,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>88.97052843128083</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>95.38417350415432</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>122.1883282116817</v>
+        <v>127.6713105886463</v>
       </c>
       <c r="R34" t="n">
-        <v>146.4339626465692</v>
+        <v>164.4954936583773</v>
       </c>
       <c r="S34" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="T34" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="U34" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="V34" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="W34" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="X34" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="Y34" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
     </row>
     <row r="35">
@@ -29985,43 +29985,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="C35" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="D35" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="E35" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="F35" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="G35" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="H35" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="I35" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="J35" t="n">
-        <v>114.8016764860605</v>
+        <v>127.1910744831159</v>
       </c>
       <c r="K35" t="n">
-        <v>120.8069252567038</v>
+        <v>120.5717617630824</v>
       </c>
       <c r="L35" t="n">
-        <v>112.5971663327931</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>93.29671194491473</v>
+        <v>118.928546063832</v>
       </c>
       <c r="N35" t="n">
-        <v>90.14593777902118</v>
+        <v>116.1925217712401</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30030,31 +30030,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.0201318447627</v>
+        <v>153.7837289870419</v>
       </c>
       <c r="R35" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="S35" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="T35" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="U35" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="V35" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="W35" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="X35" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="Y35" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
     </row>
     <row r="36">
@@ -30064,76 +30064,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>146.4339626465692</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="D36" t="n">
-        <v>146.4339626465692</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>146.4339626465692</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.9259111692552</v>
+        <v>137.0040143794232</v>
       </c>
       <c r="H36" t="n">
-        <v>108.2022495054008</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I36" t="n">
-        <v>85.14427889232486</v>
+        <v>87.83335871608921</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>94.76205883523708</v>
       </c>
       <c r="K36" t="n">
-        <v>9.052955841394921</v>
+        <v>83.01918462916871</v>
       </c>
       <c r="L36" t="n">
-        <v>47.88076253968853</v>
+        <v>64.8390933263705</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>56.11177155621877</v>
       </c>
       <c r="N36" t="n">
-        <v>22.72935315543171</v>
+        <v>43.04269639994143</v>
       </c>
       <c r="O36" t="n">
-        <v>43.23715517208103</v>
+        <v>61.81989570708026</v>
       </c>
       <c r="P36" t="n">
-        <v>54.22997862121434</v>
+        <v>69.14426618389608</v>
       </c>
       <c r="Q36" t="n">
-        <v>86.67473527866139</v>
+        <v>96.64454154501009</v>
       </c>
       <c r="R36" t="n">
-        <v>119.7513002339959</v>
+        <v>124.6005504231944</v>
       </c>
       <c r="S36" t="n">
-        <v>146.4339626465692</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="T36" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="U36" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="V36" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="W36" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="X36" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="Y36" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
     </row>
     <row r="37">
@@ -30143,13 +30143,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="C37" t="n">
-        <v>146.4339626465692</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>146.4339626465692</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30158,61 +30158,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="H37" t="n">
-        <v>146.4339626465692</v>
+        <v>159.6965732415725</v>
       </c>
       <c r="I37" t="n">
-        <v>144.921807500707</v>
+        <v>146.8909428500718</v>
       </c>
       <c r="J37" t="n">
-        <v>102.2428680608323</v>
+        <v>106.8722409786103</v>
       </c>
       <c r="K37" t="n">
-        <v>88.33720928561246</v>
+        <v>95.94469107668914</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>92.56829551028667</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>94.30909361902988</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>84.12973930946526</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>95.38417350415432</v>
+        <v>103.3035739539575</v>
       </c>
       <c r="Q37" t="n">
-        <v>122.1883282116817</v>
+        <v>127.6713105886463</v>
       </c>
       <c r="R37" t="n">
-        <v>146.4339626465692</v>
+        <v>164.4954936583773</v>
       </c>
       <c r="S37" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="T37" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="U37" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="V37" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="W37" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="X37" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="Y37" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
     </row>
     <row r="38">
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="C38" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="D38" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="E38" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="F38" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="G38" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="H38" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="I38" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="J38" t="n">
-        <v>114.8016764860605</v>
+        <v>127.1910744831159</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>139.3754212341755</v>
       </c>
       <c r="L38" t="n">
-        <v>56.99818513754406</v>
+        <v>135.6330275315775</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29671194491473</v>
+        <v>118.928546063832</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>116.1925217712401</v>
       </c>
       <c r="O38" t="n">
-        <v>98.59221366289808</v>
+        <v>123.1872643325854</v>
       </c>
       <c r="P38" t="n">
-        <v>118.9956691669305</v>
+        <v>139.9869758869007</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.0201318447627</v>
+        <v>153.7837289870419</v>
       </c>
       <c r="R38" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="S38" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="T38" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="U38" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="V38" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="W38" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="X38" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
     </row>
     <row r="39">
@@ -30301,76 +30301,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>146.4339626465692</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="D39" t="n">
-        <v>146.4339626465692</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>146.4339626465692</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.9259111692552</v>
+        <v>137.0040143794232</v>
       </c>
       <c r="H39" t="n">
-        <v>108.2022495054008</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I39" t="n">
-        <v>85.14427889232486</v>
+        <v>87.83335871608921</v>
       </c>
       <c r="J39" t="n">
-        <v>87.38301826406413</v>
+        <v>94.76205883523708</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>47.88076253968853</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>36.32219940094926</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>43.04269639994143</v>
       </c>
       <c r="O39" t="n">
-        <v>43.23715517208103</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>54.22997862121434</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>86.67473527866139</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>119.7513002339959</v>
+        <v>79.07888061187354</v>
       </c>
       <c r="S39" t="n">
-        <v>146.4339626465692</v>
+        <v>165.3770557997153</v>
       </c>
       <c r="T39" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="U39" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="V39" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="W39" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="X39" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="Y39" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
     </row>
     <row r="40">
@@ -30380,13 +30380,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="C40" t="n">
-        <v>146.4339626465692</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>146.4339626465692</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -30395,22 +30395,22 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="H40" t="n">
-        <v>146.4339626465692</v>
+        <v>159.6965732415725</v>
       </c>
       <c r="I40" t="n">
-        <v>144.921807500707</v>
+        <v>146.8909428500718</v>
       </c>
       <c r="J40" t="n">
-        <v>102.2428680608323</v>
+        <v>73.235999655887</v>
       </c>
       <c r="K40" t="n">
-        <v>88.33720928561246</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>92.56829551028667</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30419,37 +30419,37 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>59.50040860395687</v>
       </c>
       <c r="P40" t="n">
-        <v>95.38417350415432</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>122.1883282116817</v>
+        <v>127.6713105886463</v>
       </c>
       <c r="R40" t="n">
-        <v>146.4339626465692</v>
+        <v>164.4954936583773</v>
       </c>
       <c r="S40" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="T40" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="U40" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="V40" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="W40" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="X40" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
       <c r="Y40" t="n">
-        <v>146.4339626465692</v>
+        <v>167.4101728049319</v>
       </c>
     </row>
     <row r="41">
@@ -30459,37 +30459,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="C41" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="D41" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="E41" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="F41" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="G41" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="H41" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="I41" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="J41" t="n">
-        <v>82.81192334085395</v>
+        <v>3.378440692725432</v>
       </c>
       <c r="K41" t="n">
-        <v>82.81192334085395</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>82.81192334085395</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30498,37 +30498,37 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>82.81192334085395</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="T41" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="U41" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="V41" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="W41" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="X41" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
     </row>
     <row r="42">
@@ -30538,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="C42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="D42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="E42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="F42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="G42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="H42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="I42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="J42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>64.8390933263705</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>56.11177155621877</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>43.04269639994143</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>61.81989570708026</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>69.14426618389608</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.88508129932978</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="R42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="S42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="T42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="U42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="V42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="W42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="X42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="Y42" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
     </row>
     <row r="43">
@@ -30617,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="C43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="D43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="E43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="F43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="G43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="H43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="I43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="J43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="K43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30659,34 +30659,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="Q43" t="n">
-        <v>56.84536983393029</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="R43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="S43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="T43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="U43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="V43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="W43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="X43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
     </row>
     <row r="44">
@@ -30696,37 +30696,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="C44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="D44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="E44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="F44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="G44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="H44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="I44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="K44" t="n">
-        <v>63.95733512850654</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="L44" t="n">
-        <v>82.81192334085395</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30735,37 +30735,37 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="P44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="Q44" t="n">
-        <v>82.81192334085395</v>
+        <v>62.99680183391454</v>
       </c>
       <c r="R44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="T44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="U44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="V44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="W44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="X44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
     </row>
     <row r="45">
@@ -30775,34 +30775,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="C45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="D45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="E45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="F45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="G45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="H45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="I45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="J45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="K45" t="n">
-        <v>70.40722897674431</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="S45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="T45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="U45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="V45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="W45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="X45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="Y45" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
     </row>
     <row r="46">
@@ -30854,40 +30854,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="C46" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="D46" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="E46" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="F46" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="G46" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="H46" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="I46" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="J46" t="n">
-        <v>82.81192334085395</v>
+        <v>73.235999655887</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>82.81192334085395</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>82.81192334085395</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30899,31 +30899,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>56.84536983393029</v>
+        <v>62.32835221089488</v>
       </c>
       <c r="R46" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="S46" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="T46" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="U46" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="V46" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="W46" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="X46" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.81192334085395</v>
+        <v>77.70761156750429</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7805031360182121</v>
+        <v>0.6345286975486556</v>
       </c>
       <c r="H11" t="n">
-        <v>7.993327741746517</v>
+        <v>6.498367023770171</v>
       </c>
       <c r="I11" t="n">
-        <v>30.09034715134215</v>
+        <v>24.46266761224457</v>
       </c>
       <c r="J11" t="n">
-        <v>66.24422804062579</v>
+        <v>53.85483004357026</v>
       </c>
       <c r="K11" t="n">
-        <v>99.28292578827673</v>
+        <v>80.71442981080486</v>
       </c>
       <c r="L11" t="n">
-        <v>123.1692486371941</v>
+        <v>100.1333874384096</v>
       </c>
       <c r="M11" t="n">
-        <v>137.049521282358</v>
+        <v>111.4176871634405</v>
       </c>
       <c r="N11" t="n">
-        <v>139.2671258175697</v>
+        <v>113.2205418253506</v>
       </c>
       <c r="O11" t="n">
-        <v>131.5059977587887</v>
+        <v>106.9109470891011</v>
       </c>
       <c r="P11" t="n">
-        <v>112.237326588339</v>
+        <v>91.24601986836868</v>
       </c>
       <c r="Q11" t="n">
-        <v>84.28555802968677</v>
+        <v>68.52196088740743</v>
       </c>
       <c r="R11" t="n">
-        <v>49.02828011790406</v>
+        <v>39.85871329739077</v>
       </c>
       <c r="S11" t="n">
-        <v>17.78571521201503</v>
+        <v>14.45932269539</v>
       </c>
       <c r="T11" t="n">
-        <v>3.416652477919725</v>
+        <v>2.777649373519242</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06244025088145696</v>
+        <v>0.05076229580389244</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.417605993955405</v>
+        <v>0.339502783787472</v>
       </c>
       <c r="H12" t="n">
-        <v>4.033194731095623</v>
+        <v>3.27888214868427</v>
       </c>
       <c r="I12" t="n">
-        <v>14.37810110767513</v>
+        <v>11.68902128391077</v>
       </c>
       <c r="J12" t="n">
-        <v>39.45460840260255</v>
+        <v>32.07556783142954</v>
       </c>
       <c r="K12" t="n">
-        <v>67.43420999761469</v>
+        <v>54.82225434519016</v>
       </c>
       <c r="L12" t="n">
-        <v>90.67361724018565</v>
+        <v>73.71528645350352</v>
       </c>
       <c r="M12" t="n">
-        <v>105.8118345210691</v>
+        <v>86.02226236579936</v>
       </c>
       <c r="N12" t="n">
-        <v>108.6123589279016</v>
+        <v>88.29901568339167</v>
       </c>
       <c r="O12" t="n">
-        <v>99.35908927236341</v>
+        <v>80.776348737364</v>
       </c>
       <c r="P12" t="n">
-        <v>79.7444287931159</v>
+        <v>64.83014123043402</v>
       </c>
       <c r="Q12" t="n">
-        <v>53.30703880736013</v>
+        <v>43.33723254101134</v>
       </c>
       <c r="R12" t="n">
-        <v>25.92820372996805</v>
+        <v>21.07895354076954</v>
       </c>
       <c r="S12" t="n">
-        <v>7.756848177197979</v>
+        <v>6.306115304122557</v>
       </c>
       <c r="T12" t="n">
-        <v>1.683245212478145</v>
+        <v>1.368434466231082</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02747407854969771</v>
+        <v>0.02233570945970212</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3501068370376778</v>
+        <v>0.2846277292897557</v>
       </c>
       <c r="H13" t="n">
-        <v>3.112768060207719</v>
+        <v>2.530599265867103</v>
       </c>
       <c r="I13" t="n">
-        <v>10.52866742655126</v>
+        <v>8.559532077186475</v>
       </c>
       <c r="J13" t="n">
-        <v>24.75255337856382</v>
+        <v>20.12318046078573</v>
       </c>
       <c r="K13" t="n">
-        <v>40.67604888492291</v>
+        <v>33.06856709384616</v>
       </c>
       <c r="L13" t="n">
-        <v>52.05133829921984</v>
+        <v>42.31638077095151</v>
       </c>
       <c r="M13" t="n">
-        <v>54.88083810036979</v>
+        <v>44.61669032857507</v>
       </c>
       <c r="N13" t="n">
-        <v>53.57589443504758</v>
+        <v>43.55580515576784</v>
       </c>
       <c r="O13" t="n">
-        <v>49.48601002056196</v>
+        <v>40.23083577270113</v>
       </c>
       <c r="P13" t="n">
-        <v>42.3438305449933</v>
+        <v>34.42443009519008</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.31667341776409</v>
+        <v>23.83369104079946</v>
       </c>
       <c r="R13" t="n">
-        <v>15.74207650898503</v>
+        <v>12.79789771879211</v>
       </c>
       <c r="S13" t="n">
-        <v>6.101407332738437</v>
+        <v>4.960285064076923</v>
       </c>
       <c r="T13" t="n">
-        <v>1.495911030979168</v>
+        <v>1.216136661510774</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01909673656569153</v>
+        <v>0.01552514887035033</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7805031360182121</v>
+        <v>0.6345286975486556</v>
       </c>
       <c r="H14" t="n">
-        <v>7.993327741746517</v>
+        <v>6.498367023770171</v>
       </c>
       <c r="I14" t="n">
-        <v>30.09034715134215</v>
+        <v>24.46266761224457</v>
       </c>
       <c r="J14" t="n">
-        <v>66.24422804062579</v>
+        <v>53.85483004357026</v>
       </c>
       <c r="K14" t="n">
-        <v>99.28292578827673</v>
+        <v>80.71442981080486</v>
       </c>
       <c r="L14" t="n">
-        <v>123.1692486371941</v>
+        <v>100.1333874384096</v>
       </c>
       <c r="M14" t="n">
-        <v>137.049521282358</v>
+        <v>111.4176871634405</v>
       </c>
       <c r="N14" t="n">
-        <v>139.2671258175697</v>
+        <v>113.2205418253506</v>
       </c>
       <c r="O14" t="n">
-        <v>131.5059977587887</v>
+        <v>106.9109470891011</v>
       </c>
       <c r="P14" t="n">
-        <v>112.237326588339</v>
+        <v>91.24601986836868</v>
       </c>
       <c r="Q14" t="n">
-        <v>84.28555802968677</v>
+        <v>68.52196088740743</v>
       </c>
       <c r="R14" t="n">
-        <v>49.02828011790406</v>
+        <v>39.85871329739077</v>
       </c>
       <c r="S14" t="n">
-        <v>17.78571521201503</v>
+        <v>14.45932269539</v>
       </c>
       <c r="T14" t="n">
-        <v>3.416652477919725</v>
+        <v>2.777649373519242</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06244025088145696</v>
+        <v>0.05076229580389244</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.417605993955405</v>
+        <v>0.339502783787472</v>
       </c>
       <c r="H15" t="n">
-        <v>4.033194731095623</v>
+        <v>3.27888214868427</v>
       </c>
       <c r="I15" t="n">
-        <v>14.37810110767513</v>
+        <v>11.68902128391077</v>
       </c>
       <c r="J15" t="n">
-        <v>39.45460840260255</v>
+        <v>32.07556783142954</v>
       </c>
       <c r="K15" t="n">
-        <v>67.43420999761469</v>
+        <v>54.82225434519016</v>
       </c>
       <c r="L15" t="n">
-        <v>90.67361724018565</v>
+        <v>73.71528645350352</v>
       </c>
       <c r="M15" t="n">
-        <v>105.8118345210691</v>
+        <v>86.02226236579936</v>
       </c>
       <c r="N15" t="n">
-        <v>108.6123589279016</v>
+        <v>88.29901568339167</v>
       </c>
       <c r="O15" t="n">
-        <v>99.35908927236341</v>
+        <v>80.776348737364</v>
       </c>
       <c r="P15" t="n">
-        <v>79.7444287931159</v>
+        <v>64.83014123043402</v>
       </c>
       <c r="Q15" t="n">
-        <v>53.30703880736013</v>
+        <v>43.33723254101134</v>
       </c>
       <c r="R15" t="n">
-        <v>25.92820372996805</v>
+        <v>21.07895354076954</v>
       </c>
       <c r="S15" t="n">
-        <v>7.756848177197979</v>
+        <v>6.306115304122557</v>
       </c>
       <c r="T15" t="n">
-        <v>1.683245212478145</v>
+        <v>1.368434466231082</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02747407854969771</v>
+        <v>0.02233570945970212</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3501068370376778</v>
+        <v>0.2846277292897557</v>
       </c>
       <c r="H16" t="n">
-        <v>3.112768060207719</v>
+        <v>2.530599265867103</v>
       </c>
       <c r="I16" t="n">
-        <v>10.52866742655126</v>
+        <v>8.559532077186475</v>
       </c>
       <c r="J16" t="n">
-        <v>24.75255337856382</v>
+        <v>20.12318046078573</v>
       </c>
       <c r="K16" t="n">
-        <v>40.67604888492291</v>
+        <v>33.06856709384616</v>
       </c>
       <c r="L16" t="n">
-        <v>52.05133829921984</v>
+        <v>42.31638077095151</v>
       </c>
       <c r="M16" t="n">
-        <v>54.88083810036979</v>
+        <v>44.61669032857507</v>
       </c>
       <c r="N16" t="n">
-        <v>53.57589443504758</v>
+        <v>43.55580515576784</v>
       </c>
       <c r="O16" t="n">
-        <v>49.48601002056196</v>
+        <v>40.23083577270113</v>
       </c>
       <c r="P16" t="n">
-        <v>42.3438305449933</v>
+        <v>34.42443009519008</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.31667341776409</v>
+        <v>23.83369104079946</v>
       </c>
       <c r="R16" t="n">
-        <v>15.74207650898503</v>
+        <v>12.79789771879211</v>
       </c>
       <c r="S16" t="n">
-        <v>6.101407332738437</v>
+        <v>4.960285064076923</v>
       </c>
       <c r="T16" t="n">
-        <v>1.495911030979168</v>
+        <v>1.216136661510774</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01909673656569153</v>
+        <v>0.01552514887035033</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7805031360182121</v>
+        <v>0.6345286975486556</v>
       </c>
       <c r="H17" t="n">
-        <v>7.993327741746517</v>
+        <v>6.498367023770171</v>
       </c>
       <c r="I17" t="n">
-        <v>30.09034715134215</v>
+        <v>24.46266761224457</v>
       </c>
       <c r="J17" t="n">
-        <v>66.24422804062579</v>
+        <v>53.85483004357026</v>
       </c>
       <c r="K17" t="n">
-        <v>99.28292578827673</v>
+        <v>80.71442981080486</v>
       </c>
       <c r="L17" t="n">
-        <v>123.1692486371941</v>
+        <v>100.1333874384096</v>
       </c>
       <c r="M17" t="n">
-        <v>137.049521282358</v>
+        <v>111.4176871634405</v>
       </c>
       <c r="N17" t="n">
-        <v>139.2671258175697</v>
+        <v>113.2205418253506</v>
       </c>
       <c r="O17" t="n">
-        <v>131.5059977587887</v>
+        <v>106.9109470891011</v>
       </c>
       <c r="P17" t="n">
-        <v>112.237326588339</v>
+        <v>91.24601986836868</v>
       </c>
       <c r="Q17" t="n">
-        <v>84.28555802968677</v>
+        <v>68.52196088740743</v>
       </c>
       <c r="R17" t="n">
-        <v>49.02828011790406</v>
+        <v>39.85871329739077</v>
       </c>
       <c r="S17" t="n">
-        <v>17.78571521201503</v>
+        <v>14.45932269539</v>
       </c>
       <c r="T17" t="n">
-        <v>3.416652477919725</v>
+        <v>2.777649373519242</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06244025088145696</v>
+        <v>0.05076229580389244</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.417605993955405</v>
+        <v>0.339502783787472</v>
       </c>
       <c r="H18" t="n">
-        <v>4.033194731095623</v>
+        <v>3.27888214868427</v>
       </c>
       <c r="I18" t="n">
-        <v>14.37810110767513</v>
+        <v>11.68902128391077</v>
       </c>
       <c r="J18" t="n">
-        <v>39.45460840260255</v>
+        <v>32.07556783142954</v>
       </c>
       <c r="K18" t="n">
-        <v>67.43420999761469</v>
+        <v>54.82225434519016</v>
       </c>
       <c r="L18" t="n">
-        <v>90.67361724018565</v>
+        <v>73.71528645350352</v>
       </c>
       <c r="M18" t="n">
-        <v>105.8118345210691</v>
+        <v>86.02226236579936</v>
       </c>
       <c r="N18" t="n">
-        <v>108.6123589279016</v>
+        <v>88.29901568339167</v>
       </c>
       <c r="O18" t="n">
-        <v>99.35908927236341</v>
+        <v>80.776348737364</v>
       </c>
       <c r="P18" t="n">
-        <v>79.7444287931159</v>
+        <v>64.83014123043402</v>
       </c>
       <c r="Q18" t="n">
-        <v>53.30703880736013</v>
+        <v>43.33723254101134</v>
       </c>
       <c r="R18" t="n">
-        <v>25.92820372996805</v>
+        <v>21.07895354076954</v>
       </c>
       <c r="S18" t="n">
-        <v>7.756848177197979</v>
+        <v>6.306115304122557</v>
       </c>
       <c r="T18" t="n">
-        <v>1.683245212478145</v>
+        <v>1.368434466231082</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02747407854969771</v>
+        <v>0.02233570945970212</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3501068370376778</v>
+        <v>0.2846277292897557</v>
       </c>
       <c r="H19" t="n">
-        <v>3.112768060207719</v>
+        <v>2.530599265867103</v>
       </c>
       <c r="I19" t="n">
-        <v>10.52866742655126</v>
+        <v>8.559532077186475</v>
       </c>
       <c r="J19" t="n">
-        <v>24.75255337856382</v>
+        <v>20.12318046078573</v>
       </c>
       <c r="K19" t="n">
-        <v>40.67604888492291</v>
+        <v>33.06856709384616</v>
       </c>
       <c r="L19" t="n">
-        <v>52.05133829921984</v>
+        <v>42.31638077095151</v>
       </c>
       <c r="M19" t="n">
-        <v>54.88083810036979</v>
+        <v>44.61669032857507</v>
       </c>
       <c r="N19" t="n">
-        <v>53.57589443504758</v>
+        <v>43.55580515576784</v>
       </c>
       <c r="O19" t="n">
-        <v>49.48601002056196</v>
+        <v>40.23083577270113</v>
       </c>
       <c r="P19" t="n">
-        <v>42.3438305449933</v>
+        <v>34.42443009519008</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.31667341776409</v>
+        <v>23.83369104079946</v>
       </c>
       <c r="R19" t="n">
-        <v>15.74207650898503</v>
+        <v>12.79789771879211</v>
       </c>
       <c r="S19" t="n">
-        <v>6.101407332738437</v>
+        <v>4.960285064076923</v>
       </c>
       <c r="T19" t="n">
-        <v>1.495911030979168</v>
+        <v>1.216136661510774</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01909673656569153</v>
+        <v>0.01552514887035033</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7805031360182121</v>
+        <v>0.6345286975486569</v>
       </c>
       <c r="H20" t="n">
-        <v>7.993327741746517</v>
+        <v>6.498367023770185</v>
       </c>
       <c r="I20" t="n">
-        <v>30.09034715134215</v>
+        <v>24.46266761224462</v>
       </c>
       <c r="J20" t="n">
-        <v>66.24422804062579</v>
+        <v>53.85483004357037</v>
       </c>
       <c r="K20" t="n">
-        <v>99.28292578827673</v>
+        <v>80.71442981080504</v>
       </c>
       <c r="L20" t="n">
-        <v>123.1692486371941</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M20" t="n">
-        <v>137.049521282358</v>
+        <v>111.4176871634407</v>
       </c>
       <c r="N20" t="n">
-        <v>139.2671258175697</v>
+        <v>113.2205418253508</v>
       </c>
       <c r="O20" t="n">
-        <v>131.5059977587887</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P20" t="n">
-        <v>112.237326588339</v>
+        <v>91.24601986836888</v>
       </c>
       <c r="Q20" t="n">
-        <v>84.28555802968677</v>
+        <v>68.52196088740757</v>
       </c>
       <c r="R20" t="n">
-        <v>49.02828011790406</v>
+        <v>39.85871329739086</v>
       </c>
       <c r="S20" t="n">
-        <v>17.78571521201503</v>
+        <v>14.45932269539004</v>
       </c>
       <c r="T20" t="n">
-        <v>3.416652477919725</v>
+        <v>2.777649373519247</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06244025088145696</v>
+        <v>0.05076229580389255</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.417605993955405</v>
+        <v>0.3395027837874727</v>
       </c>
       <c r="H21" t="n">
-        <v>4.033194731095623</v>
+        <v>3.278882148684277</v>
       </c>
       <c r="I21" t="n">
-        <v>14.37810110767513</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J21" t="n">
-        <v>39.45460840260255</v>
+        <v>32.07556783142961</v>
       </c>
       <c r="K21" t="n">
-        <v>67.43420999761469</v>
+        <v>54.82225434519028</v>
       </c>
       <c r="L21" t="n">
-        <v>90.67361724018565</v>
+        <v>73.71528645350368</v>
       </c>
       <c r="M21" t="n">
-        <v>105.8118345210691</v>
+        <v>86.02226236579955</v>
       </c>
       <c r="N21" t="n">
-        <v>108.6123589279016</v>
+        <v>88.29901568339187</v>
       </c>
       <c r="O21" t="n">
-        <v>99.35908927236341</v>
+        <v>80.77634873736417</v>
       </c>
       <c r="P21" t="n">
-        <v>79.7444287931159</v>
+        <v>64.83014123043417</v>
       </c>
       <c r="Q21" t="n">
-        <v>53.30703880736013</v>
+        <v>43.33723254101143</v>
       </c>
       <c r="R21" t="n">
-        <v>25.92820372996805</v>
+        <v>21.07895354076959</v>
       </c>
       <c r="S21" t="n">
-        <v>7.756848177197979</v>
+        <v>6.30611530412257</v>
       </c>
       <c r="T21" t="n">
-        <v>1.683245212478145</v>
+        <v>1.368434466231085</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02747407854969771</v>
+        <v>0.02233570945970216</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3501068370376778</v>
+        <v>0.2846277292897564</v>
       </c>
       <c r="H22" t="n">
-        <v>3.112768060207719</v>
+        <v>2.530599265867108</v>
       </c>
       <c r="I22" t="n">
-        <v>10.52866742655126</v>
+        <v>8.559532077186494</v>
       </c>
       <c r="J22" t="n">
-        <v>24.75255337856382</v>
+        <v>20.12318046078577</v>
       </c>
       <c r="K22" t="n">
-        <v>40.67604888492291</v>
+        <v>33.06856709384623</v>
       </c>
       <c r="L22" t="n">
-        <v>52.05133829921984</v>
+        <v>42.3163807709516</v>
       </c>
       <c r="M22" t="n">
-        <v>54.88083810036979</v>
+        <v>44.61669032857517</v>
       </c>
       <c r="N22" t="n">
-        <v>53.57589443504758</v>
+        <v>43.55580515576793</v>
       </c>
       <c r="O22" t="n">
-        <v>49.48601002056196</v>
+        <v>40.23083577270121</v>
       </c>
       <c r="P22" t="n">
-        <v>42.3438305449933</v>
+        <v>34.42443009519015</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.31667341776409</v>
+        <v>23.83369104079951</v>
       </c>
       <c r="R22" t="n">
-        <v>15.74207650898503</v>
+        <v>12.79789771879213</v>
       </c>
       <c r="S22" t="n">
-        <v>6.101407332738437</v>
+        <v>4.960285064076934</v>
       </c>
       <c r="T22" t="n">
-        <v>1.495911030979168</v>
+        <v>1.216136661510777</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01909673656569153</v>
+        <v>0.01552514887035037</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7805031360182121</v>
+        <v>0.6345286975486569</v>
       </c>
       <c r="H23" t="n">
-        <v>7.993327741746517</v>
+        <v>6.498367023770185</v>
       </c>
       <c r="I23" t="n">
-        <v>30.09034715134215</v>
+        <v>24.46266761224462</v>
       </c>
       <c r="J23" t="n">
-        <v>66.24422804062579</v>
+        <v>53.85483004357037</v>
       </c>
       <c r="K23" t="n">
-        <v>99.28292578827673</v>
+        <v>80.71442981080504</v>
       </c>
       <c r="L23" t="n">
-        <v>123.1692486371941</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M23" t="n">
-        <v>137.049521282358</v>
+        <v>111.4176871634407</v>
       </c>
       <c r="N23" t="n">
-        <v>139.2671258175697</v>
+        <v>113.2205418253508</v>
       </c>
       <c r="O23" t="n">
-        <v>131.5059977587887</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P23" t="n">
-        <v>112.237326588339</v>
+        <v>91.24601986836888</v>
       </c>
       <c r="Q23" t="n">
-        <v>84.28555802968677</v>
+        <v>68.52196088740757</v>
       </c>
       <c r="R23" t="n">
-        <v>49.02828011790406</v>
+        <v>39.85871329739086</v>
       </c>
       <c r="S23" t="n">
-        <v>17.78571521201503</v>
+        <v>14.45932269539004</v>
       </c>
       <c r="T23" t="n">
-        <v>3.416652477919725</v>
+        <v>2.777649373519247</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06244025088145696</v>
+        <v>0.05076229580389255</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.417605993955405</v>
+        <v>0.3395027837874727</v>
       </c>
       <c r="H24" t="n">
-        <v>4.033194731095623</v>
+        <v>3.278882148684277</v>
       </c>
       <c r="I24" t="n">
-        <v>14.37810110767513</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J24" t="n">
-        <v>39.45460840260255</v>
+        <v>32.07556783142961</v>
       </c>
       <c r="K24" t="n">
-        <v>67.43420999761469</v>
+        <v>54.82225434519028</v>
       </c>
       <c r="L24" t="n">
-        <v>90.67361724018565</v>
+        <v>73.71528645350368</v>
       </c>
       <c r="M24" t="n">
-        <v>105.8118345210691</v>
+        <v>86.02226236579955</v>
       </c>
       <c r="N24" t="n">
-        <v>108.6123589279016</v>
+        <v>88.29901568339187</v>
       </c>
       <c r="O24" t="n">
-        <v>99.35908927236341</v>
+        <v>80.77634873736417</v>
       </c>
       <c r="P24" t="n">
-        <v>79.7444287931159</v>
+        <v>64.83014123043417</v>
       </c>
       <c r="Q24" t="n">
-        <v>53.30703880736013</v>
+        <v>43.33723254101143</v>
       </c>
       <c r="R24" t="n">
-        <v>25.92820372996805</v>
+        <v>21.07895354076959</v>
       </c>
       <c r="S24" t="n">
-        <v>7.756848177197979</v>
+        <v>6.30611530412257</v>
       </c>
       <c r="T24" t="n">
-        <v>1.683245212478145</v>
+        <v>1.368434466231085</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02747407854969771</v>
+        <v>0.02233570945970216</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3501068370376778</v>
+        <v>0.2846277292897564</v>
       </c>
       <c r="H25" t="n">
-        <v>3.112768060207719</v>
+        <v>2.530599265867108</v>
       </c>
       <c r="I25" t="n">
-        <v>10.52866742655126</v>
+        <v>8.559532077186494</v>
       </c>
       <c r="J25" t="n">
-        <v>24.75255337856382</v>
+        <v>20.12318046078577</v>
       </c>
       <c r="K25" t="n">
-        <v>40.67604888492291</v>
+        <v>33.06856709384623</v>
       </c>
       <c r="L25" t="n">
-        <v>52.05133829921984</v>
+        <v>42.3163807709516</v>
       </c>
       <c r="M25" t="n">
-        <v>54.88083810036979</v>
+        <v>44.61669032857517</v>
       </c>
       <c r="N25" t="n">
-        <v>53.57589443504758</v>
+        <v>43.55580515576793</v>
       </c>
       <c r="O25" t="n">
-        <v>49.48601002056196</v>
+        <v>40.23083577270121</v>
       </c>
       <c r="P25" t="n">
-        <v>42.3438305449933</v>
+        <v>34.42443009519015</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.31667341776409</v>
+        <v>23.83369104079951</v>
       </c>
       <c r="R25" t="n">
-        <v>15.74207650898503</v>
+        <v>12.79789771879213</v>
       </c>
       <c r="S25" t="n">
-        <v>6.101407332738437</v>
+        <v>4.960285064076934</v>
       </c>
       <c r="T25" t="n">
-        <v>1.495911030979168</v>
+        <v>1.216136661510777</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01909673656569153</v>
+        <v>0.01552514887035037</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7805031360182121</v>
+        <v>0.6345286975486569</v>
       </c>
       <c r="H26" t="n">
-        <v>7.993327741746517</v>
+        <v>6.498367023770185</v>
       </c>
       <c r="I26" t="n">
-        <v>30.09034715134215</v>
+        <v>24.46266761224462</v>
       </c>
       <c r="J26" t="n">
-        <v>66.24422804062579</v>
+        <v>53.85483004357037</v>
       </c>
       <c r="K26" t="n">
-        <v>99.28292578827673</v>
+        <v>80.71442981080504</v>
       </c>
       <c r="L26" t="n">
-        <v>123.1692486371941</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M26" t="n">
-        <v>137.049521282358</v>
+        <v>111.4176871634407</v>
       </c>
       <c r="N26" t="n">
-        <v>139.2671258175697</v>
+        <v>113.2205418253508</v>
       </c>
       <c r="O26" t="n">
-        <v>131.5059977587887</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P26" t="n">
-        <v>112.237326588339</v>
+        <v>91.24601986836888</v>
       </c>
       <c r="Q26" t="n">
-        <v>84.28555802968677</v>
+        <v>68.52196088740757</v>
       </c>
       <c r="R26" t="n">
-        <v>49.02828011790406</v>
+        <v>39.85871329739086</v>
       </c>
       <c r="S26" t="n">
-        <v>17.78571521201503</v>
+        <v>14.45932269539004</v>
       </c>
       <c r="T26" t="n">
-        <v>3.416652477919725</v>
+        <v>2.777649373519247</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06244025088145696</v>
+        <v>0.05076229580389255</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.417605993955405</v>
+        <v>0.3395027837874727</v>
       </c>
       <c r="H27" t="n">
-        <v>4.033194731095623</v>
+        <v>3.278882148684277</v>
       </c>
       <c r="I27" t="n">
-        <v>14.37810110767513</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J27" t="n">
-        <v>39.45460840260255</v>
+        <v>32.07556783142961</v>
       </c>
       <c r="K27" t="n">
-        <v>67.43420999761469</v>
+        <v>54.82225434519028</v>
       </c>
       <c r="L27" t="n">
-        <v>90.67361724018565</v>
+        <v>73.71528645350368</v>
       </c>
       <c r="M27" t="n">
-        <v>105.8118345210691</v>
+        <v>86.02226236579955</v>
       </c>
       <c r="N27" t="n">
-        <v>108.6123589279016</v>
+        <v>88.29901568339187</v>
       </c>
       <c r="O27" t="n">
-        <v>99.35908927236341</v>
+        <v>80.77634873736417</v>
       </c>
       <c r="P27" t="n">
-        <v>79.7444287931159</v>
+        <v>64.83014123043417</v>
       </c>
       <c r="Q27" t="n">
-        <v>53.30703880736013</v>
+        <v>43.33723254101143</v>
       </c>
       <c r="R27" t="n">
-        <v>25.92820372996805</v>
+        <v>21.07895354076959</v>
       </c>
       <c r="S27" t="n">
-        <v>7.756848177197979</v>
+        <v>6.30611530412257</v>
       </c>
       <c r="T27" t="n">
-        <v>1.683245212478145</v>
+        <v>1.368434466231085</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02747407854969771</v>
+        <v>0.02233570945970216</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3501068370376778</v>
+        <v>0.2846277292897564</v>
       </c>
       <c r="H28" t="n">
-        <v>3.112768060207719</v>
+        <v>2.530599265867108</v>
       </c>
       <c r="I28" t="n">
-        <v>10.52866742655126</v>
+        <v>8.559532077186494</v>
       </c>
       <c r="J28" t="n">
-        <v>24.75255337856382</v>
+        <v>20.12318046078577</v>
       </c>
       <c r="K28" t="n">
-        <v>40.67604888492291</v>
+        <v>33.06856709384623</v>
       </c>
       <c r="L28" t="n">
-        <v>52.05133829921984</v>
+        <v>42.3163807709516</v>
       </c>
       <c r="M28" t="n">
-        <v>54.88083810036979</v>
+        <v>44.61669032857517</v>
       </c>
       <c r="N28" t="n">
-        <v>53.57589443504758</v>
+        <v>43.55580515576793</v>
       </c>
       <c r="O28" t="n">
-        <v>49.48601002056196</v>
+        <v>40.23083577270121</v>
       </c>
       <c r="P28" t="n">
-        <v>42.3438305449933</v>
+        <v>34.42443009519015</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.31667341776409</v>
+        <v>23.83369104079951</v>
       </c>
       <c r="R28" t="n">
-        <v>15.74207650898503</v>
+        <v>12.79789771879213</v>
       </c>
       <c r="S28" t="n">
-        <v>6.101407332738437</v>
+        <v>4.960285064076934</v>
       </c>
       <c r="T28" t="n">
-        <v>1.495911030979168</v>
+        <v>1.216136661510777</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01909673656569153</v>
+        <v>0.01552514887035037</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7805031360182121</v>
+        <v>0.6345286975486569</v>
       </c>
       <c r="H29" t="n">
-        <v>7.993327741746517</v>
+        <v>6.498367023770185</v>
       </c>
       <c r="I29" t="n">
-        <v>30.09034715134215</v>
+        <v>24.46266761224462</v>
       </c>
       <c r="J29" t="n">
-        <v>66.24422804062579</v>
+        <v>53.85483004357037</v>
       </c>
       <c r="K29" t="n">
-        <v>99.28292578827673</v>
+        <v>80.71442981080504</v>
       </c>
       <c r="L29" t="n">
-        <v>123.1692486371941</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M29" t="n">
-        <v>137.049521282358</v>
+        <v>111.4176871634407</v>
       </c>
       <c r="N29" t="n">
-        <v>139.2671258175697</v>
+        <v>113.2205418253508</v>
       </c>
       <c r="O29" t="n">
-        <v>131.5059977587887</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P29" t="n">
-        <v>112.237326588339</v>
+        <v>91.24601986836888</v>
       </c>
       <c r="Q29" t="n">
-        <v>84.28555802968677</v>
+        <v>68.52196088740757</v>
       </c>
       <c r="R29" t="n">
-        <v>49.02828011790406</v>
+        <v>39.85871329739086</v>
       </c>
       <c r="S29" t="n">
-        <v>17.78571521201503</v>
+        <v>14.45932269539004</v>
       </c>
       <c r="T29" t="n">
-        <v>3.416652477919725</v>
+        <v>2.777649373519247</v>
       </c>
       <c r="U29" t="n">
-        <v>0.06244025088145696</v>
+        <v>0.05076229580389255</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.417605993955405</v>
+        <v>0.3395027837874727</v>
       </c>
       <c r="H30" t="n">
-        <v>4.033194731095623</v>
+        <v>3.278882148684277</v>
       </c>
       <c r="I30" t="n">
-        <v>14.37810110767513</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J30" t="n">
-        <v>39.45460840260255</v>
+        <v>32.07556783142961</v>
       </c>
       <c r="K30" t="n">
-        <v>67.43420999761469</v>
+        <v>54.82225434519028</v>
       </c>
       <c r="L30" t="n">
-        <v>90.67361724018565</v>
+        <v>73.71528645350368</v>
       </c>
       <c r="M30" t="n">
-        <v>105.8118345210691</v>
+        <v>86.02226236579955</v>
       </c>
       <c r="N30" t="n">
-        <v>108.6123589279016</v>
+        <v>88.29901568339187</v>
       </c>
       <c r="O30" t="n">
-        <v>99.35908927236341</v>
+        <v>80.77634873736417</v>
       </c>
       <c r="P30" t="n">
-        <v>79.7444287931159</v>
+        <v>64.83014123043417</v>
       </c>
       <c r="Q30" t="n">
-        <v>53.30703880736013</v>
+        <v>43.33723254101143</v>
       </c>
       <c r="R30" t="n">
-        <v>25.92820372996805</v>
+        <v>21.07895354076959</v>
       </c>
       <c r="S30" t="n">
-        <v>7.756848177197979</v>
+        <v>6.30611530412257</v>
       </c>
       <c r="T30" t="n">
-        <v>1.683245212478145</v>
+        <v>1.368434466231085</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02747407854969771</v>
+        <v>0.02233570945970216</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3501068370376778</v>
+        <v>0.2846277292897564</v>
       </c>
       <c r="H31" t="n">
-        <v>3.112768060207719</v>
+        <v>2.530599265867108</v>
       </c>
       <c r="I31" t="n">
-        <v>10.52866742655126</v>
+        <v>8.559532077186494</v>
       </c>
       <c r="J31" t="n">
-        <v>24.75255337856382</v>
+        <v>20.12318046078577</v>
       </c>
       <c r="K31" t="n">
-        <v>40.67604888492291</v>
+        <v>33.06856709384623</v>
       </c>
       <c r="L31" t="n">
-        <v>52.05133829921984</v>
+        <v>42.3163807709516</v>
       </c>
       <c r="M31" t="n">
-        <v>54.88083810036979</v>
+        <v>44.61669032857517</v>
       </c>
       <c r="N31" t="n">
-        <v>53.57589443504758</v>
+        <v>43.55580515576793</v>
       </c>
       <c r="O31" t="n">
-        <v>49.48601002056196</v>
+        <v>40.23083577270121</v>
       </c>
       <c r="P31" t="n">
-        <v>42.3438305449933</v>
+        <v>34.42443009519015</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.31667341776409</v>
+        <v>23.83369104079951</v>
       </c>
       <c r="R31" t="n">
-        <v>15.74207650898503</v>
+        <v>12.79789771879213</v>
       </c>
       <c r="S31" t="n">
-        <v>6.101407332738437</v>
+        <v>4.960285064076934</v>
       </c>
       <c r="T31" t="n">
-        <v>1.495911030979168</v>
+        <v>1.216136661510777</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01909673656569153</v>
+        <v>0.01552514887035037</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7805031360182121</v>
+        <v>0.6345286975486569</v>
       </c>
       <c r="H32" t="n">
-        <v>7.993327741746517</v>
+        <v>6.498367023770185</v>
       </c>
       <c r="I32" t="n">
-        <v>30.09034715134215</v>
+        <v>24.46266761224462</v>
       </c>
       <c r="J32" t="n">
-        <v>66.24422804062579</v>
+        <v>53.85483004357037</v>
       </c>
       <c r="K32" t="n">
-        <v>99.28292578827673</v>
+        <v>80.71442981080504</v>
       </c>
       <c r="L32" t="n">
-        <v>123.1692486371941</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M32" t="n">
-        <v>137.049521282358</v>
+        <v>111.4176871634407</v>
       </c>
       <c r="N32" t="n">
-        <v>139.2671258175697</v>
+        <v>113.2205418253508</v>
       </c>
       <c r="O32" t="n">
-        <v>131.5059977587887</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P32" t="n">
-        <v>112.237326588339</v>
+        <v>91.24601986836888</v>
       </c>
       <c r="Q32" t="n">
-        <v>84.28555802968677</v>
+        <v>68.52196088740757</v>
       </c>
       <c r="R32" t="n">
-        <v>49.02828011790406</v>
+        <v>39.85871329739086</v>
       </c>
       <c r="S32" t="n">
-        <v>17.78571521201503</v>
+        <v>14.45932269539004</v>
       </c>
       <c r="T32" t="n">
-        <v>3.416652477919725</v>
+        <v>2.777649373519247</v>
       </c>
       <c r="U32" t="n">
-        <v>0.06244025088145696</v>
+        <v>0.05076229580389255</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.417605993955405</v>
+        <v>0.3395027837874727</v>
       </c>
       <c r="H33" t="n">
-        <v>4.033194731095623</v>
+        <v>3.278882148684277</v>
       </c>
       <c r="I33" t="n">
-        <v>14.37810110767513</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J33" t="n">
-        <v>39.45460840260255</v>
+        <v>32.07556783142961</v>
       </c>
       <c r="K33" t="n">
-        <v>67.43420999761469</v>
+        <v>54.82225434519028</v>
       </c>
       <c r="L33" t="n">
-        <v>90.67361724018565</v>
+        <v>73.71528645350368</v>
       </c>
       <c r="M33" t="n">
-        <v>105.8118345210691</v>
+        <v>86.02226236579955</v>
       </c>
       <c r="N33" t="n">
-        <v>108.6123589279016</v>
+        <v>88.29901568339187</v>
       </c>
       <c r="O33" t="n">
-        <v>99.35908927236341</v>
+        <v>80.77634873736417</v>
       </c>
       <c r="P33" t="n">
-        <v>79.7444287931159</v>
+        <v>64.83014123043417</v>
       </c>
       <c r="Q33" t="n">
-        <v>53.30703880736013</v>
+        <v>43.33723254101143</v>
       </c>
       <c r="R33" t="n">
-        <v>25.92820372996805</v>
+        <v>21.07895354076959</v>
       </c>
       <c r="S33" t="n">
-        <v>7.756848177197979</v>
+        <v>6.30611530412257</v>
       </c>
       <c r="T33" t="n">
-        <v>1.683245212478145</v>
+        <v>1.368434466231085</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02747407854969771</v>
+        <v>0.02233570945970216</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3501068370376778</v>
+        <v>0.2846277292897564</v>
       </c>
       <c r="H34" t="n">
-        <v>3.112768060207719</v>
+        <v>2.530599265867108</v>
       </c>
       <c r="I34" t="n">
-        <v>10.52866742655126</v>
+        <v>8.559532077186494</v>
       </c>
       <c r="J34" t="n">
-        <v>24.75255337856382</v>
+        <v>20.12318046078577</v>
       </c>
       <c r="K34" t="n">
-        <v>40.67604888492291</v>
+        <v>33.06856709384623</v>
       </c>
       <c r="L34" t="n">
-        <v>52.05133829921984</v>
+        <v>42.3163807709516</v>
       </c>
       <c r="M34" t="n">
-        <v>54.88083810036979</v>
+        <v>44.61669032857517</v>
       </c>
       <c r="N34" t="n">
-        <v>53.57589443504758</v>
+        <v>43.55580515576793</v>
       </c>
       <c r="O34" t="n">
-        <v>49.48601002056196</v>
+        <v>40.23083577270121</v>
       </c>
       <c r="P34" t="n">
-        <v>42.3438305449933</v>
+        <v>34.42443009519015</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.31667341776409</v>
+        <v>23.83369104079951</v>
       </c>
       <c r="R34" t="n">
-        <v>15.74207650898503</v>
+        <v>12.79789771879213</v>
       </c>
       <c r="S34" t="n">
-        <v>6.101407332738437</v>
+        <v>4.960285064076934</v>
       </c>
       <c r="T34" t="n">
-        <v>1.495911030979168</v>
+        <v>1.216136661510777</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01909673656569153</v>
+        <v>0.01552514887035037</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7805031360182121</v>
+        <v>0.6345286975486569</v>
       </c>
       <c r="H35" t="n">
-        <v>7.993327741746517</v>
+        <v>6.498367023770185</v>
       </c>
       <c r="I35" t="n">
-        <v>30.09034715134215</v>
+        <v>24.46266761224462</v>
       </c>
       <c r="J35" t="n">
-        <v>66.24422804062579</v>
+        <v>53.85483004357037</v>
       </c>
       <c r="K35" t="n">
-        <v>99.28292578827673</v>
+        <v>80.71442981080504</v>
       </c>
       <c r="L35" t="n">
-        <v>123.1692486371941</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M35" t="n">
-        <v>137.049521282358</v>
+        <v>111.4176871634407</v>
       </c>
       <c r="N35" t="n">
-        <v>139.2671258175697</v>
+        <v>113.2205418253508</v>
       </c>
       <c r="O35" t="n">
-        <v>131.5059977587887</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P35" t="n">
-        <v>112.237326588339</v>
+        <v>91.24601986836888</v>
       </c>
       <c r="Q35" t="n">
-        <v>84.28555802968677</v>
+        <v>68.52196088740757</v>
       </c>
       <c r="R35" t="n">
-        <v>49.02828011790406</v>
+        <v>39.85871329739086</v>
       </c>
       <c r="S35" t="n">
-        <v>17.78571521201503</v>
+        <v>14.45932269539004</v>
       </c>
       <c r="T35" t="n">
-        <v>3.416652477919725</v>
+        <v>2.777649373519247</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06244025088145696</v>
+        <v>0.05076229580389255</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.417605993955405</v>
+        <v>0.3395027837874727</v>
       </c>
       <c r="H36" t="n">
-        <v>4.033194731095623</v>
+        <v>3.278882148684277</v>
       </c>
       <c r="I36" t="n">
-        <v>14.37810110767513</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J36" t="n">
-        <v>39.45460840260255</v>
+        <v>32.07556783142961</v>
       </c>
       <c r="K36" t="n">
-        <v>67.43420999761469</v>
+        <v>54.82225434519028</v>
       </c>
       <c r="L36" t="n">
-        <v>90.67361724018565</v>
+        <v>73.71528645350368</v>
       </c>
       <c r="M36" t="n">
-        <v>105.8118345210691</v>
+        <v>86.02226236579955</v>
       </c>
       <c r="N36" t="n">
-        <v>108.6123589279016</v>
+        <v>88.29901568339187</v>
       </c>
       <c r="O36" t="n">
-        <v>99.35908927236341</v>
+        <v>80.77634873736417</v>
       </c>
       <c r="P36" t="n">
-        <v>79.7444287931159</v>
+        <v>64.83014123043417</v>
       </c>
       <c r="Q36" t="n">
-        <v>53.30703880736013</v>
+        <v>43.33723254101143</v>
       </c>
       <c r="R36" t="n">
-        <v>25.92820372996805</v>
+        <v>21.07895354076959</v>
       </c>
       <c r="S36" t="n">
-        <v>7.756848177197979</v>
+        <v>6.30611530412257</v>
       </c>
       <c r="T36" t="n">
-        <v>1.683245212478145</v>
+        <v>1.368434466231085</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02747407854969771</v>
+        <v>0.02233570945970216</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3501068370376778</v>
+        <v>0.2846277292897564</v>
       </c>
       <c r="H37" t="n">
-        <v>3.112768060207719</v>
+        <v>2.530599265867108</v>
       </c>
       <c r="I37" t="n">
-        <v>10.52866742655126</v>
+        <v>8.559532077186494</v>
       </c>
       <c r="J37" t="n">
-        <v>24.75255337856382</v>
+        <v>20.12318046078577</v>
       </c>
       <c r="K37" t="n">
-        <v>40.67604888492291</v>
+        <v>33.06856709384623</v>
       </c>
       <c r="L37" t="n">
-        <v>52.05133829921984</v>
+        <v>42.3163807709516</v>
       </c>
       <c r="M37" t="n">
-        <v>54.88083810036979</v>
+        <v>44.61669032857517</v>
       </c>
       <c r="N37" t="n">
-        <v>53.57589443504758</v>
+        <v>43.55580515576793</v>
       </c>
       <c r="O37" t="n">
-        <v>49.48601002056196</v>
+        <v>40.23083577270121</v>
       </c>
       <c r="P37" t="n">
-        <v>42.3438305449933</v>
+        <v>34.42443009519015</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.31667341776409</v>
+        <v>23.83369104079951</v>
       </c>
       <c r="R37" t="n">
-        <v>15.74207650898503</v>
+        <v>12.79789771879213</v>
       </c>
       <c r="S37" t="n">
-        <v>6.101407332738437</v>
+        <v>4.960285064076934</v>
       </c>
       <c r="T37" t="n">
-        <v>1.495911030979168</v>
+        <v>1.216136661510777</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01909673656569153</v>
+        <v>0.01552514887035037</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7805031360182121</v>
+        <v>0.6345286975486569</v>
       </c>
       <c r="H38" t="n">
-        <v>7.993327741746517</v>
+        <v>6.498367023770185</v>
       </c>
       <c r="I38" t="n">
-        <v>30.09034715134215</v>
+        <v>24.46266761224462</v>
       </c>
       <c r="J38" t="n">
-        <v>66.24422804062579</v>
+        <v>53.85483004357037</v>
       </c>
       <c r="K38" t="n">
-        <v>99.28292578827673</v>
+        <v>80.71442981080504</v>
       </c>
       <c r="L38" t="n">
-        <v>123.1692486371941</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M38" t="n">
-        <v>137.049521282358</v>
+        <v>111.4176871634407</v>
       </c>
       <c r="N38" t="n">
-        <v>139.2671258175697</v>
+        <v>113.2205418253508</v>
       </c>
       <c r="O38" t="n">
-        <v>131.5059977587887</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P38" t="n">
-        <v>112.237326588339</v>
+        <v>91.24601986836888</v>
       </c>
       <c r="Q38" t="n">
-        <v>84.28555802968677</v>
+        <v>68.52196088740757</v>
       </c>
       <c r="R38" t="n">
-        <v>49.02828011790406</v>
+        <v>39.85871329739086</v>
       </c>
       <c r="S38" t="n">
-        <v>17.78571521201503</v>
+        <v>14.45932269539004</v>
       </c>
       <c r="T38" t="n">
-        <v>3.416652477919725</v>
+        <v>2.777649373519247</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06244025088145696</v>
+        <v>0.05076229580389255</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.417605993955405</v>
+        <v>0.3395027837874727</v>
       </c>
       <c r="H39" t="n">
-        <v>4.033194731095623</v>
+        <v>3.278882148684277</v>
       </c>
       <c r="I39" t="n">
-        <v>14.37810110767513</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J39" t="n">
-        <v>39.45460840260255</v>
+        <v>32.07556783142961</v>
       </c>
       <c r="K39" t="n">
-        <v>67.43420999761469</v>
+        <v>54.82225434519028</v>
       </c>
       <c r="L39" t="n">
-        <v>90.67361724018565</v>
+        <v>73.71528645350368</v>
       </c>
       <c r="M39" t="n">
-        <v>105.8118345210691</v>
+        <v>86.02226236579955</v>
       </c>
       <c r="N39" t="n">
-        <v>108.6123589279016</v>
+        <v>88.29901568339187</v>
       </c>
       <c r="O39" t="n">
-        <v>99.35908927236341</v>
+        <v>80.77634873736417</v>
       </c>
       <c r="P39" t="n">
-        <v>79.7444287931159</v>
+        <v>64.83014123043417</v>
       </c>
       <c r="Q39" t="n">
-        <v>53.30703880736013</v>
+        <v>43.33723254101143</v>
       </c>
       <c r="R39" t="n">
-        <v>25.92820372996805</v>
+        <v>21.07895354076959</v>
       </c>
       <c r="S39" t="n">
-        <v>7.756848177197979</v>
+        <v>6.30611530412257</v>
       </c>
       <c r="T39" t="n">
-        <v>1.683245212478145</v>
+        <v>1.368434466231085</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02747407854969771</v>
+        <v>0.02233570945970216</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3501068370376778</v>
+        <v>0.2846277292897564</v>
       </c>
       <c r="H40" t="n">
-        <v>3.112768060207719</v>
+        <v>2.530599265867108</v>
       </c>
       <c r="I40" t="n">
-        <v>10.52866742655126</v>
+        <v>8.559532077186494</v>
       </c>
       <c r="J40" t="n">
-        <v>24.75255337856382</v>
+        <v>20.12318046078577</v>
       </c>
       <c r="K40" t="n">
-        <v>40.67604888492291</v>
+        <v>33.06856709384623</v>
       </c>
       <c r="L40" t="n">
-        <v>52.05133829921984</v>
+        <v>42.3163807709516</v>
       </c>
       <c r="M40" t="n">
-        <v>54.88083810036979</v>
+        <v>44.61669032857517</v>
       </c>
       <c r="N40" t="n">
-        <v>53.57589443504758</v>
+        <v>43.55580515576793</v>
       </c>
       <c r="O40" t="n">
-        <v>49.48601002056196</v>
+        <v>40.23083577270121</v>
       </c>
       <c r="P40" t="n">
-        <v>42.3438305449933</v>
+        <v>34.42443009519015</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.31667341776409</v>
+        <v>23.83369104079951</v>
       </c>
       <c r="R40" t="n">
-        <v>15.74207650898503</v>
+        <v>12.79789771879213</v>
       </c>
       <c r="S40" t="n">
-        <v>6.101407332738437</v>
+        <v>4.960285064076934</v>
       </c>
       <c r="T40" t="n">
-        <v>1.495911030979168</v>
+        <v>1.216136661510777</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01909673656569153</v>
+        <v>0.01552514887035037</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7805031360182121</v>
+        <v>0.6345286975486569</v>
       </c>
       <c r="H41" t="n">
-        <v>7.993327741746517</v>
+        <v>6.498367023770185</v>
       </c>
       <c r="I41" t="n">
-        <v>30.09034715134215</v>
+        <v>24.46266761224462</v>
       </c>
       <c r="J41" t="n">
-        <v>66.24422804062579</v>
+        <v>53.85483004357037</v>
       </c>
       <c r="K41" t="n">
-        <v>99.28292578827673</v>
+        <v>80.71442981080504</v>
       </c>
       <c r="L41" t="n">
-        <v>123.1692486371941</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M41" t="n">
-        <v>137.049521282358</v>
+        <v>111.4176871634407</v>
       </c>
       <c r="N41" t="n">
-        <v>139.2671258175697</v>
+        <v>113.2205418253508</v>
       </c>
       <c r="O41" t="n">
-        <v>131.5059977587887</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P41" t="n">
-        <v>112.237326588339</v>
+        <v>91.24601986836888</v>
       </c>
       <c r="Q41" t="n">
-        <v>84.28555802968677</v>
+        <v>68.52196088740757</v>
       </c>
       <c r="R41" t="n">
-        <v>49.02828011790406</v>
+        <v>39.85871329739086</v>
       </c>
       <c r="S41" t="n">
-        <v>17.78571521201503</v>
+        <v>14.45932269539004</v>
       </c>
       <c r="T41" t="n">
-        <v>3.416652477919725</v>
+        <v>2.777649373519247</v>
       </c>
       <c r="U41" t="n">
-        <v>0.06244025088145696</v>
+        <v>0.05076229580389255</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.417605993955405</v>
+        <v>0.3395027837874727</v>
       </c>
       <c r="H42" t="n">
-        <v>4.033194731095623</v>
+        <v>3.278882148684277</v>
       </c>
       <c r="I42" t="n">
-        <v>14.37810110767513</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J42" t="n">
-        <v>39.45460840260255</v>
+        <v>32.07556783142961</v>
       </c>
       <c r="K42" t="n">
-        <v>67.43420999761469</v>
+        <v>54.82225434519028</v>
       </c>
       <c r="L42" t="n">
-        <v>90.67361724018565</v>
+        <v>73.71528645350368</v>
       </c>
       <c r="M42" t="n">
-        <v>105.8118345210691</v>
+        <v>86.02226236579955</v>
       </c>
       <c r="N42" t="n">
-        <v>108.6123589279016</v>
+        <v>88.29901568339187</v>
       </c>
       <c r="O42" t="n">
-        <v>99.35908927236341</v>
+        <v>80.77634873736417</v>
       </c>
       <c r="P42" t="n">
-        <v>79.7444287931159</v>
+        <v>64.83014123043417</v>
       </c>
       <c r="Q42" t="n">
-        <v>53.30703880736013</v>
+        <v>43.33723254101143</v>
       </c>
       <c r="R42" t="n">
-        <v>25.92820372996805</v>
+        <v>21.07895354076959</v>
       </c>
       <c r="S42" t="n">
-        <v>7.756848177197979</v>
+        <v>6.30611530412257</v>
       </c>
       <c r="T42" t="n">
-        <v>1.683245212478145</v>
+        <v>1.368434466231085</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02747407854969771</v>
+        <v>0.02233570945970216</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3501068370376778</v>
+        <v>0.2846277292897564</v>
       </c>
       <c r="H43" t="n">
-        <v>3.112768060207719</v>
+        <v>2.530599265867108</v>
       </c>
       <c r="I43" t="n">
-        <v>10.52866742655126</v>
+        <v>8.559532077186494</v>
       </c>
       <c r="J43" t="n">
-        <v>24.75255337856382</v>
+        <v>20.12318046078577</v>
       </c>
       <c r="K43" t="n">
-        <v>40.67604888492291</v>
+        <v>33.06856709384623</v>
       </c>
       <c r="L43" t="n">
-        <v>52.05133829921984</v>
+        <v>42.3163807709516</v>
       </c>
       <c r="M43" t="n">
-        <v>54.88083810036979</v>
+        <v>44.61669032857517</v>
       </c>
       <c r="N43" t="n">
-        <v>53.57589443504758</v>
+        <v>43.55580515576793</v>
       </c>
       <c r="O43" t="n">
-        <v>49.48601002056196</v>
+        <v>40.23083577270121</v>
       </c>
       <c r="P43" t="n">
-        <v>42.3438305449933</v>
+        <v>34.42443009519015</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.31667341776409</v>
+        <v>23.83369104079951</v>
       </c>
       <c r="R43" t="n">
-        <v>15.74207650898503</v>
+        <v>12.79789771879213</v>
       </c>
       <c r="S43" t="n">
-        <v>6.101407332738437</v>
+        <v>4.960285064076934</v>
       </c>
       <c r="T43" t="n">
-        <v>1.495911030979168</v>
+        <v>1.216136661510777</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01909673656569153</v>
+        <v>0.01552514887035037</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7805031360182121</v>
+        <v>0.6345286975486569</v>
       </c>
       <c r="H44" t="n">
-        <v>7.993327741746517</v>
+        <v>6.498367023770185</v>
       </c>
       <c r="I44" t="n">
-        <v>30.09034715134215</v>
+        <v>24.46266761224462</v>
       </c>
       <c r="J44" t="n">
-        <v>66.24422804062579</v>
+        <v>53.85483004357037</v>
       </c>
       <c r="K44" t="n">
-        <v>99.28292578827673</v>
+        <v>80.71442981080504</v>
       </c>
       <c r="L44" t="n">
-        <v>123.1692486371941</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M44" t="n">
-        <v>137.049521282358</v>
+        <v>111.4176871634407</v>
       </c>
       <c r="N44" t="n">
-        <v>139.2671258175697</v>
+        <v>113.2205418253508</v>
       </c>
       <c r="O44" t="n">
-        <v>131.5059977587887</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P44" t="n">
-        <v>112.237326588339</v>
+        <v>91.24601986836888</v>
       </c>
       <c r="Q44" t="n">
-        <v>84.28555802968677</v>
+        <v>68.52196088740757</v>
       </c>
       <c r="R44" t="n">
-        <v>49.02828011790406</v>
+        <v>39.85871329739086</v>
       </c>
       <c r="S44" t="n">
-        <v>17.78571521201503</v>
+        <v>14.45932269539004</v>
       </c>
       <c r="T44" t="n">
-        <v>3.416652477919725</v>
+        <v>2.777649373519247</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06244025088145696</v>
+        <v>0.05076229580389255</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.417605993955405</v>
+        <v>0.3395027837874727</v>
       </c>
       <c r="H45" t="n">
-        <v>4.033194731095623</v>
+        <v>3.278882148684277</v>
       </c>
       <c r="I45" t="n">
-        <v>14.37810110767513</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J45" t="n">
-        <v>39.45460840260255</v>
+        <v>32.07556783142961</v>
       </c>
       <c r="K45" t="n">
-        <v>67.43420999761469</v>
+        <v>54.82225434519028</v>
       </c>
       <c r="L45" t="n">
-        <v>90.67361724018565</v>
+        <v>73.71528645350368</v>
       </c>
       <c r="M45" t="n">
-        <v>105.8118345210691</v>
+        <v>86.02226236579955</v>
       </c>
       <c r="N45" t="n">
-        <v>108.6123589279016</v>
+        <v>88.29901568339187</v>
       </c>
       <c r="O45" t="n">
-        <v>99.35908927236341</v>
+        <v>80.77634873736417</v>
       </c>
       <c r="P45" t="n">
-        <v>79.7444287931159</v>
+        <v>64.83014123043417</v>
       </c>
       <c r="Q45" t="n">
-        <v>53.30703880736013</v>
+        <v>43.33723254101143</v>
       </c>
       <c r="R45" t="n">
-        <v>25.92820372996805</v>
+        <v>21.07895354076959</v>
       </c>
       <c r="S45" t="n">
-        <v>7.756848177197979</v>
+        <v>6.30611530412257</v>
       </c>
       <c r="T45" t="n">
-        <v>1.683245212478145</v>
+        <v>1.368434466231085</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02747407854969771</v>
+        <v>0.02233570945970216</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3501068370376778</v>
+        <v>0.2846277292897564</v>
       </c>
       <c r="H46" t="n">
-        <v>3.112768060207719</v>
+        <v>2.530599265867108</v>
       </c>
       <c r="I46" t="n">
-        <v>10.52866742655126</v>
+        <v>8.559532077186494</v>
       </c>
       <c r="J46" t="n">
-        <v>24.75255337856382</v>
+        <v>20.12318046078577</v>
       </c>
       <c r="K46" t="n">
-        <v>40.67604888492291</v>
+        <v>33.06856709384623</v>
       </c>
       <c r="L46" t="n">
-        <v>52.05133829921984</v>
+        <v>42.3163807709516</v>
       </c>
       <c r="M46" t="n">
-        <v>54.88083810036979</v>
+        <v>44.61669032857517</v>
       </c>
       <c r="N46" t="n">
-        <v>53.57589443504758</v>
+        <v>43.55580515576793</v>
       </c>
       <c r="O46" t="n">
-        <v>49.48601002056196</v>
+        <v>40.23083577270121</v>
       </c>
       <c r="P46" t="n">
-        <v>42.3438305449933</v>
+        <v>34.42443009519015</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.31667341776409</v>
+        <v>23.83369104079951</v>
       </c>
       <c r="R46" t="n">
-        <v>15.74207650898503</v>
+        <v>12.79789771879213</v>
       </c>
       <c r="S46" t="n">
-        <v>6.101407332738437</v>
+        <v>4.960285064076934</v>
       </c>
       <c r="T46" t="n">
-        <v>1.495911030979168</v>
+        <v>1.216136661510777</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01909673656569153</v>
+        <v>0.01552514887035037</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1736324.744906385</v>
+        <v>1771982.031266962</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11735561.5870001</v>
+        <v>11898179.06537883</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8349300.999220033</v>
+        <v>9278433.149723241</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6179241.870703136</v>
+        <v>5918300.595252703</v>
       </c>
     </row>
     <row r="11">
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>127.191074483116</v>
+        <v>116.0812425696699</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>122.7246631227451</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>95.94394513631457</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>121.1636327867851</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.7837289870421</v>
+        <v>139.6481822362132</v>
       </c>
       <c r="R11" t="n">
-        <v>30.65761212335747</v>
+        <v>50.70937436787165</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.76205883523716</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>71.70978061845143</v>
       </c>
       <c r="L12" t="n">
-        <v>64.83909332637066</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>56.11177155621895</v>
+        <v>38.36604893625689</v>
       </c>
       <c r="N12" t="n">
-        <v>43.04269639994163</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>61.81989570708043</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>69.14426618389622</v>
+        <v>22.62040120310131</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.64454154501018</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>3.457218419385548</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>95.94469107668922</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>92.56829551028677</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>94.30909361902999</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>98.22570267914166</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>94.09537352998879</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>5.959697697752016</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>5.929755031143003</v>
       </c>
       <c r="L14" t="n">
-        <v>135.6330275315777</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>95.94394513631457</v>
       </c>
       <c r="N14" t="n">
-        <v>116.1925217712403</v>
+        <v>92.83600597105493</v>
       </c>
       <c r="O14" t="n">
-        <v>123.1872643325856</v>
+        <v>101.1323687752825</v>
       </c>
       <c r="P14" t="n">
-        <v>139.9869758869009</v>
+        <v>121.1636327867851</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.714516593658175</v>
+        <v>22.85327414461108</v>
       </c>
       <c r="R14" t="n">
-        <v>30.65761212335747</v>
+        <v>50.70937436787165</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>71.70978061845143</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>49.63220396682033</v>
       </c>
       <c r="M15" t="n">
-        <v>56.11177155621895</v>
+        <v>38.36604893625689</v>
       </c>
       <c r="N15" t="n">
-        <v>43.04269639994163</v>
+        <v>24.82729730627483</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>45.1563642034439</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>55.77031306934008</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>87.70440806515253</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>3.457218419385548</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>95.94469107668922</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>79.74436019045068</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>94.30909361902999</v>
+        <v>1.656846413648225</v>
       </c>
       <c r="N16" t="n">
-        <v>84.12973930946535</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>89.92639465401999</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>5.959697697752016</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9172,22 +9172,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>95.94394513631457</v>
       </c>
       <c r="N17" t="n">
-        <v>116.1925217712403</v>
+        <v>92.83600597105493</v>
       </c>
       <c r="O17" t="n">
-        <v>123.1872643325856</v>
+        <v>101.1323687752825</v>
       </c>
       <c r="P17" t="n">
-        <v>78.8543976486695</v>
+        <v>121.1636327867851</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.7837289870421</v>
+        <v>30.99449967272905</v>
       </c>
       <c r="R17" t="n">
-        <v>10.34976871702609</v>
+        <v>21.07031981290461</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>116.0812425696699</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>92.65115074880974</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>95.94394513631457</v>
       </c>
       <c r="N20" t="n">
-        <v>116.1925217712401</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>123.1872643325854</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>139.9869758869007</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>139.6481822362132</v>
       </c>
       <c r="R20" t="n">
-        <v>10.349768717026</v>
+        <v>21.07031981290461</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>83.83875579824407</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>85.1050179644652</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>96.20208218870033</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.034892685763804</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>122.7246631227451</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>114.9762897335994</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>116.1925217712401</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>123.1872643325854</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>139.9869758869007</v>
+        <v>74.65590151377823</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>22.27493286296926</v>
+        <v>21.07031981290461</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,10 +9725,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>56.11177155621877</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>43.04269639994143</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9801,19 +9801,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>92.56829551028667</v>
+        <v>83.83875579824407</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>85.1050179644652</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>75.14451600184552</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>89.92639465401999</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>96.20208218870033</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>127.1910744831159</v>
+        <v>116.0812425696699</v>
       </c>
       <c r="K26" t="n">
-        <v>139.3754212341755</v>
+        <v>122.7246631227451</v>
       </c>
       <c r="L26" t="n">
-        <v>75.54894985258933</v>
+        <v>114.9762897335994</v>
       </c>
       <c r="M26" t="n">
-        <v>8.918141420072942</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>116.1925217712401</v>
+        <v>92.83600597105493</v>
       </c>
       <c r="O26" t="n">
-        <v>13.17685968882627</v>
+        <v>101.1323687752825</v>
       </c>
       <c r="P26" t="n">
-        <v>139.9869758869007</v>
+        <v>32.31177708400092</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.7837289870419</v>
+        <v>37.86031964972186</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.9331230209220145</v>
       </c>
       <c r="K28" t="n">
-        <v>95.94469107668914</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>92.56829551028667</v>
+        <v>83.83875579824407</v>
       </c>
       <c r="M28" t="n">
-        <v>94.30909361902988</v>
+        <v>85.1050179644652</v>
       </c>
       <c r="N28" t="n">
-        <v>84.12973930946526</v>
+        <v>75.14451600184552</v>
       </c>
       <c r="O28" t="n">
-        <v>98.22570267914158</v>
+        <v>89.92639465401999</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>96.20208218870033</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.66090594488723</v>
+        <v>20.9667432028628</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>127.1910744831159</v>
+        <v>32.36287517091472</v>
       </c>
       <c r="K29" t="n">
-        <v>139.3754212341755</v>
+        <v>20.9368005362538</v>
       </c>
       <c r="L29" t="n">
-        <v>135.6330275315775</v>
+        <v>114.9762897335994</v>
       </c>
       <c r="M29" t="n">
-        <v>118.928546063832</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>116.1925217712401</v>
+        <v>92.83600597105493</v>
       </c>
       <c r="O29" t="n">
-        <v>13.17685968882627</v>
+        <v>101.1323687752825</v>
       </c>
       <c r="P29" t="n">
-        <v>139.9869758869007</v>
+        <v>121.1636327867851</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.77332434328281</v>
+        <v>37.86031964972187</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,16 +10190,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>88.14511905755664</v>
       </c>
       <c r="K30" t="n">
-        <v>80.69507972484271</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>49.63220396682033</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>38.36604893625689</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>55.77031306934008</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>87.70440806515253</v>
       </c>
       <c r="R30" t="n">
-        <v>14.59014577943526</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.9331230209220287</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>92.56829551028667</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10284,13 +10284,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>89.92639465401999</v>
       </c>
       <c r="P31" t="n">
-        <v>103.3035739539575</v>
+        <v>96.20208218870033</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.66090594488723</v>
+        <v>20.96674320286281</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>12.65114123299307</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>95.94394513631468</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>92.83600597105504</v>
       </c>
       <c r="O32" t="n">
-        <v>123.1872643325854</v>
+        <v>93.57924929496031</v>
       </c>
       <c r="P32" t="n">
-        <v>139.9869758869007</v>
+        <v>121.1636327867852</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>8.316651711809364</v>
+        <v>20.05921689483506</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10509,22 +10509,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>95.94469107668914</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>92.56829551028667</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>94.30909361902988</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>84.12973930946526</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>98.22570267914158</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>103.3035739539575</v>
+        <v>96.20208218870037</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>18.8036594710931</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>135.6330275315775</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>89.82856733783206</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>123.1872643325854</v>
+        <v>101.1323687752826</v>
       </c>
       <c r="P35" t="n">
-        <v>139.9869758869007</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>139.6481822362132</v>
       </c>
       <c r="R35" t="n">
-        <v>8.316651711809364</v>
+        <v>20.05921689483506</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10746,19 +10746,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>89.12290328655192</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>83.83875579824411</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>75.14451600184555</v>
       </c>
       <c r="O37" t="n">
-        <v>98.22570267914158</v>
+        <v>89.92639465402002</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>122.7246631227452</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>139.6481822362132</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>33.63003255259176</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>83.01918462916871</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>64.8390933263705</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>56.11177155621877</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>61.81989570708026</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>69.14426618389608</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>96.64454154501009</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>95.94469107668914</v>
+        <v>89.12290328655192</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>83.83875579824411</v>
       </c>
       <c r="M40" t="n">
-        <v>94.30909361902988</v>
+        <v>85.10501796446525</v>
       </c>
       <c r="N40" t="n">
-        <v>84.12973930946526</v>
+        <v>75.14451600184555</v>
       </c>
       <c r="O40" t="n">
-        <v>38.72529407518471</v>
+        <v>89.92639465402002</v>
       </c>
       <c r="P40" t="n">
-        <v>103.3035739539575</v>
+        <v>96.20208218870037</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>123.8126337903905</v>
+        <v>116.0812425696699</v>
       </c>
       <c r="K41" t="n">
-        <v>139.3754212341755</v>
+        <v>122.7246631227452</v>
       </c>
       <c r="L41" t="n">
-        <v>135.6330275315775</v>
+        <v>69.23830998882863</v>
       </c>
       <c r="M41" t="n">
-        <v>118.928546063832</v>
+        <v>20.64768760320021</v>
       </c>
       <c r="N41" t="n">
-        <v>116.1925217712401</v>
+        <v>92.83600597105504</v>
       </c>
       <c r="O41" t="n">
-        <v>123.1872643325854</v>
+        <v>101.1323687752826</v>
       </c>
       <c r="P41" t="n">
-        <v>62.27936431939639</v>
+        <v>121.1636327867852</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.7837289870419</v>
+        <v>139.6481822362132</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10.12574714858492</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>17.0544472677328</v>
+        <v>12.84886152444221</v>
       </c>
       <c r="K42" t="n">
-        <v>5.311573061664426</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>18.9369299775058</v>
+        <v>12.40815053203811</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>29.16462941110605</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>18.23707950918486</v>
+        <v>13.82664575343747</v>
       </c>
       <c r="L43" t="n">
-        <v>92.56829551028667</v>
+        <v>83.83875579824411</v>
       </c>
       <c r="M43" t="n">
-        <v>94.30909361902988</v>
+        <v>85.10501796446525</v>
       </c>
       <c r="N43" t="n">
-        <v>84.12973930946526</v>
+        <v>75.14451600184555</v>
       </c>
       <c r="O43" t="n">
-        <v>98.22570267914158</v>
+        <v>89.92639465402002</v>
       </c>
       <c r="P43" t="n">
-        <v>25.59596238645317</v>
+        <v>20.90582465558592</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.96369902114205</v>
+        <v>47.4583482562397</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>49.48346291561163</v>
+        <v>116.0812425696699</v>
       </c>
       <c r="K44" t="n">
-        <v>61.66780966667123</v>
+        <v>122.7246631227452</v>
       </c>
       <c r="L44" t="n">
-        <v>135.6330275315775</v>
+        <v>101.0026071748665</v>
       </c>
       <c r="M44" t="n">
-        <v>118.928546063832</v>
+        <v>20.64768760320021</v>
       </c>
       <c r="N44" t="n">
-        <v>116.1925217712401</v>
+        <v>92.83600597105504</v>
       </c>
       <c r="O44" t="n">
-        <v>45.47965276508107</v>
+        <v>25.83611124216813</v>
       </c>
       <c r="P44" t="n">
-        <v>62.27936431939639</v>
+        <v>121.1636327867852</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.78692715312738</v>
+        <v>139.6481822362132</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>17.0544472677328</v>
+        <v>12.84886152444221</v>
       </c>
       <c r="K45" t="n">
-        <v>83.01918462916871</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>64.8390933263705</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>56.11177155621877</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>43.04269639994143</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>61.81989570708026</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>69.14426618389608</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>96.64454154501009</v>
+        <v>12.40815053203811</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>27.42472807429892</v>
       </c>
       <c r="K46" t="n">
-        <v>95.94469107668914</v>
+        <v>89.12290328655192</v>
       </c>
       <c r="L46" t="n">
-        <v>92.56829551028667</v>
+        <v>83.83875579824411</v>
       </c>
       <c r="M46" t="n">
-        <v>94.30909361902988</v>
+        <v>85.10501796446525</v>
       </c>
       <c r="N46" t="n">
-        <v>84.12973930946526</v>
+        <v>75.14451600184555</v>
       </c>
       <c r="O46" t="n">
-        <v>98.22570267914158</v>
+        <v>89.92639465402002</v>
       </c>
       <c r="P46" t="n">
-        <v>103.3035739539575</v>
+        <v>96.20208218870037</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>47.4583482562397</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>237.6646292700967</v>
+        <v>265.9389335718785</v>
       </c>
       <c r="C11" t="n">
-        <v>220.2036793776237</v>
+        <v>248.4779836794054</v>
       </c>
       <c r="D11" t="n">
-        <v>209.6138292272991</v>
+        <v>237.8881335290808</v>
       </c>
       <c r="E11" t="n">
-        <v>236.8611576788779</v>
+        <v>265.1354619806597</v>
       </c>
       <c r="F11" t="n">
-        <v>261.8068333483276</v>
+        <v>290.0811376501093</v>
       </c>
       <c r="G11" t="n">
-        <v>269.5989964242025</v>
+        <v>297.7424023986046</v>
       </c>
       <c r="H11" t="n">
-        <v>187.9072226986131</v>
+        <v>214.8409645051171</v>
       </c>
       <c r="I11" t="n">
-        <v>40.94400956477747</v>
+        <v>64.17185610025182</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.49153449747146</v>
+        <v>74.78299316408739</v>
       </c>
       <c r="T11" t="n">
-        <v>75.24898779722824</v>
+        <v>102.9502846709052</v>
       </c>
       <c r="U11" t="n">
-        <v>106.2256782186487</v>
+        <v>134.4895106542401</v>
       </c>
       <c r="V11" t="n">
-        <v>182.683046076751</v>
+        <v>210.9573503785328</v>
       </c>
       <c r="W11" t="n">
-        <v>204.1717563240291</v>
+        <v>232.4460606258109</v>
       </c>
       <c r="X11" t="n">
-        <v>224.6618882850852</v>
+        <v>252.9361925868669</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.1687262626697</v>
+        <v>269.4430305644515</v>
       </c>
     </row>
     <row r="12">
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.46397125648346</v>
+        <v>49.73827555826522</v>
       </c>
       <c r="C12" t="n">
-        <v>27.63928659493186</v>
+        <v>55.91359089671361</v>
       </c>
       <c r="D12" t="n">
-        <v>2.375853171254874</v>
+        <v>30.65015747303663</v>
       </c>
       <c r="E12" t="n">
-        <v>12.57586806201707</v>
+        <v>40.85017236379882</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>28.27430430178175</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>20.13906950822347</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>20.30784340633139</v>
+        <v>47.28124524497416</v>
       </c>
       <c r="T12" t="n">
-        <v>53.72708183520663</v>
+        <v>81.71908876659295</v>
       </c>
       <c r="U12" t="n">
-        <v>80.84983397813124</v>
+        <v>109.1195305970447</v>
       </c>
       <c r="V12" t="n">
-        <v>87.73137475604139</v>
+        <v>116.0056790578231</v>
       </c>
       <c r="W12" t="n">
-        <v>106.6257707675357</v>
+        <v>134.9000750693175</v>
       </c>
       <c r="X12" t="n">
-        <v>60.7037728100936</v>
+        <v>88.97807711187535</v>
       </c>
       <c r="Y12" t="n">
-        <v>60.61348338392048</v>
+        <v>88.88778768570224</v>
       </c>
     </row>
     <row r="13">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.76276778855342</v>
+        <v>63.03707209033517</v>
       </c>
       <c r="C13" t="n">
-        <v>22.17760870524396</v>
+        <v>50.45191300702571</v>
       </c>
       <c r="D13" t="n">
-        <v>3.546260624828477</v>
+        <v>31.82056492661023</v>
       </c>
       <c r="E13" t="n">
-        <v>1.364750253185292</v>
+        <v>29.63905455496705</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3518356295473666</v>
+        <v>28.62613993132912</v>
       </c>
       <c r="G13" t="n">
-        <v>22.63713923578513</v>
+        <v>50.85272705424019</v>
       </c>
       <c r="H13" t="n">
-        <v>14.6273608481886</v>
+        <v>42.37962223457485</v>
       </c>
       <c r="I13" t="n">
-        <v>1.821730456687931</v>
+        <v>28.33026996897247</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.42628126499349</v>
+        <v>45.06047896192241</v>
       </c>
       <c r="S13" t="n">
-        <v>73.98710057951146</v>
+        <v>101.2381367127726</v>
       </c>
       <c r="T13" t="n">
-        <v>81.66024037338684</v>
+        <v>109.6836651555</v>
       </c>
       <c r="U13" t="n">
-        <v>141.2342918142367</v>
+        <v>169.505393398746</v>
       </c>
       <c r="V13" t="n">
-        <v>107.0684309304441</v>
+        <v>135.3427352322259</v>
       </c>
       <c r="W13" t="n">
-        <v>141.4537859432071</v>
+        <v>169.7280902449889</v>
       </c>
       <c r="X13" t="n">
-        <v>80.64044299565327</v>
+        <v>108.914747297435</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.51544095871091</v>
+        <v>101.7897452604927</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>237.6646292700967</v>
+        <v>265.9389335718785</v>
       </c>
       <c r="C14" t="n">
-        <v>220.2036793776237</v>
+        <v>248.4779836794054</v>
       </c>
       <c r="D14" t="n">
-        <v>209.6138292272991</v>
+        <v>237.8881335290808</v>
       </c>
       <c r="E14" t="n">
-        <v>236.8611576788779</v>
+        <v>265.1354619806597</v>
       </c>
       <c r="F14" t="n">
-        <v>261.8068333483276</v>
+        <v>290.0811376501093</v>
       </c>
       <c r="G14" t="n">
-        <v>269.5989964242025</v>
+        <v>297.7424023986046</v>
       </c>
       <c r="H14" t="n">
-        <v>187.9072226986131</v>
+        <v>214.8409645051171</v>
       </c>
       <c r="I14" t="n">
-        <v>40.94400956477747</v>
+        <v>64.17185610025182</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.49153449747146</v>
+        <v>74.78299316408739</v>
       </c>
       <c r="T14" t="n">
-        <v>75.24898779722824</v>
+        <v>102.9502846709052</v>
       </c>
       <c r="U14" t="n">
-        <v>106.2256782186487</v>
+        <v>134.4895106542401</v>
       </c>
       <c r="V14" t="n">
-        <v>182.683046076751</v>
+        <v>210.9573503785328</v>
       </c>
       <c r="W14" t="n">
-        <v>204.1717563240291</v>
+        <v>232.4460606258109</v>
       </c>
       <c r="X14" t="n">
-        <v>224.6618882850852</v>
+        <v>252.9361925868669</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.1687262626697</v>
+        <v>269.4430305644515</v>
       </c>
     </row>
     <row r="15">
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.46397125648346</v>
+        <v>49.73827555826522</v>
       </c>
       <c r="C15" t="n">
-        <v>27.63928659493186</v>
+        <v>55.91359089671361</v>
       </c>
       <c r="D15" t="n">
-        <v>2.375853171254874</v>
+        <v>30.65015747303663</v>
       </c>
       <c r="E15" t="n">
-        <v>12.57586806201707</v>
+        <v>40.85017236379882</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>28.27430430178175</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>20.13906950822347</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>20.30784340633139</v>
+        <v>47.28124524497416</v>
       </c>
       <c r="T15" t="n">
-        <v>53.72708183520663</v>
+        <v>81.71908876659295</v>
       </c>
       <c r="U15" t="n">
-        <v>80.84983397813124</v>
+        <v>109.1195305970447</v>
       </c>
       <c r="V15" t="n">
-        <v>87.73137475604139</v>
+        <v>116.0056790578231</v>
       </c>
       <c r="W15" t="n">
-        <v>106.6257707675357</v>
+        <v>134.9000750693175</v>
       </c>
       <c r="X15" t="n">
-        <v>60.7037728100936</v>
+        <v>88.97807711187535</v>
       </c>
       <c r="Y15" t="n">
-        <v>60.61348338392048</v>
+        <v>88.88778768570224</v>
       </c>
     </row>
     <row r="16">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.76276778855342</v>
+        <v>63.03707209033517</v>
       </c>
       <c r="C16" t="n">
-        <v>22.17760870524396</v>
+        <v>50.45191300702571</v>
       </c>
       <c r="D16" t="n">
-        <v>3.546260624828477</v>
+        <v>31.82056492661023</v>
       </c>
       <c r="E16" t="n">
-        <v>1.364750253185292</v>
+        <v>29.63905455496705</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3518356295473666</v>
+        <v>28.62613993132912</v>
       </c>
       <c r="G16" t="n">
-        <v>22.63713923578513</v>
+        <v>50.85272705424019</v>
       </c>
       <c r="H16" t="n">
-        <v>14.6273608481886</v>
+        <v>42.37962223457485</v>
       </c>
       <c r="I16" t="n">
-        <v>1.821730456687931</v>
+        <v>28.33026996897247</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.42628126499349</v>
+        <v>45.06047896192241</v>
       </c>
       <c r="S16" t="n">
-        <v>73.98710057951146</v>
+        <v>101.2381367127726</v>
       </c>
       <c r="T16" t="n">
-        <v>81.66024037338684</v>
+        <v>109.6836651555</v>
       </c>
       <c r="U16" t="n">
-        <v>141.2342918142367</v>
+        <v>169.505393398746</v>
       </c>
       <c r="V16" t="n">
-        <v>107.0684309304441</v>
+        <v>135.3427352322259</v>
       </c>
       <c r="W16" t="n">
-        <v>141.4537859432071</v>
+        <v>169.7280902449889</v>
       </c>
       <c r="X16" t="n">
-        <v>80.64044299565327</v>
+        <v>108.914747297435</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.51544095871091</v>
+        <v>101.7897452604927</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>217.3567858637653</v>
+        <v>236.2998790169114</v>
       </c>
       <c r="C17" t="n">
-        <v>199.8958359712923</v>
+        <v>218.8389291244384</v>
       </c>
       <c r="D17" t="n">
-        <v>189.3059858209677</v>
+        <v>208.2490789741138</v>
       </c>
       <c r="E17" t="n">
-        <v>216.5533142725465</v>
+        <v>235.4964074256926</v>
       </c>
       <c r="F17" t="n">
-        <v>241.4989899419962</v>
+        <v>260.4420830951423</v>
       </c>
       <c r="G17" t="n">
-        <v>249.2911530178711</v>
+        <v>268.1033478436375</v>
       </c>
       <c r="H17" t="n">
-        <v>167.5993792922817</v>
+        <v>185.20190995015</v>
       </c>
       <c r="I17" t="n">
-        <v>20.63616615844609</v>
+        <v>34.53280154528477</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.18369109114008</v>
+        <v>45.14393860912034</v>
       </c>
       <c r="T17" t="n">
-        <v>54.94114439089685</v>
+        <v>73.31123011593814</v>
       </c>
       <c r="U17" t="n">
-        <v>85.91783481231732</v>
+        <v>104.8504560992731</v>
       </c>
       <c r="V17" t="n">
-        <v>162.3752026704196</v>
+        <v>181.3182958235657</v>
       </c>
       <c r="W17" t="n">
-        <v>183.8639129176977</v>
+        <v>202.8070060708438</v>
       </c>
       <c r="X17" t="n">
-        <v>204.3540448787538</v>
+        <v>223.2971380318999</v>
       </c>
       <c r="Y17" t="n">
-        <v>220.8608828563383</v>
+        <v>239.8039760094844</v>
       </c>
     </row>
     <row r="18">
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.156127850152075</v>
+        <v>20.09922100329817</v>
       </c>
       <c r="C18" t="n">
-        <v>7.331443188600474</v>
+        <v>26.27453634174657</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.011102918069582</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>11.21111780883177</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>17.64219069000711</v>
       </c>
       <c r="T18" t="n">
-        <v>33.41923842887525</v>
+        <v>52.0800342116259</v>
       </c>
       <c r="U18" t="n">
-        <v>60.54199057179986</v>
+        <v>79.4804760420777</v>
       </c>
       <c r="V18" t="n">
-        <v>67.42353134971</v>
+        <v>86.3666245028561</v>
       </c>
       <c r="W18" t="n">
-        <v>86.31792736120434</v>
+        <v>105.2610205143504</v>
       </c>
       <c r="X18" t="n">
-        <v>40.39592940376221</v>
+        <v>59.3390225569083</v>
       </c>
       <c r="Y18" t="n">
-        <v>40.3056399775891</v>
+        <v>59.24873313073519</v>
       </c>
     </row>
     <row r="19">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.45492438222203</v>
+        <v>33.39801753536813</v>
       </c>
       <c r="C19" t="n">
-        <v>1.869765298912569</v>
+        <v>20.81285845205866</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.181510371643185</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.329295829453741</v>
+        <v>21.21367249927314</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>12.74056767960781</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>15.42142440695537</v>
       </c>
       <c r="S19" t="n">
-        <v>53.67925717318008</v>
+        <v>71.59908215780555</v>
       </c>
       <c r="T19" t="n">
-        <v>61.35239696705545</v>
+        <v>80.04461060053296</v>
       </c>
       <c r="U19" t="n">
-        <v>120.9264484079053</v>
+        <v>139.866338843779</v>
       </c>
       <c r="V19" t="n">
-        <v>86.76058752411274</v>
+        <v>105.7036806772588</v>
       </c>
       <c r="W19" t="n">
-        <v>121.1459425368757</v>
+        <v>140.0890356900218</v>
       </c>
       <c r="X19" t="n">
-        <v>60.33259958932189</v>
+        <v>79.27569274246798</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.20759755237953</v>
+        <v>72.15069070552562</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>217.3567858637653</v>
+        <v>236.2998790169114</v>
       </c>
       <c r="C20" t="n">
-        <v>199.8958359712923</v>
+        <v>218.8389291244384</v>
       </c>
       <c r="D20" t="n">
-        <v>189.3059858209677</v>
+        <v>208.2490789741138</v>
       </c>
       <c r="E20" t="n">
-        <v>216.5533142725465</v>
+        <v>235.4964074256926</v>
       </c>
       <c r="F20" t="n">
-        <v>241.4989899419962</v>
+        <v>260.4420830951423</v>
       </c>
       <c r="G20" t="n">
-        <v>249.2911530178711</v>
+        <v>268.1033478436375</v>
       </c>
       <c r="H20" t="n">
-        <v>167.5993792922817</v>
+        <v>185.20190995015</v>
       </c>
       <c r="I20" t="n">
-        <v>20.63616615844603</v>
+        <v>34.53280154528477</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.18369109114005</v>
+        <v>45.14393860912034</v>
       </c>
       <c r="T20" t="n">
-        <v>54.94114439089685</v>
+        <v>73.31123011593814</v>
       </c>
       <c r="U20" t="n">
-        <v>85.91783481231732</v>
+        <v>104.8504560992731</v>
       </c>
       <c r="V20" t="n">
-        <v>162.3752026704196</v>
+        <v>181.3182958235657</v>
       </c>
       <c r="W20" t="n">
-        <v>183.8639129176977</v>
+        <v>202.8070060708438</v>
       </c>
       <c r="X20" t="n">
-        <v>204.3540448787538</v>
+        <v>223.2971380318999</v>
       </c>
       <c r="Y20" t="n">
-        <v>220.8608828563383</v>
+        <v>239.8039760094844</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.156127850152075</v>
+        <v>20.09922100329817</v>
       </c>
       <c r="C21" t="n">
-        <v>7.331443188600474</v>
+        <v>26.27453634174657</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.011102918069582</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>11.21111780883177</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>17.64219069000711</v>
       </c>
       <c r="T21" t="n">
-        <v>33.41923842887525</v>
+        <v>52.0800342116259</v>
       </c>
       <c r="U21" t="n">
-        <v>60.54199057179986</v>
+        <v>79.4804760420777</v>
       </c>
       <c r="V21" t="n">
-        <v>67.42353134971</v>
+        <v>86.3666245028561</v>
       </c>
       <c r="W21" t="n">
-        <v>86.31792736120434</v>
+        <v>105.2610205143504</v>
       </c>
       <c r="X21" t="n">
-        <v>40.39592940376221</v>
+        <v>59.3390225569083</v>
       </c>
       <c r="Y21" t="n">
-        <v>40.3056399775891</v>
+        <v>59.24873313073519</v>
       </c>
     </row>
     <row r="22">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14.45492438222203</v>
+        <v>33.39801753536813</v>
       </c>
       <c r="C22" t="n">
-        <v>1.869765298912569</v>
+        <v>20.81285845205866</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.181510371643185</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.329295829453741</v>
+        <v>21.21367249927314</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>12.74056767960781</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>15.42142440695537</v>
       </c>
       <c r="S22" t="n">
-        <v>53.67925717318005</v>
+        <v>71.59908215780555</v>
       </c>
       <c r="T22" t="n">
-        <v>61.35239696705545</v>
+        <v>80.04461060053296</v>
       </c>
       <c r="U22" t="n">
-        <v>120.9264484079053</v>
+        <v>139.866338843779</v>
       </c>
       <c r="V22" t="n">
-        <v>86.76058752411274</v>
+        <v>105.7036806772588</v>
       </c>
       <c r="W22" t="n">
-        <v>121.1459425368757</v>
+        <v>140.0890356900218</v>
       </c>
       <c r="X22" t="n">
-        <v>60.33259958932189</v>
+        <v>79.27569274246798</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.20759755237953</v>
+        <v>72.15069070552562</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>217.3567858637653</v>
+        <v>236.2998790169114</v>
       </c>
       <c r="C23" t="n">
-        <v>199.8958359712923</v>
+        <v>218.8389291244384</v>
       </c>
       <c r="D23" t="n">
-        <v>189.3059858209677</v>
+        <v>208.2490789741138</v>
       </c>
       <c r="E23" t="n">
-        <v>216.5533142725465</v>
+        <v>235.4964074256926</v>
       </c>
       <c r="F23" t="n">
-        <v>241.4989899419962</v>
+        <v>260.4420830951423</v>
       </c>
       <c r="G23" t="n">
-        <v>249.2911530178711</v>
+        <v>268.1033478436375</v>
       </c>
       <c r="H23" t="n">
-        <v>167.5993792922817</v>
+        <v>185.20190995015</v>
       </c>
       <c r="I23" t="n">
-        <v>20.63616615844603</v>
+        <v>34.53280154528477</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.18369109114005</v>
+        <v>45.14393860912034</v>
       </c>
       <c r="T23" t="n">
-        <v>54.94114439089685</v>
+        <v>73.31123011593814</v>
       </c>
       <c r="U23" t="n">
-        <v>85.91783481231732</v>
+        <v>104.8504560992731</v>
       </c>
       <c r="V23" t="n">
-        <v>162.3752026704196</v>
+        <v>181.3182958235657</v>
       </c>
       <c r="W23" t="n">
-        <v>183.8639129176977</v>
+        <v>202.8070060708438</v>
       </c>
       <c r="X23" t="n">
-        <v>204.3540448787538</v>
+        <v>223.2971380318999</v>
       </c>
       <c r="Y23" t="n">
-        <v>220.8608828563383</v>
+        <v>239.8039760094844</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.156127850152075</v>
+        <v>20.09922100329817</v>
       </c>
       <c r="C24" t="n">
-        <v>7.331443188600474</v>
+        <v>26.27453634174657</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1.011102918069582</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>11.21111780883177</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>17.64219069000711</v>
       </c>
       <c r="T24" t="n">
-        <v>33.41923842887525</v>
+        <v>52.0800342116259</v>
       </c>
       <c r="U24" t="n">
-        <v>60.54199057179986</v>
+        <v>79.4804760420777</v>
       </c>
       <c r="V24" t="n">
-        <v>67.42353134971</v>
+        <v>86.3666245028561</v>
       </c>
       <c r="W24" t="n">
-        <v>86.31792736120434</v>
+        <v>105.2610205143504</v>
       </c>
       <c r="X24" t="n">
-        <v>40.39592940376221</v>
+        <v>59.3390225569083</v>
       </c>
       <c r="Y24" t="n">
-        <v>40.3056399775891</v>
+        <v>59.24873313073519</v>
       </c>
     </row>
     <row r="25">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.45492438222203</v>
+        <v>33.39801753536813</v>
       </c>
       <c r="C25" t="n">
-        <v>1.869765298912569</v>
+        <v>20.81285845205866</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2.181510371643185</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.329295829453741</v>
+        <v>21.21367249927314</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>12.74056767960781</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>15.42142440695537</v>
       </c>
       <c r="S25" t="n">
-        <v>53.67925717318005</v>
+        <v>71.59908215780555</v>
       </c>
       <c r="T25" t="n">
-        <v>61.35239696705545</v>
+        <v>80.04461060053296</v>
       </c>
       <c r="U25" t="n">
-        <v>120.9264484079053</v>
+        <v>139.866338843779</v>
       </c>
       <c r="V25" t="n">
-        <v>86.76058752411274</v>
+        <v>105.7036806772588</v>
       </c>
       <c r="W25" t="n">
-        <v>121.1459425368757</v>
+        <v>140.0890356900218</v>
       </c>
       <c r="X25" t="n">
-        <v>60.33259958932189</v>
+        <v>79.27569274246798</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.20759755237953</v>
+        <v>72.15069070552562</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>272.7234370197215</v>
+        <v>280.9459790769893</v>
       </c>
       <c r="C26" t="n">
-        <v>255.2624871272484</v>
+        <v>263.4850291845162</v>
       </c>
       <c r="D26" t="n">
-        <v>244.6726369769239</v>
+        <v>252.8951790341916</v>
       </c>
       <c r="E26" t="n">
-        <v>271.9199654285027</v>
+        <v>280.1425074857705</v>
       </c>
       <c r="F26" t="n">
-        <v>296.8656410979523</v>
+        <v>305.0881831552201</v>
       </c>
       <c r="G26" t="n">
-        <v>304.6578041738273</v>
+        <v>312.7494479037153</v>
       </c>
       <c r="H26" t="n">
-        <v>222.9660304482379</v>
+        <v>229.8480100102279</v>
       </c>
       <c r="I26" t="n">
-        <v>76.00281731440219</v>
+        <v>79.1789016053626</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.55034224709621</v>
+        <v>89.79003866919817</v>
       </c>
       <c r="T26" t="n">
-        <v>110.307795546853</v>
+        <v>117.957330176016</v>
       </c>
       <c r="U26" t="n">
-        <v>141.2844859682735</v>
+        <v>149.4965561593509</v>
       </c>
       <c r="V26" t="n">
-        <v>217.7418538263758</v>
+        <v>225.9643958836436</v>
       </c>
       <c r="W26" t="n">
-        <v>239.2305640736539</v>
+        <v>247.4531061309217</v>
       </c>
       <c r="X26" t="n">
-        <v>259.7206960347099</v>
+        <v>267.9432380919777</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.2275340122945</v>
+        <v>284.4500760695622</v>
       </c>
     </row>
     <row r="27">
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.52277900610824</v>
+        <v>64.745321063376</v>
       </c>
       <c r="C27" t="n">
-        <v>62.69809434455664</v>
+        <v>70.9206364018244</v>
       </c>
       <c r="D27" t="n">
-        <v>37.43466092087965</v>
+        <v>45.65720297814741</v>
       </c>
       <c r="E27" t="n">
-        <v>47.63467581164184</v>
+        <v>55.8572178689096</v>
       </c>
       <c r="F27" t="n">
-        <v>35.05880774962478</v>
+        <v>43.28134980689254</v>
       </c>
       <c r="G27" t="n">
-        <v>26.99360973566405</v>
+        <v>35.14611501333425</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>6.49229165626015</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>55.36665115595616</v>
+        <v>62.28829075008494</v>
       </c>
       <c r="T27" t="n">
-        <v>88.78588958483141</v>
+        <v>96.72613427170373</v>
       </c>
       <c r="U27" t="n">
-        <v>115.908641727756</v>
+        <v>124.1265761021555</v>
       </c>
       <c r="V27" t="n">
-        <v>122.7901825056662</v>
+        <v>131.0127245629339</v>
       </c>
       <c r="W27" t="n">
-        <v>141.6845785171605</v>
+        <v>149.9071205744283</v>
       </c>
       <c r="X27" t="n">
-        <v>95.76258055971837</v>
+        <v>103.9851226169861</v>
       </c>
       <c r="Y27" t="n">
-        <v>95.67229113354526</v>
+        <v>103.894833190813</v>
       </c>
     </row>
     <row r="28">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.82157553817819</v>
+        <v>78.04411759544595</v>
       </c>
       <c r="C28" t="n">
-        <v>57.23641645486873</v>
+        <v>65.45895851213649</v>
       </c>
       <c r="D28" t="n">
-        <v>38.60506837445325</v>
+        <v>46.82761043172101</v>
       </c>
       <c r="E28" t="n">
-        <v>36.42355800281007</v>
+        <v>44.64610006007783</v>
       </c>
       <c r="F28" t="n">
-        <v>35.41064337917214</v>
+        <v>43.6331854364399</v>
       </c>
       <c r="G28" t="n">
-        <v>57.6959469854099</v>
+        <v>65.85977255935097</v>
       </c>
       <c r="H28" t="n">
-        <v>49.68616859781338</v>
+        <v>57.38666773968563</v>
       </c>
       <c r="I28" t="n">
-        <v>36.88053820631268</v>
+        <v>43.33731547408325</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.48508901461824</v>
+        <v>60.06752446703319</v>
       </c>
       <c r="S28" t="n">
-        <v>109.0459083291362</v>
+        <v>116.2451822178834</v>
       </c>
       <c r="T28" t="n">
-        <v>116.7190481230116</v>
+        <v>124.6907106606108</v>
       </c>
       <c r="U28" t="n">
-        <v>176.2930995638615</v>
+        <v>184.5124389038568</v>
       </c>
       <c r="V28" t="n">
-        <v>142.1272386800689</v>
+        <v>150.3497807373367</v>
       </c>
       <c r="W28" t="n">
-        <v>176.5125936928319</v>
+        <v>184.7351357500997</v>
       </c>
       <c r="X28" t="n">
-        <v>115.6992507452781</v>
+        <v>123.9217928025458</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.5742487083357</v>
+        <v>116.7967907656034</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>272.7234370197215</v>
+        <v>280.9459790769893</v>
       </c>
       <c r="C29" t="n">
-        <v>255.2624871272484</v>
+        <v>263.4850291845162</v>
       </c>
       <c r="D29" t="n">
-        <v>244.6726369769239</v>
+        <v>252.8951790341916</v>
       </c>
       <c r="E29" t="n">
-        <v>271.9199654285027</v>
+        <v>280.1425074857705</v>
       </c>
       <c r="F29" t="n">
-        <v>296.8656410979523</v>
+        <v>305.0881831552201</v>
       </c>
       <c r="G29" t="n">
-        <v>304.6578041738273</v>
+        <v>312.7494479037153</v>
       </c>
       <c r="H29" t="n">
-        <v>222.9660304482379</v>
+        <v>229.8480100102279</v>
       </c>
       <c r="I29" t="n">
-        <v>76.00281731440219</v>
+        <v>79.17890160536261</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.55034224709621</v>
+        <v>89.79003866919818</v>
       </c>
       <c r="T29" t="n">
-        <v>110.307795546853</v>
+        <v>117.957330176016</v>
       </c>
       <c r="U29" t="n">
-        <v>141.2844859682735</v>
+        <v>149.4965561593509</v>
       </c>
       <c r="V29" t="n">
-        <v>217.7418538263758</v>
+        <v>225.9643958836436</v>
       </c>
       <c r="W29" t="n">
-        <v>239.2305640736539</v>
+        <v>247.4531061309217</v>
       </c>
       <c r="X29" t="n">
-        <v>259.7206960347099</v>
+        <v>267.9432380919777</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.2275340122945</v>
+        <v>284.4500760695623</v>
       </c>
     </row>
     <row r="30">
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>56.52277900610824</v>
+        <v>64.74532106337601</v>
       </c>
       <c r="C30" t="n">
-        <v>62.69809434455664</v>
+        <v>70.92063640182441</v>
       </c>
       <c r="D30" t="n">
-        <v>37.43466092087965</v>
+        <v>45.65720297814742</v>
       </c>
       <c r="E30" t="n">
-        <v>47.63467581164184</v>
+        <v>55.85721786890961</v>
       </c>
       <c r="F30" t="n">
-        <v>35.05880774962478</v>
+        <v>43.28134980689255</v>
       </c>
       <c r="G30" t="n">
-        <v>26.99360973566405</v>
+        <v>35.14611501333427</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>6.492291656260164</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>55.36665115595616</v>
+        <v>62.28829075008495</v>
       </c>
       <c r="T30" t="n">
-        <v>88.78588958483141</v>
+        <v>96.72613427170374</v>
       </c>
       <c r="U30" t="n">
-        <v>115.908641727756</v>
+        <v>124.1265761021555</v>
       </c>
       <c r="V30" t="n">
-        <v>122.7901825056662</v>
+        <v>131.012724562934</v>
       </c>
       <c r="W30" t="n">
-        <v>141.6845785171605</v>
+        <v>149.9071205744283</v>
       </c>
       <c r="X30" t="n">
-        <v>95.76258055971837</v>
+        <v>103.9851226169861</v>
       </c>
       <c r="Y30" t="n">
-        <v>95.67229113354526</v>
+        <v>103.894833190813</v>
       </c>
     </row>
     <row r="31">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.82157553817819</v>
+        <v>78.04411759544597</v>
       </c>
       <c r="C31" t="n">
-        <v>57.23641645486873</v>
+        <v>65.4589585121365</v>
       </c>
       <c r="D31" t="n">
-        <v>38.60506837445325</v>
+        <v>46.82761043172103</v>
       </c>
       <c r="E31" t="n">
-        <v>36.42355800281007</v>
+        <v>44.64610006007784</v>
       </c>
       <c r="F31" t="n">
-        <v>35.41064337917214</v>
+        <v>43.63318543643992</v>
       </c>
       <c r="G31" t="n">
-        <v>57.6959469854099</v>
+        <v>65.85977255935099</v>
       </c>
       <c r="H31" t="n">
-        <v>49.68616859781338</v>
+        <v>57.38666773968565</v>
       </c>
       <c r="I31" t="n">
-        <v>36.88053820631268</v>
+        <v>43.33731547408327</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.48508901461824</v>
+        <v>60.06752446703321</v>
       </c>
       <c r="S31" t="n">
-        <v>109.0459083291362</v>
+        <v>116.2451822178834</v>
       </c>
       <c r="T31" t="n">
-        <v>116.7190481230116</v>
+        <v>124.6907106606108</v>
       </c>
       <c r="U31" t="n">
-        <v>176.2930995638615</v>
+        <v>184.5124389038568</v>
       </c>
       <c r="V31" t="n">
-        <v>142.1272386800689</v>
+        <v>150.3497807373367</v>
       </c>
       <c r="W31" t="n">
-        <v>176.5125936928319</v>
+        <v>184.7351357500997</v>
       </c>
       <c r="X31" t="n">
-        <v>115.6992507452781</v>
+        <v>123.9217928025458</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.5742487083357</v>
+        <v>116.7967907656035</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>215.3236688585487</v>
+        <v>235.2887760988418</v>
       </c>
       <c r="C32" t="n">
-        <v>197.8627189660756</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D32" t="n">
-        <v>187.2728688157511</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E32" t="n">
-        <v>214.5201972673299</v>
+        <v>234.485304507623</v>
       </c>
       <c r="F32" t="n">
-        <v>239.4658729367795</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G32" t="n">
-        <v>247.2580360126545</v>
+        <v>267.0922449255679</v>
       </c>
       <c r="H32" t="n">
-        <v>165.5662622870651</v>
+        <v>184.1908070320804</v>
       </c>
       <c r="I32" t="n">
-        <v>18.60304915322939</v>
+        <v>33.52169862721519</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>27.15057408592341</v>
+        <v>44.13283569105079</v>
       </c>
       <c r="T32" t="n">
-        <v>52.90802738568021</v>
+        <v>72.30012719786856</v>
       </c>
       <c r="U32" t="n">
-        <v>83.88471780710069</v>
+        <v>103.8393531812035</v>
       </c>
       <c r="V32" t="n">
-        <v>160.342085665203</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W32" t="n">
-        <v>181.8307959124811</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X32" t="n">
-        <v>202.3209278735371</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y32" t="n">
-        <v>218.8277658511217</v>
+        <v>238.7928730914148</v>
       </c>
     </row>
     <row r="33">
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>19.08811808522859</v>
       </c>
       <c r="C33" t="n">
-        <v>5.298326183383836</v>
+        <v>25.26343342367699</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>10.20001489076219</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>16.63108777193753</v>
       </c>
       <c r="T33" t="n">
-        <v>31.38612142365861</v>
+        <v>51.06893129355632</v>
       </c>
       <c r="U33" t="n">
-        <v>58.50887356658322</v>
+        <v>78.46937312400811</v>
       </c>
       <c r="V33" t="n">
-        <v>65.39041434449337</v>
+        <v>85.35552158478652</v>
       </c>
       <c r="W33" t="n">
-        <v>84.2848103559877</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X33" t="n">
-        <v>38.36281239854557</v>
+        <v>58.32791963883872</v>
       </c>
       <c r="Y33" t="n">
-        <v>38.27252297237246</v>
+        <v>58.23763021266561</v>
       </c>
     </row>
     <row r="34">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12.42180737700539</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>19.80175553398908</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.170407453573603</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2961788242371028</v>
+        <v>20.20256958120356</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>11.72946476153822</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>14.41032148888581</v>
       </c>
       <c r="S34" t="n">
-        <v>51.64614016796341</v>
+        <v>70.58797923973597</v>
       </c>
       <c r="T34" t="n">
-        <v>59.31927996183882</v>
+        <v>79.03350768246338</v>
       </c>
       <c r="U34" t="n">
-        <v>118.8933314026887</v>
+        <v>138.8552359257094</v>
       </c>
       <c r="V34" t="n">
-        <v>84.7274705188961</v>
+        <v>104.6925777591892</v>
       </c>
       <c r="W34" t="n">
-        <v>119.1128255316591</v>
+        <v>139.0779327719522</v>
       </c>
       <c r="X34" t="n">
-        <v>58.29948258410525</v>
+        <v>78.2645898243984</v>
       </c>
       <c r="Y34" t="n">
-        <v>51.17448054716289</v>
+        <v>71.13958778745604</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>215.3236688585487</v>
+        <v>235.2887760988418</v>
       </c>
       <c r="C35" t="n">
-        <v>197.8627189660756</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D35" t="n">
-        <v>187.2728688157511</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E35" t="n">
-        <v>214.5201972673299</v>
+        <v>234.485304507623</v>
       </c>
       <c r="F35" t="n">
-        <v>239.4658729367795</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G35" t="n">
-        <v>247.2580360126545</v>
+        <v>267.0922449255679</v>
       </c>
       <c r="H35" t="n">
-        <v>165.5662622870651</v>
+        <v>184.1908070320804</v>
       </c>
       <c r="I35" t="n">
-        <v>18.60304915322939</v>
+        <v>33.52169862721519</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>27.15057408592341</v>
+        <v>44.13283569105079</v>
       </c>
       <c r="T35" t="n">
-        <v>52.90802738568021</v>
+        <v>72.30012719786856</v>
       </c>
       <c r="U35" t="n">
-        <v>83.88471780710069</v>
+        <v>103.8393531812035</v>
       </c>
       <c r="V35" t="n">
-        <v>160.342085665203</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W35" t="n">
-        <v>181.8307959124811</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X35" t="n">
-        <v>202.3209278735371</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y35" t="n">
-        <v>218.8277658511217</v>
+        <v>238.7928730914148</v>
       </c>
     </row>
     <row r="36">
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>19.08811808522859</v>
       </c>
       <c r="C36" t="n">
-        <v>5.298326183383836</v>
+        <v>25.26343342367699</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>10.20001489076219</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>16.63108777193753</v>
       </c>
       <c r="T36" t="n">
-        <v>31.38612142365861</v>
+        <v>51.06893129355632</v>
       </c>
       <c r="U36" t="n">
-        <v>58.50887356658322</v>
+        <v>78.46937312400811</v>
       </c>
       <c r="V36" t="n">
-        <v>65.39041434449337</v>
+        <v>85.35552158478652</v>
       </c>
       <c r="W36" t="n">
-        <v>84.2848103559877</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X36" t="n">
-        <v>38.36281239854557</v>
+        <v>58.32791963883872</v>
       </c>
       <c r="Y36" t="n">
-        <v>38.27252297237246</v>
+        <v>58.23763021266561</v>
       </c>
     </row>
     <row r="37">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12.42180737700539</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>19.80175553398908</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.170407453573603</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2961788242371028</v>
+        <v>20.20256958120356</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>11.72946476153822</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>14.41032148888581</v>
       </c>
       <c r="S37" t="n">
-        <v>51.64614016796341</v>
+        <v>70.58797923973597</v>
       </c>
       <c r="T37" t="n">
-        <v>59.31927996183882</v>
+        <v>79.03350768246338</v>
       </c>
       <c r="U37" t="n">
-        <v>118.8933314026887</v>
+        <v>138.8552359257094</v>
       </c>
       <c r="V37" t="n">
-        <v>84.7274705188961</v>
+        <v>104.6925777591892</v>
       </c>
       <c r="W37" t="n">
-        <v>119.1128255316591</v>
+        <v>139.0779327719522</v>
       </c>
       <c r="X37" t="n">
-        <v>58.29948258410525</v>
+        <v>78.2645898243984</v>
       </c>
       <c r="Y37" t="n">
-        <v>51.17448054716289</v>
+        <v>71.13958778745604</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>215.3236688585487</v>
+        <v>235.2887760988418</v>
       </c>
       <c r="C38" t="n">
-        <v>197.8627189660756</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D38" t="n">
-        <v>187.2728688157511</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E38" t="n">
-        <v>214.5201972673299</v>
+        <v>234.485304507623</v>
       </c>
       <c r="F38" t="n">
-        <v>239.4658729367795</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G38" t="n">
-        <v>247.2580360126545</v>
+        <v>267.0922449255679</v>
       </c>
       <c r="H38" t="n">
-        <v>165.5662622870651</v>
+        <v>184.1908070320804</v>
       </c>
       <c r="I38" t="n">
-        <v>18.60304915322939</v>
+        <v>33.52169862721519</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>27.15057408592341</v>
+        <v>44.13283569105079</v>
       </c>
       <c r="T38" t="n">
-        <v>52.90802738568021</v>
+        <v>72.30012719786856</v>
       </c>
       <c r="U38" t="n">
-        <v>83.88471780710069</v>
+        <v>103.8393531812035</v>
       </c>
       <c r="V38" t="n">
-        <v>160.342085665203</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W38" t="n">
-        <v>181.8307959124811</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X38" t="n">
-        <v>202.3209278735371</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y38" t="n">
-        <v>218.8277658511217</v>
+        <v>238.7928730914148</v>
       </c>
     </row>
     <row r="39">
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>19.08811808522859</v>
       </c>
       <c r="C39" t="n">
-        <v>5.298326183383836</v>
+        <v>25.26343342367699</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>10.20001489076219</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>16.63108777193753</v>
       </c>
       <c r="T39" t="n">
-        <v>31.38612142365861</v>
+        <v>51.06893129355632</v>
       </c>
       <c r="U39" t="n">
-        <v>58.50887356658322</v>
+        <v>78.46937312400811</v>
       </c>
       <c r="V39" t="n">
-        <v>65.39041434449337</v>
+        <v>85.35552158478652</v>
       </c>
       <c r="W39" t="n">
-        <v>84.2848103559877</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X39" t="n">
-        <v>38.36281239854557</v>
+        <v>58.32791963883872</v>
       </c>
       <c r="Y39" t="n">
-        <v>38.27252297237246</v>
+        <v>58.23763021266561</v>
       </c>
     </row>
     <row r="40">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.42180737700539</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>19.80175553398908</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.170407453573603</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2961788242371028</v>
+        <v>20.20256958120356</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>11.72946476153822</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>14.41032148888581</v>
       </c>
       <c r="S40" t="n">
-        <v>51.64614016796341</v>
+        <v>70.58797923973597</v>
       </c>
       <c r="T40" t="n">
-        <v>59.31927996183882</v>
+        <v>79.03350768246338</v>
       </c>
       <c r="U40" t="n">
-        <v>118.8933314026887</v>
+        <v>138.8552359257094</v>
       </c>
       <c r="V40" t="n">
-        <v>84.7274705188961</v>
+        <v>104.6925777591892</v>
       </c>
       <c r="W40" t="n">
-        <v>119.1128255316591</v>
+        <v>139.0779327719522</v>
       </c>
       <c r="X40" t="n">
-        <v>58.29948258410525</v>
+        <v>78.2645898243984</v>
       </c>
       <c r="Y40" t="n">
-        <v>51.17448054716289</v>
+        <v>71.13958778745604</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>305.0262300959763</v>
+        <v>307.4375841303661</v>
       </c>
       <c r="C41" t="n">
-        <v>287.5652802035033</v>
+        <v>289.9766342378931</v>
       </c>
       <c r="D41" t="n">
-        <v>276.9754300531787</v>
+        <v>279.3867840875685</v>
       </c>
       <c r="E41" t="n">
-        <v>304.2227585047575</v>
+        <v>306.6341125391473</v>
       </c>
       <c r="F41" t="n">
-        <v>329.1684341742072</v>
+        <v>331.579788208597</v>
       </c>
       <c r="G41" t="n">
-        <v>336.9605972500821</v>
+        <v>339.2410529570922</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2688235244927</v>
+        <v>256.3396150636048</v>
       </c>
       <c r="I41" t="n">
-        <v>108.305610390657</v>
+        <v>105.6705066587395</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>32.30279307625453</v>
+        <v>26.49160505337692</v>
       </c>
       <c r="S41" t="n">
-        <v>116.853135323351</v>
+        <v>116.2816437225751</v>
       </c>
       <c r="T41" t="n">
-        <v>142.6105886231078</v>
+        <v>144.4489352293929</v>
       </c>
       <c r="U41" t="n">
-        <v>173.5872790445283</v>
+        <v>175.9881612127278</v>
       </c>
       <c r="V41" t="n">
-        <v>250.0446469026306</v>
+        <v>252.4560009370205</v>
       </c>
       <c r="W41" t="n">
-        <v>271.5333571499087</v>
+        <v>273.9447111842986</v>
       </c>
       <c r="X41" t="n">
-        <v>292.0234891109648</v>
+        <v>294.4348431453546</v>
       </c>
       <c r="Y41" t="n">
-        <v>308.5303270885493</v>
+        <v>310.9416811229391</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>88.82557208236305</v>
+        <v>91.23692611675288</v>
       </c>
       <c r="C42" t="n">
-        <v>95.00088742081145</v>
+        <v>97.41224145520128</v>
       </c>
       <c r="D42" t="n">
-        <v>69.73745399713447</v>
+        <v>72.1488080315243</v>
       </c>
       <c r="E42" t="n">
-        <v>79.93746888789666</v>
+        <v>82.34882292228649</v>
       </c>
       <c r="F42" t="n">
-        <v>67.36160082587959</v>
+        <v>69.77295486026942</v>
       </c>
       <c r="G42" t="n">
-        <v>59.29640281191887</v>
+        <v>61.63772006671114</v>
       </c>
       <c r="H42" t="n">
-        <v>31.2489505203079</v>
+        <v>32.98389670963704</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.371269044369257</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>87.66944423221098</v>
+        <v>88.77989580346183</v>
       </c>
       <c r="T42" t="n">
-        <v>121.0886826610862</v>
+        <v>123.2177393250806</v>
       </c>
       <c r="U42" t="n">
-        <v>148.2114348040108</v>
+        <v>150.6181811555324</v>
       </c>
       <c r="V42" t="n">
-        <v>155.092975581921</v>
+        <v>157.5043296163108</v>
       </c>
       <c r="W42" t="n">
-        <v>173.9873715934153</v>
+        <v>176.3987256278052</v>
       </c>
       <c r="X42" t="n">
-        <v>128.0653736359732</v>
+        <v>130.476727670363</v>
       </c>
       <c r="Y42" t="n">
-        <v>127.9750842098001</v>
+        <v>130.3864382441899</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>102.124368614433</v>
+        <v>104.5357226488228</v>
       </c>
       <c r="C43" t="n">
-        <v>89.53920953112355</v>
+        <v>91.95056356551338</v>
       </c>
       <c r="D43" t="n">
-        <v>70.90786145070807</v>
+        <v>73.3192154850979</v>
       </c>
       <c r="E43" t="n">
-        <v>68.72635107906488</v>
+        <v>71.13770511345471</v>
       </c>
       <c r="F43" t="n">
-        <v>67.71343645542696</v>
+        <v>70.12479048981679</v>
       </c>
       <c r="G43" t="n">
-        <v>89.99874006166472</v>
+        <v>92.35137761272786</v>
       </c>
       <c r="H43" t="n">
-        <v>81.98896167406819</v>
+        <v>83.87827279306252</v>
       </c>
       <c r="I43" t="n">
-        <v>69.18333128256749</v>
+        <v>69.82892052746017</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>86.78788209087305</v>
+        <v>86.55912952041011</v>
       </c>
       <c r="S43" t="n">
-        <v>141.348701405391</v>
+        <v>142.7367872712603</v>
       </c>
       <c r="T43" t="n">
-        <v>149.0218411992664</v>
+        <v>151.1823157139877</v>
       </c>
       <c r="U43" t="n">
-        <v>208.5958926401163</v>
+        <v>211.0040439572337</v>
       </c>
       <c r="V43" t="n">
-        <v>174.4300317563237</v>
+        <v>176.8413857907136</v>
       </c>
       <c r="W43" t="n">
-        <v>208.8153867690867</v>
+        <v>211.2267408034766</v>
       </c>
       <c r="X43" t="n">
-        <v>148.0020438215329</v>
+        <v>150.4133978559227</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.8770417845905</v>
+        <v>143.2883958189803</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>305.0262300959763</v>
+        <v>307.4375841303661</v>
       </c>
       <c r="C44" t="n">
-        <v>287.5652802035033</v>
+        <v>289.9766342378931</v>
       </c>
       <c r="D44" t="n">
-        <v>276.9754300531787</v>
+        <v>279.3867840875685</v>
       </c>
       <c r="E44" t="n">
-        <v>304.2227585047575</v>
+        <v>306.6341125391473</v>
       </c>
       <c r="F44" t="n">
-        <v>329.1684341742072</v>
+        <v>331.579788208597</v>
       </c>
       <c r="G44" t="n">
-        <v>336.9605972500821</v>
+        <v>339.2410529570922</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2688235244927</v>
+        <v>256.3396150636048</v>
       </c>
       <c r="I44" t="n">
-        <v>108.305610390657</v>
+        <v>105.6705066587395</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>32.30279307625453</v>
+        <v>26.49160505337692</v>
       </c>
       <c r="S44" t="n">
-        <v>116.853135323351</v>
+        <v>116.2816437225751</v>
       </c>
       <c r="T44" t="n">
-        <v>142.6105886231078</v>
+        <v>144.4489352293929</v>
       </c>
       <c r="U44" t="n">
-        <v>173.5872790445283</v>
+        <v>175.9881612127278</v>
       </c>
       <c r="V44" t="n">
-        <v>250.0446469026306</v>
+        <v>252.4560009370205</v>
       </c>
       <c r="W44" t="n">
-        <v>271.5333571499087</v>
+        <v>273.9447111842986</v>
       </c>
       <c r="X44" t="n">
-        <v>292.0234891109648</v>
+        <v>294.4348431453546</v>
       </c>
       <c r="Y44" t="n">
-        <v>308.5303270885493</v>
+        <v>310.9416811229391</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>88.82557208236305</v>
+        <v>91.23692611675288</v>
       </c>
       <c r="C45" t="n">
-        <v>95.00088742081145</v>
+        <v>97.41224145520128</v>
       </c>
       <c r="D45" t="n">
-        <v>69.73745399713447</v>
+        <v>72.1488080315243</v>
       </c>
       <c r="E45" t="n">
-        <v>79.93746888789666</v>
+        <v>82.34882292228649</v>
       </c>
       <c r="F45" t="n">
-        <v>67.36160082587959</v>
+        <v>69.77295486026942</v>
       </c>
       <c r="G45" t="n">
-        <v>59.29640281191887</v>
+        <v>61.63772006671114</v>
       </c>
       <c r="H45" t="n">
-        <v>31.2489505203079</v>
+        <v>32.98389670963704</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.371269044369257</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>87.66944423221098</v>
+        <v>88.77989580346183</v>
       </c>
       <c r="T45" t="n">
-        <v>121.0886826610862</v>
+        <v>123.2177393250806</v>
       </c>
       <c r="U45" t="n">
-        <v>148.2114348040108</v>
+        <v>150.6181811555324</v>
       </c>
       <c r="V45" t="n">
-        <v>155.092975581921</v>
+        <v>157.5043296163108</v>
       </c>
       <c r="W45" t="n">
-        <v>173.9873715934153</v>
+        <v>176.3987256278052</v>
       </c>
       <c r="X45" t="n">
-        <v>128.0653736359732</v>
+        <v>130.476727670363</v>
       </c>
       <c r="Y45" t="n">
-        <v>127.9750842098001</v>
+        <v>130.3864382441899</v>
       </c>
     </row>
     <row r="46">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>102.124368614433</v>
+        <v>104.5357226488228</v>
       </c>
       <c r="C46" t="n">
-        <v>89.53920953112355</v>
+        <v>91.95056356551338</v>
       </c>
       <c r="D46" t="n">
-        <v>70.90786145070807</v>
+        <v>73.3192154850979</v>
       </c>
       <c r="E46" t="n">
-        <v>68.72635107906488</v>
+        <v>71.13770511345471</v>
       </c>
       <c r="F46" t="n">
-        <v>67.71343645542696</v>
+        <v>70.12479048981679</v>
       </c>
       <c r="G46" t="n">
-        <v>89.99874006166472</v>
+        <v>92.35137761272786</v>
       </c>
       <c r="H46" t="n">
-        <v>81.98896167406819</v>
+        <v>83.87827279306252</v>
       </c>
       <c r="I46" t="n">
-        <v>69.18333128256749</v>
+        <v>69.82892052746017</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>86.78788209087305</v>
+        <v>86.55912952041011</v>
       </c>
       <c r="S46" t="n">
-        <v>141.348701405391</v>
+        <v>142.7367872712603</v>
       </c>
       <c r="T46" t="n">
-        <v>149.0218411992664</v>
+        <v>151.1823157139877</v>
       </c>
       <c r="U46" t="n">
-        <v>208.5958926401163</v>
+        <v>211.0040439572337</v>
       </c>
       <c r="V46" t="n">
-        <v>174.4300317563237</v>
+        <v>176.8413857907136</v>
       </c>
       <c r="W46" t="n">
-        <v>208.8153867690867</v>
+        <v>211.2267408034766</v>
       </c>
       <c r="X46" t="n">
-        <v>148.0020438215329</v>
+        <v>150.4133978559227</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.8770417845905</v>
+        <v>143.2883958189803</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>497459.010640237</v>
+        <v>449248.9530897668</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>497459.010640237</v>
+        <v>449248.9530897667</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>517693.3455460367</v>
+        <v>488078.4091404618</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>517693.3455460366</v>
+        <v>488078.4091404618</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>517693.3455460365</v>
+        <v>488078.4091404618</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>451139.4306737513</v>
+        <v>428810.2988539453</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>451139.4306737513</v>
+        <v>428810.2988539453</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>519299.151077057</v>
+        <v>489198.6909516245</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>519299.1510770571</v>
+        <v>489198.6909516245</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>519299.1510770569</v>
+        <v>489198.6909516245</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402270.3394916073</v>
+        <v>388748.6340280264</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402270.3394916073</v>
+        <v>388748.6340280264</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>757830.6133132604</v>
+      </c>
+      <c r="C2" t="n">
         <v>757830.6133132601</v>
-      </c>
-      <c r="C2" t="n">
-        <v>757830.6133132604</v>
       </c>
       <c r="D2" t="n">
         <v>757830.6133132603</v>
       </c>
       <c r="E2" t="n">
-        <v>517932.1622312161</v>
+        <v>463508.5381180808</v>
       </c>
       <c r="F2" t="n">
-        <v>517932.1622312161</v>
+        <v>463508.5381180806</v>
       </c>
       <c r="G2" t="n">
-        <v>553537.4386533994</v>
+        <v>521405.2958137161</v>
       </c>
       <c r="H2" t="n">
-        <v>553537.4386533992</v>
+        <v>521405.2958137162</v>
       </c>
       <c r="I2" t="n">
-        <v>553537.4386533995</v>
+        <v>521405.2958137161</v>
       </c>
       <c r="J2" t="n">
-        <v>449199.8068463606</v>
+        <v>433697.3842465517</v>
       </c>
       <c r="K2" t="n">
-        <v>449199.8068463606</v>
+        <v>433697.384246551</v>
       </c>
       <c r="L2" t="n">
-        <v>556834.1555739841</v>
+        <v>523250.0227546467</v>
       </c>
       <c r="M2" t="n">
-        <v>556834.1555739839</v>
+        <v>523250.0227546467</v>
       </c>
       <c r="N2" t="n">
-        <v>556834.1555739841</v>
+        <v>523250.0227546468</v>
       </c>
       <c r="O2" t="n">
-        <v>381921.3131892147</v>
+        <v>378532.3255476005</v>
       </c>
       <c r="P2" t="n">
-        <v>381921.3131892146</v>
+        <v>378532.3255476005</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>242863.706889882</v>
+        <v>246403.835540283</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>16246.27472506511</v>
+        <v>23711.24364397364</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71762.04898994211</v>
+        <v>57719.04642521944</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>62166.08925400342</v>
+        <v>60237.00602649157</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>267626.5212482429</v>
+        <v>222718.2934931671</v>
       </c>
       <c r="F4" t="n">
-        <v>267626.5212482429</v>
+        <v>222718.2934931671</v>
       </c>
       <c r="G4" t="n">
-        <v>288596.8256573422</v>
+        <v>257331.8253517098</v>
       </c>
       <c r="H4" t="n">
-        <v>288596.8256573421</v>
+        <v>257331.8253517098</v>
       </c>
       <c r="I4" t="n">
-        <v>288596.8256573421</v>
+        <v>257331.8253517098</v>
       </c>
       <c r="J4" t="n">
-        <v>226515.581555942</v>
+        <v>204857.0790629433</v>
       </c>
       <c r="K4" t="n">
-        <v>226515.581555942</v>
+        <v>204857.0790629433</v>
       </c>
       <c r="L4" t="n">
-        <v>290515.2509856169</v>
+        <v>258424.5488109264</v>
       </c>
       <c r="M4" t="n">
-        <v>290515.2509856169</v>
+        <v>258424.5488109264</v>
       </c>
       <c r="N4" t="n">
-        <v>290515.2509856169</v>
+        <v>258424.5488109264</v>
       </c>
       <c r="O4" t="n">
-        <v>185967.9957158583</v>
+        <v>171610.7964497545</v>
       </c>
       <c r="P4" t="n">
-        <v>185967.9957158583</v>
+        <v>171610.7964497545</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>15636.71411133136</v>
+        <v>13969.55052778336</v>
       </c>
       <c r="F5" t="n">
-        <v>15636.71411133136</v>
+        <v>13969.55052778336</v>
       </c>
       <c r="G5" t="n">
-        <v>17343.97419865824</v>
+        <v>16461.27620516488</v>
       </c>
       <c r="H5" t="n">
-        <v>17343.97419865824</v>
+        <v>16461.27620516488</v>
       </c>
       <c r="I5" t="n">
-        <v>17343.97419865824</v>
+        <v>16461.27620516488</v>
       </c>
       <c r="J5" t="n">
-        <v>12689.35520262817</v>
+        <v>12707.9232192142</v>
       </c>
       <c r="K5" t="n">
-        <v>12689.35520262817</v>
+        <v>12707.9232192142</v>
       </c>
       <c r="L5" t="n">
-        <v>17514.8963121698</v>
+        <v>16546.27861638407</v>
       </c>
       <c r="M5" t="n">
-        <v>17514.8963121698</v>
+        <v>16546.27861638407</v>
       </c>
       <c r="N5" t="n">
-        <v>17514.8963121698</v>
+        <v>16546.27861638407</v>
       </c>
       <c r="O5" t="n">
-        <v>9973.6916915005</v>
+        <v>10480.80047398185</v>
       </c>
       <c r="P5" t="n">
-        <v>9973.6916915005</v>
+        <v>10480.80047398185</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256542.9176028478</v>
+        <v>256582.639803661</v>
       </c>
       <c r="C6" t="n">
-        <v>256542.917602848</v>
+        <v>256582.6398036608</v>
       </c>
       <c r="D6" t="n">
-        <v>256542.9176028479</v>
+        <v>256582.6398036609</v>
       </c>
       <c r="E6" t="n">
-        <v>-14722.65771805764</v>
+        <v>-20383.02008911586</v>
       </c>
       <c r="F6" t="n">
-        <v>228141.0491718244</v>
+        <v>226020.815451167</v>
       </c>
       <c r="G6" t="n">
-        <v>225784.7911406835</v>
+        <v>223257.5496904062</v>
       </c>
       <c r="H6" t="n">
-        <v>242031.0658657486</v>
+        <v>246968.79333438</v>
       </c>
       <c r="I6" t="n">
-        <v>242031.0658657488</v>
+        <v>246968.7933343799</v>
       </c>
       <c r="J6" t="n">
-        <v>129847.3121714132</v>
+        <v>157532.8862070722</v>
       </c>
       <c r="K6" t="n">
-        <v>201609.3611613553</v>
+        <v>215251.932632291</v>
       </c>
       <c r="L6" t="n">
-        <v>181161.4465478568</v>
+        <v>187403.7741268722</v>
       </c>
       <c r="M6" t="n">
-        <v>243327.53580186</v>
+        <v>247640.7801533638</v>
       </c>
       <c r="N6" t="n">
-        <v>243327.5358018602</v>
+        <v>247640.7801533639</v>
       </c>
       <c r="O6" t="n">
-        <v>175775.7791890113</v>
+        <v>195411.1845385212</v>
       </c>
       <c r="P6" t="n">
-        <v>175775.7791890112</v>
+        <v>195411.1845385212</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="F2" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="G2" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H2" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I2" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="J2" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="K2" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="L2" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="M2" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="N2" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="O2" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="P2" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.8390135152282</v>
+        <v>190.3999724509384</v>
       </c>
       <c r="F3" t="n">
-        <v>157.8390135152282</v>
+        <v>190.3999724509384</v>
       </c>
       <c r="G3" t="n">
-        <v>157.8390135152282</v>
+        <v>190.3999724509384</v>
       </c>
       <c r="H3" t="n">
-        <v>157.8390135152285</v>
+        <v>190.3999724509384</v>
       </c>
       <c r="I3" t="n">
-        <v>157.8390135152285</v>
+        <v>190.3999724509384</v>
       </c>
       <c r="J3" t="n">
-        <v>157.8390135152285</v>
+        <v>190.3999724509384</v>
       </c>
       <c r="K3" t="n">
-        <v>157.8390135152285</v>
+        <v>190.3999724509384</v>
       </c>
       <c r="L3" t="n">
-        <v>157.8390135152285</v>
+        <v>190.3999724509383</v>
       </c>
       <c r="M3" t="n">
-        <v>157.8390135152285</v>
+        <v>190.3999724509383</v>
       </c>
       <c r="N3" t="n">
-        <v>157.8390135152285</v>
+        <v>190.3999724509383</v>
       </c>
       <c r="O3" t="n">
-        <v>157.8390135152285</v>
+        <v>190.3999724509383</v>
       </c>
       <c r="P3" t="n">
-        <v>157.8390135152285</v>
+        <v>190.3999724509383</v>
       </c>
     </row>
     <row r="4">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>20.30784340633139</v>
+        <v>29.63905455496705</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.70256123742763</v>
+        <v>72.1488080315243</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>77.70761156750427</v>
+        <v>75.29625753311447</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.8390135152282</v>
+        <v>190.3999724509384</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>20.30784340633139</v>
+        <v>29.63905455496705</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>89.70256123742763</v>
+        <v>72.1488080315243</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="C11" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="D11" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="E11" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="F11" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="G11" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="H11" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="I11" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>139.3754212341757</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>135.6330275315777</v>
+        <v>114.9762897335994</v>
       </c>
       <c r="M11" t="n">
-        <v>118.9285460638323</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>116.1925217712403</v>
+        <v>92.83600597105493</v>
       </c>
       <c r="O11" t="n">
-        <v>123.1872643325856</v>
+        <v>101.1323687752825</v>
       </c>
       <c r="P11" t="n">
-        <v>139.9869758869009</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="S11" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="T11" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="U11" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="V11" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="W11" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="X11" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
     </row>
     <row r="12">
@@ -28168,76 +28168,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="C12" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="D12" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="E12" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0040143794232</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="H12" t="n">
-        <v>108.9565620878122</v>
+        <v>108.2801542427515</v>
       </c>
       <c r="I12" t="n">
-        <v>87.83335871608924</v>
+        <v>85.42200468169936</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>88.14511905755664</v>
       </c>
       <c r="K12" t="n">
-        <v>83.01918462916883</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>49.63220396682033</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>24.82729730627483</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>45.1563642034439</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>33.14991186623877</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>87.70440806515253</v>
       </c>
       <c r="R12" t="n">
-        <v>124.6005504231944</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="S12" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="T12" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="U12" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="V12" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="W12" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="X12" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="Y12" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
     </row>
     <row r="13">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="C13" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="D13" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="E13" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="F13" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="G13" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="H13" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="I13" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="J13" t="n">
-        <v>106.8722409786104</v>
+        <v>102.7209856074134</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>89.12290328655189</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>83.83875579824407</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>85.1050179644652</v>
       </c>
       <c r="N13" t="n">
-        <v>84.12973930946535</v>
+        <v>75.14451600184552</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>89.92639465401999</v>
       </c>
       <c r="P13" t="n">
-        <v>9.20820042396875</v>
+        <v>96.20208218870033</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.6713105886464</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="R13" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="S13" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="T13" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="U13" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="V13" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="W13" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="X13" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="Y13" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
     </row>
     <row r="14">
@@ -28326,40 +28326,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="C14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="D14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="E14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="F14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="G14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="H14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="I14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="J14" t="n">
-        <v>127.191074483116</v>
+        <v>116.0812425696699</v>
       </c>
       <c r="K14" t="n">
-        <v>139.3754212341757</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>114.9762897335994</v>
       </c>
       <c r="M14" t="n">
-        <v>118.9285460638323</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28371,31 +28371,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="R14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="S14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="T14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="U14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="V14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="W14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="X14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
     </row>
     <row r="15">
@@ -28405,37 +28405,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="C15" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="D15" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="E15" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0040143794232</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="H15" t="n">
-        <v>108.9565620878122</v>
+        <v>108.2801542427515</v>
       </c>
       <c r="I15" t="n">
-        <v>87.83335871608924</v>
+        <v>85.42200468169936</v>
       </c>
       <c r="J15" t="n">
-        <v>94.76205883523716</v>
+        <v>88.14511905755664</v>
       </c>
       <c r="K15" t="n">
-        <v>83.01918462916883</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>64.83909332637066</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -28444,37 +28444,37 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>61.81989570708043</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>69.14426618389622</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>96.64454154501018</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>124.6005504231944</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="S15" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="T15" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="U15" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="V15" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="W15" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="X15" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="Y15" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
     </row>
     <row r="16">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="C16" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="D16" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="E16" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="F16" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="G16" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="H16" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="I16" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="J16" t="n">
-        <v>106.8722409786104</v>
+        <v>102.7209856074134</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>89.12290328655189</v>
       </c>
       <c r="L16" t="n">
-        <v>12.8239353198361</v>
+        <v>83.83875579824407</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>83.44817155081698</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>75.14451600184552</v>
       </c>
       <c r="O16" t="n">
-        <v>98.22570267914166</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>103.3035739539575</v>
+        <v>96.20208218870033</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.6713105886464</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="R16" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="S16" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="T16" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="U16" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="V16" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="W16" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="X16" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
       <c r="Y16" t="n">
-        <v>145.0692123933839</v>
+        <v>116.7949080916021</v>
       </c>
     </row>
     <row r="17">
@@ -28563,40 +28563,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C17" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D17" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E17" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F17" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="G17" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H17" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I17" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="J17" t="n">
-        <v>127.191074483116</v>
+        <v>116.0812425696699</v>
       </c>
       <c r="K17" t="n">
-        <v>139.3754212341757</v>
+        <v>122.7246631227451</v>
       </c>
       <c r="L17" t="n">
-        <v>135.6330275315777</v>
+        <v>114.9762897335994</v>
       </c>
       <c r="M17" t="n">
-        <v>118.9285460638323</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28605,34 +28605,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>61.13257823823136</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>108.6536825634842</v>
       </c>
       <c r="R17" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="S17" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T17" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U17" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V17" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W17" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X17" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="18">
@@ -28642,76 +28642,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C18" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0040143794232</v>
+        <v>136.9339775998256</v>
       </c>
       <c r="H18" t="n">
-        <v>108.9565620878122</v>
+        <v>108.2801542427515</v>
       </c>
       <c r="I18" t="n">
-        <v>87.83335871608924</v>
+        <v>85.42200468169936</v>
       </c>
       <c r="J18" t="n">
-        <v>94.76205883523716</v>
+        <v>88.14511905755664</v>
       </c>
       <c r="K18" t="n">
-        <v>83.01918462916883</v>
+        <v>71.70978061845143</v>
       </c>
       <c r="L18" t="n">
-        <v>64.83909332637066</v>
+        <v>49.63220396682033</v>
       </c>
       <c r="M18" t="n">
-        <v>56.11177155621895</v>
+        <v>38.36604893625689</v>
       </c>
       <c r="N18" t="n">
-        <v>43.04269639994163</v>
+        <v>24.82729730627483</v>
       </c>
       <c r="O18" t="n">
-        <v>61.81989570708043</v>
+        <v>45.1563642034439</v>
       </c>
       <c r="P18" t="n">
-        <v>69.14426618389622</v>
+        <v>55.77031306934008</v>
       </c>
       <c r="Q18" t="n">
-        <v>96.64454154501018</v>
+        <v>87.70440806515253</v>
       </c>
       <c r="R18" t="n">
-        <v>124.6005504231944</v>
+        <v>120.2521265109877</v>
       </c>
       <c r="S18" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T18" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U18" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V18" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W18" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X18" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y18" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="19">
@@ -28721,13 +28721,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C19" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -28736,61 +28736,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H19" t="n">
-        <v>159.6965732415725</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I19" t="n">
-        <v>146.8909428500718</v>
+        <v>145.1251780605746</v>
       </c>
       <c r="J19" t="n">
-        <v>106.8722409786104</v>
+        <v>102.7209856074134</v>
       </c>
       <c r="K19" t="n">
-        <v>95.94469107668922</v>
+        <v>89.12290328655189</v>
       </c>
       <c r="L19" t="n">
-        <v>92.56829551028677</v>
+        <v>83.83875579824407</v>
       </c>
       <c r="M19" t="n">
-        <v>94.30909361902999</v>
+        <v>85.1050179644652</v>
       </c>
       <c r="N19" t="n">
-        <v>84.12973930946535</v>
+        <v>75.14451600184552</v>
       </c>
       <c r="O19" t="n">
-        <v>98.22570267914166</v>
+        <v>89.92639465401999</v>
       </c>
       <c r="P19" t="n">
-        <v>103.3035739539575</v>
+        <v>96.20208218870033</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.6713105886464</v>
+        <v>122.7546057893541</v>
       </c>
       <c r="R19" t="n">
-        <v>164.4954936583774</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="S19" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T19" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U19" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V19" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W19" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X19" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="20">
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C20" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D20" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E20" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F20" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="G20" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H20" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I20" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="J20" t="n">
-        <v>127.1910744831159</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>139.3754212341755</v>
+        <v>122.7246631227451</v>
       </c>
       <c r="L20" t="n">
-        <v>42.98187678276773</v>
+        <v>114.9762897335994</v>
       </c>
       <c r="M20" t="n">
-        <v>118.928546063832</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>92.83600597105493</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>101.1323687752825</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>121.1636327867851</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.7837289870419</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="S20" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T20" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U20" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V20" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W20" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X20" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="21">
@@ -28879,76 +28879,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C21" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0040143794232</v>
+        <v>136.9339775998256</v>
       </c>
       <c r="H21" t="n">
-        <v>108.9565620878122</v>
+        <v>108.2801542427515</v>
       </c>
       <c r="I21" t="n">
-        <v>87.83335871608921</v>
+        <v>85.42200468169936</v>
       </c>
       <c r="J21" t="n">
-        <v>94.76205883523708</v>
+        <v>88.14511905755664</v>
       </c>
       <c r="K21" t="n">
-        <v>83.01918462916871</v>
+        <v>71.70978061845143</v>
       </c>
       <c r="L21" t="n">
-        <v>64.8390933263705</v>
+        <v>49.63220396682033</v>
       </c>
       <c r="M21" t="n">
-        <v>56.11177155621877</v>
+        <v>38.36604893625689</v>
       </c>
       <c r="N21" t="n">
-        <v>43.04269639994143</v>
+        <v>24.82729730627483</v>
       </c>
       <c r="O21" t="n">
-        <v>61.81989570708026</v>
+        <v>45.1563642034439</v>
       </c>
       <c r="P21" t="n">
-        <v>69.14426618389608</v>
+        <v>55.77031306934008</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.64454154501009</v>
+        <v>87.70440806515253</v>
       </c>
       <c r="R21" t="n">
-        <v>124.6005504231944</v>
+        <v>120.2521265109877</v>
       </c>
       <c r="S21" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T21" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U21" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V21" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W21" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X21" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y21" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="22">
@@ -28958,13 +28958,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C22" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -28973,61 +28973,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H22" t="n">
-        <v>159.6965732415725</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I22" t="n">
-        <v>146.8909428500718</v>
+        <v>145.1251780605746</v>
       </c>
       <c r="J22" t="n">
-        <v>106.8722409786103</v>
+        <v>69.08474428469002</v>
       </c>
       <c r="K22" t="n">
-        <v>95.94469107668914</v>
+        <v>89.12290328655189</v>
       </c>
       <c r="L22" t="n">
-        <v>92.56829551028667</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>94.30909361902988</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>84.12973930946526</v>
+        <v>75.14451600184552</v>
       </c>
       <c r="O22" t="n">
-        <v>98.22570267914158</v>
+        <v>89.92639465401999</v>
       </c>
       <c r="P22" t="n">
-        <v>103.3035739539575</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.6713105886463</v>
+        <v>121.7197131035903</v>
       </c>
       <c r="R22" t="n">
-        <v>164.4954936583773</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="S22" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T22" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U22" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V22" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W22" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X22" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C23" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D23" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E23" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F23" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="G23" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H23" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I23" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="J23" t="n">
-        <v>127.1910744831159</v>
+        <v>116.0812425696699</v>
       </c>
       <c r="K23" t="n">
-        <v>139.3754212341755</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>135.6330275315775</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>118.928546063832</v>
+        <v>95.94394513631457</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>92.83600597105493</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>101.1323687752825</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>46.50773127300685</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.7837289870419</v>
+        <v>139.6481822362132</v>
       </c>
       <c r="R23" t="n">
-        <v>153.451891653772</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="S23" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T23" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U23" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V23" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W23" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X23" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="24">
@@ -29116,76 +29116,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C24" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0040143794232</v>
+        <v>136.9339775998256</v>
       </c>
       <c r="H24" t="n">
-        <v>108.9565620878122</v>
+        <v>108.2801542427515</v>
       </c>
       <c r="I24" t="n">
-        <v>87.83335871608921</v>
+        <v>85.42200468169936</v>
       </c>
       <c r="J24" t="n">
-        <v>94.76205883523708</v>
+        <v>88.14511905755664</v>
       </c>
       <c r="K24" t="n">
-        <v>83.01918462916871</v>
+        <v>71.70978061845143</v>
       </c>
       <c r="L24" t="n">
-        <v>64.8390933263705</v>
+        <v>49.63220396682033</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>38.36604893625689</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>24.82729730627483</v>
       </c>
       <c r="O24" t="n">
-        <v>61.81989570708026</v>
+        <v>45.1563642034439</v>
       </c>
       <c r="P24" t="n">
-        <v>69.14426618389608</v>
+        <v>55.77031306934008</v>
       </c>
       <c r="Q24" t="n">
-        <v>96.64454154501009</v>
+        <v>87.70440806515253</v>
       </c>
       <c r="R24" t="n">
-        <v>124.6005504231944</v>
+        <v>120.2521265109877</v>
       </c>
       <c r="S24" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T24" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U24" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V24" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W24" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X24" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y24" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="25">
@@ -29195,13 +29195,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="C25" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29210,61 +29210,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="H25" t="n">
-        <v>159.6965732415725</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="I25" t="n">
-        <v>146.8909428500718</v>
+        <v>145.1251780605746</v>
       </c>
       <c r="J25" t="n">
-        <v>106.8722409786103</v>
+        <v>102.7209856074134</v>
       </c>
       <c r="K25" t="n">
-        <v>95.94469107668914</v>
+        <v>89.12290328655189</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>94.30909361902988</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>84.12973930946526</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>98.22570267914158</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>103.3035739539575</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.6713105886463</v>
+        <v>122.7546057893541</v>
       </c>
       <c r="R25" t="n">
-        <v>164.4954936583773</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="S25" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="T25" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="U25" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="V25" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="W25" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="X25" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.3770557997153</v>
+        <v>146.4339626465692</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="C26" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="D26" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="E26" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="F26" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="G26" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="H26" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="I26" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29304,46 +29304,46 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>60.08407767898812</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>110.0104046437591</v>
+        <v>95.94394513631457</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>110.0104046437591</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>88.85185570278415</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="R26" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="S26" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="T26" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="U26" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="V26" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="W26" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="X26" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="Y26" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
     </row>
     <row r="27">
@@ -29353,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="C27" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="D27" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="E27" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="F27" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="G27" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="H27" t="n">
-        <v>108.9565620878122</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="I27" t="n">
-        <v>77.70761156750429</v>
+        <v>85.42200468169936</v>
       </c>
       <c r="J27" t="n">
-        <v>94.76205883523708</v>
+        <v>88.14511905755664</v>
       </c>
       <c r="K27" t="n">
-        <v>83.01918462916871</v>
+        <v>71.70978061845143</v>
       </c>
       <c r="L27" t="n">
-        <v>64.8390933263705</v>
+        <v>49.63220396682033</v>
       </c>
       <c r="M27" t="n">
-        <v>56.11177155621877</v>
+        <v>38.36604893625689</v>
       </c>
       <c r="N27" t="n">
-        <v>43.04269639994143</v>
+        <v>24.82729730627483</v>
       </c>
       <c r="O27" t="n">
-        <v>61.81989570708026</v>
+        <v>45.1563642034439</v>
       </c>
       <c r="P27" t="n">
-        <v>69.14426618389608</v>
+        <v>55.77031306934008</v>
       </c>
       <c r="Q27" t="n">
-        <v>96.64454154501009</v>
+        <v>87.70440806515253</v>
       </c>
       <c r="R27" t="n">
-        <v>79.07888061187354</v>
+        <v>74.73045669966686</v>
       </c>
       <c r="S27" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="T27" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="U27" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="V27" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="W27" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="X27" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="Y27" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
     </row>
     <row r="28">
@@ -29432,34 +29432,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="E28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="F28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="G28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="H28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="I28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="J28" t="n">
-        <v>106.8722409786103</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>89.12290328655189</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29474,34 +29474,34 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>103.3035739539575</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="R28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="S28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="U28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="V28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="W28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="Y28" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
     </row>
     <row r="29">
@@ -29511,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="C29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="D29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="E29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="F29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="G29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="H29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="I29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>83.71836739875513</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>95.94394513631457</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>110.0104046437591</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="R29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="S29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="T29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="U29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="V29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="W29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="X29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="Y29" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
     </row>
     <row r="30">
@@ -29590,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="C30" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="D30" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="E30" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="F30" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="G30" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="H30" t="n">
-        <v>108.9565620878122</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="I30" t="n">
-        <v>87.83335871608921</v>
+        <v>85.42200468169936</v>
       </c>
       <c r="J30" t="n">
-        <v>94.76205883523708</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>2.324104904325996</v>
+        <v>71.70978061845143</v>
       </c>
       <c r="L30" t="n">
-        <v>64.8390933263705</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>56.11177155621877</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>43.04269639994143</v>
+        <v>24.82729730627483</v>
       </c>
       <c r="O30" t="n">
-        <v>61.81989570708026</v>
+        <v>45.1563642034439</v>
       </c>
       <c r="P30" t="n">
-        <v>69.14426618389608</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>96.64454154501009</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.0104046437591</v>
+        <v>74.73045669966686</v>
       </c>
       <c r="S30" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="T30" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="U30" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="V30" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="W30" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="X30" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="Y30" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="E31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="G31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="H31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="I31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="J31" t="n">
-        <v>106.8722409786103</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="K31" t="n">
-        <v>95.94469107668914</v>
+        <v>89.12290328655189</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>83.83875579824407</v>
       </c>
       <c r="M31" t="n">
-        <v>94.30909361902988</v>
+        <v>85.1050179644652</v>
       </c>
       <c r="N31" t="n">
-        <v>84.12973930946526</v>
+        <v>75.14451600184552</v>
       </c>
       <c r="O31" t="n">
-        <v>98.22570267914158</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="R31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="S31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="U31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="V31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="W31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="X31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
       <c r="Y31" t="n">
-        <v>110.0104046437591</v>
+        <v>101.7878625864913</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C32" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D32" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E32" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F32" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G32" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H32" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I32" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J32" t="n">
-        <v>127.1910744831159</v>
+        <v>116.0812425696699</v>
       </c>
       <c r="K32" t="n">
-        <v>139.3754212341755</v>
+        <v>122.7246631227452</v>
       </c>
       <c r="L32" t="n">
-        <v>122.9818862985844</v>
+        <v>114.9762897335995</v>
       </c>
       <c r="M32" t="n">
-        <v>118.928546063832</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>116.1925217712401</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>7.553119480322293</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.7837289870419</v>
+        <v>139.6481822362132</v>
       </c>
       <c r="R32" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S32" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T32" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U32" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V32" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W32" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X32" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="33">
@@ -29827,76 +29827,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C33" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0040143794232</v>
+        <v>136.9339775998256</v>
       </c>
       <c r="H33" t="n">
-        <v>108.9565620878122</v>
+        <v>108.2801542427515</v>
       </c>
       <c r="I33" t="n">
-        <v>87.83335871608921</v>
+        <v>85.42200468169938</v>
       </c>
       <c r="J33" t="n">
-        <v>94.76205883523708</v>
+        <v>88.14511905755667</v>
       </c>
       <c r="K33" t="n">
-        <v>83.01918462916871</v>
+        <v>71.70978061845149</v>
       </c>
       <c r="L33" t="n">
-        <v>64.8390933263705</v>
+        <v>49.6322039668204</v>
       </c>
       <c r="M33" t="n">
-        <v>56.11177155621877</v>
+        <v>38.36604893625696</v>
       </c>
       <c r="N33" t="n">
-        <v>43.04269639994143</v>
+        <v>24.8272973062749</v>
       </c>
       <c r="O33" t="n">
-        <v>61.81989570708026</v>
+        <v>45.15636420344397</v>
       </c>
       <c r="P33" t="n">
-        <v>69.14426618389608</v>
+        <v>55.77031306934013</v>
       </c>
       <c r="Q33" t="n">
-        <v>96.64454154501009</v>
+        <v>87.70440806515256</v>
       </c>
       <c r="R33" t="n">
-        <v>124.6005504231944</v>
+        <v>120.2521265109877</v>
       </c>
       <c r="S33" t="n">
-        <v>165.3770557997153</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T33" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U33" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V33" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W33" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X33" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y33" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="34">
@@ -29906,13 +29906,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -29921,61 +29921,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H34" t="n">
-        <v>159.6965732415725</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I34" t="n">
-        <v>146.8909428500718</v>
+        <v>145.1251780605746</v>
       </c>
       <c r="J34" t="n">
-        <v>106.8722409786103</v>
+        <v>102.7209856074134</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>89.12290328655192</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>83.83875579824411</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>85.10501796446525</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>75.14451600184555</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>89.92639465402002</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.6713105886463</v>
+        <v>122.7546057893542</v>
       </c>
       <c r="R34" t="n">
-        <v>164.4954936583773</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S34" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T34" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U34" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V34" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W34" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X34" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y34" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="35">
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C35" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D35" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E35" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F35" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G35" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H35" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I35" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J35" t="n">
-        <v>127.1910744831159</v>
+        <v>116.0812425696699</v>
       </c>
       <c r="K35" t="n">
-        <v>120.5717617630824</v>
+        <v>122.7246631227452</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>114.9762897335995</v>
       </c>
       <c r="M35" t="n">
-        <v>118.928546063832</v>
+        <v>6.115377798482636</v>
       </c>
       <c r="N35" t="n">
-        <v>116.1925217712401</v>
+        <v>92.83600597105504</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>121.1636327867852</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.7837289870419</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S35" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T35" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U35" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V35" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W35" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X35" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y35" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="36">
@@ -30064,76 +30064,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C36" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0040143794232</v>
+        <v>136.9339775998256</v>
       </c>
       <c r="H36" t="n">
-        <v>108.9565620878122</v>
+        <v>108.2801542427515</v>
       </c>
       <c r="I36" t="n">
-        <v>87.83335871608921</v>
+        <v>85.42200468169938</v>
       </c>
       <c r="J36" t="n">
-        <v>94.76205883523708</v>
+        <v>88.14511905755667</v>
       </c>
       <c r="K36" t="n">
-        <v>83.01918462916871</v>
+        <v>71.70978061845149</v>
       </c>
       <c r="L36" t="n">
-        <v>64.8390933263705</v>
+        <v>49.6322039668204</v>
       </c>
       <c r="M36" t="n">
-        <v>56.11177155621877</v>
+        <v>38.36604893625696</v>
       </c>
       <c r="N36" t="n">
-        <v>43.04269639994143</v>
+        <v>24.8272973062749</v>
       </c>
       <c r="O36" t="n">
-        <v>61.81989570708026</v>
+        <v>45.15636420344397</v>
       </c>
       <c r="P36" t="n">
-        <v>69.14426618389608</v>
+        <v>55.77031306934013</v>
       </c>
       <c r="Q36" t="n">
-        <v>96.64454154501009</v>
+        <v>87.70440806515256</v>
       </c>
       <c r="R36" t="n">
-        <v>124.6005504231944</v>
+        <v>120.2521265109877</v>
       </c>
       <c r="S36" t="n">
-        <v>165.3770557997153</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T36" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U36" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V36" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W36" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X36" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y36" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="37">
@@ -30143,13 +30143,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30158,61 +30158,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H37" t="n">
-        <v>159.6965732415725</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I37" t="n">
-        <v>146.8909428500718</v>
+        <v>145.1251780605746</v>
       </c>
       <c r="J37" t="n">
-        <v>106.8722409786103</v>
+        <v>102.7209856074134</v>
       </c>
       <c r="K37" t="n">
-        <v>95.94469107668914</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>92.56829551028667</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>94.30909361902988</v>
+        <v>85.10501796446525</v>
       </c>
       <c r="N37" t="n">
-        <v>84.12973930946526</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>103.3035739539575</v>
+        <v>96.20208218870037</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.6713105886463</v>
+        <v>122.7546057893542</v>
       </c>
       <c r="R37" t="n">
-        <v>164.4954936583773</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S37" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T37" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U37" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V37" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W37" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X37" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y37" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="38">
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C38" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D38" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E38" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F38" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G38" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H38" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I38" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J38" t="n">
-        <v>127.1910744831159</v>
+        <v>116.0812425696699</v>
       </c>
       <c r="K38" t="n">
-        <v>139.3754212341755</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>135.6330275315775</v>
+        <v>114.9762897335995</v>
       </c>
       <c r="M38" t="n">
-        <v>118.928546063832</v>
+        <v>95.94394513631468</v>
       </c>
       <c r="N38" t="n">
-        <v>116.1925217712401</v>
+        <v>92.83600597105504</v>
       </c>
       <c r="O38" t="n">
-        <v>123.1872643325854</v>
+        <v>101.1323687752826</v>
       </c>
       <c r="P38" t="n">
-        <v>139.9869758869007</v>
+        <v>121.1636327867852</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.7837289870419</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>110.0104046437588</v>
+        <v>133.8742499068821</v>
       </c>
       <c r="S38" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T38" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U38" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V38" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W38" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X38" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y38" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="39">
@@ -30301,76 +30301,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C39" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0040143794232</v>
+        <v>136.9339775998256</v>
       </c>
       <c r="H39" t="n">
-        <v>108.9565620878122</v>
+        <v>108.2801542427515</v>
       </c>
       <c r="I39" t="n">
-        <v>87.83335871608921</v>
+        <v>85.42200468169938</v>
       </c>
       <c r="J39" t="n">
-        <v>94.76205883523708</v>
+        <v>88.14511905755667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>71.70978061845149</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>49.6322039668204</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>38.36604893625696</v>
       </c>
       <c r="N39" t="n">
-        <v>43.04269639994143</v>
+        <v>24.8272973062749</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>45.15636420344397</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>55.77031306934013</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>87.70440806515256</v>
       </c>
       <c r="R39" t="n">
-        <v>79.07888061187354</v>
+        <v>120.2521265109877</v>
       </c>
       <c r="S39" t="n">
-        <v>165.3770557997153</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T39" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U39" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V39" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W39" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X39" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y39" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="40">
@@ -30380,13 +30380,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -30395,22 +30395,22 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H40" t="n">
-        <v>159.6965732415725</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I40" t="n">
-        <v>146.8909428500718</v>
+        <v>145.1251780605746</v>
       </c>
       <c r="J40" t="n">
-        <v>73.235999655887</v>
+        <v>102.7209856074134</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>92.56829551028667</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30419,37 +30419,37 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>59.50040860395687</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.6713105886463</v>
+        <v>122.7546057893542</v>
       </c>
       <c r="R40" t="n">
-        <v>164.4954936583773</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S40" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T40" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U40" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V40" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W40" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X40" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y40" t="n">
-        <v>167.4101728049319</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="41">
@@ -30459,40 +30459,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="C41" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="D41" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="E41" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="F41" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="G41" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="H41" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="I41" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="J41" t="n">
-        <v>3.378440692725432</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>45.73797974477088</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30501,34 +30501,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>77.70761156750429</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="S41" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="T41" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="U41" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="V41" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="W41" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="X41" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="Y41" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
     </row>
     <row r="42">
@@ -30538,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="C42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="D42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="E42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="F42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="G42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="H42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="I42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="J42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="K42" t="n">
-        <v>77.70761156750429</v>
+        <v>71.70978061845149</v>
       </c>
       <c r="L42" t="n">
-        <v>64.8390933263705</v>
+        <v>49.6322039668204</v>
       </c>
       <c r="M42" t="n">
-        <v>56.11177155621877</v>
+        <v>38.36604893625696</v>
       </c>
       <c r="N42" t="n">
-        <v>43.04269639994143</v>
+        <v>24.8272973062749</v>
       </c>
       <c r="O42" t="n">
-        <v>61.81989570708026</v>
+        <v>45.15636420344397</v>
       </c>
       <c r="P42" t="n">
-        <v>69.14426618389608</v>
+        <v>55.77031306934013</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="R42" t="n">
-        <v>77.70761156750429</v>
+        <v>74.73045669966687</v>
       </c>
       <c r="S42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="T42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="U42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="V42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="W42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="X42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="Y42" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
     </row>
     <row r="43">
@@ -30617,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="C43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="D43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="E43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="F43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="G43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="H43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="I43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="J43" t="n">
-        <v>77.70761156750429</v>
+        <v>69.08474428469003</v>
       </c>
       <c r="K43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30659,34 +30659,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="R43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="S43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="T43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="U43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="V43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="W43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="X43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="Y43" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
     </row>
     <row r="44">
@@ -30696,76 +30696,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="C44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="D44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="E44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="F44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="G44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="H44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="I44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="J44" t="n">
-        <v>77.70761156750429</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>77.70761156750429</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>13.973682558733</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="P44" t="n">
-        <v>77.70761156750429</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.99680183391454</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="S44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="T44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="U44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="V44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="W44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="X44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="Y44" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
     </row>
     <row r="45">
@@ -30775,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="C45" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="D45" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="E45" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="F45" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="G45" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="H45" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="I45" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="J45" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>71.70978061845149</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>49.6322039668204</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>38.36604893625696</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>24.8272973062749</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>45.15636420344397</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>55.77031306934013</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="R45" t="n">
-        <v>77.70761156750429</v>
+        <v>74.73045669966687</v>
       </c>
       <c r="S45" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="T45" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="U45" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="V45" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="W45" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="X45" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="Y45" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
     </row>
     <row r="46">
@@ -30854,31 +30854,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="C46" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="D46" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="E46" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="F46" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="G46" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="H46" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="I46" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="J46" t="n">
-        <v>73.235999655887</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30899,31 +30899,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>62.32835221089488</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="R46" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="S46" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="T46" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="U46" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="V46" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="W46" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="X46" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
       <c r="Y46" t="n">
-        <v>77.70761156750429</v>
+        <v>75.29625753311446</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6345286975486556</v>
+        <v>0.7654270249283951</v>
       </c>
       <c r="H11" t="n">
-        <v>6.498367023770171</v>
+        <v>7.838929519047928</v>
       </c>
       <c r="I11" t="n">
-        <v>24.46266761224457</v>
+        <v>29.50912537855198</v>
       </c>
       <c r="J11" t="n">
-        <v>53.85483004357026</v>
+        <v>64.96466195701643</v>
       </c>
       <c r="K11" t="n">
-        <v>80.71442981080486</v>
+        <v>97.36518792223542</v>
       </c>
       <c r="L11" t="n">
-        <v>100.1333874384096</v>
+        <v>120.7901252363878</v>
       </c>
       <c r="M11" t="n">
-        <v>111.4176871634405</v>
+        <v>134.4022880909582</v>
       </c>
       <c r="N11" t="n">
-        <v>113.2205418253506</v>
+        <v>136.577057625536</v>
       </c>
       <c r="O11" t="n">
-        <v>106.9109470891011</v>
+        <v>128.9658426464042</v>
       </c>
       <c r="P11" t="n">
-        <v>91.24601986836868</v>
+        <v>110.0693629684845</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.52196088740743</v>
+        <v>82.65750763823628</v>
       </c>
       <c r="R11" t="n">
-        <v>39.85871329739077</v>
+        <v>48.08125535465835</v>
       </c>
       <c r="S11" t="n">
-        <v>14.45932269539</v>
+        <v>17.44216833055582</v>
       </c>
       <c r="T11" t="n">
-        <v>2.777649373519242</v>
+        <v>3.350656801624051</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05076229580389244</v>
+        <v>0.0612341619942716</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.339502783787472</v>
+        <v>0.4095395633850374</v>
       </c>
       <c r="H12" t="n">
-        <v>3.27888214868427</v>
+        <v>3.955289993744967</v>
       </c>
       <c r="I12" t="n">
-        <v>11.68902128391077</v>
+        <v>14.10037531830063</v>
       </c>
       <c r="J12" t="n">
-        <v>32.07556783142954</v>
+        <v>38.69250760911005</v>
       </c>
       <c r="K12" t="n">
-        <v>54.82225434519016</v>
+        <v>66.13165835590756</v>
       </c>
       <c r="L12" t="n">
-        <v>73.71528645350352</v>
+        <v>88.92217581305385</v>
       </c>
       <c r="M12" t="n">
-        <v>86.02226236579936</v>
+        <v>103.7679849857614</v>
       </c>
       <c r="N12" t="n">
-        <v>88.29901568339167</v>
+        <v>106.5144147770585</v>
       </c>
       <c r="O12" t="n">
-        <v>80.776348737364</v>
+        <v>97.43988024100054</v>
       </c>
       <c r="P12" t="n">
-        <v>64.83014123043402</v>
+        <v>78.20409434499017</v>
       </c>
       <c r="Q12" t="n">
-        <v>43.33723254101134</v>
+        <v>52.27736602086899</v>
       </c>
       <c r="R12" t="n">
-        <v>21.07895354076954</v>
+        <v>25.42737745297628</v>
       </c>
       <c r="S12" t="n">
-        <v>6.306115304122557</v>
+        <v>7.607017767261545</v>
       </c>
       <c r="T12" t="n">
-        <v>1.368434466231082</v>
+        <v>1.650731836626532</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02233570945970212</v>
+        <v>0.026943392327963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2846277292897557</v>
+        <v>0.3433442126164463</v>
       </c>
       <c r="H13" t="n">
-        <v>2.530599265867103</v>
+        <v>3.052642181262589</v>
       </c>
       <c r="I13" t="n">
-        <v>8.559532077186475</v>
+        <v>10.32529686668368</v>
       </c>
       <c r="J13" t="n">
-        <v>20.12318046078573</v>
+        <v>24.27443583198275</v>
       </c>
       <c r="K13" t="n">
-        <v>33.06856709384616</v>
+        <v>39.89035488398348</v>
       </c>
       <c r="L13" t="n">
-        <v>42.31638077095151</v>
+        <v>51.04592048299422</v>
       </c>
       <c r="M13" t="n">
-        <v>44.61669032857507</v>
+        <v>53.82076598313985</v>
       </c>
       <c r="N13" t="n">
-        <v>43.55580515576784</v>
+        <v>52.54102846338768</v>
       </c>
       <c r="O13" t="n">
-        <v>40.23083577270113</v>
+        <v>48.53014379782281</v>
       </c>
       <c r="P13" t="n">
-        <v>34.42443009519008</v>
+        <v>41.52592186044728</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.83369104079946</v>
+        <v>28.7503958400917</v>
       </c>
       <c r="R13" t="n">
-        <v>12.79789771879211</v>
+        <v>15.43800432364494</v>
       </c>
       <c r="S13" t="n">
-        <v>4.960285064076923</v>
+        <v>5.983553232597521</v>
       </c>
       <c r="T13" t="n">
-        <v>1.216136661510774</v>
+        <v>1.467016181179361</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01552514887035033</v>
+        <v>0.01872786614271528</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6345286975486556</v>
+        <v>0.7654270249283951</v>
       </c>
       <c r="H14" t="n">
-        <v>6.498367023770171</v>
+        <v>7.838929519047928</v>
       </c>
       <c r="I14" t="n">
-        <v>24.46266761224457</v>
+        <v>29.50912537855198</v>
       </c>
       <c r="J14" t="n">
-        <v>53.85483004357026</v>
+        <v>64.96466195701643</v>
       </c>
       <c r="K14" t="n">
-        <v>80.71442981080486</v>
+        <v>97.36518792223542</v>
       </c>
       <c r="L14" t="n">
-        <v>100.1333874384096</v>
+        <v>120.7901252363878</v>
       </c>
       <c r="M14" t="n">
-        <v>111.4176871634405</v>
+        <v>134.4022880909582</v>
       </c>
       <c r="N14" t="n">
-        <v>113.2205418253506</v>
+        <v>136.577057625536</v>
       </c>
       <c r="O14" t="n">
-        <v>106.9109470891011</v>
+        <v>128.9658426464042</v>
       </c>
       <c r="P14" t="n">
-        <v>91.24601986836868</v>
+        <v>110.0693629684845</v>
       </c>
       <c r="Q14" t="n">
-        <v>68.52196088740743</v>
+        <v>82.65750763823628</v>
       </c>
       <c r="R14" t="n">
-        <v>39.85871329739077</v>
+        <v>48.08125535465835</v>
       </c>
       <c r="S14" t="n">
-        <v>14.45932269539</v>
+        <v>17.44216833055582</v>
       </c>
       <c r="T14" t="n">
-        <v>2.777649373519242</v>
+        <v>3.350656801624051</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05076229580389244</v>
+        <v>0.0612341619942716</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.339502783787472</v>
+        <v>0.4095395633850374</v>
       </c>
       <c r="H15" t="n">
-        <v>3.27888214868427</v>
+        <v>3.955289993744967</v>
       </c>
       <c r="I15" t="n">
-        <v>11.68902128391077</v>
+        <v>14.10037531830063</v>
       </c>
       <c r="J15" t="n">
-        <v>32.07556783142954</v>
+        <v>38.69250760911005</v>
       </c>
       <c r="K15" t="n">
-        <v>54.82225434519016</v>
+        <v>66.13165835590756</v>
       </c>
       <c r="L15" t="n">
-        <v>73.71528645350352</v>
+        <v>88.92217581305385</v>
       </c>
       <c r="M15" t="n">
-        <v>86.02226236579936</v>
+        <v>103.7679849857614</v>
       </c>
       <c r="N15" t="n">
-        <v>88.29901568339167</v>
+        <v>106.5144147770585</v>
       </c>
       <c r="O15" t="n">
-        <v>80.776348737364</v>
+        <v>97.43988024100054</v>
       </c>
       <c r="P15" t="n">
-        <v>64.83014123043402</v>
+        <v>78.20409434499017</v>
       </c>
       <c r="Q15" t="n">
-        <v>43.33723254101134</v>
+        <v>52.27736602086899</v>
       </c>
       <c r="R15" t="n">
-        <v>21.07895354076954</v>
+        <v>25.42737745297628</v>
       </c>
       <c r="S15" t="n">
-        <v>6.306115304122557</v>
+        <v>7.607017767261545</v>
       </c>
       <c r="T15" t="n">
-        <v>1.368434466231082</v>
+        <v>1.650731836626532</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02233570945970212</v>
+        <v>0.026943392327963</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2846277292897557</v>
+        <v>0.3433442126164463</v>
       </c>
       <c r="H16" t="n">
-        <v>2.530599265867103</v>
+        <v>3.052642181262589</v>
       </c>
       <c r="I16" t="n">
-        <v>8.559532077186475</v>
+        <v>10.32529686668368</v>
       </c>
       <c r="J16" t="n">
-        <v>20.12318046078573</v>
+        <v>24.27443583198275</v>
       </c>
       <c r="K16" t="n">
-        <v>33.06856709384616</v>
+        <v>39.89035488398348</v>
       </c>
       <c r="L16" t="n">
-        <v>42.31638077095151</v>
+        <v>51.04592048299422</v>
       </c>
       <c r="M16" t="n">
-        <v>44.61669032857507</v>
+        <v>53.82076598313985</v>
       </c>
       <c r="N16" t="n">
-        <v>43.55580515576784</v>
+        <v>52.54102846338768</v>
       </c>
       <c r="O16" t="n">
-        <v>40.23083577270113</v>
+        <v>48.53014379782281</v>
       </c>
       <c r="P16" t="n">
-        <v>34.42443009519008</v>
+        <v>41.52592186044728</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.83369104079946</v>
+        <v>28.7503958400917</v>
       </c>
       <c r="R16" t="n">
-        <v>12.79789771879211</v>
+        <v>15.43800432364494</v>
       </c>
       <c r="S16" t="n">
-        <v>4.960285064076923</v>
+        <v>5.983553232597521</v>
       </c>
       <c r="T16" t="n">
-        <v>1.216136661510774</v>
+        <v>1.467016181179361</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01552514887035033</v>
+        <v>0.01872786614271528</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6345286975486556</v>
+        <v>0.7654270249283951</v>
       </c>
       <c r="H17" t="n">
-        <v>6.498367023770171</v>
+        <v>7.838929519047928</v>
       </c>
       <c r="I17" t="n">
-        <v>24.46266761224457</v>
+        <v>29.50912537855198</v>
       </c>
       <c r="J17" t="n">
-        <v>53.85483004357026</v>
+        <v>64.96466195701643</v>
       </c>
       <c r="K17" t="n">
-        <v>80.71442981080486</v>
+        <v>97.36518792223542</v>
       </c>
       <c r="L17" t="n">
-        <v>100.1333874384096</v>
+        <v>120.7901252363878</v>
       </c>
       <c r="M17" t="n">
-        <v>111.4176871634405</v>
+        <v>134.4022880909582</v>
       </c>
       <c r="N17" t="n">
-        <v>113.2205418253506</v>
+        <v>136.577057625536</v>
       </c>
       <c r="O17" t="n">
-        <v>106.9109470891011</v>
+        <v>128.9658426464042</v>
       </c>
       <c r="P17" t="n">
-        <v>91.24601986836868</v>
+        <v>110.0693629684845</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.52196088740743</v>
+        <v>82.65750763823628</v>
       </c>
       <c r="R17" t="n">
-        <v>39.85871329739077</v>
+        <v>48.08125535465835</v>
       </c>
       <c r="S17" t="n">
-        <v>14.45932269539</v>
+        <v>17.44216833055582</v>
       </c>
       <c r="T17" t="n">
-        <v>2.777649373519242</v>
+        <v>3.350656801624051</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05076229580389244</v>
+        <v>0.0612341619942716</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.339502783787472</v>
+        <v>0.4095395633850374</v>
       </c>
       <c r="H18" t="n">
-        <v>3.27888214868427</v>
+        <v>3.955289993744967</v>
       </c>
       <c r="I18" t="n">
-        <v>11.68902128391077</v>
+        <v>14.10037531830063</v>
       </c>
       <c r="J18" t="n">
-        <v>32.07556783142954</v>
+        <v>38.69250760911005</v>
       </c>
       <c r="K18" t="n">
-        <v>54.82225434519016</v>
+        <v>66.13165835590756</v>
       </c>
       <c r="L18" t="n">
-        <v>73.71528645350352</v>
+        <v>88.92217581305385</v>
       </c>
       <c r="M18" t="n">
-        <v>86.02226236579936</v>
+        <v>103.7679849857614</v>
       </c>
       <c r="N18" t="n">
-        <v>88.29901568339167</v>
+        <v>106.5144147770585</v>
       </c>
       <c r="O18" t="n">
-        <v>80.776348737364</v>
+        <v>97.43988024100054</v>
       </c>
       <c r="P18" t="n">
-        <v>64.83014123043402</v>
+        <v>78.20409434499017</v>
       </c>
       <c r="Q18" t="n">
-        <v>43.33723254101134</v>
+        <v>52.27736602086899</v>
       </c>
       <c r="R18" t="n">
-        <v>21.07895354076954</v>
+        <v>25.42737745297628</v>
       </c>
       <c r="S18" t="n">
-        <v>6.306115304122557</v>
+        <v>7.607017767261545</v>
       </c>
       <c r="T18" t="n">
-        <v>1.368434466231082</v>
+        <v>1.650731836626532</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02233570945970212</v>
+        <v>0.026943392327963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2846277292897557</v>
+        <v>0.3433442126164463</v>
       </c>
       <c r="H19" t="n">
-        <v>2.530599265867103</v>
+        <v>3.052642181262589</v>
       </c>
       <c r="I19" t="n">
-        <v>8.559532077186475</v>
+        <v>10.32529686668368</v>
       </c>
       <c r="J19" t="n">
-        <v>20.12318046078573</v>
+        <v>24.27443583198275</v>
       </c>
       <c r="K19" t="n">
-        <v>33.06856709384616</v>
+        <v>39.89035488398348</v>
       </c>
       <c r="L19" t="n">
-        <v>42.31638077095151</v>
+        <v>51.04592048299422</v>
       </c>
       <c r="M19" t="n">
-        <v>44.61669032857507</v>
+        <v>53.82076598313985</v>
       </c>
       <c r="N19" t="n">
-        <v>43.55580515576784</v>
+        <v>52.54102846338768</v>
       </c>
       <c r="O19" t="n">
-        <v>40.23083577270113</v>
+        <v>48.53014379782281</v>
       </c>
       <c r="P19" t="n">
-        <v>34.42443009519008</v>
+        <v>41.52592186044728</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.83369104079946</v>
+        <v>28.7503958400917</v>
       </c>
       <c r="R19" t="n">
-        <v>12.79789771879211</v>
+        <v>15.43800432364494</v>
       </c>
       <c r="S19" t="n">
-        <v>4.960285064076923</v>
+        <v>5.983553232597521</v>
       </c>
       <c r="T19" t="n">
-        <v>1.216136661510774</v>
+        <v>1.467016181179361</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01552514887035033</v>
+        <v>0.01872786614271528</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6345286975486569</v>
+        <v>0.7654270249283951</v>
       </c>
       <c r="H20" t="n">
-        <v>6.498367023770185</v>
+        <v>7.838929519047928</v>
       </c>
       <c r="I20" t="n">
-        <v>24.46266761224462</v>
+        <v>29.50912537855198</v>
       </c>
       <c r="J20" t="n">
-        <v>53.85483004357037</v>
+        <v>64.96466195701643</v>
       </c>
       <c r="K20" t="n">
-        <v>80.71442981080504</v>
+        <v>97.36518792223542</v>
       </c>
       <c r="L20" t="n">
-        <v>100.1333874384098</v>
+        <v>120.7901252363878</v>
       </c>
       <c r="M20" t="n">
-        <v>111.4176871634407</v>
+        <v>134.4022880909582</v>
       </c>
       <c r="N20" t="n">
-        <v>113.2205418253508</v>
+        <v>136.577057625536</v>
       </c>
       <c r="O20" t="n">
-        <v>106.9109470891014</v>
+        <v>128.9658426464042</v>
       </c>
       <c r="P20" t="n">
-        <v>91.24601986836888</v>
+        <v>110.0693629684845</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.52196088740757</v>
+        <v>82.65750763823628</v>
       </c>
       <c r="R20" t="n">
-        <v>39.85871329739086</v>
+        <v>48.08125535465835</v>
       </c>
       <c r="S20" t="n">
-        <v>14.45932269539004</v>
+        <v>17.44216833055582</v>
       </c>
       <c r="T20" t="n">
-        <v>2.777649373519247</v>
+        <v>3.350656801624051</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05076229580389255</v>
+        <v>0.0612341619942716</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3395027837874727</v>
+        <v>0.4095395633850374</v>
       </c>
       <c r="H21" t="n">
-        <v>3.278882148684277</v>
+        <v>3.955289993744967</v>
       </c>
       <c r="I21" t="n">
-        <v>11.6890212839108</v>
+        <v>14.10037531830063</v>
       </c>
       <c r="J21" t="n">
-        <v>32.07556783142961</v>
+        <v>38.69250760911005</v>
       </c>
       <c r="K21" t="n">
-        <v>54.82225434519028</v>
+        <v>66.13165835590756</v>
       </c>
       <c r="L21" t="n">
-        <v>73.71528645350368</v>
+        <v>88.92217581305385</v>
       </c>
       <c r="M21" t="n">
-        <v>86.02226236579955</v>
+        <v>103.7679849857614</v>
       </c>
       <c r="N21" t="n">
-        <v>88.29901568339187</v>
+        <v>106.5144147770585</v>
       </c>
       <c r="O21" t="n">
-        <v>80.77634873736417</v>
+        <v>97.43988024100054</v>
       </c>
       <c r="P21" t="n">
-        <v>64.83014123043417</v>
+        <v>78.20409434499017</v>
       </c>
       <c r="Q21" t="n">
-        <v>43.33723254101143</v>
+        <v>52.27736602086899</v>
       </c>
       <c r="R21" t="n">
-        <v>21.07895354076959</v>
+        <v>25.42737745297628</v>
       </c>
       <c r="S21" t="n">
-        <v>6.30611530412257</v>
+        <v>7.607017767261545</v>
       </c>
       <c r="T21" t="n">
-        <v>1.368434466231085</v>
+        <v>1.650731836626532</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02233570945970216</v>
+        <v>0.026943392327963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2846277292897564</v>
+        <v>0.3433442126164463</v>
       </c>
       <c r="H22" t="n">
-        <v>2.530599265867108</v>
+        <v>3.052642181262589</v>
       </c>
       <c r="I22" t="n">
-        <v>8.559532077186494</v>
+        <v>10.32529686668368</v>
       </c>
       <c r="J22" t="n">
-        <v>20.12318046078577</v>
+        <v>24.27443583198275</v>
       </c>
       <c r="K22" t="n">
-        <v>33.06856709384623</v>
+        <v>39.89035488398348</v>
       </c>
       <c r="L22" t="n">
-        <v>42.3163807709516</v>
+        <v>51.04592048299422</v>
       </c>
       <c r="M22" t="n">
-        <v>44.61669032857517</v>
+        <v>53.82076598313985</v>
       </c>
       <c r="N22" t="n">
-        <v>43.55580515576793</v>
+        <v>52.54102846338768</v>
       </c>
       <c r="O22" t="n">
-        <v>40.23083577270121</v>
+        <v>48.53014379782281</v>
       </c>
       <c r="P22" t="n">
-        <v>34.42443009519015</v>
+        <v>41.52592186044728</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.83369104079951</v>
+        <v>28.7503958400917</v>
       </c>
       <c r="R22" t="n">
-        <v>12.79789771879213</v>
+        <v>15.43800432364494</v>
       </c>
       <c r="S22" t="n">
-        <v>4.960285064076934</v>
+        <v>5.983553232597521</v>
       </c>
       <c r="T22" t="n">
-        <v>1.216136661510777</v>
+        <v>1.467016181179361</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01552514887035037</v>
+        <v>0.01872786614271528</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6345286975486569</v>
+        <v>0.7654270249283951</v>
       </c>
       <c r="H23" t="n">
-        <v>6.498367023770185</v>
+        <v>7.838929519047928</v>
       </c>
       <c r="I23" t="n">
-        <v>24.46266761224462</v>
+        <v>29.50912537855198</v>
       </c>
       <c r="J23" t="n">
-        <v>53.85483004357037</v>
+        <v>64.96466195701643</v>
       </c>
       <c r="K23" t="n">
-        <v>80.71442981080504</v>
+        <v>97.36518792223542</v>
       </c>
       <c r="L23" t="n">
-        <v>100.1333874384098</v>
+        <v>120.7901252363878</v>
       </c>
       <c r="M23" t="n">
-        <v>111.4176871634407</v>
+        <v>134.4022880909582</v>
       </c>
       <c r="N23" t="n">
-        <v>113.2205418253508</v>
+        <v>136.577057625536</v>
       </c>
       <c r="O23" t="n">
-        <v>106.9109470891014</v>
+        <v>128.9658426464042</v>
       </c>
       <c r="P23" t="n">
-        <v>91.24601986836888</v>
+        <v>110.0693629684845</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.52196088740757</v>
+        <v>82.65750763823628</v>
       </c>
       <c r="R23" t="n">
-        <v>39.85871329739086</v>
+        <v>48.08125535465835</v>
       </c>
       <c r="S23" t="n">
-        <v>14.45932269539004</v>
+        <v>17.44216833055582</v>
       </c>
       <c r="T23" t="n">
-        <v>2.777649373519247</v>
+        <v>3.350656801624051</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05076229580389255</v>
+        <v>0.0612341619942716</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3395027837874727</v>
+        <v>0.4095395633850374</v>
       </c>
       <c r="H24" t="n">
-        <v>3.278882148684277</v>
+        <v>3.955289993744967</v>
       </c>
       <c r="I24" t="n">
-        <v>11.6890212839108</v>
+        <v>14.10037531830063</v>
       </c>
       <c r="J24" t="n">
-        <v>32.07556783142961</v>
+        <v>38.69250760911005</v>
       </c>
       <c r="K24" t="n">
-        <v>54.82225434519028</v>
+        <v>66.13165835590756</v>
       </c>
       <c r="L24" t="n">
-        <v>73.71528645350368</v>
+        <v>88.92217581305385</v>
       </c>
       <c r="M24" t="n">
-        <v>86.02226236579955</v>
+        <v>103.7679849857614</v>
       </c>
       <c r="N24" t="n">
-        <v>88.29901568339187</v>
+        <v>106.5144147770585</v>
       </c>
       <c r="O24" t="n">
-        <v>80.77634873736417</v>
+        <v>97.43988024100054</v>
       </c>
       <c r="P24" t="n">
-        <v>64.83014123043417</v>
+        <v>78.20409434499017</v>
       </c>
       <c r="Q24" t="n">
-        <v>43.33723254101143</v>
+        <v>52.27736602086899</v>
       </c>
       <c r="R24" t="n">
-        <v>21.07895354076959</v>
+        <v>25.42737745297628</v>
       </c>
       <c r="S24" t="n">
-        <v>6.30611530412257</v>
+        <v>7.607017767261545</v>
       </c>
       <c r="T24" t="n">
-        <v>1.368434466231085</v>
+        <v>1.650731836626532</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02233570945970216</v>
+        <v>0.026943392327963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2846277292897564</v>
+        <v>0.3433442126164463</v>
       </c>
       <c r="H25" t="n">
-        <v>2.530599265867108</v>
+        <v>3.052642181262589</v>
       </c>
       <c r="I25" t="n">
-        <v>8.559532077186494</v>
+        <v>10.32529686668368</v>
       </c>
       <c r="J25" t="n">
-        <v>20.12318046078577</v>
+        <v>24.27443583198275</v>
       </c>
       <c r="K25" t="n">
-        <v>33.06856709384623</v>
+        <v>39.89035488398348</v>
       </c>
       <c r="L25" t="n">
-        <v>42.3163807709516</v>
+        <v>51.04592048299422</v>
       </c>
       <c r="M25" t="n">
-        <v>44.61669032857517</v>
+        <v>53.82076598313985</v>
       </c>
       <c r="N25" t="n">
-        <v>43.55580515576793</v>
+        <v>52.54102846338768</v>
       </c>
       <c r="O25" t="n">
-        <v>40.23083577270121</v>
+        <v>48.53014379782281</v>
       </c>
       <c r="P25" t="n">
-        <v>34.42443009519015</v>
+        <v>41.52592186044728</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.83369104079951</v>
+        <v>28.7503958400917</v>
       </c>
       <c r="R25" t="n">
-        <v>12.79789771879213</v>
+        <v>15.43800432364494</v>
       </c>
       <c r="S25" t="n">
-        <v>4.960285064076934</v>
+        <v>5.983553232597521</v>
       </c>
       <c r="T25" t="n">
-        <v>1.216136661510777</v>
+        <v>1.467016181179361</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01552514887035037</v>
+        <v>0.01872786614271528</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6345286975486569</v>
+        <v>0.7654270249283951</v>
       </c>
       <c r="H26" t="n">
-        <v>6.498367023770185</v>
+        <v>7.838929519047928</v>
       </c>
       <c r="I26" t="n">
-        <v>24.46266761224462</v>
+        <v>29.50912537855198</v>
       </c>
       <c r="J26" t="n">
-        <v>53.85483004357037</v>
+        <v>64.96466195701643</v>
       </c>
       <c r="K26" t="n">
-        <v>80.71442981080504</v>
+        <v>97.36518792223542</v>
       </c>
       <c r="L26" t="n">
-        <v>100.1333874384098</v>
+        <v>120.7901252363878</v>
       </c>
       <c r="M26" t="n">
-        <v>111.4176871634407</v>
+        <v>134.4022880909582</v>
       </c>
       <c r="N26" t="n">
-        <v>113.2205418253508</v>
+        <v>136.577057625536</v>
       </c>
       <c r="O26" t="n">
-        <v>106.9109470891014</v>
+        <v>128.9658426464042</v>
       </c>
       <c r="P26" t="n">
-        <v>91.24601986836888</v>
+        <v>110.0693629684845</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.52196088740757</v>
+        <v>82.65750763823628</v>
       </c>
       <c r="R26" t="n">
-        <v>39.85871329739086</v>
+        <v>48.08125535465835</v>
       </c>
       <c r="S26" t="n">
-        <v>14.45932269539004</v>
+        <v>17.44216833055582</v>
       </c>
       <c r="T26" t="n">
-        <v>2.777649373519247</v>
+        <v>3.350656801624051</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05076229580389255</v>
+        <v>0.0612341619942716</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3395027837874727</v>
+        <v>0.4095395633850374</v>
       </c>
       <c r="H27" t="n">
-        <v>3.278882148684277</v>
+        <v>3.955289993744967</v>
       </c>
       <c r="I27" t="n">
-        <v>11.6890212839108</v>
+        <v>14.10037531830063</v>
       </c>
       <c r="J27" t="n">
-        <v>32.07556783142961</v>
+        <v>38.69250760911005</v>
       </c>
       <c r="K27" t="n">
-        <v>54.82225434519028</v>
+        <v>66.13165835590756</v>
       </c>
       <c r="L27" t="n">
-        <v>73.71528645350368</v>
+        <v>88.92217581305385</v>
       </c>
       <c r="M27" t="n">
-        <v>86.02226236579955</v>
+        <v>103.7679849857614</v>
       </c>
       <c r="N27" t="n">
-        <v>88.29901568339187</v>
+        <v>106.5144147770585</v>
       </c>
       <c r="O27" t="n">
-        <v>80.77634873736417</v>
+        <v>97.43988024100054</v>
       </c>
       <c r="P27" t="n">
-        <v>64.83014123043417</v>
+        <v>78.20409434499017</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.33723254101143</v>
+        <v>52.27736602086899</v>
       </c>
       <c r="R27" t="n">
-        <v>21.07895354076959</v>
+        <v>25.42737745297628</v>
       </c>
       <c r="S27" t="n">
-        <v>6.30611530412257</v>
+        <v>7.607017767261545</v>
       </c>
       <c r="T27" t="n">
-        <v>1.368434466231085</v>
+        <v>1.650731836626532</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02233570945970216</v>
+        <v>0.026943392327963</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2846277292897564</v>
+        <v>0.3433442126164463</v>
       </c>
       <c r="H28" t="n">
-        <v>2.530599265867108</v>
+        <v>3.052642181262589</v>
       </c>
       <c r="I28" t="n">
-        <v>8.559532077186494</v>
+        <v>10.32529686668368</v>
       </c>
       <c r="J28" t="n">
-        <v>20.12318046078577</v>
+        <v>24.27443583198275</v>
       </c>
       <c r="K28" t="n">
-        <v>33.06856709384623</v>
+        <v>39.89035488398348</v>
       </c>
       <c r="L28" t="n">
-        <v>42.3163807709516</v>
+        <v>51.04592048299422</v>
       </c>
       <c r="M28" t="n">
-        <v>44.61669032857517</v>
+        <v>53.82076598313985</v>
       </c>
       <c r="N28" t="n">
-        <v>43.55580515576793</v>
+        <v>52.54102846338768</v>
       </c>
       <c r="O28" t="n">
-        <v>40.23083577270121</v>
+        <v>48.53014379782281</v>
       </c>
       <c r="P28" t="n">
-        <v>34.42443009519015</v>
+        <v>41.52592186044728</v>
       </c>
       <c r="Q28" t="n">
-        <v>23.83369104079951</v>
+        <v>28.7503958400917</v>
       </c>
       <c r="R28" t="n">
-        <v>12.79789771879213</v>
+        <v>15.43800432364494</v>
       </c>
       <c r="S28" t="n">
-        <v>4.960285064076934</v>
+        <v>5.983553232597521</v>
       </c>
       <c r="T28" t="n">
-        <v>1.216136661510777</v>
+        <v>1.467016181179361</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01552514887035037</v>
+        <v>0.01872786614271528</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6345286975486569</v>
+        <v>0.7654270249283951</v>
       </c>
       <c r="H29" t="n">
-        <v>6.498367023770185</v>
+        <v>7.838929519047928</v>
       </c>
       <c r="I29" t="n">
-        <v>24.46266761224462</v>
+        <v>29.50912537855198</v>
       </c>
       <c r="J29" t="n">
-        <v>53.85483004357037</v>
+        <v>64.96466195701643</v>
       </c>
       <c r="K29" t="n">
-        <v>80.71442981080504</v>
+        <v>97.36518792223542</v>
       </c>
       <c r="L29" t="n">
-        <v>100.1333874384098</v>
+        <v>120.7901252363878</v>
       </c>
       <c r="M29" t="n">
-        <v>111.4176871634407</v>
+        <v>134.4022880909582</v>
       </c>
       <c r="N29" t="n">
-        <v>113.2205418253508</v>
+        <v>136.577057625536</v>
       </c>
       <c r="O29" t="n">
-        <v>106.9109470891014</v>
+        <v>128.9658426464042</v>
       </c>
       <c r="P29" t="n">
-        <v>91.24601986836888</v>
+        <v>110.0693629684845</v>
       </c>
       <c r="Q29" t="n">
-        <v>68.52196088740757</v>
+        <v>82.65750763823628</v>
       </c>
       <c r="R29" t="n">
-        <v>39.85871329739086</v>
+        <v>48.08125535465835</v>
       </c>
       <c r="S29" t="n">
-        <v>14.45932269539004</v>
+        <v>17.44216833055582</v>
       </c>
       <c r="T29" t="n">
-        <v>2.777649373519247</v>
+        <v>3.350656801624051</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05076229580389255</v>
+        <v>0.0612341619942716</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3395027837874727</v>
+        <v>0.4095395633850374</v>
       </c>
       <c r="H30" t="n">
-        <v>3.278882148684277</v>
+        <v>3.955289993744967</v>
       </c>
       <c r="I30" t="n">
-        <v>11.6890212839108</v>
+        <v>14.10037531830063</v>
       </c>
       <c r="J30" t="n">
-        <v>32.07556783142961</v>
+        <v>38.69250760911005</v>
       </c>
       <c r="K30" t="n">
-        <v>54.82225434519028</v>
+        <v>66.13165835590756</v>
       </c>
       <c r="L30" t="n">
-        <v>73.71528645350368</v>
+        <v>88.92217581305385</v>
       </c>
       <c r="M30" t="n">
-        <v>86.02226236579955</v>
+        <v>103.7679849857614</v>
       </c>
       <c r="N30" t="n">
-        <v>88.29901568339187</v>
+        <v>106.5144147770585</v>
       </c>
       <c r="O30" t="n">
-        <v>80.77634873736417</v>
+        <v>97.43988024100054</v>
       </c>
       <c r="P30" t="n">
-        <v>64.83014123043417</v>
+        <v>78.20409434499017</v>
       </c>
       <c r="Q30" t="n">
-        <v>43.33723254101143</v>
+        <v>52.27736602086899</v>
       </c>
       <c r="R30" t="n">
-        <v>21.07895354076959</v>
+        <v>25.42737745297628</v>
       </c>
       <c r="S30" t="n">
-        <v>6.30611530412257</v>
+        <v>7.607017767261545</v>
       </c>
       <c r="T30" t="n">
-        <v>1.368434466231085</v>
+        <v>1.650731836626532</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02233570945970216</v>
+        <v>0.026943392327963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2846277292897564</v>
+        <v>0.3433442126164463</v>
       </c>
       <c r="H31" t="n">
-        <v>2.530599265867108</v>
+        <v>3.052642181262589</v>
       </c>
       <c r="I31" t="n">
-        <v>8.559532077186494</v>
+        <v>10.32529686668368</v>
       </c>
       <c r="J31" t="n">
-        <v>20.12318046078577</v>
+        <v>24.27443583198275</v>
       </c>
       <c r="K31" t="n">
-        <v>33.06856709384623</v>
+        <v>39.89035488398348</v>
       </c>
       <c r="L31" t="n">
-        <v>42.3163807709516</v>
+        <v>51.04592048299422</v>
       </c>
       <c r="M31" t="n">
-        <v>44.61669032857517</v>
+        <v>53.82076598313985</v>
       </c>
       <c r="N31" t="n">
-        <v>43.55580515576793</v>
+        <v>52.54102846338768</v>
       </c>
       <c r="O31" t="n">
-        <v>40.23083577270121</v>
+        <v>48.53014379782281</v>
       </c>
       <c r="P31" t="n">
-        <v>34.42443009519015</v>
+        <v>41.52592186044728</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.83369104079951</v>
+        <v>28.7503958400917</v>
       </c>
       <c r="R31" t="n">
-        <v>12.79789771879213</v>
+        <v>15.43800432364494</v>
       </c>
       <c r="S31" t="n">
-        <v>4.960285064076934</v>
+        <v>5.983553232597521</v>
       </c>
       <c r="T31" t="n">
-        <v>1.216136661510777</v>
+        <v>1.467016181179361</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01552514887035037</v>
+        <v>0.01872786614271528</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6345286975486569</v>
+        <v>0.7654270249283945</v>
       </c>
       <c r="H32" t="n">
-        <v>6.498367023770185</v>
+        <v>7.838929519047923</v>
       </c>
       <c r="I32" t="n">
-        <v>24.46266761224462</v>
+        <v>29.50912537855196</v>
       </c>
       <c r="J32" t="n">
-        <v>53.85483004357037</v>
+        <v>64.96466195701639</v>
       </c>
       <c r="K32" t="n">
-        <v>80.71442981080504</v>
+        <v>97.36518792223535</v>
       </c>
       <c r="L32" t="n">
-        <v>100.1333874384098</v>
+        <v>120.7901252363877</v>
       </c>
       <c r="M32" t="n">
-        <v>111.4176871634407</v>
+        <v>134.4022880909581</v>
       </c>
       <c r="N32" t="n">
-        <v>113.2205418253508</v>
+        <v>136.5770576255359</v>
       </c>
       <c r="O32" t="n">
-        <v>106.9109470891014</v>
+        <v>128.9658426464041</v>
       </c>
       <c r="P32" t="n">
-        <v>91.24601986836888</v>
+        <v>110.0693629684844</v>
       </c>
       <c r="Q32" t="n">
-        <v>68.52196088740757</v>
+        <v>82.65750763823623</v>
       </c>
       <c r="R32" t="n">
-        <v>39.85871329739086</v>
+        <v>48.08125535465831</v>
       </c>
       <c r="S32" t="n">
-        <v>14.45932269539004</v>
+        <v>17.44216833055581</v>
       </c>
       <c r="T32" t="n">
-        <v>2.777649373519247</v>
+        <v>3.350656801624049</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05076229580389255</v>
+        <v>0.06123416199427156</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3395027837874727</v>
+        <v>0.4095395633850371</v>
       </c>
       <c r="H33" t="n">
-        <v>3.278882148684277</v>
+        <v>3.955289993744964</v>
       </c>
       <c r="I33" t="n">
-        <v>11.6890212839108</v>
+        <v>14.10037531830062</v>
       </c>
       <c r="J33" t="n">
-        <v>32.07556783142961</v>
+        <v>38.69250760911002</v>
       </c>
       <c r="K33" t="n">
-        <v>54.82225434519028</v>
+        <v>66.1316583559075</v>
       </c>
       <c r="L33" t="n">
-        <v>73.71528645350368</v>
+        <v>88.92217581305378</v>
       </c>
       <c r="M33" t="n">
-        <v>86.02226236579955</v>
+        <v>103.7679849857614</v>
       </c>
       <c r="N33" t="n">
-        <v>88.29901568339187</v>
+        <v>106.5144147770584</v>
       </c>
       <c r="O33" t="n">
-        <v>80.77634873736417</v>
+        <v>97.43988024100047</v>
       </c>
       <c r="P33" t="n">
-        <v>64.83014123043417</v>
+        <v>78.20409434499011</v>
       </c>
       <c r="Q33" t="n">
-        <v>43.33723254101143</v>
+        <v>52.27736602086895</v>
       </c>
       <c r="R33" t="n">
-        <v>21.07895354076959</v>
+        <v>25.42737745297626</v>
       </c>
       <c r="S33" t="n">
-        <v>6.30611530412257</v>
+        <v>7.60701776726154</v>
       </c>
       <c r="T33" t="n">
-        <v>1.368434466231085</v>
+        <v>1.65073183662653</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02233570945970216</v>
+        <v>0.02694339232796298</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2846277292897564</v>
+        <v>0.343344212616446</v>
       </c>
       <c r="H34" t="n">
-        <v>2.530599265867108</v>
+        <v>3.052642181262586</v>
       </c>
       <c r="I34" t="n">
-        <v>8.559532077186494</v>
+        <v>10.32529686668367</v>
       </c>
       <c r="J34" t="n">
-        <v>20.12318046078577</v>
+        <v>24.27443583198274</v>
       </c>
       <c r="K34" t="n">
-        <v>33.06856709384623</v>
+        <v>39.89035488398346</v>
       </c>
       <c r="L34" t="n">
-        <v>42.3163807709516</v>
+        <v>51.04592048299418</v>
       </c>
       <c r="M34" t="n">
-        <v>44.61669032857517</v>
+        <v>53.82076598313981</v>
       </c>
       <c r="N34" t="n">
-        <v>43.55580515576793</v>
+        <v>52.54102846338764</v>
       </c>
       <c r="O34" t="n">
-        <v>40.23083577270121</v>
+        <v>48.53014379782277</v>
       </c>
       <c r="P34" t="n">
-        <v>34.42443009519015</v>
+        <v>41.52592186044724</v>
       </c>
       <c r="Q34" t="n">
-        <v>23.83369104079951</v>
+        <v>28.75039584009168</v>
       </c>
       <c r="R34" t="n">
-        <v>12.79789771879213</v>
+        <v>15.43800432364493</v>
       </c>
       <c r="S34" t="n">
-        <v>4.960285064076934</v>
+        <v>5.983553232597517</v>
       </c>
       <c r="T34" t="n">
-        <v>1.216136661510777</v>
+        <v>1.46701618117936</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01552514887035037</v>
+        <v>0.01872786614271526</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6345286975486569</v>
+        <v>0.7654270249283945</v>
       </c>
       <c r="H35" t="n">
-        <v>6.498367023770185</v>
+        <v>7.838929519047923</v>
       </c>
       <c r="I35" t="n">
-        <v>24.46266761224462</v>
+        <v>29.50912537855196</v>
       </c>
       <c r="J35" t="n">
-        <v>53.85483004357037</v>
+        <v>64.96466195701639</v>
       </c>
       <c r="K35" t="n">
-        <v>80.71442981080504</v>
+        <v>97.36518792223535</v>
       </c>
       <c r="L35" t="n">
-        <v>100.1333874384098</v>
+        <v>120.7901252363877</v>
       </c>
       <c r="M35" t="n">
-        <v>111.4176871634407</v>
+        <v>134.4022880909581</v>
       </c>
       <c r="N35" t="n">
-        <v>113.2205418253508</v>
+        <v>136.5770576255359</v>
       </c>
       <c r="O35" t="n">
-        <v>106.9109470891014</v>
+        <v>128.9658426464041</v>
       </c>
       <c r="P35" t="n">
-        <v>91.24601986836888</v>
+        <v>110.0693629684844</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.52196088740757</v>
+        <v>82.65750763823623</v>
       </c>
       <c r="R35" t="n">
-        <v>39.85871329739086</v>
+        <v>48.08125535465831</v>
       </c>
       <c r="S35" t="n">
-        <v>14.45932269539004</v>
+        <v>17.44216833055581</v>
       </c>
       <c r="T35" t="n">
-        <v>2.777649373519247</v>
+        <v>3.350656801624049</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05076229580389255</v>
+        <v>0.06123416199427156</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3395027837874727</v>
+        <v>0.4095395633850371</v>
       </c>
       <c r="H36" t="n">
-        <v>3.278882148684277</v>
+        <v>3.955289993744964</v>
       </c>
       <c r="I36" t="n">
-        <v>11.6890212839108</v>
+        <v>14.10037531830062</v>
       </c>
       <c r="J36" t="n">
-        <v>32.07556783142961</v>
+        <v>38.69250760911002</v>
       </c>
       <c r="K36" t="n">
-        <v>54.82225434519028</v>
+        <v>66.1316583559075</v>
       </c>
       <c r="L36" t="n">
-        <v>73.71528645350368</v>
+        <v>88.92217581305378</v>
       </c>
       <c r="M36" t="n">
-        <v>86.02226236579955</v>
+        <v>103.7679849857614</v>
       </c>
       <c r="N36" t="n">
-        <v>88.29901568339187</v>
+        <v>106.5144147770584</v>
       </c>
       <c r="O36" t="n">
-        <v>80.77634873736417</v>
+        <v>97.43988024100047</v>
       </c>
       <c r="P36" t="n">
-        <v>64.83014123043417</v>
+        <v>78.20409434499011</v>
       </c>
       <c r="Q36" t="n">
-        <v>43.33723254101143</v>
+        <v>52.27736602086895</v>
       </c>
       <c r="R36" t="n">
-        <v>21.07895354076959</v>
+        <v>25.42737745297626</v>
       </c>
       <c r="S36" t="n">
-        <v>6.30611530412257</v>
+        <v>7.60701776726154</v>
       </c>
       <c r="T36" t="n">
-        <v>1.368434466231085</v>
+        <v>1.65073183662653</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02233570945970216</v>
+        <v>0.02694339232796298</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2846277292897564</v>
+        <v>0.343344212616446</v>
       </c>
       <c r="H37" t="n">
-        <v>2.530599265867108</v>
+        <v>3.052642181262586</v>
       </c>
       <c r="I37" t="n">
-        <v>8.559532077186494</v>
+        <v>10.32529686668367</v>
       </c>
       <c r="J37" t="n">
-        <v>20.12318046078577</v>
+        <v>24.27443583198274</v>
       </c>
       <c r="K37" t="n">
-        <v>33.06856709384623</v>
+        <v>39.89035488398346</v>
       </c>
       <c r="L37" t="n">
-        <v>42.3163807709516</v>
+        <v>51.04592048299418</v>
       </c>
       <c r="M37" t="n">
-        <v>44.61669032857517</v>
+        <v>53.82076598313981</v>
       </c>
       <c r="N37" t="n">
-        <v>43.55580515576793</v>
+        <v>52.54102846338764</v>
       </c>
       <c r="O37" t="n">
-        <v>40.23083577270121</v>
+        <v>48.53014379782277</v>
       </c>
       <c r="P37" t="n">
-        <v>34.42443009519015</v>
+        <v>41.52592186044724</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.83369104079951</v>
+        <v>28.75039584009168</v>
       </c>
       <c r="R37" t="n">
-        <v>12.79789771879213</v>
+        <v>15.43800432364493</v>
       </c>
       <c r="S37" t="n">
-        <v>4.960285064076934</v>
+        <v>5.983553232597517</v>
       </c>
       <c r="T37" t="n">
-        <v>1.216136661510777</v>
+        <v>1.46701618117936</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01552514887035037</v>
+        <v>0.01872786614271526</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6345286975486569</v>
+        <v>0.7654270249283945</v>
       </c>
       <c r="H38" t="n">
-        <v>6.498367023770185</v>
+        <v>7.838929519047923</v>
       </c>
       <c r="I38" t="n">
-        <v>24.46266761224462</v>
+        <v>29.50912537855196</v>
       </c>
       <c r="J38" t="n">
-        <v>53.85483004357037</v>
+        <v>64.96466195701639</v>
       </c>
       <c r="K38" t="n">
-        <v>80.71442981080504</v>
+        <v>97.36518792223535</v>
       </c>
       <c r="L38" t="n">
-        <v>100.1333874384098</v>
+        <v>120.7901252363877</v>
       </c>
       <c r="M38" t="n">
-        <v>111.4176871634407</v>
+        <v>134.4022880909581</v>
       </c>
       <c r="N38" t="n">
-        <v>113.2205418253508</v>
+        <v>136.5770576255359</v>
       </c>
       <c r="O38" t="n">
-        <v>106.9109470891014</v>
+        <v>128.9658426464041</v>
       </c>
       <c r="P38" t="n">
-        <v>91.24601986836888</v>
+        <v>110.0693629684844</v>
       </c>
       <c r="Q38" t="n">
-        <v>68.52196088740757</v>
+        <v>82.65750763823623</v>
       </c>
       <c r="R38" t="n">
-        <v>39.85871329739086</v>
+        <v>48.08125535465831</v>
       </c>
       <c r="S38" t="n">
-        <v>14.45932269539004</v>
+        <v>17.44216833055581</v>
       </c>
       <c r="T38" t="n">
-        <v>2.777649373519247</v>
+        <v>3.350656801624049</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05076229580389255</v>
+        <v>0.06123416199427156</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3395027837874727</v>
+        <v>0.4095395633850371</v>
       </c>
       <c r="H39" t="n">
-        <v>3.278882148684277</v>
+        <v>3.955289993744964</v>
       </c>
       <c r="I39" t="n">
-        <v>11.6890212839108</v>
+        <v>14.10037531830062</v>
       </c>
       <c r="J39" t="n">
-        <v>32.07556783142961</v>
+        <v>38.69250760911002</v>
       </c>
       <c r="K39" t="n">
-        <v>54.82225434519028</v>
+        <v>66.1316583559075</v>
       </c>
       <c r="L39" t="n">
-        <v>73.71528645350368</v>
+        <v>88.92217581305378</v>
       </c>
       <c r="M39" t="n">
-        <v>86.02226236579955</v>
+        <v>103.7679849857614</v>
       </c>
       <c r="N39" t="n">
-        <v>88.29901568339187</v>
+        <v>106.5144147770584</v>
       </c>
       <c r="O39" t="n">
-        <v>80.77634873736417</v>
+        <v>97.43988024100047</v>
       </c>
       <c r="P39" t="n">
-        <v>64.83014123043417</v>
+        <v>78.20409434499011</v>
       </c>
       <c r="Q39" t="n">
-        <v>43.33723254101143</v>
+        <v>52.27736602086895</v>
       </c>
       <c r="R39" t="n">
-        <v>21.07895354076959</v>
+        <v>25.42737745297626</v>
       </c>
       <c r="S39" t="n">
-        <v>6.30611530412257</v>
+        <v>7.60701776726154</v>
       </c>
       <c r="T39" t="n">
-        <v>1.368434466231085</v>
+        <v>1.65073183662653</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02233570945970216</v>
+        <v>0.02694339232796298</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2846277292897564</v>
+        <v>0.343344212616446</v>
       </c>
       <c r="H40" t="n">
-        <v>2.530599265867108</v>
+        <v>3.052642181262586</v>
       </c>
       <c r="I40" t="n">
-        <v>8.559532077186494</v>
+        <v>10.32529686668367</v>
       </c>
       <c r="J40" t="n">
-        <v>20.12318046078577</v>
+        <v>24.27443583198274</v>
       </c>
       <c r="K40" t="n">
-        <v>33.06856709384623</v>
+        <v>39.89035488398346</v>
       </c>
       <c r="L40" t="n">
-        <v>42.3163807709516</v>
+        <v>51.04592048299418</v>
       </c>
       <c r="M40" t="n">
-        <v>44.61669032857517</v>
+        <v>53.82076598313981</v>
       </c>
       <c r="N40" t="n">
-        <v>43.55580515576793</v>
+        <v>52.54102846338764</v>
       </c>
       <c r="O40" t="n">
-        <v>40.23083577270121</v>
+        <v>48.53014379782277</v>
       </c>
       <c r="P40" t="n">
-        <v>34.42443009519015</v>
+        <v>41.52592186044724</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.83369104079951</v>
+        <v>28.75039584009168</v>
       </c>
       <c r="R40" t="n">
-        <v>12.79789771879213</v>
+        <v>15.43800432364493</v>
       </c>
       <c r="S40" t="n">
-        <v>4.960285064076934</v>
+        <v>5.983553232597517</v>
       </c>
       <c r="T40" t="n">
-        <v>1.216136661510777</v>
+        <v>1.46701618117936</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01552514887035037</v>
+        <v>0.01872786614271526</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6345286975486569</v>
+        <v>0.7654270249283945</v>
       </c>
       <c r="H41" t="n">
-        <v>6.498367023770185</v>
+        <v>7.838929519047923</v>
       </c>
       <c r="I41" t="n">
-        <v>24.46266761224462</v>
+        <v>29.50912537855196</v>
       </c>
       <c r="J41" t="n">
-        <v>53.85483004357037</v>
+        <v>64.96466195701639</v>
       </c>
       <c r="K41" t="n">
-        <v>80.71442981080504</v>
+        <v>97.36518792223535</v>
       </c>
       <c r="L41" t="n">
-        <v>100.1333874384098</v>
+        <v>120.7901252363877</v>
       </c>
       <c r="M41" t="n">
-        <v>111.4176871634407</v>
+        <v>134.4022880909581</v>
       </c>
       <c r="N41" t="n">
-        <v>113.2205418253508</v>
+        <v>136.5770576255359</v>
       </c>
       <c r="O41" t="n">
-        <v>106.9109470891014</v>
+        <v>128.9658426464041</v>
       </c>
       <c r="P41" t="n">
-        <v>91.24601986836888</v>
+        <v>110.0693629684844</v>
       </c>
       <c r="Q41" t="n">
-        <v>68.52196088740757</v>
+        <v>82.65750763823623</v>
       </c>
       <c r="R41" t="n">
-        <v>39.85871329739086</v>
+        <v>48.08125535465831</v>
       </c>
       <c r="S41" t="n">
-        <v>14.45932269539004</v>
+        <v>17.44216833055581</v>
       </c>
       <c r="T41" t="n">
-        <v>2.777649373519247</v>
+        <v>3.350656801624049</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05076229580389255</v>
+        <v>0.06123416199427156</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3395027837874727</v>
+        <v>0.4095395633850371</v>
       </c>
       <c r="H42" t="n">
-        <v>3.278882148684277</v>
+        <v>3.955289993744964</v>
       </c>
       <c r="I42" t="n">
-        <v>11.6890212839108</v>
+        <v>14.10037531830062</v>
       </c>
       <c r="J42" t="n">
-        <v>32.07556783142961</v>
+        <v>38.69250760911002</v>
       </c>
       <c r="K42" t="n">
-        <v>54.82225434519028</v>
+        <v>66.1316583559075</v>
       </c>
       <c r="L42" t="n">
-        <v>73.71528645350368</v>
+        <v>88.92217581305378</v>
       </c>
       <c r="M42" t="n">
-        <v>86.02226236579955</v>
+        <v>103.7679849857614</v>
       </c>
       <c r="N42" t="n">
-        <v>88.29901568339187</v>
+        <v>106.5144147770584</v>
       </c>
       <c r="O42" t="n">
-        <v>80.77634873736417</v>
+        <v>97.43988024100047</v>
       </c>
       <c r="P42" t="n">
-        <v>64.83014123043417</v>
+        <v>78.20409434499011</v>
       </c>
       <c r="Q42" t="n">
-        <v>43.33723254101143</v>
+        <v>52.27736602086895</v>
       </c>
       <c r="R42" t="n">
-        <v>21.07895354076959</v>
+        <v>25.42737745297626</v>
       </c>
       <c r="S42" t="n">
-        <v>6.30611530412257</v>
+        <v>7.60701776726154</v>
       </c>
       <c r="T42" t="n">
-        <v>1.368434466231085</v>
+        <v>1.65073183662653</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02233570945970216</v>
+        <v>0.02694339232796298</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2846277292897564</v>
+        <v>0.343344212616446</v>
       </c>
       <c r="H43" t="n">
-        <v>2.530599265867108</v>
+        <v>3.052642181262586</v>
       </c>
       <c r="I43" t="n">
-        <v>8.559532077186494</v>
+        <v>10.32529686668367</v>
       </c>
       <c r="J43" t="n">
-        <v>20.12318046078577</v>
+        <v>24.27443583198274</v>
       </c>
       <c r="K43" t="n">
-        <v>33.06856709384623</v>
+        <v>39.89035488398346</v>
       </c>
       <c r="L43" t="n">
-        <v>42.3163807709516</v>
+        <v>51.04592048299418</v>
       </c>
       <c r="M43" t="n">
-        <v>44.61669032857517</v>
+        <v>53.82076598313981</v>
       </c>
       <c r="N43" t="n">
-        <v>43.55580515576793</v>
+        <v>52.54102846338764</v>
       </c>
       <c r="O43" t="n">
-        <v>40.23083577270121</v>
+        <v>48.53014379782277</v>
       </c>
       <c r="P43" t="n">
-        <v>34.42443009519015</v>
+        <v>41.52592186044724</v>
       </c>
       <c r="Q43" t="n">
-        <v>23.83369104079951</v>
+        <v>28.75039584009168</v>
       </c>
       <c r="R43" t="n">
-        <v>12.79789771879213</v>
+        <v>15.43800432364493</v>
       </c>
       <c r="S43" t="n">
-        <v>4.960285064076934</v>
+        <v>5.983553232597517</v>
       </c>
       <c r="T43" t="n">
-        <v>1.216136661510777</v>
+        <v>1.46701618117936</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01552514887035037</v>
+        <v>0.01872786614271526</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6345286975486569</v>
+        <v>0.7654270249283945</v>
       </c>
       <c r="H44" t="n">
-        <v>6.498367023770185</v>
+        <v>7.838929519047923</v>
       </c>
       <c r="I44" t="n">
-        <v>24.46266761224462</v>
+        <v>29.50912537855196</v>
       </c>
       <c r="J44" t="n">
-        <v>53.85483004357037</v>
+        <v>64.96466195701639</v>
       </c>
       <c r="K44" t="n">
-        <v>80.71442981080504</v>
+        <v>97.36518792223535</v>
       </c>
       <c r="L44" t="n">
-        <v>100.1333874384098</v>
+        <v>120.7901252363877</v>
       </c>
       <c r="M44" t="n">
-        <v>111.4176871634407</v>
+        <v>134.4022880909581</v>
       </c>
       <c r="N44" t="n">
-        <v>113.2205418253508</v>
+        <v>136.5770576255359</v>
       </c>
       <c r="O44" t="n">
-        <v>106.9109470891014</v>
+        <v>128.9658426464041</v>
       </c>
       <c r="P44" t="n">
-        <v>91.24601986836888</v>
+        <v>110.0693629684844</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.52196088740757</v>
+        <v>82.65750763823623</v>
       </c>
       <c r="R44" t="n">
-        <v>39.85871329739086</v>
+        <v>48.08125535465831</v>
       </c>
       <c r="S44" t="n">
-        <v>14.45932269539004</v>
+        <v>17.44216833055581</v>
       </c>
       <c r="T44" t="n">
-        <v>2.777649373519247</v>
+        <v>3.350656801624049</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05076229580389255</v>
+        <v>0.06123416199427156</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3395027837874727</v>
+        <v>0.4095395633850371</v>
       </c>
       <c r="H45" t="n">
-        <v>3.278882148684277</v>
+        <v>3.955289993744964</v>
       </c>
       <c r="I45" t="n">
-        <v>11.6890212839108</v>
+        <v>14.10037531830062</v>
       </c>
       <c r="J45" t="n">
-        <v>32.07556783142961</v>
+        <v>38.69250760911002</v>
       </c>
       <c r="K45" t="n">
-        <v>54.82225434519028</v>
+        <v>66.1316583559075</v>
       </c>
       <c r="L45" t="n">
-        <v>73.71528645350368</v>
+        <v>88.92217581305378</v>
       </c>
       <c r="M45" t="n">
-        <v>86.02226236579955</v>
+        <v>103.7679849857614</v>
       </c>
       <c r="N45" t="n">
-        <v>88.29901568339187</v>
+        <v>106.5144147770584</v>
       </c>
       <c r="O45" t="n">
-        <v>80.77634873736417</v>
+        <v>97.43988024100047</v>
       </c>
       <c r="P45" t="n">
-        <v>64.83014123043417</v>
+        <v>78.20409434499011</v>
       </c>
       <c r="Q45" t="n">
-        <v>43.33723254101143</v>
+        <v>52.27736602086895</v>
       </c>
       <c r="R45" t="n">
-        <v>21.07895354076959</v>
+        <v>25.42737745297626</v>
       </c>
       <c r="S45" t="n">
-        <v>6.30611530412257</v>
+        <v>7.60701776726154</v>
       </c>
       <c r="T45" t="n">
-        <v>1.368434466231085</v>
+        <v>1.65073183662653</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02233570945970216</v>
+        <v>0.02694339232796298</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2846277292897564</v>
+        <v>0.343344212616446</v>
       </c>
       <c r="H46" t="n">
-        <v>2.530599265867108</v>
+        <v>3.052642181262586</v>
       </c>
       <c r="I46" t="n">
-        <v>8.559532077186494</v>
+        <v>10.32529686668367</v>
       </c>
       <c r="J46" t="n">
-        <v>20.12318046078577</v>
+        <v>24.27443583198274</v>
       </c>
       <c r="K46" t="n">
-        <v>33.06856709384623</v>
+        <v>39.89035488398346</v>
       </c>
       <c r="L46" t="n">
-        <v>42.3163807709516</v>
+        <v>51.04592048299418</v>
       </c>
       <c r="M46" t="n">
-        <v>44.61669032857517</v>
+        <v>53.82076598313981</v>
       </c>
       <c r="N46" t="n">
-        <v>43.55580515576793</v>
+        <v>52.54102846338764</v>
       </c>
       <c r="O46" t="n">
-        <v>40.23083577270121</v>
+        <v>48.53014379782277</v>
       </c>
       <c r="P46" t="n">
-        <v>34.42443009519015</v>
+        <v>41.52592186044724</v>
       </c>
       <c r="Q46" t="n">
-        <v>23.83369104079951</v>
+        <v>28.75039584009168</v>
       </c>
       <c r="R46" t="n">
-        <v>12.79789771879213</v>
+        <v>15.43800432364493</v>
       </c>
       <c r="S46" t="n">
-        <v>4.960285064076934</v>
+        <v>5.983553232597517</v>
       </c>
       <c r="T46" t="n">
-        <v>1.216136661510777</v>
+        <v>1.46701618117936</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01552514887035037</v>
+        <v>0.01872786614271526</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
